--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5170E799-E9E4-4374-979B-CB5BA81EA963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAF14F-057D-4918-BEFC-79F5DBA22041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$12:$Y$12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Treatment</t>
   </si>
@@ -120,16 +133,73 @@
   </si>
   <si>
     <t>Exposed Students</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ONWash</t>
+  </si>
+  <si>
+    <t>ONWr</t>
+  </si>
+  <si>
+    <t>OFFWash</t>
+  </si>
+  <si>
+    <t>OFFWr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.136% [0.34%-2.20%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.129% [0.40%-2.10%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.173% [0.39%-2.18%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656% [0.14%-1.34%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.071% [0.33%-2.07%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675% [0.0%-1.49%]  </t>
+  </si>
+  <si>
+    <t>Intervention Illness Effectiveness (means)</t>
+  </si>
+  <si>
+    <t>Top 2.5th percentile</t>
+  </si>
+  <si>
+    <t>Bottom 2.5th Percentile</t>
+  </si>
+  <si>
+    <t>ST OFF,  Wrapp ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST OFF, Wash ON </t>
+  </si>
+  <si>
+    <t>ST ON,  Wrapp ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST ON, Wash ON </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +341,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +535,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -577,6 +672,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -622,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -633,7 +739,7 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -641,9 +747,6 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -663,11 +766,20 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1023,14 +1135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+      <selection activeCell="B11" sqref="B11:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,100 +1154,101 @@
     <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="11" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.28515625" style="1" customWidth="1"/>
     <col min="13" max="16" width="9.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="0.85546875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="1.140625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="10" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="22" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1169,7 +1282,7 @@
       <c r="K3" s="5">
         <v>0.22800000000000001</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="4">
         <v>0.82099296523103404</v>
       </c>
@@ -1182,8 +1295,8 @@
       <c r="P3" s="4">
         <v>6.7513538134521003E-2</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13">
         <f>SUM(N3:P3)</f>
         <v>0.17900703476896601</v>
       </c>
@@ -1194,7 +1307,7 @@
         <v>1.054</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1228,7 +1341,7 @@
       <c r="K4" s="5">
         <v>0.41099999999999998</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="4">
         <v>0.84747533372025496</v>
       </c>
@@ -1241,8 +1354,8 @@
       <c r="P4" s="4">
         <v>5.8386535113174702E-2</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13">
         <f>SUM(N4:P4)</f>
         <v>0.15252466627974462</v>
       </c>
@@ -1253,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1287,7 +1400,7 @@
       <c r="K5" s="5">
         <v>0.224</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="4">
         <v>0.82229702572347307</v>
       </c>
@@ -1300,8 +1413,8 @@
       <c r="P5" s="4">
         <v>6.3153135048231501E-2</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13">
         <f t="shared" ref="R5:R8" si="0">SUM(N5:P5)</f>
         <v>0.17770297427652729</v>
       </c>
@@ -1312,7 +1425,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1346,7 +1459,7 @@
       <c r="K6" s="5">
         <v>0.224</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="4">
         <v>0.85645884784033099</v>
       </c>
@@ -1359,8 +1472,8 @@
       <c r="P6" s="4">
         <v>3.92117332795726E-2</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13">
         <f t="shared" si="0"/>
         <v>0.14354115215966939</v>
       </c>
@@ -1371,7 +1484,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1405,7 +1518,7 @@
       <c r="K7" s="5">
         <v>0.41099999999999998</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="4">
         <v>0.8440631118277091</v>
       </c>
@@ -1418,8 +1531,8 @@
       <c r="P7" s="4">
         <v>6.1844984452378203E-2</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13">
         <f t="shared" si="0"/>
         <v>0.15593688817229071</v>
       </c>
@@ -1430,7 +1543,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1464,7 +1577,7 @@
       <c r="K8" s="5">
         <v>0.41199999999999998</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="4">
         <v>0.87608404633024806</v>
       </c>
@@ -1477,8 +1590,8 @@
       <c r="P8" s="4">
         <v>3.6086374483441E-2</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13">
         <f t="shared" si="0"/>
         <v>0.1239159536697514</v>
       </c>
@@ -1489,59 +1602,1168 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="24" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-    </row>
-    <row r="25" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-    </row>
-    <row r="26" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" spans="13:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E13" s="3">
+        <v>57468</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.3536492</v>
+      </c>
+      <c r="G13" s="3">
+        <v>98050</v>
+      </c>
+      <c r="H13" s="3">
+        <v>57468</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40582</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.58610909999999994</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.41389090000000001</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="4">
+        <v>0.84036330000000004</v>
+      </c>
+      <c r="N13" s="4">
+        <v>6.5740930000000003E-2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>3.4854179999999998E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.9041550000000005E-2</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13">
+        <f>SUM(N13:P13)</f>
+        <v>0.15963666000000001</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>57587</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.35438150000000002</v>
+      </c>
+      <c r="G14" s="3">
+        <v>97827</v>
+      </c>
+      <c r="H14" s="3">
+        <v>57587</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40240</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.58866160000000001</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.41133839999999999</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="4">
+        <v>0.84645840000000006</v>
+      </c>
+      <c r="N14" s="4">
+        <v>6.3295539999999997E-2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>3.4104920000000004E-2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>5.6141139999999999E-2</v>
+      </c>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13">
+        <f>SUM(N14:P14)</f>
+        <v>0.1535416</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0.94335561456596306</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0.94231515936299215</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.97401870858040418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>57407</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.35327379999999997</v>
+      </c>
+      <c r="G15" s="3">
+        <v>98013</v>
+      </c>
+      <c r="H15" s="3">
+        <v>57407</v>
+      </c>
+      <c r="I15" s="3">
+        <v>40606</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.58570800000000001</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.41429199999999999</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="4">
+        <v>0.8767919999999999</v>
+      </c>
+      <c r="N15" s="4">
+        <v>6.3232709999999998E-2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2.4596300000000001E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3.5378960000000001E-2</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13">
+        <f>SUM(N15:P15)</f>
+        <v>0.12320797</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0.58635564045321353</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0.67631871420409573</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E16" s="3">
+        <v>65941</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.40579079999999995</v>
+      </c>
+      <c r="G16" s="3">
+        <v>91095</v>
+      </c>
+      <c r="H16" s="3">
+        <v>70664</v>
+      </c>
+      <c r="I16" s="3">
+        <v>20431</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.77571769999999995</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.22428229999999999</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="4">
+        <v>0.8150771</v>
+      </c>
+      <c r="N16" s="4">
+        <v>7.8858370000000011E-2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>3.8913570000000001E-2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>6.7150939999999992E-2</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13">
+        <f>SUM(N16:P16)</f>
+        <v>0.18492288000000001</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1.0327111822883308</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0.99069289498448443</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1.1749659105642232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>66238</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.40761850000000005</v>
+      </c>
+      <c r="G17" s="3">
+        <v>91199</v>
+      </c>
+      <c r="H17" s="3">
+        <v>70925</v>
+      </c>
+      <c r="I17" s="3">
+        <v>20274</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.77769490000000008</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.22230509999999998</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="4">
+        <v>0.82072220000000007</v>
+      </c>
+      <c r="N17" s="4">
+        <v>7.8429299999999993E-2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3.6897249999999999E-2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>6.3951209999999994E-2</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13">
+        <f>SUM(N17:P17)</f>
+        <v>0.17927776000000001</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0.99333869980140765</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.97930797945387027</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1.2165295389618034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3">
+        <v>162500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>65721</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.40443689999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>90809</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70153</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20656</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.77253360000000004</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.22746639999999999</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="4">
+        <v>0.86576589999999998</v>
+      </c>
+      <c r="N18" s="4">
+        <v>6.9886340000000005E-2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.7388509999999998E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>3.6959270000000002E-2</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13">
+        <f>SUM(N18:P18)</f>
+        <v>0.13423412000000001</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0.57718468580714766</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.6058978828171051</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.41802217191805424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="16">
+        <v>100</v>
+      </c>
+      <c r="E21" s="16">
+        <v>162500</v>
+      </c>
+      <c r="F21" s="16">
+        <v>65941</v>
+      </c>
+      <c r="G21" s="16">
+        <v>40.579079999999998</v>
+      </c>
+      <c r="H21" s="16">
+        <v>91095</v>
+      </c>
+      <c r="I21" s="16">
+        <v>70664</v>
+      </c>
+      <c r="J21" s="16">
+        <v>20431</v>
+      </c>
+      <c r="K21" s="16">
+        <v>77.571770000000001</v>
+      </c>
+      <c r="L21" s="16">
+        <v>22.428229999999999</v>
+      </c>
+      <c r="M21" s="16">
+        <v>81.507710000000003</v>
+      </c>
+      <c r="N21" s="16">
+        <v>7.8858370000000004</v>
+      </c>
+      <c r="O21" s="16">
+        <v>3.8913570000000002</v>
+      </c>
+      <c r="P21" s="16">
+        <v>6.7150939999999997</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>1.1728441000000001</v>
+      </c>
+      <c r="R21" s="16">
+        <v>2.1865890000000001</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0.39421810000000002</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.0327111822883308</v>
+      </c>
+      <c r="U21" s="1">
+        <f>R21/$R$22</f>
+        <v>0.99069289498448443</v>
+      </c>
+      <c r="V21" s="1">
+        <f>S21/$S$22</f>
+        <v>1.1749659105642232</v>
+      </c>
+      <c r="W21" s="1">
+        <v>100</v>
+      </c>
+      <c r="X21" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16">
+        <v>2</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="16">
+        <v>100</v>
+      </c>
+      <c r="E22" s="16">
+        <v>162500</v>
+      </c>
+      <c r="F22" s="16">
+        <v>57468</v>
+      </c>
+      <c r="G22" s="16">
+        <v>35.364919999999998</v>
+      </c>
+      <c r="H22" s="16">
+        <v>98050</v>
+      </c>
+      <c r="I22" s="16">
+        <v>57468</v>
+      </c>
+      <c r="J22" s="16">
+        <v>40582</v>
+      </c>
+      <c r="K22" s="16">
+        <v>58.610909999999997</v>
+      </c>
+      <c r="L22" s="16">
+        <v>41.389090000000003</v>
+      </c>
+      <c r="M22" s="16">
+        <v>84.036330000000007</v>
+      </c>
+      <c r="N22" s="16">
+        <v>6.5740930000000004</v>
+      </c>
+      <c r="O22" s="16">
+        <v>3.4854180000000001</v>
+      </c>
+      <c r="P22" s="16">
+        <v>5.9041550000000003</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>1.1356942000000001</v>
+      </c>
+      <c r="R22" s="16">
+        <v>2.207131</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0.33551449999999999</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" ref="U22:U26" si="1">R22/$R$22</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" ref="V22:V26" si="2">S22/$S$22</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>100</v>
+      </c>
+      <c r="X22" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>3</v>
+      </c>
+      <c r="B23" s="16">
+        <v>3</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="16">
+        <v>100</v>
+      </c>
+      <c r="E23" s="16">
+        <v>162500</v>
+      </c>
+      <c r="F23" s="16">
+        <v>66238</v>
+      </c>
+      <c r="G23" s="16">
+        <v>40.761850000000003</v>
+      </c>
+      <c r="H23" s="16">
+        <v>91199</v>
+      </c>
+      <c r="I23" s="16">
+        <v>70925</v>
+      </c>
+      <c r="J23" s="16">
+        <v>20274</v>
+      </c>
+      <c r="K23" s="16">
+        <v>77.769490000000005</v>
+      </c>
+      <c r="L23" s="16">
+        <v>22.230509999999999</v>
+      </c>
+      <c r="M23" s="16">
+        <v>82.072220000000002</v>
+      </c>
+      <c r="N23" s="16">
+        <v>7.84293</v>
+      </c>
+      <c r="O23" s="16">
+        <v>3.6897250000000001</v>
+      </c>
+      <c r="P23" s="16">
+        <v>6.3951209999999996</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>1.1281289999999999</v>
+      </c>
+      <c r="R23" s="16">
+        <v>2.1614610000000001</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0.40816330000000001</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.99333869980140765</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97930797945387027</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2165295389618034</v>
+      </c>
+      <c r="W23" s="1">
+        <v>100</v>
+      </c>
+      <c r="X23" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>4</v>
+      </c>
+      <c r="B24" s="16">
+        <v>4</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="16">
+        <v>100</v>
+      </c>
+      <c r="E24" s="16">
+        <v>162500</v>
+      </c>
+      <c r="F24" s="16">
+        <v>65721</v>
+      </c>
+      <c r="G24" s="16">
+        <v>40.443689999999997</v>
+      </c>
+      <c r="H24" s="16">
+        <v>90809</v>
+      </c>
+      <c r="I24" s="16">
+        <v>70153</v>
+      </c>
+      <c r="J24" s="16">
+        <v>20656</v>
+      </c>
+      <c r="K24" s="16">
+        <v>77.253360000000001</v>
+      </c>
+      <c r="L24" s="16">
+        <v>22.746639999999999</v>
+      </c>
+      <c r="M24" s="16">
+        <v>86.576589999999996</v>
+      </c>
+      <c r="N24" s="16">
+        <v>6.9886340000000002</v>
+      </c>
+      <c r="O24" s="16">
+        <v>2.7388509999999999</v>
+      </c>
+      <c r="P24" s="16">
+        <v>3.6959270000000002</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0.65550529999999996</v>
+      </c>
+      <c r="R24" s="16">
+        <v>1.337296</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0.1402525</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.57718468580714766</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6058978828171051</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41802217191805424</v>
+      </c>
+      <c r="W24" s="1">
+        <v>100</v>
+      </c>
+      <c r="X24" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>5</v>
+      </c>
+      <c r="B25" s="16">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="16">
+        <v>100</v>
+      </c>
+      <c r="E25" s="16">
+        <v>162500</v>
+      </c>
+      <c r="F25" s="16">
+        <v>57587</v>
+      </c>
+      <c r="G25" s="16">
+        <v>35.43815</v>
+      </c>
+      <c r="H25" s="16">
+        <v>97827</v>
+      </c>
+      <c r="I25" s="16">
+        <v>57587</v>
+      </c>
+      <c r="J25" s="16">
+        <v>40240</v>
+      </c>
+      <c r="K25" s="16">
+        <v>58.866160000000001</v>
+      </c>
+      <c r="L25" s="16">
+        <v>41.133839999999999</v>
+      </c>
+      <c r="M25" s="16">
+        <v>84.645840000000007</v>
+      </c>
+      <c r="N25" s="16">
+        <v>6.3295539999999999</v>
+      </c>
+      <c r="O25" s="16">
+        <v>3.4104920000000001</v>
+      </c>
+      <c r="P25" s="16">
+        <v>5.6141139999999998</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>1.0713634999999999</v>
+      </c>
+      <c r="R25" s="16">
+        <v>2.0798130000000001</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0.32679740000000002</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.94335561456596306</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94231515936299215</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.97401870858040418</v>
+      </c>
+      <c r="W25" s="1">
+        <v>100</v>
+      </c>
+      <c r="X25" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>6</v>
+      </c>
+      <c r="B26" s="16">
+        <v>6</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="16">
+        <v>100</v>
+      </c>
+      <c r="E26" s="16">
+        <v>162500</v>
+      </c>
+      <c r="F26" s="16">
+        <v>57407</v>
+      </c>
+      <c r="G26" s="16">
+        <v>35.327379999999998</v>
+      </c>
+      <c r="H26" s="16">
+        <v>98013</v>
+      </c>
+      <c r="I26" s="16">
+        <v>57407</v>
+      </c>
+      <c r="J26" s="16">
+        <v>40606</v>
+      </c>
+      <c r="K26" s="16">
+        <v>58.570799999999998</v>
+      </c>
+      <c r="L26" s="16">
+        <v>41.429200000000002</v>
+      </c>
+      <c r="M26" s="16">
+        <v>87.679199999999994</v>
+      </c>
+      <c r="N26" s="16">
+        <v>6.3232710000000001</v>
+      </c>
+      <c r="O26" s="16">
+        <v>2.4596300000000002</v>
+      </c>
+      <c r="P26" s="16">
+        <v>3.5378959999999999</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>0.66592070000000003</v>
+      </c>
+      <c r="R26" s="16">
+        <v>1.4927239999999999</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.58635564045321353</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67631871420409573</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>100</v>
+      </c>
+      <c r="X26" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" spans="13:18" x14ac:dyDescent="0.2">
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <f>G21/W21</f>
+        <v>0.40579079999999995</v>
+      </c>
+      <c r="K28" s="16">
+        <f>K21/W21</f>
+        <v>0.77571769999999995</v>
+      </c>
+      <c r="L28" s="1">
+        <f>L21/W21</f>
+        <v>0.22428229999999999</v>
+      </c>
+      <c r="M28" s="6">
+        <f>M21/W21</f>
+        <v>0.8150771</v>
+      </c>
+      <c r="N28" s="6">
+        <f>N21/W21</f>
+        <v>7.8858370000000011E-2</v>
+      </c>
+      <c r="O28" s="6">
+        <f>O21/X21</f>
+        <v>3.8913570000000001E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <f>P21/Y21</f>
+        <v>6.7150939999999992E-2</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f>G22/W22</f>
+        <v>0.3536492</v>
+      </c>
+      <c r="K29" s="16">
+        <f>K22/W22</f>
+        <v>0.58610909999999994</v>
+      </c>
+      <c r="L29" s="1">
+        <f>L22/W22</f>
+        <v>0.41389090000000001</v>
+      </c>
+      <c r="M29" s="6">
+        <f>M22/W22</f>
+        <v>0.84036330000000004</v>
+      </c>
+      <c r="N29" s="6">
+        <f>N22/W22</f>
+        <v>6.5740930000000003E-2</v>
+      </c>
+      <c r="O29" s="6">
+        <f>O22/X22</f>
+        <v>3.4854179999999998E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <f>P22/Y22</f>
+        <v>5.9041550000000005E-2</v>
+      </c>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <f>G23/W23</f>
+        <v>0.40761850000000005</v>
+      </c>
+      <c r="K30" s="16">
+        <f>K23/W23</f>
+        <v>0.77769490000000008</v>
+      </c>
+      <c r="L30" s="1">
+        <f>L23/W23</f>
+        <v>0.22230509999999998</v>
+      </c>
+      <c r="M30" s="6">
+        <f>M23/W23</f>
+        <v>0.82072220000000007</v>
+      </c>
+      <c r="N30" s="6">
+        <f>N23/W23</f>
+        <v>7.8429299999999993E-2</v>
+      </c>
+      <c r="O30" s="6">
+        <f>O23/X23</f>
+        <v>3.6897249999999999E-2</v>
+      </c>
+      <c r="P30" s="6">
+        <f>P23/Y23</f>
+        <v>6.3951209999999994E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <f>G24/W24</f>
+        <v>0.40443689999999999</v>
+      </c>
+      <c r="K31" s="16">
+        <f>K24/W24</f>
+        <v>0.77253360000000004</v>
+      </c>
+      <c r="L31" s="1">
+        <f>L24/W24</f>
+        <v>0.22746639999999999</v>
+      </c>
+      <c r="M31" s="6">
+        <f>M24/W24</f>
+        <v>0.86576589999999998</v>
+      </c>
+      <c r="N31" s="6">
+        <f>N24/W24</f>
+        <v>6.9886340000000005E-2</v>
+      </c>
+      <c r="O31" s="6">
+        <f>O24/X24</f>
+        <v>2.7388509999999998E-2</v>
+      </c>
+      <c r="P31" s="6">
+        <f>P24/Y24</f>
+        <v>3.6959270000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <f>G25/W25</f>
+        <v>0.35438150000000002</v>
+      </c>
+      <c r="K32" s="16">
+        <f>K25/W25</f>
+        <v>0.58866160000000001</v>
+      </c>
+      <c r="L32" s="1">
+        <f>L25/W25</f>
+        <v>0.41133839999999999</v>
+      </c>
+      <c r="M32" s="6">
+        <f>M25/W25</f>
+        <v>0.84645840000000006</v>
+      </c>
+      <c r="N32" s="6">
+        <f>N25/W25</f>
+        <v>6.3295539999999997E-2</v>
+      </c>
+      <c r="O32" s="6">
+        <f>O25/X25</f>
+        <v>3.4104920000000004E-2</v>
+      </c>
+      <c r="P32" s="6">
+        <f>P25/Y25</f>
+        <v>5.6141139999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <f>G26/W26</f>
+        <v>0.35327379999999997</v>
+      </c>
+      <c r="K33" s="16">
+        <f>K26/W26</f>
+        <v>0.58570800000000001</v>
+      </c>
+      <c r="L33" s="1">
+        <f>L26/W26</f>
+        <v>0.41429199999999999</v>
+      </c>
+      <c r="M33" s="6">
+        <f>M26/W26</f>
+        <v>0.8767919999999999</v>
+      </c>
+      <c r="N33" s="6">
+        <f>N26/W26</f>
+        <v>6.3232709999999998E-2</v>
+      </c>
+      <c r="O33" s="6">
+        <f>O26/X26</f>
+        <v>2.4596300000000001E-2</v>
+      </c>
+      <c r="P33" s="6">
+        <f>P26/Y26</f>
+        <v>3.5378960000000001E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="A12:Y12" xr:uid="{30BA0471-5028-47C3-A6EB-F4ABB78D3DBA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:Y18">
+      <sortCondition ref="A12"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="6">
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="R11:V11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\Share-Table-QMRA\R\Dose Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDE3E5-5E69-4B67-8F25-676D6E246988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>Treatment</t>
   </si>
@@ -217,12 +220,33 @@
   </si>
   <si>
     <t>1.106% [0.29%-2.08%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.087% [0.33%-2.15%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.087% [0.33%-2.09%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664% [0.0%-1.47%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.429% [0.55%-2.58%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21% [0.41%-2.21%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.672% [0.14%-1.42%]  </t>
+  </si>
+  <si>
+    <t>1.122% [0.41%-2.25%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -755,7 +779,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -810,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1165,14 +1192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:V11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,26 +1229,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="R3" s="17" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="R3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -2343,7 +2370,7 @@
         <v>0.3536492</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" ref="K22:K28" si="7">K15/W15</f>
+        <f t="shared" ref="K23:K28" si="7">K15/W15</f>
         <v>0.58610909999999994</v>
       </c>
       <c r="L23" s="1">
@@ -2520,8 +2547,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y4">
-    <sortState ref="A13:Y18">
+  <autoFilter ref="A4:Y4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:Y18">
       <sortCondition ref="A12"/>
     </sortState>
   </autoFilter>
@@ -2536,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2996,4 +3023,1388 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9BC4C0-B976-4730-9FD2-E5CDC18245F1}">
+  <dimension ref="A1:AO17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="19" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>162500</v>
+      </c>
+      <c r="E2">
+        <v>57422</v>
+      </c>
+      <c r="F2">
+        <v>35.336615384615399</v>
+      </c>
+      <c r="G2">
+        <v>97579</v>
+      </c>
+      <c r="H2">
+        <v>57422</v>
+      </c>
+      <c r="I2">
+        <v>40157</v>
+      </c>
+      <c r="J2">
+        <v>58.846678076225402</v>
+      </c>
+      <c r="K2">
+        <v>41.153321923774598</v>
+      </c>
+      <c r="L2">
+        <v>84.462401170283201</v>
+      </c>
+      <c r="M2">
+        <v>6.3912786040193597</v>
+      </c>
+      <c r="N2">
+        <v>3.4481557591167098</v>
+      </c>
+      <c r="O2">
+        <v>5.6981644665807503</v>
+      </c>
+      <c r="P2">
+        <v>1.08724437021679</v>
+      </c>
+      <c r="Q2">
+        <v>2.15449543417331</v>
+      </c>
+      <c r="R2">
+        <v>0.330578512396694</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="2">
+        <f>C2</f>
+        <v>100</v>
+      </c>
+      <c r="W2" s="3">
+        <f>D2</f>
+        <v>162500</v>
+      </c>
+      <c r="X2" s="3">
+        <f>E2</f>
+        <v>57422</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>F11</f>
+        <v>0.353366153846154</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>G2</f>
+        <v>97579</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>H2</f>
+        <v>57422</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>I2</f>
+        <v>40157</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>J11</f>
+        <v>0.588466780762254</v>
+      </c>
+      <c r="AD2" s="5">
+        <f>K11</f>
+        <v>0.411533219237746</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="4">
+        <f>L11</f>
+        <v>0.84462401170283197</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" ref="AG2:AI8" si="0">M11</f>
+        <v>6.3912786040193598E-2</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4481557591167097E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>5.6981644665807504E-2</v>
+      </c>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13">
+        <f t="shared" ref="AK2:AK8" si="1">SUM(AG2:AI2)</f>
+        <v>0.1553759882971682</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="4">
+        <f>P11</f>
+        <v>1</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" ref="AN2:AO8" si="2">Q11</f>
+        <v>1.9816110280191348</v>
+      </c>
+      <c r="AO2" s="4">
+        <f t="shared" si="2"/>
+        <v>0.30405171224825805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>162500</v>
+      </c>
+      <c r="E3">
+        <v>57751</v>
+      </c>
+      <c r="F3">
+        <v>35.539076923076898</v>
+      </c>
+      <c r="G3">
+        <v>98266</v>
+      </c>
+      <c r="H3">
+        <v>57751</v>
+      </c>
+      <c r="I3">
+        <v>40515</v>
+      </c>
+      <c r="J3">
+        <v>58.770073066981503</v>
+      </c>
+      <c r="K3">
+        <v>41.229926933018497</v>
+      </c>
+      <c r="L3">
+        <v>84.540527436754303</v>
+      </c>
+      <c r="M3">
+        <v>6.48819933853959</v>
+      </c>
+      <c r="N3">
+        <v>3.20340773319943</v>
+      </c>
+      <c r="O3">
+        <v>5.7678654915066403</v>
+      </c>
+      <c r="P3">
+        <v>1.08746638895009</v>
+      </c>
+      <c r="Q3">
+        <v>2.09424083769634</v>
+      </c>
+      <c r="R3">
+        <v>0.330551281876727</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="2">
+        <f>C3</f>
+        <v>100</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3:W8" si="3">D3</f>
+        <v>162500</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X8" si="4">E3</f>
+        <v>57751</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Y8" si="5">F12</f>
+        <v>0.35539076923076895</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z8" si="6">G3</f>
+        <v>98266</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3:AA8" si="7">H3</f>
+        <v>57751</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" ref="AB3:AB8" si="8">I3</f>
+        <v>40515</v>
+      </c>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC8" si="9">J12</f>
+        <v>0.58770073066981499</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" ref="AD3:AD8" si="10">K12</f>
+        <v>0.41229926933018496</v>
+      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="4">
+        <f t="shared" ref="AF3:AF8" si="11">L12</f>
+        <v>0.84540527436754298</v>
+      </c>
+      <c r="AG3" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4881993385395895E-2</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2034077331994301E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="0"/>
+        <v>5.76786549150664E-2</v>
+      </c>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1545947256324566</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="4">
+        <f t="shared" ref="AM3:AM8" si="12">P12</f>
+        <v>1.0002042031574334</v>
+      </c>
+      <c r="AN3" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9261914754994416</v>
+      </c>
+      <c r="AO3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.30402666680243839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>162500</v>
+      </c>
+      <c r="E4">
+        <v>57574</v>
+      </c>
+      <c r="F4">
+        <v>35.4301538461538</v>
+      </c>
+      <c r="G4">
+        <v>97831</v>
+      </c>
+      <c r="H4">
+        <v>57574</v>
+      </c>
+      <c r="I4">
+        <v>40257</v>
+      </c>
+      <c r="J4">
+        <v>58.850466621009701</v>
+      </c>
+      <c r="K4">
+        <v>41.149533378990299</v>
+      </c>
+      <c r="L4">
+        <v>87.678465974224494</v>
+      </c>
+      <c r="M4">
+        <v>6.3275089450098996</v>
+      </c>
+      <c r="N4">
+        <v>2.4698648695591801</v>
+      </c>
+      <c r="O4">
+        <v>3.5241602112064498</v>
+      </c>
+      <c r="P4">
+        <v>0.66472583023154297</v>
+      </c>
+      <c r="Q4">
+        <v>1.4734706673451601</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="2">
+        <f>C4</f>
+        <v>100</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="4"/>
+        <v>57574</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="5"/>
+        <v>0.354301538461538</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="6"/>
+        <v>97831</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="7"/>
+        <v>57574</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="8"/>
+        <v>40257</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" si="9"/>
+        <v>0.588504666210097</v>
+      </c>
+      <c r="AD4" s="5">
+        <f t="shared" si="10"/>
+        <v>0.411495333789903</v>
+      </c>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="4">
+        <f t="shared" si="11"/>
+        <v>0.87678465974224495</v>
+      </c>
+      <c r="AG4" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3275089450098992E-2</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.46986486955918E-2</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.52416021120645E-2</v>
+      </c>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1232153402577553</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM4" s="4">
+        <f t="shared" si="12"/>
+        <v>0.61138585624407571</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.355234120045486</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>162500</v>
+      </c>
+      <c r="E5">
+        <v>65896</v>
+      </c>
+      <c r="F5">
+        <v>40.551384615384599</v>
+      </c>
+      <c r="G5">
+        <v>91211</v>
+      </c>
+      <c r="H5">
+        <v>70632</v>
+      </c>
+      <c r="I5">
+        <v>20579</v>
+      </c>
+      <c r="J5">
+        <v>77.4380283079892</v>
+      </c>
+      <c r="K5">
+        <v>22.5619716920108</v>
+      </c>
+      <c r="L5">
+        <v>77.701226174578096</v>
+      </c>
+      <c r="M5">
+        <v>9.3753793856986807</v>
+      </c>
+      <c r="N5">
+        <v>4.7286633483064202</v>
+      </c>
+      <c r="O5">
+        <v>8.1947310914167808</v>
+      </c>
+      <c r="P5">
+        <v>1.4285994712165799</v>
+      </c>
+      <c r="Q5">
+        <v>2.57966616084977</v>
+      </c>
+      <c r="R5">
+        <v>0.55020632737276498</v>
+      </c>
+      <c r="T5" s="2">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="2">
+        <f>C5</f>
+        <v>100</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="4"/>
+        <v>65896</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="5"/>
+        <v>0.405513846153846</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="6"/>
+        <v>91211</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="7"/>
+        <v>70632</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="8"/>
+        <v>20579</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="9"/>
+        <v>0.77438028307989204</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="10"/>
+        <v>0.22561971692010802</v>
+      </c>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.77701226174578097</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3753793856986803E-2</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7286633483064201E-2</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1947310914167806E-2</v>
+      </c>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.2229877382542188</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM5" s="4">
+        <f t="shared" si="12"/>
+        <v>1.3139635489045813</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3726645375366719</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.50605580718073262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>162500</v>
+      </c>
+      <c r="E6">
+        <v>66263</v>
+      </c>
+      <c r="F6">
+        <v>40.777230769230798</v>
+      </c>
+      <c r="G6">
+        <v>91582</v>
+      </c>
+      <c r="H6">
+        <v>70918</v>
+      </c>
+      <c r="I6">
+        <v>20664</v>
+      </c>
+      <c r="J6">
+        <v>77.436614181826101</v>
+      </c>
+      <c r="K6">
+        <v>22.563385818173899</v>
+      </c>
+      <c r="L6">
+        <v>79.320284321567101</v>
+      </c>
+      <c r="M6">
+        <v>9.5452967719541792</v>
+      </c>
+      <c r="N6">
+        <v>4.2587869550126003</v>
+      </c>
+      <c r="O6">
+        <v>6.8756319514661302</v>
+      </c>
+      <c r="P6">
+        <v>1.2099024292621501</v>
+      </c>
+      <c r="Q6">
+        <v>2.21606648199446</v>
+      </c>
+      <c r="R6">
+        <v>0.40927694406548398</v>
+      </c>
+      <c r="T6" s="2">
+        <v>5</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="2">
+        <f>C6</f>
+        <v>100</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="4"/>
+        <v>66263</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="5"/>
+        <v>0.40777230769230799</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="6"/>
+        <v>91582</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="7"/>
+        <v>70918</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="8"/>
+        <v>20664</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="9"/>
+        <v>0.77436614181826102</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" si="10"/>
+        <v>0.22563385818173898</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="4">
+        <f t="shared" si="11"/>
+        <v>0.79320284321567103</v>
+      </c>
+      <c r="AG6" s="4">
+        <f t="shared" si="0"/>
+        <v>9.5452967719541787E-2</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2587869550126001E-2</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8756319514661296E-2</v>
+      </c>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20679715678432908</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM6" s="4">
+        <f t="shared" si="12"/>
+        <v>1.1128155384432139</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0382413951268283</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37643510077120623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>162500</v>
+      </c>
+      <c r="E7">
+        <v>65930</v>
+      </c>
+      <c r="F7">
+        <v>40.572307692307703</v>
+      </c>
+      <c r="G7">
+        <v>91002</v>
+      </c>
+      <c r="H7">
+        <v>70516</v>
+      </c>
+      <c r="I7">
+        <v>20486</v>
+      </c>
+      <c r="J7">
+        <v>77.488406848201095</v>
+      </c>
+      <c r="K7">
+        <v>22.511593151798898</v>
+      </c>
+      <c r="L7">
+        <v>85.028060063703904</v>
+      </c>
+      <c r="M7">
+        <v>8.0828151069315908</v>
+      </c>
+      <c r="N7">
+        <v>3.0077354770210798</v>
+      </c>
+      <c r="O7">
+        <v>3.88138935234339</v>
+      </c>
+      <c r="P7">
+        <v>0.671996673947999</v>
+      </c>
+      <c r="Q7">
+        <v>1.42450142450142</v>
+      </c>
+      <c r="R7">
+        <v>0.13888888888888901</v>
+      </c>
+      <c r="T7" s="2">
+        <v>6</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="2">
+        <f>C7</f>
+        <v>100</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="4"/>
+        <v>65930</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="5"/>
+        <v>0.40572307692307702</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="6"/>
+        <v>91002</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="7"/>
+        <v>70516</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="8"/>
+        <v>20486</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="9"/>
+        <v>0.77488406848201097</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="10"/>
+        <v>0.22511593151798898</v>
+      </c>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="4">
+        <f t="shared" si="11"/>
+        <v>0.85028060063703903</v>
+      </c>
+      <c r="AG7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0828151069315901E-2</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0077354770210799E-2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8813893523433902E-2</v>
+      </c>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.14971939936296061</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.61807326150054642</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3101943440897128</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12774394854874752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>162500</v>
+      </c>
+      <c r="E8">
+        <v>65762</v>
+      </c>
+      <c r="F8">
+        <v>40.468923076923097</v>
+      </c>
+      <c r="G8">
+        <v>91276</v>
+      </c>
+      <c r="H8">
+        <v>70409</v>
+      </c>
+      <c r="I8">
+        <v>20867</v>
+      </c>
+      <c r="J8">
+        <v>77.138568736579202</v>
+      </c>
+      <c r="K8">
+        <v>22.861431263420801</v>
+      </c>
+      <c r="L8">
+        <v>79.886560627718097</v>
+      </c>
+      <c r="M8">
+        <v>8.7999148444390407</v>
+      </c>
+      <c r="N8">
+        <v>4.3505367841610703</v>
+      </c>
+      <c r="O8">
+        <v>6.9629877436817598</v>
+      </c>
+      <c r="P8">
+        <v>1.2168308429513099</v>
+      </c>
+      <c r="Q8">
+        <v>2.2591373272439101</v>
+      </c>
+      <c r="R8">
+        <v>0.41958041958042003</v>
+      </c>
+      <c r="T8" s="2">
+        <v>7</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="2">
+        <f>C8</f>
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="3"/>
+        <v>162500</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="4"/>
+        <v>65762</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="5"/>
+        <v>0.40468923076923097</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="6"/>
+        <v>91276</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="7"/>
+        <v>70409</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="8"/>
+        <v>20867</v>
+      </c>
+      <c r="AC8" s="4">
+        <f t="shared" si="9"/>
+        <v>0.77138568736579205</v>
+      </c>
+      <c r="AD8" s="5">
+        <f t="shared" si="10"/>
+        <v>0.22861431263420801</v>
+      </c>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="4">
+        <f t="shared" si="11"/>
+        <v>0.79886560627718095</v>
+      </c>
+      <c r="AG8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7999148444390413E-2</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3505367841610701E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9629877436817603E-2</v>
+      </c>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20113439372281872</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" s="4">
+        <f t="shared" si="12"/>
+        <v>1.1191879914804077</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0778560819712055</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.38591178862278974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f>F2/$A$11</f>
+        <v>0.353366153846154</v>
+      </c>
+      <c r="J11">
+        <f>J2/$A$11</f>
+        <v>0.588466780762254</v>
+      </c>
+      <c r="K11">
+        <f>K2/$A$11</f>
+        <v>0.411533219237746</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:O11" si="13">L2/$A$11</f>
+        <v>0.84462401170283197</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="13"/>
+        <v>6.3912786040193598E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="13"/>
+        <v>3.4481557591167097E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="13"/>
+        <v>5.6981644665807504E-2</v>
+      </c>
+      <c r="P11">
+        <f>P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:R11" si="14">Q2/$P$2</f>
+        <v>1.9816110280191348</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="14"/>
+        <v>0.30405171224825805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" ref="F12:F17" si="15">F3/$A$11</f>
+        <v>0.35539076923076895</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:O17" si="16">J3/$A$11</f>
+        <v>0.58770073066981499</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="16"/>
+        <v>0.41229926933018496</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="16"/>
+        <v>0.84540527436754298</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="16"/>
+        <v>6.4881993385395895E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="16"/>
+        <v>3.2034077331994301E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="16"/>
+        <v>5.76786549150664E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:R17" si="17">P3/$P$2</f>
+        <v>1.0002042031574334</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="17"/>
+        <v>1.9261914754994416</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="17"/>
+        <v>0.30402666680243839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="15"/>
+        <v>0.354301538461538</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="16"/>
+        <v>0.588504666210097</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="16"/>
+        <v>0.411495333789903</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="16"/>
+        <v>0.87678465974224495</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="16"/>
+        <v>6.3275089450098992E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="16"/>
+        <v>2.46986486955918E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="16"/>
+        <v>3.52416021120645E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="17"/>
+        <v>0.61138585624407571</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="17"/>
+        <v>1.355234120045486</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="15"/>
+        <v>0.405513846153846</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="16"/>
+        <v>0.77438028307989204</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="16"/>
+        <v>0.22561971692010802</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="16"/>
+        <v>0.77701226174578097</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="16"/>
+        <v>9.3753793856986803E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="16"/>
+        <v>4.7286633483064201E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="16"/>
+        <v>8.1947310914167806E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="17"/>
+        <v>1.3139635489045813</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="17"/>
+        <v>2.3726645375366719</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="17"/>
+        <v>0.50605580718073262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="15"/>
+        <v>0.40777230769230799</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="16"/>
+        <v>0.77436614181826102</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="16"/>
+        <v>0.22563385818173898</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="16"/>
+        <v>0.79320284321567103</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="16"/>
+        <v>9.5452967719541787E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="16"/>
+        <v>4.2587869550126001E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="16"/>
+        <v>6.8756319514661296E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="17"/>
+        <v>1.1128155384432139</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="17"/>
+        <v>2.0382413951268283</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="17"/>
+        <v>0.37643510077120623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="15"/>
+        <v>0.40572307692307702</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="16"/>
+        <v>0.77488406848201097</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="16"/>
+        <v>0.22511593151798898</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="16"/>
+        <v>0.85028060063703903</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="16"/>
+        <v>8.0828151069315901E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="16"/>
+        <v>3.0077354770210799E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="16"/>
+        <v>3.8813893523433902E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="17"/>
+        <v>0.61807326150054642</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="17"/>
+        <v>1.3101943440897128</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="17"/>
+        <v>0.12774394854874752</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="15"/>
+        <v>0.40468923076923097</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="16"/>
+        <v>0.77138568736579205</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="16"/>
+        <v>0.22861431263420801</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="16"/>
+        <v>0.79886560627718095</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="16"/>
+        <v>8.7999148444390413E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="16"/>
+        <v>4.3505367841610701E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="16"/>
+        <v>6.9629877436817603E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="17"/>
+        <v>1.1191879914804077</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="17"/>
+        <v>2.0778560819712055</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="17"/>
+        <v>0.38591178862278974</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{FFC7568B-E671-4C16-B143-7D8DF9EC997F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R8">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDE3E5-5E69-4B67-8F25-676D6E246988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -246,11 +246,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +404,12 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="35">
@@ -779,7 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -837,6 +843,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1192,14 +1201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2547,8 +2556,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:Y18">
+  <autoFilter ref="A4:Y4">
+    <sortState ref="A13:Y18">
       <sortCondition ref="A12"/>
     </sortState>
   </autoFilter>
@@ -2563,7 +2572,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="20">
+        <v>10778871600</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="20">
+        <v>10282907710</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>E4/E3*100</f>
+        <v>95.398740161261415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3025,12 +3068,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9BC4C0-B976-4730-9FD2-E5CDC18245F1}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3354,44 +3397,44 @@
         <v>38</v>
       </c>
       <c r="V3" s="2">
-        <f>C3</f>
+        <f t="shared" ref="V3:V8" si="3">C3</f>
         <v>100</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W8" si="3">D3</f>
+        <f t="shared" ref="W3:W8" si="4">D3</f>
         <v>162500</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" ref="X3:X8" si="4">E3</f>
+        <f t="shared" ref="X3:X8" si="5">E3</f>
         <v>57751</v>
       </c>
       <c r="Y3" s="5">
-        <f t="shared" ref="Y3:Y8" si="5">F12</f>
+        <f t="shared" ref="Y3:Y8" si="6">F12</f>
         <v>0.35539076923076895</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z8" si="6">G3</f>
+        <f t="shared" ref="Z3:Z8" si="7">G3</f>
         <v>98266</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA8" si="7">H3</f>
+        <f t="shared" ref="AA3:AA8" si="8">H3</f>
         <v>57751</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" ref="AB3:AB8" si="8">I3</f>
+        <f t="shared" ref="AB3:AB8" si="9">I3</f>
         <v>40515</v>
       </c>
       <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AC8" si="9">J12</f>
+        <f t="shared" ref="AC3:AC8" si="10">J12</f>
         <v>0.58770073066981499</v>
       </c>
       <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AD8" si="10">K12</f>
+        <f t="shared" ref="AD3:AD8" si="11">K12</f>
         <v>0.41229926933018496</v>
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="4">
-        <f t="shared" ref="AF3:AF8" si="11">L12</f>
+        <f t="shared" ref="AF3:AF8" si="12">L12</f>
         <v>0.84540527436754298</v>
       </c>
       <c r="AG3" s="4">
@@ -3415,7 +3458,7 @@
         <v>62</v>
       </c>
       <c r="AM3" s="4">
-        <f t="shared" ref="AM3:AM8" si="12">P12</f>
+        <f t="shared" ref="AM3:AM8" si="13">P12</f>
         <v>1.0002042031574334</v>
       </c>
       <c r="AN3" s="4">
@@ -3489,44 +3532,44 @@
         <v>37</v>
       </c>
       <c r="V4" s="2">
-        <f>C4</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162500</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57574</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.354301538461538</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97831</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57574</v>
       </c>
       <c r="AB4" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40257</v>
       </c>
       <c r="AC4" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.588504666210097</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.411495333789903</v>
       </c>
       <c r="AE4" s="12"/>
       <c r="AF4" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.87678465974224495</v>
       </c>
       <c r="AG4" s="4">
@@ -3550,7 +3593,7 @@
         <v>63</v>
       </c>
       <c r="AM4" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.61138585624407571</v>
       </c>
       <c r="AN4" s="4">
@@ -3624,44 +3667,44 @@
         <v>19</v>
       </c>
       <c r="V5" s="2">
-        <f>C5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162500</v>
       </c>
       <c r="X5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65896</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.405513846153846</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91211</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70632</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20579</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77438028307989204</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22561971692010802</v>
       </c>
       <c r="AE5" s="12"/>
       <c r="AF5" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.77701226174578097</v>
       </c>
       <c r="AG5" s="4">
@@ -3685,7 +3728,7 @@
         <v>64</v>
       </c>
       <c r="AM5" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3139635489045813</v>
       </c>
       <c r="AN5" s="4">
@@ -3759,44 +3802,44 @@
         <v>40</v>
       </c>
       <c r="V6" s="2">
-        <f>C6</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162500</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66263</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40777230769230799</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91582</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70918</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20664</v>
       </c>
       <c r="AC6" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77436614181826102</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22563385818173898</v>
       </c>
       <c r="AE6" s="12"/>
       <c r="AF6" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.79320284321567103</v>
       </c>
       <c r="AG6" s="4">
@@ -3820,7 +3863,7 @@
         <v>65</v>
       </c>
       <c r="AM6" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1128155384432139</v>
       </c>
       <c r="AN6" s="4">
@@ -3894,44 +3937,44 @@
         <v>39</v>
       </c>
       <c r="V7" s="2">
-        <f>C7</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162500</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65930</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40572307692307702</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91002</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70516</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20486</v>
       </c>
       <c r="AC7" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77488406848201097</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22511593151798898</v>
       </c>
       <c r="AE7" s="12"/>
       <c r="AF7" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85028060063703903</v>
       </c>
       <c r="AG7" s="4">
@@ -3955,7 +3998,7 @@
         <v>66</v>
       </c>
       <c r="AM7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.61807326150054642</v>
       </c>
       <c r="AN7" s="4">
@@ -4029,44 +4072,44 @@
         <v>59</v>
       </c>
       <c r="V8" s="2">
-        <f>C8</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>162500</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65762</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40468923076923097</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91276</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70409</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20867</v>
       </c>
       <c r="AC8" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.77138568736579205</v>
       </c>
       <c r="AD8" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22861431263420801</v>
       </c>
       <c r="AE8" s="12"/>
       <c r="AF8" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.79886560627718095</v>
       </c>
       <c r="AG8" s="4">
@@ -4090,7 +4133,7 @@
         <v>67</v>
       </c>
       <c r="AM8" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1191879914804077</v>
       </c>
       <c r="AN8" s="4">
@@ -4119,19 +4162,19 @@
         <v>0.411533219237746</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:O11" si="13">L2/$A$11</f>
+        <f t="shared" ref="L11:O11" si="14">L2/$A$11</f>
         <v>0.84462401170283197</v>
       </c>
       <c r="M11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3912786040193598E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4481557591167097E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.6981644665807504E-2</v>
       </c>
       <c r="P11">
@@ -4139,269 +4182,269 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:R11" si="14">Q2/$P$2</f>
+        <f t="shared" ref="Q11:R11" si="15">Q2/$P$2</f>
         <v>1.9816110280191348</v>
       </c>
       <c r="R11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.30405171224825805</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="F12">
-        <f t="shared" ref="F12:F17" si="15">F3/$A$11</f>
+        <f t="shared" ref="F12:F17" si="16">F3/$A$11</f>
         <v>0.35539076923076895</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:O17" si="16">J3/$A$11</f>
+        <f t="shared" ref="J12:O17" si="17">J3/$A$11</f>
         <v>0.58770073066981499</v>
       </c>
       <c r="K12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.41229926933018496</v>
       </c>
       <c r="L12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.84540527436754298</v>
       </c>
       <c r="M12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.4881993385395895E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.2034077331994301E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.76786549150664E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:R17" si="17">P3/$P$2</f>
+        <f t="shared" ref="P12:R17" si="18">P3/$P$2</f>
         <v>1.0002042031574334</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.9261914754994416</v>
       </c>
       <c r="R12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.30402666680243839</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="F13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.354301538461538</v>
       </c>
       <c r="J13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.588504666210097</v>
       </c>
       <c r="K13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.411495333789903</v>
       </c>
       <c r="L13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87678465974224495</v>
       </c>
       <c r="M13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.3275089450098992E-2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.46986486955918E-2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.52416021120645E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.61138585624407571</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.355234120045486</v>
       </c>
       <c r="R13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="F14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.405513846153846</v>
       </c>
       <c r="J14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77438028307989204</v>
       </c>
       <c r="K14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22561971692010802</v>
       </c>
       <c r="L14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77701226174578097</v>
       </c>
       <c r="M14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.3753793856986803E-2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.7286633483064201E-2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1947310914167806E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3139635489045813</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3726645375366719</v>
       </c>
       <c r="R14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.50605580718073262</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="F15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.40777230769230799</v>
       </c>
       <c r="J15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77436614181826102</v>
       </c>
       <c r="K15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22563385818173898</v>
       </c>
       <c r="L15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.79320284321567103</v>
       </c>
       <c r="M15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.5452967719541787E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.2587869550126001E-2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.8756319514661296E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1128155384432139</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.0382413951268283</v>
       </c>
       <c r="R15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.37643510077120623</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="F16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.40572307692307702</v>
       </c>
       <c r="J16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77488406848201097</v>
       </c>
       <c r="K16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22511593151798898</v>
       </c>
       <c r="L16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.85028060063703903</v>
       </c>
       <c r="M16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.0828151069315901E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.0077354770210799E-2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.8813893523433902E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.61807326150054642</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3101943440897128</v>
       </c>
       <c r="R16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.12774394854874752</v>
       </c>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.40468923076923097</v>
       </c>
       <c r="J17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77138568736579205</v>
       </c>
       <c r="K17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22861431263420801</v>
       </c>
       <c r="L17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.79886560627718095</v>
       </c>
       <c r="M17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.7999148444390413E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.3505367841610701E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9629877436817603E-2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.1191879914804077</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.0778560819712055</v>
       </c>
       <c r="R17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.38591178862278974</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{FFC7568B-E671-4C16-B143-7D8DF9EC997F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R8">
+  <autoFilter ref="A1:R1">
+    <sortState ref="A2:R8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\Share-Table-QMRA\R\Dose Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07F758-B838-41A6-A934-3A31B04072B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
   <si>
     <t>Treatment</t>
   </si>
@@ -241,12 +244,36 @@
   </si>
   <si>
     <t>1.122% [0.41%-2.25%]</t>
+  </si>
+  <si>
+    <t>MedianPrev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13% [0.34%-2.21%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.067% [0.33%-2.13%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616% [0.0%-1.4%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37% [0.44%-2.46%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21% [0.41%-2.27%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.607% [0.14%-1.42%]  </t>
+  </si>
+  <si>
+    <t>1.244% [0.42%-2.25%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -785,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -846,6 +873,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1201,13 +1231,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F50" sqref="F50:F51"/>
     </sheetView>
   </sheetViews>
@@ -1238,26 +1268,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="R3" s="19" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="R3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -2556,8 +2586,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y4">
-    <sortState ref="A13:Y18">
+  <autoFilter ref="A4:Y4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:Y18">
       <sortCondition ref="A12"/>
     </sortState>
   </autoFilter>
@@ -2572,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2606,7 +2636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3069,11 +3099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,8 +4473,1412 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1">
-    <sortState ref="A2:R8">
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R8">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA85F376-2302-4A8F-AFD8-08D22896F4D0}">
+  <dimension ref="A1:AP17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:AP8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:42" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114524</v>
+      </c>
+      <c r="F2">
+        <v>35.2381538461538</v>
+      </c>
+      <c r="G2">
+        <v>195708</v>
+      </c>
+      <c r="H2">
+        <v>114524</v>
+      </c>
+      <c r="I2">
+        <v>81184</v>
+      </c>
+      <c r="J2">
+        <v>58.517791812291797</v>
+      </c>
+      <c r="K2">
+        <v>41.482208187708203</v>
+      </c>
+      <c r="L2">
+        <v>84.260067758723096</v>
+      </c>
+      <c r="M2">
+        <v>6.3288044427368897</v>
+      </c>
+      <c r="N2">
+        <v>3.3294331319199499</v>
+      </c>
+      <c r="O2">
+        <v>6.0816946666201002</v>
+      </c>
+      <c r="P2">
+        <v>1.1335132985462499</v>
+      </c>
+      <c r="Q2">
+        <v>1.0752688172042999E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.2184300341296899</v>
+      </c>
+      <c r="S2">
+        <v>0.337268128161889</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2">
+        <f>C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="3">
+        <f>D2</f>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>E2</f>
+        <v>114524</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>F11</f>
+        <v>0.35238153846153802</v>
+      </c>
+      <c r="AA2" s="3">
+        <f>G2</f>
+        <v>195708</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>H2</f>
+        <v>114524</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>I2</f>
+        <v>81184</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>J11</f>
+        <v>0.58517791812291797</v>
+      </c>
+      <c r="AE2" s="5">
+        <f>K11</f>
+        <v>0.41482208187708203</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="4">
+        <f>L11</f>
+        <v>0.84260067758723101</v>
+      </c>
+      <c r="AH2" s="4">
+        <f>M11</f>
+        <v>6.3288044427368892E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>N11</f>
+        <v>3.3294331319199497E-2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f>O11</f>
+        <v>6.0816946666201001E-2</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13">
+        <f t="shared" ref="AL2:AL8" si="0">SUM(AH2:AJ2)</f>
+        <v>0.15739932241276938</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="4">
+        <f>P11</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>R11</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4">
+        <f t="shared" ref="AP2:AP8" si="1">S11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114561</v>
+      </c>
+      <c r="F3">
+        <v>35.249538461538499</v>
+      </c>
+      <c r="G3">
+        <v>195469</v>
+      </c>
+      <c r="H3">
+        <v>114561</v>
+      </c>
+      <c r="I3">
+        <v>80908</v>
+      </c>
+      <c r="J3">
+        <v>58.608270365121797</v>
+      </c>
+      <c r="K3">
+        <v>41.391729634878203</v>
+      </c>
+      <c r="L3">
+        <v>84.570665409694399</v>
+      </c>
+      <c r="M3">
+        <v>6.4856277441712296</v>
+      </c>
+      <c r="N3">
+        <v>3.23670359022704</v>
+      </c>
+      <c r="O3">
+        <v>5.7070032559073303</v>
+      </c>
+      <c r="P3">
+        <v>1.06675758176161</v>
+      </c>
+      <c r="Q3">
+        <v>1.03626943005181E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.12765957446809</v>
+      </c>
+      <c r="S3">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <f>C3</f>
+        <v>200</v>
+      </c>
+      <c r="X3" s="3">
+        <f>D3</f>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>E3</f>
+        <v>114561</v>
+      </c>
+      <c r="Z3" s="5">
+        <f>F12</f>
+        <v>0.35249538461538499</v>
+      </c>
+      <c r="AA3" s="3">
+        <f>G3</f>
+        <v>195469</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>H3</f>
+        <v>114561</v>
+      </c>
+      <c r="AC3" s="3">
+        <f>I3</f>
+        <v>80908</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>J12</f>
+        <v>0.58608270365121795</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>K12</f>
+        <v>0.41391729634878205</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="4">
+        <f>L12</f>
+        <v>0.84570665409694401</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>M12</f>
+        <v>6.4856277441712296E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>N12</f>
+        <v>3.23670359022704E-2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f>O12</f>
+        <v>5.7070032559073301E-2</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15429334590305599</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" s="4">
+        <f>P12</f>
+        <v>0.94110724870166473</v>
+      </c>
+      <c r="AO3" s="4">
+        <f>R12</f>
+        <v>0.95908346972177105</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.97854785478547746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114559</v>
+      </c>
+      <c r="F4">
+        <v>35.248923076923099</v>
+      </c>
+      <c r="G4">
+        <v>195635</v>
+      </c>
+      <c r="H4">
+        <v>114559</v>
+      </c>
+      <c r="I4">
+        <v>81076</v>
+      </c>
+      <c r="J4">
+        <v>58.557517826564798</v>
+      </c>
+      <c r="K4">
+        <v>41.442482173435202</v>
+      </c>
+      <c r="L4">
+        <v>87.942457598268106</v>
+      </c>
+      <c r="M4">
+        <v>6.3067938791365101</v>
+      </c>
+      <c r="N4">
+        <v>2.41884094658647</v>
+      </c>
+      <c r="O4">
+        <v>3.3319075760088701</v>
+      </c>
+      <c r="P4">
+        <v>0.61677698049872098</v>
+      </c>
+      <c r="Q4">
+        <v>5.40540540540541E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.39616055846422</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2">
+        <f>C4</f>
+        <v>200</v>
+      </c>
+      <c r="X4" s="3">
+        <f>D4</f>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>E4</f>
+        <v>114559</v>
+      </c>
+      <c r="Z4" s="5">
+        <f>F13</f>
+        <v>0.352489230769231</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>G4</f>
+        <v>195635</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>H4</f>
+        <v>114559</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>I4</f>
+        <v>81076</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>J13</f>
+        <v>0.58557517826564798</v>
+      </c>
+      <c r="AE4" s="5">
+        <f>K13</f>
+        <v>0.41442482173435202</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="4">
+        <f>L13</f>
+        <v>0.87942457598268109</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>M13</f>
+        <v>6.3067938791365102E-2</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>N13</f>
+        <v>2.4188409465864699E-2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>O13</f>
+        <v>3.3319075760088704E-2</v>
+      </c>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12057542401731851</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" s="4">
+        <f>P13</f>
+        <v>0.54412857907335355</v>
+      </c>
+      <c r="AO4" s="4">
+        <f>R13</f>
+        <v>0.62934622096925696</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>132543</v>
+      </c>
+      <c r="F5">
+        <v>40.782461538461497</v>
+      </c>
+      <c r="G5">
+        <v>183011</v>
+      </c>
+      <c r="H5">
+        <v>141909</v>
+      </c>
+      <c r="I5">
+        <v>41102</v>
+      </c>
+      <c r="J5">
+        <v>77.541240690450294</v>
+      </c>
+      <c r="K5">
+        <v>22.458759309549698</v>
+      </c>
+      <c r="L5">
+        <v>77.761933862972796</v>
+      </c>
+      <c r="M5">
+        <v>9.6074481489026198</v>
+      </c>
+      <c r="N5">
+        <v>4.8188135171227504</v>
+      </c>
+      <c r="O5">
+        <v>7.8118044710018602</v>
+      </c>
+      <c r="P5">
+        <v>1.3639320493602101</v>
+      </c>
+      <c r="Q5">
+        <v>1.31964809384164E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.46020260492041</v>
+      </c>
+      <c r="S5">
+        <v>0.43795620437956201</v>
+      </c>
+      <c r="U5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="2">
+        <f>C5</f>
+        <v>200</v>
+      </c>
+      <c r="X5" s="3">
+        <f>D5</f>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="3">
+        <f>E5</f>
+        <v>132543</v>
+      </c>
+      <c r="Z5" s="5">
+        <f>F14</f>
+        <v>0.40782461538461495</v>
+      </c>
+      <c r="AA5" s="3">
+        <f>G5</f>
+        <v>183011</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>H5</f>
+        <v>141909</v>
+      </c>
+      <c r="AC5" s="3">
+        <f>I5</f>
+        <v>41102</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>J14</f>
+        <v>0.77541240690450297</v>
+      </c>
+      <c r="AE5" s="5">
+        <f>K14</f>
+        <v>0.22458759309549697</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="4">
+        <f>L14</f>
+        <v>0.77761933862972799</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>M14</f>
+        <v>9.6074481489026198E-2</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>N14</f>
+        <v>4.8188135171227504E-2</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>O14</f>
+        <v>7.8118044710018597E-2</v>
+      </c>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.22238066137027229</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN5" s="4">
+        <f>P14</f>
+        <v>1.2032783833321374</v>
+      </c>
+      <c r="AO5" s="4">
+        <f>R14</f>
+        <v>1.1089836357564324</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2985401459854002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>131978</v>
+      </c>
+      <c r="F6">
+        <v>40.608615384615398</v>
+      </c>
+      <c r="G6">
+        <v>182208</v>
+      </c>
+      <c r="H6">
+        <v>141297</v>
+      </c>
+      <c r="I6">
+        <v>40911</v>
+      </c>
+      <c r="J6">
+        <v>77.547089041095902</v>
+      </c>
+      <c r="K6">
+        <v>22.452910958904098</v>
+      </c>
+      <c r="L6">
+        <v>79.529163951567696</v>
+      </c>
+      <c r="M6">
+        <v>9.3371622543151105</v>
+      </c>
+      <c r="N6">
+        <v>4.1825152676961297</v>
+      </c>
+      <c r="O6">
+        <v>6.9511585264210698</v>
+      </c>
+      <c r="P6">
+        <v>1.2076210068094799</v>
+      </c>
+      <c r="Q6">
+        <v>1.1544011544011501E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.2759601706970098</v>
+      </c>
+      <c r="S6">
+        <v>0.4149377593361</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2">
+        <f>C6</f>
+        <v>200</v>
+      </c>
+      <c r="X6" s="3">
+        <f>D6</f>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>E6</f>
+        <v>131978</v>
+      </c>
+      <c r="Z6" s="5">
+        <f>F15</f>
+        <v>0.40608615384615399</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>G6</f>
+        <v>182208</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>H6</f>
+        <v>141297</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>I6</f>
+        <v>40911</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>J15</f>
+        <v>0.77547089041095907</v>
+      </c>
+      <c r="AE6" s="5">
+        <f>K15</f>
+        <v>0.22452910958904099</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="4">
+        <f>L15</f>
+        <v>0.79529163951567694</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>M15</f>
+        <v>9.3371622543151109E-2</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>N15</f>
+        <v>4.1825152676961297E-2</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>O15</f>
+        <v>6.9511585264210696E-2</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20470836048432312</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN6" s="4">
+        <f>P15</f>
+        <v>1.0653787726692527</v>
+      </c>
+      <c r="AO6" s="4">
+        <f>R15</f>
+        <v>1.0259328154064997</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2302904564315353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>132154</v>
+      </c>
+      <c r="F7">
+        <v>40.6627692307692</v>
+      </c>
+      <c r="G7">
+        <v>182369</v>
+      </c>
+      <c r="H7">
+        <v>141394</v>
+      </c>
+      <c r="I7">
+        <v>40975</v>
+      </c>
+      <c r="J7">
+        <v>77.531817359309997</v>
+      </c>
+      <c r="K7">
+        <v>22.468182640689999</v>
+      </c>
+      <c r="L7">
+        <v>85.391285923997799</v>
+      </c>
+      <c r="M7">
+        <v>7.8794436793438001</v>
+      </c>
+      <c r="N7">
+        <v>2.90267415288224</v>
+      </c>
+      <c r="O7">
+        <v>3.8265962437762</v>
+      </c>
+      <c r="P7">
+        <v>0.66881326652412498</v>
+      </c>
+      <c r="Q7">
+        <v>6.0790273556231003E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.4184900870406101</v>
+      </c>
+      <c r="S7">
+        <v>0.13888888888888901</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="2">
+        <f>C7</f>
+        <v>200</v>
+      </c>
+      <c r="X7" s="3">
+        <f>D7</f>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>E7</f>
+        <v>132154</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>F16</f>
+        <v>0.40662769230769202</v>
+      </c>
+      <c r="AA7" s="3">
+        <f>G7</f>
+        <v>182369</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>H7</f>
+        <v>141394</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>I7</f>
+        <v>40975</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>J16</f>
+        <v>0.77531817359309996</v>
+      </c>
+      <c r="AE7" s="5">
+        <f>K16</f>
+        <v>0.22468182640689999</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="4">
+        <f>L16</f>
+        <v>0.85391285923997795</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>M16</f>
+        <v>7.8794436793438005E-2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>N16</f>
+        <v>2.9026741528822401E-2</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>O16</f>
+        <v>3.8265962437762001E-2</v>
+      </c>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.14608714076002241</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" s="4">
+        <f>P16</f>
+        <v>0.59003565938034375</v>
+      </c>
+      <c r="AO7" s="4">
+        <f>R16</f>
+        <v>0.63941168538907589</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.41180555555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>131663</v>
+      </c>
+      <c r="F8">
+        <v>40.5116923076923</v>
+      </c>
+      <c r="G8">
+        <v>182441</v>
+      </c>
+      <c r="H8">
+        <v>140663</v>
+      </c>
+      <c r="I8">
+        <v>41778</v>
+      </c>
+      <c r="J8">
+        <v>77.100542093060199</v>
+      </c>
+      <c r="K8">
+        <v>22.899457906939801</v>
+      </c>
+      <c r="L8">
+        <v>79.779436895711001</v>
+      </c>
+      <c r="M8">
+        <v>8.7830294008187604</v>
+      </c>
+      <c r="N8">
+        <v>4.3186012775039302</v>
+      </c>
+      <c r="O8">
+        <v>7.1189324259662898</v>
+      </c>
+      <c r="P8">
+        <v>1.24400733437917</v>
+      </c>
+      <c r="Q8">
+        <v>1.20300751879699E-2</v>
+      </c>
+      <c r="R8">
+        <v>2.2598870056497198</v>
+      </c>
+      <c r="S8">
+        <v>0.42796005706134099</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="2">
+        <f>C8</f>
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <f>D8</f>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="3">
+        <f>E8</f>
+        <v>131663</v>
+      </c>
+      <c r="Z8" s="5">
+        <f>F17</f>
+        <v>0.40511692307692299</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>G8</f>
+        <v>182441</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>H8</f>
+        <v>140663</v>
+      </c>
+      <c r="AC8" s="3">
+        <f>I8</f>
+        <v>41778</v>
+      </c>
+      <c r="AD8" s="4">
+        <f>J17</f>
+        <v>0.77100542093060198</v>
+      </c>
+      <c r="AE8" s="5">
+        <f>K17</f>
+        <v>0.22899457906939802</v>
+      </c>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="4">
+        <f>L17</f>
+        <v>0.79779436895710998</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>M17</f>
+        <v>8.7830294008187607E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>N17</f>
+        <v>4.3186012775039299E-2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>O17</f>
+        <v>7.1189324259662901E-2</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2022056310428898</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" s="4">
+        <f>P17</f>
+        <v>1.0974792584918329</v>
+      </c>
+      <c r="AO8" s="4">
+        <f>R17</f>
+        <v>1.0186875271621059</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2689015691868748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f>F2/$A$11</f>
+        <v>0.35238153846153802</v>
+      </c>
+      <c r="J11">
+        <f>J2/$A$11</f>
+        <v>0.58517791812291797</v>
+      </c>
+      <c r="K11">
+        <f>K2/$A$11</f>
+        <v>0.41482208187708203</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:O11" si="2">L2/$A$11</f>
+        <v>0.84260067758723101</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>6.3288044427368892E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>3.3294331319199497E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>6.0816946666201001E-2</v>
+      </c>
+      <c r="P11">
+        <f>P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" ref="F12:F17" si="3">F3/$A$11</f>
+        <v>0.35249538461538499</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:O17" si="4">J3/$A$11</f>
+        <v>0.58608270365121795</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.41391729634878205</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0.84570665409694401</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>6.4856277441712296E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>3.23670359022704E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>5.7070032559073301E-2</v>
+      </c>
+      <c r="P12">
+        <f>P3/$P$2</f>
+        <v>0.94110724870166473</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R17" si="5">R3/$R$2</f>
+        <v>0.95908346972177105</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S17" si="6">S3/$S$2</f>
+        <v>0.97854785478547746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.352489230769231</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.58557517826564798</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.41442482173435202</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.87942457598268109</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>6.3067938791365102E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>2.4188409465864699E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>3.3319075760088704E-2</v>
+      </c>
+      <c r="P13">
+        <f>P4/$P$2</f>
+        <v>0.54412857907335355</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>0.62934622096925696</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0.40782461538461495</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.77541240690450297</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.22458759309549697</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.77761933862972799</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>9.6074481489026198E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>4.8188135171227504E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>7.8118044710018597E-2</v>
+      </c>
+      <c r="P14">
+        <f>P5/$P$2</f>
+        <v>1.2032783833321374</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>1.1089836357564324</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>1.2985401459854002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>0.40608615384615399</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.77547089041095907</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.22452910958904099</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.79529163951567694</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>9.3371622543151109E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>4.1825152676961297E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>6.9511585264210696E-2</v>
+      </c>
+      <c r="P15">
+        <f>P6/$P$2</f>
+        <v>1.0653787726692527</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>1.0259328154064997</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>1.2302904564315353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>0.40662769230769202</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.77531817359309996</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.22468182640689999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0.85391285923997795</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>7.8794436793438005E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>2.9026741528822401E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>3.8265962437762001E-2</v>
+      </c>
+      <c r="P16">
+        <f>P7/$P$2</f>
+        <v>0.59003565938034375</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>0.63941168538907589</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>0.41180555555555554</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>0.40511692307692299</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.77100542093060198</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.22899457906939802</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0.79779436895710998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>8.7830294008187607E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>4.3186012775039299E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>7.1189324259662901E-2</v>
+      </c>
+      <c r="P17">
+        <f>P8/$P$2</f>
+        <v>1.0974792584918329</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>1.0186875271621059</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>1.2689015691868748</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{E693C7E2-E9B6-4756-ACBA-D8A60FE1A53E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07F758-B838-41A6-A934-3A31B04072B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>Treatment</t>
   </si>
@@ -268,12 +267,21 @@
   </si>
   <si>
     <t>1.244% [0.42%-2.25%]</t>
+  </si>
+  <si>
+    <t>XSTClosed</t>
+  </si>
+  <si>
+    <t>Re-Service OFF</t>
+  </si>
+  <si>
+    <t>1.23% [0.41%-2.32%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1231,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2586,8 +2594,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:Y18">
+  <autoFilter ref="A4:Y4">
+    <sortState ref="A13:Y18">
       <sortCondition ref="A12"/>
     </sortState>
   </autoFilter>
@@ -2602,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2636,7 +2644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4473,8 +4481,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R8">
+  <autoFilter ref="A1:R1">
+    <sortState ref="A2:R8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4483,11 +4491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA85F376-2302-4A8F-AFD8-08D22896F4D0}">
-  <dimension ref="A1:AP17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AP8"/>
+      <selection activeCell="AP9" sqref="U9:AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,76 +4686,76 @@
         <v>20</v>
       </c>
       <c r="W2" s="2">
-        <f>C2</f>
+        <f t="shared" ref="W2:Y8" si="0">C2</f>
         <v>200</v>
       </c>
       <c r="X2" s="3">
-        <f>D2</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
       <c r="Y2" s="3">
-        <f>E2</f>
+        <f t="shared" si="0"/>
         <v>114524</v>
       </c>
       <c r="Z2" s="5">
-        <f>F11</f>
+        <f t="shared" ref="Z2:Z8" si="1">F11</f>
         <v>0.35238153846153802</v>
       </c>
       <c r="AA2" s="3">
-        <f>G2</f>
+        <f t="shared" ref="AA2:AC8" si="2">G2</f>
         <v>195708</v>
       </c>
       <c r="AB2" s="3">
-        <f>H2</f>
+        <f t="shared" si="2"/>
         <v>114524</v>
       </c>
       <c r="AC2" s="3">
-        <f>I2</f>
+        <f t="shared" si="2"/>
         <v>81184</v>
       </c>
       <c r="AD2" s="4">
-        <f>J11</f>
+        <f t="shared" ref="AD2:AE8" si="3">J11</f>
         <v>0.58517791812291797</v>
       </c>
       <c r="AE2" s="5">
-        <f>K11</f>
+        <f t="shared" si="3"/>
         <v>0.41482208187708203</v>
       </c>
       <c r="AF2" s="12"/>
       <c r="AG2" s="4">
-        <f>L11</f>
+        <f t="shared" ref="AG2:AJ8" si="4">L11</f>
         <v>0.84260067758723101</v>
       </c>
       <c r="AH2" s="4">
-        <f>M11</f>
+        <f t="shared" si="4"/>
         <v>6.3288044427368892E-2</v>
       </c>
       <c r="AI2" s="4">
-        <f>N11</f>
+        <f t="shared" si="4"/>
         <v>3.3294331319199497E-2</v>
       </c>
       <c r="AJ2" s="4">
-        <f>O11</f>
+        <f t="shared" si="4"/>
         <v>6.0816946666201001E-2</v>
       </c>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13">
-        <f t="shared" ref="AL2:AL8" si="0">SUM(AH2:AJ2)</f>
+        <f t="shared" ref="AL2:AL8" si="5">SUM(AH2:AJ2)</f>
         <v>0.15739932241276938</v>
       </c>
       <c r="AM2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="AN2" s="4">
-        <f>P11</f>
+        <f t="shared" ref="AN2:AN8" si="6">P11</f>
         <v>1</v>
       </c>
       <c r="AO2" s="4">
-        <f>R11</f>
+        <f t="shared" ref="AO2:AO8" si="7">R11</f>
         <v>1</v>
       </c>
       <c r="AP2" s="4">
-        <f t="shared" ref="AP2:AP8" si="1">S11</f>
+        <f t="shared" ref="AP2:AP8" si="8">S11</f>
         <v>1</v>
       </c>
     </row>
@@ -4816,76 +4824,76 @@
         <v>38</v>
       </c>
       <c r="W3" s="2">
-        <f>C3</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="X3" s="3">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
       <c r="Y3" s="3">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>114561</v>
       </c>
       <c r="Z3" s="5">
-        <f>F12</f>
+        <f t="shared" si="1"/>
         <v>0.35249538461538499</v>
       </c>
       <c r="AA3" s="3">
-        <f>G3</f>
+        <f t="shared" si="2"/>
         <v>195469</v>
       </c>
       <c r="AB3" s="3">
-        <f>H3</f>
+        <f t="shared" si="2"/>
         <v>114561</v>
       </c>
       <c r="AC3" s="3">
-        <f>I3</f>
+        <f t="shared" si="2"/>
         <v>80908</v>
       </c>
       <c r="AD3" s="4">
-        <f>J12</f>
+        <f t="shared" si="3"/>
         <v>0.58608270365121795</v>
       </c>
       <c r="AE3" s="5">
-        <f>K12</f>
+        <f t="shared" si="3"/>
         <v>0.41391729634878205</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="4">
-        <f>L12</f>
+        <f t="shared" si="4"/>
         <v>0.84570665409694401</v>
       </c>
       <c r="AH3" s="4">
-        <f>M12</f>
+        <f t="shared" si="4"/>
         <v>6.4856277441712296E-2</v>
       </c>
       <c r="AI3" s="4">
-        <f>N12</f>
+        <f t="shared" si="4"/>
         <v>3.23670359022704E-2</v>
       </c>
       <c r="AJ3" s="4">
-        <f>O12</f>
+        <f t="shared" si="4"/>
         <v>5.7070032559073301E-2</v>
       </c>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.15429334590305599</v>
       </c>
       <c r="AM3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="AN3" s="4">
-        <f>P12</f>
+        <f t="shared" si="6"/>
         <v>0.94110724870166473</v>
       </c>
       <c r="AO3" s="4">
-        <f>R12</f>
+        <f t="shared" si="7"/>
         <v>0.95908346972177105</v>
       </c>
       <c r="AP3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.97854785478547746</v>
       </c>
     </row>
@@ -4954,76 +4962,76 @@
         <v>37</v>
       </c>
       <c r="W4" s="2">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="X4" s="3">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
       <c r="Y4" s="3">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>114559</v>
       </c>
       <c r="Z4" s="5">
-        <f>F13</f>
+        <f t="shared" si="1"/>
         <v>0.352489230769231</v>
       </c>
       <c r="AA4" s="3">
-        <f>G4</f>
+        <f t="shared" si="2"/>
         <v>195635</v>
       </c>
       <c r="AB4" s="3">
-        <f>H4</f>
+        <f t="shared" si="2"/>
         <v>114559</v>
       </c>
       <c r="AC4" s="3">
-        <f>I4</f>
+        <f t="shared" si="2"/>
         <v>81076</v>
       </c>
       <c r="AD4" s="4">
-        <f>J13</f>
+        <f t="shared" si="3"/>
         <v>0.58557517826564798</v>
       </c>
       <c r="AE4" s="5">
-        <f>K13</f>
+        <f t="shared" si="3"/>
         <v>0.41442482173435202</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="4">
-        <f>L13</f>
+        <f t="shared" si="4"/>
         <v>0.87942457598268109</v>
       </c>
       <c r="AH4" s="4">
-        <f>M13</f>
+        <f t="shared" si="4"/>
         <v>6.3067938791365102E-2</v>
       </c>
       <c r="AI4" s="4">
-        <f>N13</f>
+        <f t="shared" si="4"/>
         <v>2.4188409465864699E-2</v>
       </c>
       <c r="AJ4" s="4">
-        <f>O13</f>
+        <f t="shared" si="4"/>
         <v>3.3319075760088704E-2</v>
       </c>
       <c r="AK4" s="13"/>
       <c r="AL4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.12057542401731851</v>
       </c>
       <c r="AM4" s="5" t="s">
         <v>71</v>
       </c>
       <c r="AN4" s="4">
-        <f>P13</f>
+        <f t="shared" si="6"/>
         <v>0.54412857907335355</v>
       </c>
       <c r="AO4" s="4">
-        <f>R13</f>
+        <f t="shared" si="7"/>
         <v>0.62934622096925696</v>
       </c>
       <c r="AP4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5092,76 +5100,76 @@
         <v>19</v>
       </c>
       <c r="W5" s="2">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="X5" s="3">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
       <c r="Y5" s="3">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>132543</v>
       </c>
       <c r="Z5" s="5">
-        <f>F14</f>
+        <f t="shared" si="1"/>
         <v>0.40782461538461495</v>
       </c>
       <c r="AA5" s="3">
-        <f>G5</f>
+        <f t="shared" si="2"/>
         <v>183011</v>
       </c>
       <c r="AB5" s="3">
-        <f>H5</f>
+        <f t="shared" si="2"/>
         <v>141909</v>
       </c>
       <c r="AC5" s="3">
-        <f>I5</f>
+        <f t="shared" si="2"/>
         <v>41102</v>
       </c>
       <c r="AD5" s="4">
-        <f>J14</f>
+        <f t="shared" si="3"/>
         <v>0.77541240690450297</v>
       </c>
       <c r="AE5" s="5">
-        <f>K14</f>
+        <f t="shared" si="3"/>
         <v>0.22458759309549697</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="4">
-        <f>L14</f>
+        <f t="shared" si="4"/>
         <v>0.77761933862972799</v>
       </c>
       <c r="AH5" s="4">
-        <f>M14</f>
+        <f t="shared" si="4"/>
         <v>9.6074481489026198E-2</v>
       </c>
       <c r="AI5" s="4">
-        <f>N14</f>
+        <f t="shared" si="4"/>
         <v>4.8188135171227504E-2</v>
       </c>
       <c r="AJ5" s="4">
-        <f>O14</f>
+        <f t="shared" si="4"/>
         <v>7.8118044710018597E-2</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.22238066137027229</v>
       </c>
       <c r="AM5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AN5" s="4">
-        <f>P14</f>
+        <f t="shared" si="6"/>
         <v>1.2032783833321374</v>
       </c>
       <c r="AO5" s="4">
-        <f>R14</f>
+        <f t="shared" si="7"/>
         <v>1.1089836357564324</v>
       </c>
       <c r="AP5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.2985401459854002</v>
       </c>
     </row>
@@ -5230,76 +5238,76 @@
         <v>40</v>
       </c>
       <c r="W6" s="2">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="X6" s="3">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
       <c r="Y6" s="3">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>131978</v>
       </c>
       <c r="Z6" s="5">
-        <f>F15</f>
+        <f t="shared" si="1"/>
         <v>0.40608615384615399</v>
       </c>
       <c r="AA6" s="3">
-        <f>G6</f>
+        <f t="shared" si="2"/>
         <v>182208</v>
       </c>
       <c r="AB6" s="3">
-        <f>H6</f>
+        <f t="shared" si="2"/>
         <v>141297</v>
       </c>
       <c r="AC6" s="3">
-        <f>I6</f>
+        <f t="shared" si="2"/>
         <v>40911</v>
       </c>
       <c r="AD6" s="4">
-        <f>J15</f>
+        <f t="shared" si="3"/>
         <v>0.77547089041095907</v>
       </c>
       <c r="AE6" s="5">
-        <f>K15</f>
+        <f t="shared" si="3"/>
         <v>0.22452910958904099</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="4">
-        <f>L15</f>
+        <f t="shared" si="4"/>
         <v>0.79529163951567694</v>
       </c>
       <c r="AH6" s="4">
-        <f>M15</f>
+        <f t="shared" si="4"/>
         <v>9.3371622543151109E-2</v>
       </c>
       <c r="AI6" s="4">
-        <f>N15</f>
+        <f t="shared" si="4"/>
         <v>4.1825152676961297E-2</v>
       </c>
       <c r="AJ6" s="4">
-        <f>O15</f>
+        <f t="shared" si="4"/>
         <v>6.9511585264210696E-2</v>
       </c>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.20470836048432312</v>
       </c>
       <c r="AM6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AN6" s="4">
-        <f>P15</f>
+        <f t="shared" si="6"/>
         <v>1.0653787726692527</v>
       </c>
       <c r="AO6" s="4">
-        <f>R15</f>
+        <f t="shared" si="7"/>
         <v>1.0259328154064997</v>
       </c>
       <c r="AP6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.2302904564315353</v>
       </c>
     </row>
@@ -5368,76 +5376,76 @@
         <v>39</v>
       </c>
       <c r="W7" s="2">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="X7" s="3">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
       <c r="Y7" s="3">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>132154</v>
       </c>
       <c r="Z7" s="5">
-        <f>F16</f>
+        <f t="shared" si="1"/>
         <v>0.40662769230769202</v>
       </c>
       <c r="AA7" s="3">
-        <f>G7</f>
+        <f t="shared" si="2"/>
         <v>182369</v>
       </c>
       <c r="AB7" s="3">
-        <f>H7</f>
+        <f t="shared" si="2"/>
         <v>141394</v>
       </c>
       <c r="AC7" s="3">
-        <f>I7</f>
+        <f t="shared" si="2"/>
         <v>40975</v>
       </c>
       <c r="AD7" s="4">
-        <f>J16</f>
+        <f t="shared" si="3"/>
         <v>0.77531817359309996</v>
       </c>
       <c r="AE7" s="5">
-        <f>K16</f>
+        <f t="shared" si="3"/>
         <v>0.22468182640689999</v>
       </c>
       <c r="AF7" s="12"/>
       <c r="AG7" s="4">
-        <f>L16</f>
+        <f t="shared" si="4"/>
         <v>0.85391285923997795</v>
       </c>
       <c r="AH7" s="4">
-        <f>M16</f>
+        <f t="shared" si="4"/>
         <v>7.8794436793438005E-2</v>
       </c>
       <c r="AI7" s="4">
-        <f>N16</f>
+        <f t="shared" si="4"/>
         <v>2.9026741528822401E-2</v>
       </c>
       <c r="AJ7" s="4">
-        <f>O16</f>
+        <f t="shared" si="4"/>
         <v>3.8265962437762001E-2</v>
       </c>
       <c r="AK7" s="13"/>
       <c r="AL7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.14608714076002241</v>
       </c>
       <c r="AM7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="AN7" s="4">
-        <f>P16</f>
+        <f t="shared" si="6"/>
         <v>0.59003565938034375</v>
       </c>
       <c r="AO7" s="4">
-        <f>R16</f>
+        <f t="shared" si="7"/>
         <v>0.63941168538907589</v>
       </c>
       <c r="AP7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.41180555555555554</v>
       </c>
     </row>
@@ -5506,77 +5514,215 @@
         <v>59</v>
       </c>
       <c r="W8" s="2">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="X8" s="3">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
       <c r="Y8" s="3">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>131663</v>
       </c>
       <c r="Z8" s="5">
-        <f>F17</f>
+        <f t="shared" si="1"/>
         <v>0.40511692307692299</v>
       </c>
       <c r="AA8" s="3">
-        <f>G8</f>
+        <f t="shared" si="2"/>
         <v>182441</v>
       </c>
       <c r="AB8" s="3">
-        <f>H8</f>
+        <f t="shared" si="2"/>
         <v>140663</v>
       </c>
       <c r="AC8" s="3">
-        <f>I8</f>
+        <f t="shared" si="2"/>
         <v>41778</v>
       </c>
       <c r="AD8" s="4">
-        <f>J17</f>
+        <f t="shared" si="3"/>
         <v>0.77100542093060198</v>
       </c>
       <c r="AE8" s="5">
-        <f>K17</f>
+        <f t="shared" si="3"/>
         <v>0.22899457906939802</v>
       </c>
       <c r="AF8" s="12"/>
       <c r="AG8" s="4">
-        <f>L17</f>
+        <f t="shared" si="4"/>
         <v>0.79779436895710998</v>
       </c>
       <c r="AH8" s="4">
-        <f>M17</f>
+        <f t="shared" si="4"/>
         <v>8.7830294008187607E-2</v>
       </c>
       <c r="AI8" s="4">
-        <f>N17</f>
+        <f t="shared" si="4"/>
         <v>4.3186012775039299E-2</v>
       </c>
       <c r="AJ8" s="4">
-        <f>O17</f>
+        <f t="shared" si="4"/>
         <v>7.1189324259662901E-2</v>
       </c>
       <c r="AK8" s="13"/>
       <c r="AL8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.2022056310428898</v>
       </c>
       <c r="AM8" s="5" t="s">
         <v>75</v>
       </c>
       <c r="AN8" s="4">
-        <f>P17</f>
+        <f t="shared" si="6"/>
         <v>1.0974792584918329</v>
       </c>
       <c r="AO8" s="4">
-        <f>R17</f>
+        <f t="shared" si="7"/>
         <v>1.0186875271621059</v>
       </c>
       <c r="AP8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1.2689015691868748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>132706</v>
+      </c>
+      <c r="F9">
+        <v>40.832615384615401</v>
+      </c>
+      <c r="G9">
+        <v>195718</v>
+      </c>
+      <c r="H9">
+        <v>142552</v>
+      </c>
+      <c r="I9">
+        <v>53166</v>
+      </c>
+      <c r="J9">
+        <v>72.835406043389</v>
+      </c>
+      <c r="K9">
+        <v>27.164593956611</v>
+      </c>
+      <c r="L9">
+        <v>80.3686344249695</v>
+      </c>
+      <c r="M9">
+        <v>8.5323949180896097</v>
+      </c>
+      <c r="N9">
+        <v>4.0940123280032603</v>
+      </c>
+      <c r="O9">
+        <v>7.0049583289376498</v>
+      </c>
+      <c r="P9">
+        <v>1.23784353299047</v>
+      </c>
+      <c r="Q9">
+        <v>1.19760479041916E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.3188405797101499</v>
+      </c>
+      <c r="S9">
+        <v>0.4149377593361</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" ref="W9" si="9">C9</f>
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" ref="X9" si="10">D9</f>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" ref="Y9" si="11">E9</f>
+        <v>132706</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9" si="12">F18</f>
+        <v>0.40832615384615401</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" ref="AA9" si="13">G9</f>
+        <v>195718</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" ref="AB9" si="14">H9</f>
+        <v>142552</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" ref="AC9" si="15">I9</f>
+        <v>53166</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" ref="AD9" si="16">J18</f>
+        <v>0.72835406043388995</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" ref="AE9" si="17">K18</f>
+        <v>0.27164593956611</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="4">
+        <f t="shared" ref="AG9" si="18">L18</f>
+        <v>0.80368634424969498</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" ref="AH9" si="19">M18</f>
+        <v>8.53239491808961E-2</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" ref="AI9" si="20">N18</f>
+        <v>4.0940123280032603E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" ref="AJ9" si="21">O18</f>
+        <v>7.0049583289376494E-2</v>
+      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
+        <f t="shared" ref="AL9" si="22">SUM(AH9:AJ9)</f>
+        <v>0.19631365575030518</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" ref="AN9" si="23">P18</f>
+        <v>1.0920414736889503</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" ref="AO9" si="24">R18</f>
+        <v>1.0452619843924229</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" ref="AP9" si="25">S18</f>
+        <v>1.2302904564315353</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -5596,23 +5742,23 @@
         <v>0.41482208187708203</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:O11" si="2">L2/$A$11</f>
+        <f t="shared" ref="L11:O11" si="26">L2/$A$11</f>
         <v>0.84260067758723101</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>6.3288044427368892E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>3.3294331319199497E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>6.0816946666201001E-2</v>
       </c>
       <c r="P11">
-        <f>P2/$P$2</f>
+        <f t="shared" ref="P11:P18" si="27">P2/$P$2</f>
         <v>1</v>
       </c>
       <c r="R11">
@@ -5626,241 +5772,241 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F12">
-        <f t="shared" ref="F12:F17" si="3">F3/$A$11</f>
+        <f t="shared" ref="F12:F18" si="28">F3/$A$11</f>
         <v>0.35249538461538499</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:O17" si="4">J3/$A$11</f>
+        <f t="shared" ref="J12:O18" si="29">J3/$A$11</f>
         <v>0.58608270365121795</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.41391729634878205</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.84570665409694401</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>6.4856277441712296E-2</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3.23670359022704E-2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>5.7070032559073301E-2</v>
       </c>
       <c r="P12">
-        <f>P3/$P$2</f>
+        <f t="shared" si="27"/>
         <v>0.94110724870166473</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12:R17" si="5">R3/$R$2</f>
+        <f t="shared" ref="R12:R18" si="30">R3/$R$2</f>
         <v>0.95908346972177105</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S17" si="6">S3/$S$2</f>
+        <f t="shared" ref="S12:S18" si="31">S3/$S$2</f>
         <v>0.97854785478547746</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>0.352489230769231</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.58557517826564798</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.41442482173435202</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.87942457598268109</v>
       </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>6.3067938791365102E-2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2.4188409465864699E-2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3.3319075760088704E-2</v>
       </c>
       <c r="P13">
-        <f>P4/$P$2</f>
+        <f t="shared" si="27"/>
         <v>0.54412857907335355</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>0.62934622096925696</v>
       </c>
       <c r="S13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>0.40782461538461495</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.77541240690450297</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.22458759309549697</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.77761933862972799</v>
       </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>9.6074481489026198E-2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>4.8188135171227504E-2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>7.8118044710018597E-2</v>
       </c>
       <c r="P14">
-        <f>P5/$P$2</f>
+        <f t="shared" si="27"/>
         <v>1.2032783833321374</v>
       </c>
       <c r="R14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1.1089836357564324</v>
       </c>
       <c r="S14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>1.2985401459854002</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>0.40608615384615399</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.77547089041095907</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.22452910958904099</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.79529163951567694</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>9.3371622543151109E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>4.1825152676961297E-2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>6.9511585264210696E-2</v>
       </c>
       <c r="P15">
-        <f>P6/$P$2</f>
+        <f t="shared" si="27"/>
         <v>1.0653787726692527</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1.0259328154064997</v>
       </c>
       <c r="S15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>1.2302904564315353</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>0.40662769230769202</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.77531817359309996</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.22468182640689999</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.85391285923997795</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>7.8794436793438005E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>2.9026741528822401E-2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>3.8265962437762001E-2</v>
       </c>
       <c r="P16">
-        <f>P7/$P$2</f>
+        <f t="shared" si="27"/>
         <v>0.59003565938034375</v>
       </c>
       <c r="R16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>0.63941168538907589</v>
       </c>
       <c r="S16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>0.41180555555555554</v>
       </c>
     </row>
     <row r="17" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="28"/>
         <v>0.40511692307692299</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.77100542093060198</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.22899457906939802</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>0.79779436895710998</v>
       </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>8.7830294008187607E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>4.3186012775039299E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="29"/>
         <v>7.1189324259662901E-2</v>
       </c>
       <c r="P17">
@@ -5868,17 +6014,59 @@
         <v>1.0974792584918329</v>
       </c>
       <c r="R17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1.0186875271621059</v>
       </c>
       <c r="S17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>1.2689015691868748</v>
       </c>
     </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="28"/>
+        <v>0.40832615384615401</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="29"/>
+        <v>0.72835406043388995</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="29"/>
+        <v>0.27164593956611</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="29"/>
+        <v>0.80368634424969498</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="29"/>
+        <v>8.53239491808961E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="29"/>
+        <v>4.0940123280032603E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="29"/>
+        <v>7.0049583289376494E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="27"/>
+        <v>1.0920414736889503</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="30"/>
+        <v>1.0452619843924229</v>
+      </c>
+      <c r="S18">
+        <f>S9/$S$2</f>
+        <v>1.2302904564315353</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{E693C7E2-E9B6-4756-ACBA-D8A60FE1A53E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S8">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gareyes3\Documents\GitHub\Share-Table-QMRA\R\Dose Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160844B-DD54-4CDE-9DC9-3DDAEB0B7B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -17,13 +18,15 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="3-3-21" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-3-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="87">
   <si>
     <t>Treatment</t>
   </si>
@@ -276,12 +279,36 @@
   </si>
   <si>
     <t>1.23% [0.41%-2.32%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84% [0.17%-1.79%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80% [0.17%-1.76%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48% [0.0%-1.18%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04% [0.28%-2.06%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93% [0.28%-1.84%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51% [0.0%-1.19%]  </t>
+  </si>
+  <si>
+    <t>0.94% [0.28%-1.82%]</t>
+  </si>
+  <si>
+    <t>0.93% [0.27%-1.83%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -820,7 +847,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -881,6 +908,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1239,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1276,26 +1306,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="R3" s="21" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="R3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -2594,8 +2624,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y4">
-    <sortState ref="A13:Y18">
+  <autoFilter ref="A4:Y4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:Y18">
       <sortCondition ref="A12"/>
     </sortState>
   </autoFilter>
@@ -2610,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2644,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,7 +3137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4481,8 +4511,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1">
-    <sortState ref="A2:R8">
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4491,10 +4521,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AP9" sqref="U9:AP9"/>
     </sheetView>
   </sheetViews>
@@ -5808,7 +5838,7 @@
         <v>0.95908346972177105</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S18" si="31">S3/$S$2</f>
+        <f t="shared" ref="S12:S17" si="31">S3/$S$2</f>
         <v>0.97854785478547746</v>
       </c>
     </row>
@@ -6065,11 +6095,1598 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1">
-    <sortState ref="A2:S8">
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E59D66E-4170-48F4-8D24-FEDA7A722D44}">
+  <dimension ref="A1:AP18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:42" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114390</v>
+      </c>
+      <c r="F2">
+        <v>35.196923076923099</v>
+      </c>
+      <c r="G2">
+        <v>195723</v>
+      </c>
+      <c r="H2">
+        <v>114390</v>
+      </c>
+      <c r="I2">
+        <v>81333</v>
+      </c>
+      <c r="J2">
+        <v>58.444842966845997</v>
+      </c>
+      <c r="K2">
+        <v>41.555157033154003</v>
+      </c>
+      <c r="L2">
+        <v>85.778477139610104</v>
+      </c>
+      <c r="M2">
+        <v>6.6797797010228201</v>
+      </c>
+      <c r="N2">
+        <v>2.9600489553282601</v>
+      </c>
+      <c r="O2">
+        <v>4.5816942040388096</v>
+      </c>
+      <c r="P2">
+        <v>0.83537683317439904</v>
+      </c>
+      <c r="Q2">
+        <v>8.2101806239737295E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.7921146953405001</v>
+      </c>
+      <c r="S2">
+        <v>0.17035775127768299</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:Y9" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>114390</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>F11</f>
+        <v>0.35196923076923098</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AC9" si="1">G2</f>
+        <v>195723</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="1"/>
+        <v>114390</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" si="1"/>
+        <v>81333</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" ref="AD2:AE9" si="2">J11</f>
+        <v>0.58444842966846</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41555157033154005</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="4">
+        <f t="shared" ref="AG2:AJ9" si="3">L11</f>
+        <v>0.85778477139610099</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="3"/>
+        <v>6.6797797010228199E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9600489553282601E-2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5816942040388095E-2</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13">
+        <f t="shared" ref="AL2:AL9" si="4">SUM(AH2:AJ2)</f>
+        <v>0.1422152286038989</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" ref="AN2:AN9" si="5">P11</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>S11</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4">
+        <f>R11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114727</v>
+      </c>
+      <c r="F3">
+        <v>35.300615384615398</v>
+      </c>
+      <c r="G3">
+        <v>195520</v>
+      </c>
+      <c r="H3">
+        <v>114727</v>
+      </c>
+      <c r="I3">
+        <v>80793</v>
+      </c>
+      <c r="J3">
+        <v>58.677884615384599</v>
+      </c>
+      <c r="K3">
+        <v>41.322115384615401</v>
+      </c>
+      <c r="L3">
+        <v>86.151472626321606</v>
+      </c>
+      <c r="M3">
+        <v>6.6252930870675604</v>
+      </c>
+      <c r="N3">
+        <v>2.9382795680179901</v>
+      </c>
+      <c r="O3">
+        <v>4.2849547185928296</v>
+      </c>
+      <c r="P3">
+        <v>0.80198980170017697</v>
+      </c>
+      <c r="Q3">
+        <v>7.2332730560578703E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.76056338028169</v>
+      </c>
+      <c r="S3">
+        <v>0.16919759226231301</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>114727</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z2:Z9" si="6">F12</f>
+        <v>0.35300615384615397</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="1"/>
+        <v>195520</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="1"/>
+        <v>114727</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="1"/>
+        <v>80793</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.58677884615384601</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41322115384615399</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86151472626321601</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="3"/>
+        <v>6.6252930870675603E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9382795680179902E-2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2849547185928295E-2</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
+        <f t="shared" si="4"/>
+        <v>0.13848527373678379</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN3" s="4">
+        <f t="shared" si="5"/>
+        <v>0.96003356790808692</v>
+      </c>
+      <c r="AO3" s="4">
+        <f t="shared" ref="AO3:AO9" si="7">S12</f>
+        <v>0.99318986657977826</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" ref="AP3:AP9" si="8">R12</f>
+        <v>0.98239436619718401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114757</v>
+      </c>
+      <c r="F4">
+        <v>35.309846153846202</v>
+      </c>
+      <c r="G4">
+        <v>195784</v>
+      </c>
+      <c r="H4">
+        <v>114757</v>
+      </c>
+      <c r="I4">
+        <v>81027</v>
+      </c>
+      <c r="J4">
+        <v>58.614084909900697</v>
+      </c>
+      <c r="K4">
+        <v>41.385915090099303</v>
+      </c>
+      <c r="L4">
+        <v>89.378425716949707</v>
+      </c>
+      <c r="M4">
+        <v>5.9473496170168296</v>
+      </c>
+      <c r="N4">
+        <v>2.0216631665170799</v>
+      </c>
+      <c r="O4">
+        <v>2.65256149951637</v>
+      </c>
+      <c r="P4">
+        <v>0.48138205741964502</v>
+      </c>
+      <c r="Q4">
+        <v>4.98338870431894E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.1844331641285999</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>114757</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35309846153846203</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="1"/>
+        <v>195784</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="1"/>
+        <v>114757</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="1"/>
+        <v>81027</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.58614084909900699</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41385915090099301</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.89378425716949705</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="3"/>
+        <v>5.9473496170168297E-2</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.0216631665170799E-2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6525614995163701E-2</v>
+      </c>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13">
+        <f t="shared" si="4"/>
+        <v>0.10621574283050281</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.57624540004348956</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="8"/>
+        <v>0.66091370558375939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>131992</v>
+      </c>
+      <c r="F5">
+        <v>40.612923076923103</v>
+      </c>
+      <c r="G5">
+        <v>182364</v>
+      </c>
+      <c r="H5">
+        <v>141250</v>
+      </c>
+      <c r="I5">
+        <v>41114</v>
+      </c>
+      <c r="J5">
+        <v>77.454980149590895</v>
+      </c>
+      <c r="K5">
+        <v>22.545019850409101</v>
+      </c>
+      <c r="L5">
+        <v>79.463149281774605</v>
+      </c>
+      <c r="M5">
+        <v>10.115006970119399</v>
+      </c>
+      <c r="N5">
+        <v>4.3290502454694204</v>
+      </c>
+      <c r="O5">
+        <v>6.0927935026365203</v>
+      </c>
+      <c r="P5">
+        <v>1.0428013156738001</v>
+      </c>
+      <c r="Q5">
+        <v>9.9290780141843994E-3</v>
+      </c>
+      <c r="R5">
+        <v>2.0679722915499399</v>
+      </c>
+      <c r="S5">
+        <v>0.27932960893854702</v>
+      </c>
+      <c r="U5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>131992</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40612923076923102</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="1"/>
+        <v>182364</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="1"/>
+        <v>141250</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="1"/>
+        <v>41114</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77454980149590891</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22545019850409101</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.79463149281774603</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10115006970119399</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="3"/>
+        <v>4.3290502454694207E-2</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="3"/>
+        <v>6.0927935026365204E-2</v>
+      </c>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13">
+        <f t="shared" si="4"/>
+        <v>0.20536850718225338</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.248300496568951</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="7"/>
+        <v>1.6396648044692725</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.1539285386848677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>131731</v>
+      </c>
+      <c r="F6">
+        <v>40.532615384615397</v>
+      </c>
+      <c r="G6">
+        <v>182155</v>
+      </c>
+      <c r="H6">
+        <v>141010</v>
+      </c>
+      <c r="I6">
+        <v>41145</v>
+      </c>
+      <c r="J6">
+        <v>77.412094095687706</v>
+      </c>
+      <c r="K6">
+        <v>22.587905904312301</v>
+      </c>
+      <c r="L6">
+        <v>81.519156462791599</v>
+      </c>
+      <c r="M6">
+        <v>9.2969764140559192</v>
+      </c>
+      <c r="N6">
+        <v>3.7371613363597</v>
+      </c>
+      <c r="O6">
+        <v>5.4467057867927799</v>
+      </c>
+      <c r="P6">
+        <v>0.93352745213141397</v>
+      </c>
+      <c r="Q6">
+        <v>8.7719298245613996E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.83619604433254</v>
+      </c>
+      <c r="S6">
+        <v>0.27699873181534301</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>131731</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40532615384615395</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>182155</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="1"/>
+        <v>141010</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>41145</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77412094095687711</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.225879059043123</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81519156462791598</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="3"/>
+        <v>9.2969764140559186E-2</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7371613363596998E-2</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4467057867927798E-2</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13">
+        <f t="shared" si="4"/>
+        <v>0.184808435372084</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1174926273500385</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="7"/>
+        <v>1.625982555756065</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0245973927375582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>131991</v>
+      </c>
+      <c r="F7">
+        <v>40.612615384615403</v>
+      </c>
+      <c r="G7">
+        <v>182571</v>
+      </c>
+      <c r="H7">
+        <v>141268</v>
+      </c>
+      <c r="I7">
+        <v>41303</v>
+      </c>
+      <c r="J7">
+        <v>77.377020446839893</v>
+      </c>
+      <c r="K7">
+        <v>22.6229795531601</v>
+      </c>
+      <c r="L7">
+        <v>86.936230500564406</v>
+      </c>
+      <c r="M7">
+        <v>7.5565758271397296</v>
+      </c>
+      <c r="N7">
+        <v>2.5228992885878601</v>
+      </c>
+      <c r="O7">
+        <v>2.9842943837079798</v>
+      </c>
+      <c r="P7">
+        <v>0.515774669723298</v>
+      </c>
+      <c r="Q7">
+        <v>4.4247787610619503E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.1922503725782401</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="0"/>
+        <v>131991</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40612615384615403</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>182571</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>141268</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>41303</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77377020446839895</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.226229795531601</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86936230500564404</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.556575827139729E-2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5228992885878602E-2</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9842943837079798E-2</v>
+      </c>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13">
+        <f t="shared" si="4"/>
+        <v>0.13063769499435568</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.61741557730703944</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="8"/>
+        <v>0.66527570789865864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>131931</v>
+      </c>
+      <c r="F8">
+        <v>40.594153846153802</v>
+      </c>
+      <c r="G8">
+        <v>182820</v>
+      </c>
+      <c r="H8">
+        <v>141095</v>
+      </c>
+      <c r="I8">
+        <v>41725</v>
+      </c>
+      <c r="J8">
+        <v>77.177004704080503</v>
+      </c>
+      <c r="K8">
+        <v>22.822995295919501</v>
+      </c>
+      <c r="L8">
+        <v>81.886743828213199</v>
+      </c>
+      <c r="M8">
+        <v>8.8485647800744296</v>
+      </c>
+      <c r="N8">
+        <v>3.7921337668933002</v>
+      </c>
+      <c r="O8">
+        <v>5.4725576248190304</v>
+      </c>
+      <c r="P8">
+        <v>0.93710309209308396</v>
+      </c>
+      <c r="Q8">
+        <v>8.8105726872246704E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8258426966292101</v>
+      </c>
+      <c r="S8">
+        <v>0.27624309392265201</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="0"/>
+        <v>131931</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40594153846153802</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="1"/>
+        <v>182820</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="1"/>
+        <v>141095</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="1"/>
+        <v>41725</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77177004704080499</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22822995295919501</v>
+      </c>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81886743828213193</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="3"/>
+        <v>8.8485647800744291E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7921337668932999E-2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4725576248190307E-2</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1811325617178676</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="5"/>
+        <v>1.121772899222174</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="7"/>
+        <v>1.6215469613259688</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0188202247191003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>132379</v>
+      </c>
+      <c r="F9">
+        <v>40.731999999999999</v>
+      </c>
+      <c r="G9">
+        <v>195006</v>
+      </c>
+      <c r="H9">
+        <v>142201</v>
+      </c>
+      <c r="I9">
+        <v>52805</v>
+      </c>
+      <c r="J9">
+        <v>72.921346009866397</v>
+      </c>
+      <c r="K9">
+        <v>27.078653990133599</v>
+      </c>
+      <c r="L9">
+        <v>82.105167738085399</v>
+      </c>
+      <c r="M9">
+        <v>8.6207026794280104</v>
+      </c>
+      <c r="N9">
+        <v>3.8616396860529201</v>
+      </c>
+      <c r="O9">
+        <v>5.41248989643372</v>
+      </c>
+      <c r="P9">
+        <v>0.92787673083264399</v>
+      </c>
+      <c r="Q9">
+        <v>8.6956521739130401E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.8324607329842899</v>
+      </c>
+      <c r="S9">
+        <v>0.27359781121750998</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="0"/>
+        <v>132379</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40732000000000002</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="1"/>
+        <v>195006</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="1"/>
+        <v>142201</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="1"/>
+        <v>52805</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.72921346009866395</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.270786539901336</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82105167738085394</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6207026794280106E-2</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8616396860529201E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4124898964337198E-2</v>
+      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1789483226191465</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1107283491532187</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="7"/>
+        <v>1.606019151846785</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0225130890052347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <f>F2/$A$11</f>
+        <v>0.35196923076923098</v>
+      </c>
+      <c r="J11">
+        <f>J2/$A$11</f>
+        <v>0.58444842966846</v>
+      </c>
+      <c r="K11">
+        <f>K2/$A$11</f>
+        <v>0.41555157033154005</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:O11" si="9">L2/$A$11</f>
+        <v>0.85778477139610099</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="9"/>
+        <v>6.6797797010228199E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>2.9600489553282601E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="9"/>
+        <v>4.5816942040388095E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P18" si="10">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" ref="F12:F18" si="11">F3/$A$11</f>
+        <v>0.35300615384615397</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:O18" si="12">J3/$A$11</f>
+        <v>0.58677884615384601</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="12"/>
+        <v>0.41322115384615399</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="12"/>
+        <v>0.86151472626321601</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="12"/>
+        <v>6.6252930870675603E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="12"/>
+        <v>2.9382795680179902E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
+        <v>4.2849547185928295E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="10"/>
+        <v>0.96003356790808692</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R18" si="13">R3/$R$2</f>
+        <v>0.98239436619718401</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S17" si="14">S3/$S$2</f>
+        <v>0.99318986657977826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="11"/>
+        <v>0.35309846153846203</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="12"/>
+        <v>0.58614084909900699</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>0.41385915090099301</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="12"/>
+        <v>0.89378425716949705</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="12"/>
+        <v>5.9473496170168297E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>2.0216631665170799E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>2.6525614995163701E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="10"/>
+        <v>0.57624540004348956</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="13"/>
+        <v>0.66091370558375939</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="11"/>
+        <v>0.40612923076923102</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="12"/>
+        <v>0.77454980149590891</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>0.22545019850409101</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="12"/>
+        <v>0.79463149281774603</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="12"/>
+        <v>0.10115006970119399</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="12"/>
+        <v>4.3290502454694207E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="12"/>
+        <v>6.0927935026365204E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="10"/>
+        <v>1.248300496568951</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="13"/>
+        <v>1.1539285386848677</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="14"/>
+        <v>1.6396648044692725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="11"/>
+        <v>0.40532615384615395</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>0.77412094095687711</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.225879059043123</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>0.81519156462791598</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>9.2969764140559186E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>3.7371613363596998E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>5.4467057867927798E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>1.1174926273500385</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="13"/>
+        <v>1.0245973927375582</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="14"/>
+        <v>1.625982555756065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="11"/>
+        <v>0.40612615384615403</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="12"/>
+        <v>0.77377020446839895</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>0.226229795531601</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="12"/>
+        <v>0.86936230500564404</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>7.556575827139729E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>2.5228992885878602E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>2.9842943837079798E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>0.61741557730703944</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>0.66527570789865864</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="11"/>
+        <v>0.40594153846153802</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>0.77177004704080499</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>0.22822995295919501</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>0.81886743828213193</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>8.8485647800744291E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>3.7921337668932999E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>5.4725576248190307E-2</v>
+      </c>
+      <c r="P17">
+        <f>P8/$P$2</f>
+        <v>1.121772899222174</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>1.0188202247191003</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="14"/>
+        <v>1.6215469613259688</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="11"/>
+        <v>0.40732000000000002</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="12"/>
+        <v>0.72921346009866395</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0.270786539901336</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="12"/>
+        <v>0.82105167738085394</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="12"/>
+        <v>8.6207026794280106E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>3.8616396860529201E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
+        <v>5.4124898964337198E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>1.1107283491532187</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="13"/>
+        <v>1.0225130890052347</v>
+      </c>
+      <c r="S18">
+        <f>S9/$S$2</f>
+        <v>1.606019151846785</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S8">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AO2:AO9" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160844B-DD54-4CDE-9DC9-3DDAEB0B7B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E0669A-5C60-4002-85BE-533CA3508822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="3-3-21" sheetId="6" r:id="rId6"/>
+    <sheet name="3-8-21" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-3-21'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'3-8-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
   <si>
     <t>Treatment</t>
   </si>
@@ -303,6 +305,39 @@
   </si>
   <si>
     <t>0.93% [0.27%-1.83%]</t>
+  </si>
+  <si>
+    <t>STAside</t>
+  </si>
+  <si>
+    <t>ST Aside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85% [0.17%-1.81%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50% [0.0%-1.21%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04% [0.28%-2.07%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52% [0.0%-1.17%]  </t>
+  </si>
+  <si>
+    <t>0.85% [0.17%-1.80%]</t>
+  </si>
+  <si>
+    <t>0.99% [0.27%-1.96%]</t>
+  </si>
+  <si>
+    <t>0.97% [0.27%-1.89%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84% [0.17%-1.80%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99% [0.28%-1.97%]  </t>
   </si>
 </sst>
 </file>
@@ -847,7 +882,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -908,6 +943,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1306,26 +1344,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="R3" s="22" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="R3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -6108,8 +6146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E59D66E-4170-48F4-8D24-FEDA7A722D44}">
   <dimension ref="A1:AP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6450,7 +6488,7 @@
         <v>114727</v>
       </c>
       <c r="Z3" s="5">
-        <f t="shared" ref="Z2:Z9" si="6">F12</f>
+        <f t="shared" ref="Z3:Z9" si="6">F12</f>
         <v>0.35300615384615397</v>
       </c>
       <c r="AA3" s="3">
@@ -7689,4 +7727,1775 @@
     <ignoredError sqref="AO2:AO9" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AEF58A-6676-4911-9A0F-F93CCACAFA8C}">
+  <dimension ref="A1:AP20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2:AP7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114723</v>
+      </c>
+      <c r="F2">
+        <v>35.299384615384596</v>
+      </c>
+      <c r="G2">
+        <v>184864</v>
+      </c>
+      <c r="H2">
+        <v>114723</v>
+      </c>
+      <c r="I2">
+        <v>70141</v>
+      </c>
+      <c r="J2">
+        <v>62.058053487969502</v>
+      </c>
+      <c r="K2">
+        <v>37.941946512030498</v>
+      </c>
+      <c r="L2">
+        <v>85.030028852104607</v>
+      </c>
+      <c r="M2">
+        <v>7.1249880146090998</v>
+      </c>
+      <c r="N2">
+        <v>3.2425930284249902</v>
+      </c>
+      <c r="O2">
+        <v>4.6023901048612696</v>
+      </c>
+      <c r="P2">
+        <v>0.85038321754908797</v>
+      </c>
+      <c r="Q2">
+        <v>8.3472454090150194E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="S2">
+        <v>0.17006802721088399</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:Y10" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>114723</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>F12</f>
+        <v>0.35299384615384599</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AC9" si="1">G2</f>
+        <v>184864</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="1"/>
+        <v>114723</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" si="1"/>
+        <v>70141</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" ref="AD2:AE9" si="2">J12</f>
+        <v>0.620580534879695</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="2"/>
+        <v>0.379419465120305</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="4">
+        <f t="shared" ref="AG2:AJ9" si="3">L12</f>
+        <v>0.85030028852104611</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1249880146091002E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="3"/>
+        <v>3.24259302842499E-2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6023901048612696E-2</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13">
+        <f t="shared" ref="AL2:AL10" si="4">SUM(AH2:AJ2)</f>
+        <v>0.14969971147895361</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" ref="AN2:AN9" si="5">P12</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>S12</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4">
+        <f>R12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114968</v>
+      </c>
+      <c r="F3">
+        <v>35.374769230769203</v>
+      </c>
+      <c r="G3">
+        <v>184875</v>
+      </c>
+      <c r="H3">
+        <v>114968</v>
+      </c>
+      <c r="I3">
+        <v>69907</v>
+      </c>
+      <c r="J3">
+        <v>62.186883029073698</v>
+      </c>
+      <c r="K3">
+        <v>37.813116970926302</v>
+      </c>
+      <c r="L3">
+        <v>85.597731542690099</v>
+      </c>
+      <c r="M3">
+        <v>6.7818871338111499</v>
+      </c>
+      <c r="N3">
+        <v>3.0625913297613199</v>
+      </c>
+      <c r="O3">
+        <v>4.5577899937373898</v>
+      </c>
+      <c r="P3">
+        <v>0.84744143329636701</v>
+      </c>
+      <c r="Q3">
+        <v>8.4317032040472206E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.7921146953405001</v>
+      </c>
+      <c r="S3">
+        <v>0.169491525423729</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>114968</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z9" si="6">F13</f>
+        <v>0.35374769230769204</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="1"/>
+        <v>184875</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="1"/>
+        <v>114968</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="1"/>
+        <v>69907</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62186883029073703</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37813116970926303</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="4">
+        <f t="shared" si="3"/>
+        <v>0.85597731542690103</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="3"/>
+        <v>6.78188713381115E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0625913297613199E-2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5577899937373899E-2</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14402268457309861</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" s="4">
+        <f t="shared" si="5"/>
+        <v>0.99654063698340667</v>
+      </c>
+      <c r="AO3" s="4">
+        <f>S13</f>
+        <v>0.9966101694915287</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" ref="AP3:AP9" si="7">R13</f>
+        <v>0.98566308243727407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114638</v>
+      </c>
+      <c r="F4">
+        <v>35.2732307692308</v>
+      </c>
+      <c r="G4">
+        <v>184550</v>
+      </c>
+      <c r="H4">
+        <v>114638</v>
+      </c>
+      <c r="I4">
+        <v>69912</v>
+      </c>
+      <c r="J4">
+        <v>62.117583310755897</v>
+      </c>
+      <c r="K4">
+        <v>37.882416689244103</v>
+      </c>
+      <c r="L4">
+        <v>88.959158394249698</v>
+      </c>
+      <c r="M4">
+        <v>6.1620056176834899</v>
+      </c>
+      <c r="N4">
+        <v>2.1493745529405599</v>
+      </c>
+      <c r="O4">
+        <v>2.7294614351262201</v>
+      </c>
+      <c r="P4">
+        <v>0.501665401259347</v>
+      </c>
+      <c r="Q4">
+        <v>5.0847457627118597E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.2173913043478299</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>114638</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35273230769230801</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="1"/>
+        <v>184550</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="1"/>
+        <v>114638</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="1"/>
+        <v>69912</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62117583310755897</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37882416689244103</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88959158394249693</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="3"/>
+        <v>6.16200561768349E-2</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1493745529405597E-2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7294614351262202E-2</v>
+      </c>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13">
+        <f t="shared" si="4"/>
+        <v>0.11040841605750271</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.58992862383292344</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" ref="AO3:AO9" si="8">S14</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="7"/>
+        <v>0.66956521739130581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>132624</v>
+      </c>
+      <c r="F5">
+        <v>40.807384615384599</v>
+      </c>
+      <c r="G5">
+        <v>171614</v>
+      </c>
+      <c r="H5">
+        <v>142118</v>
+      </c>
+      <c r="I5">
+        <v>29496</v>
+      </c>
+      <c r="J5">
+        <v>82.812591047350494</v>
+      </c>
+      <c r="K5">
+        <v>17.187408952649498</v>
+      </c>
+      <c r="L5">
+        <v>79.053564965617099</v>
+      </c>
+      <c r="M5">
+        <v>10.250784171793899</v>
+      </c>
+      <c r="N5">
+        <v>4.5557365182772296</v>
+      </c>
+      <c r="O5">
+        <v>6.1399143443117401</v>
+      </c>
+      <c r="P5">
+        <v>1.03874671656127</v>
+      </c>
+      <c r="Q5">
+        <v>9.8452883263009904E-3</v>
+      </c>
+      <c r="R5">
+        <v>2.0718794761612398</v>
+      </c>
+      <c r="S5">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="U5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>132624</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40807384615384601</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="1"/>
+        <v>171614</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="1"/>
+        <v>142118</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="1"/>
+        <v>29496</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82812591047350492</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17187408952649499</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.79053564965617096</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10250784171793899</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5557365182772293E-2</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="3"/>
+        <v>6.13991434431174E-2</v>
+      </c>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13">
+        <f t="shared" si="4"/>
+        <v>0.20946435034382868</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2215042525828173</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6220689655172436</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1395337118886808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>132220</v>
+      </c>
+      <c r="F6">
+        <v>40.683076923076896</v>
+      </c>
+      <c r="G6">
+        <v>170905</v>
+      </c>
+      <c r="H6">
+        <v>141690</v>
+      </c>
+      <c r="I6">
+        <v>29215</v>
+      </c>
+      <c r="J6">
+        <v>82.905707849389998</v>
+      </c>
+      <c r="K6">
+        <v>17.094292150609999</v>
+      </c>
+      <c r="L6">
+        <v>80.113447284828297</v>
+      </c>
+      <c r="M6">
+        <v>10.085463621237301</v>
+      </c>
+      <c r="N6">
+        <v>4.1060353955528699</v>
+      </c>
+      <c r="O6">
+        <v>5.6950536983814803</v>
+      </c>
+      <c r="P6">
+        <v>1.0028868748340101</v>
+      </c>
+      <c r="Q6">
+        <v>9.7222222222222206E-3</v>
+      </c>
+      <c r="R6">
+        <v>2.0086083213773298</v>
+      </c>
+      <c r="S6">
+        <v>0.27662517289073302</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>132220</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40683076923076894</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>170905</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="1"/>
+        <v>141690</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>29215</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82905707849389998</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17094292150609999</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.80113447284828299</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.10085463621237301</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1060353955528699E-2</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6950536983814803E-2</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13">
+        <f t="shared" si="4"/>
+        <v>0.19886552715171651</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1793352151568288</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6265560165975137</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1047345767575303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>132875</v>
+      </c>
+      <c r="F7">
+        <v>40.884615384615401</v>
+      </c>
+      <c r="G7">
+        <v>171903</v>
+      </c>
+      <c r="H7">
+        <v>142594</v>
+      </c>
+      <c r="I7">
+        <v>29309</v>
+      </c>
+      <c r="J7">
+        <v>82.950268465355506</v>
+      </c>
+      <c r="K7">
+        <v>17.049731534644501</v>
+      </c>
+      <c r="L7">
+        <v>86.869614299153298</v>
+      </c>
+      <c r="M7">
+        <v>7.5823142050799603</v>
+      </c>
+      <c r="N7">
+        <v>2.5174035747883301</v>
+      </c>
+      <c r="O7">
+        <v>3.03066792097836</v>
+      </c>
+      <c r="P7">
+        <v>0.51757934546170903</v>
+      </c>
+      <c r="Q7">
+        <v>4.4642857142857097E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.1713030746705699</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="0"/>
+        <v>132875</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40884615384615403</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>171903</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>142594</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>29309</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82950268465355503</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17049731534644499</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86869614299153297</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.5823142050799597E-2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5174035747883301E-2</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.03066792097836E-2</v>
+      </c>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1313038570084665</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.60864247409942807</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.64421669106881285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>114851</v>
+      </c>
+      <c r="F8">
+        <v>35.338769230769202</v>
+      </c>
+      <c r="G8">
+        <v>184928</v>
+      </c>
+      <c r="H8">
+        <v>114851</v>
+      </c>
+      <c r="I8">
+        <v>32459</v>
+      </c>
+      <c r="J8">
+        <v>62.105792524658199</v>
+      </c>
+      <c r="K8">
+        <v>17.5522365461152</v>
+      </c>
+      <c r="L8">
+        <v>84.2683128575284</v>
+      </c>
+      <c r="M8">
+        <v>7.9546542912120897</v>
+      </c>
+      <c r="N8">
+        <v>3.1249183725000198</v>
+      </c>
+      <c r="O8">
+        <v>4.6521144787594402</v>
+      </c>
+      <c r="P8">
+        <v>0.85128876523682095</v>
+      </c>
+      <c r="Q8">
+        <v>8.4246058107778198E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8083405705719999</v>
+      </c>
+      <c r="S8">
+        <v>0.169491525423729</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="0"/>
+        <v>114851</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35338769230769201</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="1"/>
+        <v>184928</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="1"/>
+        <v>114851</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="1"/>
+        <v>32459</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62105792524658199</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17552236546115199</v>
+      </c>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.84268312857528405</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="3"/>
+        <v>7.9546542912120891E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1249183725000199E-2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="3"/>
+        <v>4.65211447875944E-2</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13">
+        <f>SUM(AH8:AJ8)</f>
+        <v>0.15731687142471548</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0010648701303666</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="8"/>
+        <v>0.9966101694915287</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="7"/>
+        <v>0.99458731381459897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>132239</v>
+      </c>
+      <c r="F9">
+        <v>40.688923076923103</v>
+      </c>
+      <c r="G9">
+        <v>171525</v>
+      </c>
+      <c r="H9">
+        <v>141672</v>
+      </c>
+      <c r="I9">
+        <v>29853</v>
+      </c>
+      <c r="J9">
+        <v>82.595540008745104</v>
+      </c>
+      <c r="K9">
+        <v>17.4044599912549</v>
+      </c>
+      <c r="L9">
+        <v>80.751518084680001</v>
+      </c>
+      <c r="M9">
+        <v>9.4435075885328796</v>
+      </c>
+      <c r="N9">
+        <v>3.9647910223156599</v>
+      </c>
+      <c r="O9">
+        <v>5.8401833044714504</v>
+      </c>
+      <c r="P9">
+        <v>0.99582145265587696</v>
+      </c>
+      <c r="Q9">
+        <v>9.7629009762901005E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.96085306492863</v>
+      </c>
+      <c r="S9">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="0"/>
+        <v>132239</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40688923076923106</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="1"/>
+        <v>171525</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="1"/>
+        <v>141672</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="1"/>
+        <v>29853</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82595540008745105</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.174044599912549</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.80751518084679996</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="3"/>
+        <v>9.443507588532879E-2</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9647910223156599E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8401833044714503E-2</v>
+      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1924848191531999</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1710266996166274</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6220689655172436</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0784691857107456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>325000</v>
+      </c>
+      <c r="E10">
+        <v>133120</v>
+      </c>
+      <c r="F10">
+        <v>40.96</v>
+      </c>
+      <c r="G10">
+        <v>184928</v>
+      </c>
+      <c r="H10">
+        <v>143178</v>
+      </c>
+      <c r="I10">
+        <v>41750</v>
+      </c>
+      <c r="J10">
+        <v>77.423645959508605</v>
+      </c>
+      <c r="K10">
+        <v>22.576354040491399</v>
+      </c>
+      <c r="L10">
+        <v>80.953275240384599</v>
+      </c>
+      <c r="M10">
+        <v>9.3389423076923102</v>
+      </c>
+      <c r="N10">
+        <v>3.9911358173076898</v>
+      </c>
+      <c r="O10">
+        <v>5.7166466346153904</v>
+      </c>
+      <c r="P10">
+        <v>0.97485495677161904</v>
+      </c>
+      <c r="Q10">
+        <v>9.5759233926128607E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.8970189701897</v>
+      </c>
+      <c r="S10">
+        <v>0.27359781121750998</v>
+      </c>
+      <c r="U10" s="2">
+        <v>9</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="0"/>
+        <v>133120</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" ref="Z10" si="9">F20</f>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" ref="AA10" si="10">G10</f>
+        <v>184928</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" ref="AB10" si="11">H10</f>
+        <v>143178</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" ref="AC10" si="12">I10</f>
+        <v>41750</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" ref="AD10" si="13">J20</f>
+        <v>0.77423645959508602</v>
+      </c>
+      <c r="AE10" s="5">
+        <f t="shared" ref="AE10" si="14">K20</f>
+        <v>0.22576354040491398</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" ref="AG10" si="15">L20</f>
+        <v>0.80953275240384603</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" ref="AH10" si="16">M20</f>
+        <v>9.3389423076923106E-2</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" ref="AI10" si="17">N20</f>
+        <v>3.9911358173076901E-2</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="shared" ref="AJ10" si="18">O20</f>
+        <v>5.7166466346153903E-2</v>
+      </c>
+      <c r="AL10" s="13">
+        <f t="shared" si="4"/>
+        <v>0.19046724759615391</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" ref="AN10" si="19">P20</f>
+        <v>1.146371349591393</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" ref="AO10" si="20">S20</f>
+        <v>1.6087551299589622</v>
+      </c>
+      <c r="AP10" s="4">
+        <f t="shared" ref="AP10" si="21">R20</f>
+        <v>1.0433604336043341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f>F2/$A$12</f>
+        <v>0.35299384615384599</v>
+      </c>
+      <c r="J12">
+        <f>J2/$A$12</f>
+        <v>0.620580534879695</v>
+      </c>
+      <c r="K12">
+        <f>K2/$A$12</f>
+        <v>0.379419465120305</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:O12" si="22">L2/$A$12</f>
+        <v>0.85030028852104611</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="22"/>
+        <v>7.1249880146091002E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="22"/>
+        <v>3.24259302842499E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="22"/>
+        <v>4.6023901048612696E-2</v>
+      </c>
+      <c r="P12">
+        <f>P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" ref="F13:F20" si="23">F3/$A$12</f>
+        <v>0.35374769230769204</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:O20" si="24">J3/$A$12</f>
+        <v>0.62186883029073703</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="24"/>
+        <v>0.37813116970926303</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="24"/>
+        <v>0.85597731542690103</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="24"/>
+        <v>6.78188713381115E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="24"/>
+        <v>3.0625913297613199E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="24"/>
+        <v>4.5577899937373899E-2</v>
+      </c>
+      <c r="P13">
+        <f>P3/$P$2</f>
+        <v>0.99654063698340667</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R20" si="25">R3/$R$2</f>
+        <v>0.98566308243727407</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S18" si="26">S3/$S$2</f>
+        <v>0.9966101694915287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="23"/>
+        <v>0.35273230769230801</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="24"/>
+        <v>0.62117583310755897</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="24"/>
+        <v>0.37882416689244103</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="24"/>
+        <v>0.88959158394249693</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="24"/>
+        <v>6.16200561768349E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="24"/>
+        <v>2.1493745529405597E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="24"/>
+        <v>2.7294614351262202E-2</v>
+      </c>
+      <c r="P14">
+        <f>P4/$P$2</f>
+        <v>0.58992862383292344</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="25"/>
+        <v>0.66956521739130581</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="23"/>
+        <v>0.40807384615384601</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="24"/>
+        <v>0.82812591047350492</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="24"/>
+        <v>0.17187408952649499</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="24"/>
+        <v>0.79053564965617096</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="24"/>
+        <v>0.10250784171793899</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="24"/>
+        <v>4.5557365182772293E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="24"/>
+        <v>6.13991434431174E-2</v>
+      </c>
+      <c r="P15">
+        <f>P5/$P$2</f>
+        <v>1.2215042525828173</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="25"/>
+        <v>1.1395337118886808</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="26"/>
+        <v>1.6220689655172436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="23"/>
+        <v>0.40683076923076894</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="24"/>
+        <v>0.82905707849389998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="24"/>
+        <v>0.17094292150609999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="24"/>
+        <v>0.80113447284828299</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="24"/>
+        <v>0.10085463621237301</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="24"/>
+        <v>4.1060353955528699E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="24"/>
+        <v>5.6950536983814803E-2</v>
+      </c>
+      <c r="P16">
+        <f>P6/$P$2</f>
+        <v>1.1793352151568288</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="25"/>
+        <v>1.1047345767575303</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="26"/>
+        <v>1.6265560165975137</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="23"/>
+        <v>0.40884615384615403</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="24"/>
+        <v>0.82950268465355503</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="24"/>
+        <v>0.17049731534644499</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="24"/>
+        <v>0.86869614299153297</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="24"/>
+        <v>7.5823142050799597E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="24"/>
+        <v>2.5174035747883301E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="24"/>
+        <v>3.03066792097836E-2</v>
+      </c>
+      <c r="P17">
+        <f>P7/$P$2</f>
+        <v>0.60864247409942807</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="25"/>
+        <v>0.64421669106881285</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="23"/>
+        <v>0.35338769230769201</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="24"/>
+        <v>0.62105792524658199</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="24"/>
+        <v>0.17552236546115199</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="24"/>
+        <v>0.84268312857528405</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="24"/>
+        <v>7.9546542912120891E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="24"/>
+        <v>3.1249183725000199E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="24"/>
+        <v>4.65211447875944E-2</v>
+      </c>
+      <c r="P18">
+        <f>P8/$P$2</f>
+        <v>1.0010648701303666</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="25"/>
+        <v>0.99458731381459897</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="26"/>
+        <v>0.9966101694915287</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="23"/>
+        <v>0.40688923076923106</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="24"/>
+        <v>0.82595540008745105</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="24"/>
+        <v>0.174044599912549</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="24"/>
+        <v>0.80751518084679996</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="24"/>
+        <v>9.443507588532879E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="24"/>
+        <v>3.9647910223156599E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="24"/>
+        <v>5.8401833044714503E-2</v>
+      </c>
+      <c r="P19">
+        <f>P9/$P$2</f>
+        <v>1.1710266996166274</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="25"/>
+        <v>1.0784691857107456</v>
+      </c>
+      <c r="S19">
+        <f>S9/$S$2</f>
+        <v>1.6220689655172436</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="23"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="24"/>
+        <v>0.77423645959508602</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="24"/>
+        <v>0.22576354040491398</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="24"/>
+        <v>0.80953275240384603</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="24"/>
+        <v>9.3389423076923106E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="24"/>
+        <v>3.9911358173076901E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="24"/>
+        <v>5.7166466346153903E-2</v>
+      </c>
+      <c r="P20">
+        <f>P10/$P$2</f>
+        <v>1.146371349591393</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="25"/>
+        <v>1.0433604336043341</v>
+      </c>
+      <c r="S20">
+        <f>S10/$S$2</f>
+        <v>1.6087551299589622</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AO2:AO10" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E0669A-5C60-4002-85BE-533CA3508822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19770638-3C78-420E-9C9F-A0E204895C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="3-3-21" sheetId="6" r:id="rId6"/>
     <sheet name="3-8-21" sheetId="7" r:id="rId7"/>
+    <sheet name="3-9-21 " sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-3-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'3-8-21'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3-9-21 '!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="105">
   <si>
     <t>Treatment</t>
   </si>
@@ -339,6 +341,27 @@
   <si>
     <t xml:space="preserve">0.99% [0.28%-1.97%]  </t>
   </si>
+  <si>
+    <t xml:space="preserve">0.89% [0.17%-1.81%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48% [0.0%-1.21%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98% [0.28%-2.07%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90% [0.28%-1.97%]  </t>
+  </si>
+  <si>
+    <t>0.86% [0.17%-1.80%]</t>
+  </si>
+  <si>
+    <t>0.93% [0.27%-1.96%]</t>
+  </si>
+  <si>
+    <t>0.92% [0.27%-1.89%]</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +532,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +724,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -882,7 +911,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -953,6 +982,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1344,26 +1377,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="R3" s="23" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="R3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -7733,7 +7766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AEF58A-6676-4911-9A0F-F93CCACAFA8C}">
   <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2:AP7"/>
     </sheetView>
   </sheetViews>
@@ -7745,7 +7778,7 @@
     <col min="39" max="39" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7866,7 +7899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8142,7 +8175,7 @@
         <v>0.98566308243727407</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8272,7 +8305,7 @@
         <v>0.58992862383292344</v>
       </c>
       <c r="AO4" s="4">
-        <f t="shared" ref="AO3:AO9" si="8">S14</f>
+        <f t="shared" ref="AO4:AO9" si="8">S14</f>
         <v>0</v>
       </c>
       <c r="AP4" s="4">
@@ -8280,7 +8313,7 @@
         <v>0.66956521739130581</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8418,7 +8451,7 @@
         <v>1.1395337118886808</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8556,7 +8589,7 @@
         <v>1.1047345767575303</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8694,7 +8727,7 @@
         <v>0.64421669106881285</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -8832,7 +8865,7 @@
         <v>0.99458731381459897</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8970,7 +9003,7 @@
         <v>1.0784691857107456</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9139,7 +9172,7 @@
         <v>4.6023901048612696E-2</v>
       </c>
       <c r="P12">
-        <f>P2/$P$2</f>
+        <f t="shared" ref="P12:P20" si="23">P2/$P$2</f>
         <v>1</v>
       </c>
       <c r="R12">
@@ -9153,291 +9186,291 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F13">
-        <f t="shared" ref="F13:F20" si="23">F3/$A$12</f>
+        <f t="shared" ref="F13:F20" si="24">F3/$A$12</f>
         <v>0.35374769230769204</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:O20" si="24">J3/$A$12</f>
+        <f t="shared" ref="J13:O20" si="25">J3/$A$12</f>
         <v>0.62186883029073703</v>
       </c>
       <c r="K13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.37813116970926303</v>
       </c>
       <c r="L13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.85597731542690103</v>
       </c>
       <c r="M13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.78188713381115E-2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.0625913297613199E-2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.5577899937373899E-2</v>
       </c>
       <c r="P13">
-        <f>P3/$P$2</f>
+        <f t="shared" si="23"/>
         <v>0.99654063698340667</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R20" si="25">R3/$R$2</f>
+        <f t="shared" ref="R13:R20" si="26">R3/$R$2</f>
         <v>0.98566308243727407</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S18" si="26">S3/$S$2</f>
+        <f t="shared" ref="S13:S18" si="27">S3/$S$2</f>
         <v>0.9966101694915287</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F14">
+        <f t="shared" si="24"/>
+        <v>0.35273230769230801</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="25"/>
+        <v>0.62117583310755897</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="25"/>
+        <v>0.37882416689244103</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="25"/>
+        <v>0.88959158394249693</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="25"/>
+        <v>6.16200561768349E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="25"/>
+        <v>2.1493745529405597E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="25"/>
+        <v>2.7294614351262202E-2</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="23"/>
-        <v>0.35273230769230801</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="24"/>
-        <v>0.62117583310755897</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="24"/>
-        <v>0.37882416689244103</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="24"/>
-        <v>0.88959158394249693</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="24"/>
-        <v>6.16200561768349E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="24"/>
-        <v>2.1493745529405597E-2</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="24"/>
-        <v>2.7294614351262202E-2</v>
-      </c>
-      <c r="P14">
-        <f>P4/$P$2</f>
         <v>0.58992862383292344</v>
       </c>
       <c r="R14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.66956521739130581</v>
       </c>
       <c r="S14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F15">
+        <f t="shared" si="24"/>
+        <v>0.40807384615384601</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="25"/>
+        <v>0.82812591047350492</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="25"/>
+        <v>0.17187408952649499</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="25"/>
+        <v>0.79053564965617096</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="25"/>
+        <v>0.10250784171793899</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="25"/>
+        <v>4.5557365182772293E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="25"/>
+        <v>6.13991434431174E-2</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="23"/>
-        <v>0.40807384615384601</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="24"/>
-        <v>0.82812591047350492</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="24"/>
-        <v>0.17187408952649499</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="24"/>
-        <v>0.79053564965617096</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="24"/>
-        <v>0.10250784171793899</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="24"/>
-        <v>4.5557365182772293E-2</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="24"/>
-        <v>6.13991434431174E-2</v>
-      </c>
-      <c r="P15">
-        <f>P5/$P$2</f>
         <v>1.2215042525828173</v>
       </c>
       <c r="R15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1395337118886808</v>
       </c>
       <c r="S15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.6220689655172436</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F16">
+        <f t="shared" si="24"/>
+        <v>0.40683076923076894</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="25"/>
+        <v>0.82905707849389998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="25"/>
+        <v>0.17094292150609999</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="25"/>
+        <v>0.80113447284828299</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="25"/>
+        <v>0.10085463621237301</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="25"/>
+        <v>4.1060353955528699E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="25"/>
+        <v>5.6950536983814803E-2</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="23"/>
-        <v>0.40683076923076894</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="24"/>
-        <v>0.82905707849389998</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="24"/>
-        <v>0.17094292150609999</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="24"/>
-        <v>0.80113447284828299</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="24"/>
-        <v>0.10085463621237301</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="24"/>
-        <v>4.1060353955528699E-2</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="24"/>
-        <v>5.6950536983814803E-2</v>
-      </c>
-      <c r="P16">
-        <f>P6/$P$2</f>
         <v>1.1793352151568288</v>
       </c>
       <c r="R16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1047345767575303</v>
       </c>
       <c r="S16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.6265560165975137</v>
       </c>
     </row>
     <row r="17" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F17">
+        <f t="shared" si="24"/>
+        <v>0.40884615384615403</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="25"/>
+        <v>0.82950268465355503</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="25"/>
+        <v>0.17049731534644499</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="25"/>
+        <v>0.86869614299153297</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="25"/>
+        <v>7.5823142050799597E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="25"/>
+        <v>2.5174035747883301E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="25"/>
+        <v>3.03066792097836E-2</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="23"/>
-        <v>0.40884615384615403</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="24"/>
-        <v>0.82950268465355503</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="24"/>
-        <v>0.17049731534644499</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="24"/>
-        <v>0.86869614299153297</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="24"/>
-        <v>7.5823142050799597E-2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="24"/>
-        <v>2.5174035747883301E-2</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="24"/>
-        <v>3.03066792097836E-2</v>
-      </c>
-      <c r="P17">
-        <f>P7/$P$2</f>
         <v>0.60864247409942807</v>
       </c>
       <c r="R17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.64421669106881285</v>
       </c>
       <c r="S17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F18">
+        <f t="shared" si="24"/>
+        <v>0.35338769230769201</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="25"/>
+        <v>0.62105792524658199</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="25"/>
+        <v>0.17552236546115199</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="25"/>
+        <v>0.84268312857528405</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="25"/>
+        <v>7.9546542912120891E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="25"/>
+        <v>3.1249183725000199E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="25"/>
+        <v>4.65211447875944E-2</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="23"/>
-        <v>0.35338769230769201</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="24"/>
-        <v>0.62105792524658199</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="24"/>
-        <v>0.17552236546115199</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="24"/>
-        <v>0.84268312857528405</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="24"/>
-        <v>7.9546542912120891E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="24"/>
-        <v>3.1249183725000199E-2</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="24"/>
-        <v>4.65211447875944E-2</v>
-      </c>
-      <c r="P18">
-        <f>P8/$P$2</f>
         <v>1.0010648701303666</v>
       </c>
       <c r="R18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.99458731381459897</v>
       </c>
       <c r="S18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.9966101694915287</v>
       </c>
     </row>
     <row r="19" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F19">
+        <f t="shared" si="24"/>
+        <v>0.40688923076923106</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="25"/>
+        <v>0.82595540008745105</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="25"/>
+        <v>0.174044599912549</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="25"/>
+        <v>0.80751518084679996</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="25"/>
+        <v>9.443507588532879E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="25"/>
+        <v>3.9647910223156599E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="25"/>
+        <v>5.8401833044714503E-2</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="23"/>
-        <v>0.40688923076923106</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="24"/>
-        <v>0.82595540008745105</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="24"/>
-        <v>0.174044599912549</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="24"/>
-        <v>0.80751518084679996</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="24"/>
-        <v>9.443507588532879E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="24"/>
-        <v>3.9647910223156599E-2</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="24"/>
-        <v>5.8401833044714503E-2</v>
-      </c>
-      <c r="P19">
-        <f>P9/$P$2</f>
         <v>1.1710266996166274</v>
       </c>
       <c r="R19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0784691857107456</v>
       </c>
       <c r="S19">
@@ -9447,39 +9480,39 @@
     </row>
     <row r="20" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F20">
+        <f t="shared" si="24"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="25"/>
+        <v>0.77423645959508602</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="25"/>
+        <v>0.22576354040491398</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="25"/>
+        <v>0.80953275240384603</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="25"/>
+        <v>9.3389423076923106E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="25"/>
+        <v>3.9911358173076901E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="25"/>
+        <v>5.7166466346153903E-2</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="23"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="24"/>
-        <v>0.77423645959508602</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="24"/>
-        <v>0.22576354040491398</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="24"/>
-        <v>0.80953275240384603</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="24"/>
-        <v>9.3389423076923106E-2</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="24"/>
-        <v>3.9911358173076901E-2</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="24"/>
-        <v>5.7166466346153903E-2</v>
-      </c>
-      <c r="P20">
-        <f>P10/$P$2</f>
         <v>1.146371349591393</v>
       </c>
       <c r="R20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0433604336043341</v>
       </c>
       <c r="S20">
@@ -9498,4 +9531,1772 @@
     <ignoredError sqref="AO2:AO10" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815D215-4C00-4D69-A4B6-A85223BC21D4}">
+  <dimension ref="A1:AP20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114784</v>
+      </c>
+      <c r="F2">
+        <v>35.318153846153798</v>
+      </c>
+      <c r="G2">
+        <v>185042</v>
+      </c>
+      <c r="H2">
+        <v>114784</v>
+      </c>
+      <c r="I2">
+        <v>70258</v>
+      </c>
+      <c r="J2">
+        <v>62.031322618648701</v>
+      </c>
+      <c r="K2">
+        <v>37.968677381351299</v>
+      </c>
+      <c r="L2">
+        <v>85.158210203512695</v>
+      </c>
+      <c r="M2">
+        <v>6.9347644270978499</v>
+      </c>
+      <c r="N2">
+        <v>3.0988639531642002</v>
+      </c>
+      <c r="O2">
+        <v>4.8081614162252597</v>
+      </c>
+      <c r="P2" s="25">
+        <v>0.89152940450751195</v>
+      </c>
+      <c r="Q2">
+        <v>8.6206896551724102E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.8382660338382799</v>
+      </c>
+      <c r="S2">
+        <v>0.17182130584192401</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:Y10" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>114784</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>F12</f>
+        <v>0.35318153846153799</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AC10" si="1">G2</f>
+        <v>185042</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="1"/>
+        <v>114784</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" si="1"/>
+        <v>70258</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" ref="AD2:AE10" si="2">J12</f>
+        <v>0.62031322618648699</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37968677381351301</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="4">
+        <f t="shared" ref="AG2:AJ10" si="3">L12</f>
+        <v>0.85158210203512696</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9347644270978503E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0988639531642003E-2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="3"/>
+        <v>4.8081614162252595E-2</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13">
+        <f t="shared" ref="AL2:AL10" si="4">SUM(AH2:AJ2)</f>
+        <v>0.14841789796487309</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" ref="AN2:AN10" si="5">P12</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>S12</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4">
+        <f>R12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114380</v>
+      </c>
+      <c r="F3">
+        <v>35.193846153846202</v>
+      </c>
+      <c r="G3">
+        <v>184363</v>
+      </c>
+      <c r="H3">
+        <v>114380</v>
+      </c>
+      <c r="I3">
+        <v>69983</v>
+      </c>
+      <c r="J3">
+        <v>62.040648069298101</v>
+      </c>
+      <c r="K3">
+        <v>37.959351930701899</v>
+      </c>
+      <c r="L3">
+        <v>85.543801363874806</v>
+      </c>
+      <c r="M3">
+        <v>6.8333624759573404</v>
+      </c>
+      <c r="N3">
+        <v>3.0442385032348298</v>
+      </c>
+      <c r="O3">
+        <v>4.57859765693303</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0.84510827777117303</v>
+      </c>
+      <c r="Q3">
+        <v>8.3892617449664395E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.8018018018018001</v>
+      </c>
+      <c r="S3">
+        <v>0.17006802721088399</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>114380</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z10" si="6">F13</f>
+        <v>0.35193846153846203</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="1"/>
+        <v>184363</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="1"/>
+        <v>114380</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="1"/>
+        <v>69983</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62040648069298099</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37959351930701901</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="4">
+        <f t="shared" si="3"/>
+        <v>0.85543801363874805</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="3"/>
+        <v>6.83336247595734E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0442385032348297E-2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5785976569330297E-2</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
+        <f t="shared" si="4"/>
+        <v>0.144561986361252</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94793090782913403</v>
+      </c>
+      <c r="AO3" s="4">
+        <f>S13</f>
+        <v>0.98979591836734704</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" ref="AP3:AP10" si="7">R13</f>
+        <v>0.98016378948136096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114931</v>
+      </c>
+      <c r="F4">
+        <v>35.363384615384597</v>
+      </c>
+      <c r="G4">
+        <v>184685</v>
+      </c>
+      <c r="H4">
+        <v>114931</v>
+      </c>
+      <c r="I4">
+        <v>69754</v>
+      </c>
+      <c r="J4">
+        <v>62.230825459566297</v>
+      </c>
+      <c r="K4">
+        <v>37.769174540433703</v>
+      </c>
+      <c r="L4">
+        <v>89.096936422723203</v>
+      </c>
+      <c r="M4">
+        <v>6.2150333678467904</v>
+      </c>
+      <c r="N4">
+        <v>2.0995205819143701</v>
+      </c>
+      <c r="O4">
+        <v>2.5885096275156401</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0.48401514372875198</v>
+      </c>
+      <c r="Q4">
+        <v>4.98338870431894E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.2089810017271201</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>114931</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35363384615384597</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="1"/>
+        <v>184685</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="1"/>
+        <v>114931</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="1"/>
+        <v>69754</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62230825459566297</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37769174540433703</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.89096936422723205</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="3"/>
+        <v>6.2150333678467902E-2</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.09952058191437E-2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5885096275156401E-2</v>
+      </c>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13">
+        <f t="shared" si="4"/>
+        <v>0.109030635772768</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.54290429601267709</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" ref="AO4:AO10" si="8">S14</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="7"/>
+        <v>0.65767466703542399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>133089</v>
+      </c>
+      <c r="F5">
+        <v>40.950461538461497</v>
+      </c>
+      <c r="G5">
+        <v>171837</v>
+      </c>
+      <c r="H5">
+        <v>142757</v>
+      </c>
+      <c r="I5">
+        <v>29080</v>
+      </c>
+      <c r="J5">
+        <v>83.0769857481218</v>
+      </c>
+      <c r="K5">
+        <v>16.9230142518782</v>
+      </c>
+      <c r="L5">
+        <v>81.499598013359503</v>
+      </c>
+      <c r="M5">
+        <v>8.9751970485915393</v>
+      </c>
+      <c r="N5">
+        <v>3.87409928694332</v>
+      </c>
+      <c r="O5">
+        <v>5.6511056511056497</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0.98375621186715501</v>
+      </c>
+      <c r="Q5">
+        <v>9.5890410958904097E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.92023633677991</v>
+      </c>
+      <c r="S5">
+        <v>0.27322404371584702</v>
+      </c>
+      <c r="U5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>133089</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40950461538461497</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="1"/>
+        <v>171837</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="1"/>
+        <v>142757</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="1"/>
+        <v>29080</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83076985748121801</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16923014251878199</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81499598013359498</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="3"/>
+        <v>8.9751970485915392E-2</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8740992869433201E-2</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="3"/>
+        <v>5.65110565110565E-2</v>
+      </c>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13">
+        <f t="shared" si="4"/>
+        <v>0.18500401986640511</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1034478581338434</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5901639344262333</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0445910991296929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>132479</v>
+      </c>
+      <c r="F6">
+        <v>40.762769230769202</v>
+      </c>
+      <c r="G6">
+        <v>171348</v>
+      </c>
+      <c r="H6">
+        <v>142138</v>
+      </c>
+      <c r="I6">
+        <v>29210</v>
+      </c>
+      <c r="J6">
+        <v>82.952821159278201</v>
+      </c>
+      <c r="K6">
+        <v>17.047178840721799</v>
+      </c>
+      <c r="L6">
+        <v>82.7466994768982</v>
+      </c>
+      <c r="M6">
+        <v>8.4307701597989109</v>
+      </c>
+      <c r="N6">
+        <v>3.6315189577216</v>
+      </c>
+      <c r="O6">
+        <v>5.1910114055812597</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0.89782085063755102</v>
+      </c>
+      <c r="Q6">
+        <v>8.5470085470085496E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.7595307917888601</v>
+      </c>
+      <c r="S6">
+        <v>0.26845637583892601</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>132479</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40762769230769202</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>171348</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="1"/>
+        <v>142138</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>29210</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82952821159278201</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17047178840721799</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.827466994768982</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4307701597989115E-2</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6315189577216002E-2</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="3"/>
+        <v>5.1910114055812598E-2</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17253300523101772</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0070569137688896</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5624161073825529</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.9571687445668452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>132381</v>
+      </c>
+      <c r="F7">
+        <v>40.7326153846154</v>
+      </c>
+      <c r="G7">
+        <v>171328</v>
+      </c>
+      <c r="H7">
+        <v>142059</v>
+      </c>
+      <c r="I7">
+        <v>29269</v>
+      </c>
+      <c r="J7">
+        <v>82.916394284646998</v>
+      </c>
+      <c r="K7">
+        <v>17.083605715352999</v>
+      </c>
+      <c r="L7">
+        <v>87.081983064034901</v>
+      </c>
+      <c r="M7">
+        <v>7.3862563358790201</v>
+      </c>
+      <c r="N7">
+        <v>2.5011142082323001</v>
+      </c>
+      <c r="O7">
+        <v>3.03064639185382</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0.52371221772742604</v>
+      </c>
+      <c r="Q7">
+        <v>5.2219321148825101E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.16279069767442</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="0"/>
+        <v>132381</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="6"/>
+        <v>0.407326153846154</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>171328</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>142059</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>29269</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82916394284646999</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17083605715352998</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87081983064034896</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.3862563358790198E-2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5011142082323003E-2</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0306463918538199E-2</v>
+      </c>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1291801693596514</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.58743123342827808</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.63254756181646099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>114305</v>
+      </c>
+      <c r="F8">
+        <v>35.170769230769203</v>
+      </c>
+      <c r="G8">
+        <v>184508</v>
+      </c>
+      <c r="H8">
+        <v>114305</v>
+      </c>
+      <c r="I8">
+        <v>35794</v>
+      </c>
+      <c r="J8">
+        <v>61.951243306523303</v>
+      </c>
+      <c r="K8">
+        <v>19.3997008259804</v>
+      </c>
+      <c r="L8">
+        <v>84.092559380604499</v>
+      </c>
+      <c r="M8">
+        <v>7.8789204321770701</v>
+      </c>
+      <c r="N8">
+        <v>3.3646822098770799</v>
+      </c>
+      <c r="O8">
+        <v>4.6638379773413199</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0.86767578512388599</v>
+      </c>
+      <c r="Q8">
+        <v>8.5034013605442202E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8518518518518501</v>
+      </c>
+      <c r="S8">
+        <v>0.17123287671232901</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="0"/>
+        <v>114305</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35170769230769205</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="1"/>
+        <v>184508</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="1"/>
+        <v>114305</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="1"/>
+        <v>35794</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.61951243306523307</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19399700825980401</v>
+      </c>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.84092559380604504</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="3"/>
+        <v>7.8789204321770695E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3646822098770797E-2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6638379773413202E-2</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13">
+        <f>SUM(AH8:AJ8)</f>
+        <v>0.15907440619395469</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.97324415856277569</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="8"/>
+        <v>0.99657534246575707</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0073905614113987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>132217</v>
+      </c>
+      <c r="F9">
+        <v>40.682153846153803</v>
+      </c>
+      <c r="G9">
+        <v>171484</v>
+      </c>
+      <c r="H9">
+        <v>141579</v>
+      </c>
+      <c r="I9">
+        <v>29905</v>
+      </c>
+      <c r="J9">
+        <v>82.561055258799698</v>
+      </c>
+      <c r="K9">
+        <v>17.438944741200299</v>
+      </c>
+      <c r="L9">
+        <v>82.3237556441305</v>
+      </c>
+      <c r="M9">
+        <v>8.4951254377273706</v>
+      </c>
+      <c r="N9">
+        <v>3.7090540550761202</v>
+      </c>
+      <c r="O9">
+        <v>5.47206486306602</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0.93290561748767598</v>
+      </c>
+      <c r="Q9">
+        <v>8.7591240875912399E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.8492176386913199</v>
+      </c>
+      <c r="S9">
+        <v>0.27210884353741499</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="0"/>
+        <v>132217</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40682153846153801</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="1"/>
+        <v>171484</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="1"/>
+        <v>141579</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="1"/>
+        <v>29905</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82561055258799698</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17438944741200299</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82323755644130503</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4951254377273702E-2</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7090540550761199E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4720648630660201E-2</v>
+      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17676244355869511</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.046410373870978</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5836734693877588</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0059575734150803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>325000</v>
+      </c>
+      <c r="E10">
+        <v>133362</v>
+      </c>
+      <c r="F10">
+        <v>41.0344615384615</v>
+      </c>
+      <c r="G10">
+        <v>184508</v>
+      </c>
+      <c r="H10">
+        <v>143333</v>
+      </c>
+      <c r="I10">
+        <v>41175</v>
+      </c>
+      <c r="J10">
+        <v>77.683894465280602</v>
+      </c>
+      <c r="K10">
+        <v>22.316105534719402</v>
+      </c>
+      <c r="L10">
+        <v>82.831691186394906</v>
+      </c>
+      <c r="M10">
+        <v>8.2197327574571499</v>
+      </c>
+      <c r="N10">
+        <v>3.5864789070349898</v>
+      </c>
+      <c r="O10">
+        <v>5.3620971491129401</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0.91975709990487198</v>
+      </c>
+      <c r="Q10">
+        <v>8.5959885386819503E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.8413597733711</v>
+      </c>
+      <c r="S10">
+        <v>0.26737967914438499</v>
+      </c>
+      <c r="U10" s="2">
+        <v>9</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="0"/>
+        <v>133362</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="6"/>
+        <v>0.41034461538461497</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="1"/>
+        <v>184508</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="1"/>
+        <v>143333</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="1"/>
+        <v>41175</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77683894465280601</v>
+      </c>
+      <c r="AE10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22316105534719402</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82831691186394907</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="3"/>
+        <v>8.2197327574571502E-2</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5864789070349901E-2</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="shared" si="3"/>
+        <v>5.3620971491129404E-2</v>
+      </c>
+      <c r="AL10" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17168308813605082</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0316621025113055</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5561497326203242</v>
+      </c>
+      <c r="AP10" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0016829661626072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f>F2/$A$12</f>
+        <v>0.35318153846153799</v>
+      </c>
+      <c r="J12">
+        <f>J2/$A$12</f>
+        <v>0.62031322618648699</v>
+      </c>
+      <c r="K12">
+        <f>K2/$A$12</f>
+        <v>0.37968677381351301</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:O12" si="9">L2/$A$12</f>
+        <v>0.85158210203512696</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>6.9347644270978503E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>3.0988639531642003E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="9"/>
+        <v>4.8081614162252595E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P20" si="10">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" ref="F13:F20" si="11">F3/$A$12</f>
+        <v>0.35193846153846203</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:O20" si="12">J3/$A$12</f>
+        <v>0.62040648069298099</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>0.37959351930701901</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="12"/>
+        <v>0.85543801363874805</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="12"/>
+        <v>6.83336247595734E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>3.0442385032348297E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>4.5785976569330297E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="10"/>
+        <v>0.94793090782913403</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R20" si="13">R3/$R$2</f>
+        <v>0.98016378948136096</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S18" si="14">S3/$S$2</f>
+        <v>0.98979591836734704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="11"/>
+        <v>0.35363384615384597</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="12"/>
+        <v>0.62230825459566297</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>0.37769174540433703</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="12"/>
+        <v>0.89096936422723205</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="12"/>
+        <v>6.2150333678467902E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="12"/>
+        <v>2.09952058191437E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="12"/>
+        <v>2.5885096275156401E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="10"/>
+        <v>0.54290429601267709</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="13"/>
+        <v>0.65767466703542399</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="11"/>
+        <v>0.40950461538461497</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>0.83076985748121801</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.16923014251878199</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>0.81499598013359498</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>8.9751970485915392E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>3.8740992869433201E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>5.65110565110565E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>1.1034478581338434</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="13"/>
+        <v>1.0445910991296929</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="14"/>
+        <v>1.5901639344262333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="11"/>
+        <v>0.40762769230769202</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="12"/>
+        <v>0.82952821159278201</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>0.17047178840721799</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="12"/>
+        <v>0.827466994768982</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>8.4307701597989115E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>3.6315189577216002E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>5.1910114055812598E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>1.0070569137688896</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>0.9571687445668452</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="14"/>
+        <v>1.5624161073825529</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="11"/>
+        <v>0.407326153846154</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>0.82916394284646999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>0.17083605715352998</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>0.87081983064034896</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>7.3862563358790198E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>2.5011142082323003E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>3.0306463918538199E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="10"/>
+        <v>0.58743123342827808</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>0.63254756181646099</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="11"/>
+        <v>0.35170769230769205</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="12"/>
+        <v>0.61951243306523307</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0.19399700825980401</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="12"/>
+        <v>0.84092559380604504</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="12"/>
+        <v>7.8789204321770695E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>3.3646822098770797E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
+        <v>4.6638379773413202E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>0.97324415856277569</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="13"/>
+        <v>1.0073905614113987</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>0.99657534246575707</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="11"/>
+        <v>0.40682153846153801</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="12"/>
+        <v>0.82561055258799698</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>0.17438944741200299</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>0.82323755644130503</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="12"/>
+        <v>8.4951254377273702E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>3.7090540550761199E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="12"/>
+        <v>5.4720648630660201E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>1.046410373870978</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="13"/>
+        <v>1.0059575734150803</v>
+      </c>
+      <c r="S19">
+        <f>S9/$S$2</f>
+        <v>1.5836734693877588</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="11"/>
+        <v>0.41034461538461497</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="12"/>
+        <v>0.77683894465280601</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="12"/>
+        <v>0.22316105534719402</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="12"/>
+        <v>0.82831691186394907</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>8.2197327574571502E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>3.5864789070349901E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="12"/>
+        <v>5.3620971491129404E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>1.0316621025113055</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="13"/>
+        <v>1.0016829661626072</v>
+      </c>
+      <c r="S20">
+        <f>S10/$S$2</f>
+        <v>1.5561497326203242</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19770638-3C78-420E-9C9F-A0E204895C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1D0009-5FE1-4A14-ADBA-C90B5D5E5D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="3-3-21" sheetId="6" r:id="rId6"/>
     <sheet name="3-8-21" sheetId="7" r:id="rId7"/>
     <sheet name="3-9-21 " sheetId="9" r:id="rId8"/>
+    <sheet name="3-10-21" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'3-10-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-3-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'3-8-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3-9-21 '!$A$1:$S$1</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="105">
   <si>
     <t>Treatment</t>
   </si>
@@ -911,7 +913,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -986,6 +988,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1377,26 +1382,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="R3" s="24" t="s">
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -9537,7 +9542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815D215-4C00-4D69-A4B6-A85223BC21D4}">
   <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
@@ -11299,4 +11304,1772 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0070892F-2534-4A57-B23B-26AC79CAE576}">
+  <dimension ref="A1:AP20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114281</v>
+      </c>
+      <c r="F2">
+        <v>35.163384615384601</v>
+      </c>
+      <c r="G2">
+        <v>184077</v>
+      </c>
+      <c r="H2">
+        <v>114281</v>
+      </c>
+      <c r="I2">
+        <v>69796</v>
+      </c>
+      <c r="J2">
+        <v>62.0832586363315</v>
+      </c>
+      <c r="K2">
+        <v>37.9167413636685</v>
+      </c>
+      <c r="L2">
+        <v>85.295018419509802</v>
+      </c>
+      <c r="M2">
+        <v>6.8629080949589198</v>
+      </c>
+      <c r="N2">
+        <v>3.2507590938126198</v>
+      </c>
+      <c r="O2">
+        <v>4.5913143917186598</v>
+      </c>
+      <c r="P2">
+        <v>0.85671063174676099</v>
+      </c>
+      <c r="Q2">
+        <v>8.4459459459459499E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.8242122719734699</v>
+      </c>
+      <c r="S2">
+        <v>0.16920473773265701</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:Y10" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>114281</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>F12</f>
+        <v>0.35163384615384602</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AC10" si="1">G2</f>
+        <v>184077</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="1"/>
+        <v>114281</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" si="1"/>
+        <v>69796</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" ref="AD2:AE10" si="2">J12</f>
+        <v>0.62083258636331495</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37916741363668499</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="4">
+        <f t="shared" ref="AG2:AJ10" si="3">L12</f>
+        <v>0.85295018419509805</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="3"/>
+        <v>6.8629080949589194E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2507590938126198E-2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5913143917186601E-2</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13">
+        <f t="shared" ref="AL2:AL10" si="4">SUM(AH2:AJ2)</f>
+        <v>0.14704981580490198</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" ref="AN2:AN10" si="5">P12</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>S12</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4">
+        <f>R12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114512</v>
+      </c>
+      <c r="F3">
+        <v>35.234461538461503</v>
+      </c>
+      <c r="G3">
+        <v>184762</v>
+      </c>
+      <c r="H3">
+        <v>114512</v>
+      </c>
+      <c r="I3">
+        <v>70250</v>
+      </c>
+      <c r="J3">
+        <v>61.978112382416299</v>
+      </c>
+      <c r="K3">
+        <v>38.021887617583701</v>
+      </c>
+      <c r="L3">
+        <v>85.384937823110207</v>
+      </c>
+      <c r="M3">
+        <v>6.9879139304177702</v>
+      </c>
+      <c r="N3">
+        <v>3.08177308928322</v>
+      </c>
+      <c r="O3">
+        <v>4.5453751571887704</v>
+      </c>
+      <c r="P3">
+        <v>0.83422697691617598</v>
+      </c>
+      <c r="Q3">
+        <v>8.3056478405315604E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.7636684303351</v>
+      </c>
+      <c r="S3">
+        <v>0.17064846416382301</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>114512</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z10" si="6">F13</f>
+        <v>0.35234461538461503</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="1"/>
+        <v>184762</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="1"/>
+        <v>114512</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="1"/>
+        <v>70250</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.61978112382416295</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.380218876175837</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="4">
+        <f t="shared" si="3"/>
+        <v>0.85384937823110207</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9879139304177704E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0817730892832199E-2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="3"/>
+        <v>4.5453751571887704E-2</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14615062176889759</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" s="4">
+        <f t="shared" si="5"/>
+        <v>0.97375583540414024</v>
+      </c>
+      <c r="AO3" s="4">
+        <f>S13</f>
+        <v>1.0085324232081909</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" ref="AP3:AP10" si="7">R13</f>
+        <v>0.96681096681096634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114662</v>
+      </c>
+      <c r="F4">
+        <v>35.280615384615402</v>
+      </c>
+      <c r="G4">
+        <v>184860</v>
+      </c>
+      <c r="H4">
+        <v>114662</v>
+      </c>
+      <c r="I4">
+        <v>70198</v>
+      </c>
+      <c r="J4">
+        <v>62.026398355512299</v>
+      </c>
+      <c r="K4">
+        <v>37.973601644487701</v>
+      </c>
+      <c r="L4">
+        <v>88.9091416511137</v>
+      </c>
+      <c r="M4">
+        <v>6.1973452407946796</v>
+      </c>
+      <c r="N4">
+        <v>2.1480525370218602</v>
+      </c>
+      <c r="O4">
+        <v>2.7454605710697502</v>
+      </c>
+      <c r="P4">
+        <v>0.50055812967955104</v>
+      </c>
+      <c r="Q4">
+        <v>5.0590219224283303E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.2280701754386001</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>114662</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35280615384615399</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="1"/>
+        <v>184860</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="1"/>
+        <v>114662</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="1"/>
+        <v>70198</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62026398355512302</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37973601644487703</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88909141651113699</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="3"/>
+        <v>6.19734524079468E-2</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1480525370218603E-2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7454605710697501E-2</v>
+      </c>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1109085834888629</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.5842791149433445</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" ref="AO4:AO10" si="8">S14</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="7"/>
+        <v>0.67320574162679481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>132250</v>
+      </c>
+      <c r="F5">
+        <v>40.692307692307701</v>
+      </c>
+      <c r="G5">
+        <v>171085</v>
+      </c>
+      <c r="H5">
+        <v>141790</v>
+      </c>
+      <c r="I5">
+        <v>29295</v>
+      </c>
+      <c r="J5">
+        <v>82.876932518923297</v>
+      </c>
+      <c r="K5">
+        <v>17.123067481076699</v>
+      </c>
+      <c r="L5">
+        <v>81.479017013232493</v>
+      </c>
+      <c r="M5">
+        <v>8.8393194706994294</v>
+      </c>
+      <c r="N5">
+        <v>3.8381852551984901</v>
+      </c>
+      <c r="O5">
+        <v>5.8434782608695697</v>
+      </c>
+      <c r="P5">
+        <v>1.00692016190351</v>
+      </c>
+      <c r="Q5">
+        <v>9.7493036211699202E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.9635343618513299</v>
+      </c>
+      <c r="S5">
+        <v>0.28011204481792701</v>
+      </c>
+      <c r="U5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>132250</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="6"/>
+        <v>0.406923076923077</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="1"/>
+        <v>171085</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="1"/>
+        <v>141790</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="1"/>
+        <v>29295</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82876932518923296</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17123067481076698</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81479017013232491</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="3"/>
+        <v>8.8393194706994291E-2</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8381852551984903E-2</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8434782608695696E-2</v>
+      </c>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1852098298676749</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1753328657197639</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6554621848739437</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0763738365421358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>132460</v>
+      </c>
+      <c r="F6">
+        <v>40.756923076923101</v>
+      </c>
+      <c r="G6">
+        <v>171491</v>
+      </c>
+      <c r="H6">
+        <v>142000</v>
+      </c>
+      <c r="I6">
+        <v>29491</v>
+      </c>
+      <c r="J6">
+        <v>82.803179175583594</v>
+      </c>
+      <c r="K6">
+        <v>17.196820824416399</v>
+      </c>
+      <c r="L6">
+        <v>82.797825758719597</v>
+      </c>
+      <c r="M6">
+        <v>8.5754189944134094</v>
+      </c>
+      <c r="N6">
+        <v>3.4878453872867299</v>
+      </c>
+      <c r="O6">
+        <v>5.1389098595802496</v>
+      </c>
+      <c r="P6">
+        <v>0.88459650668717404</v>
+      </c>
+      <c r="Q6">
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.7567567567567599</v>
+      </c>
+      <c r="S6">
+        <v>0.27063599458727999</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>132460</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40756923076923102</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>171491</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="1"/>
+        <v>142000</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>29491</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82803179175583597</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17196820824416398</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82797825758719601</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5754189944134099E-2</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4878453872867296E-2</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="3"/>
+        <v>5.1389098595802499E-2</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17202174241280388</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0325499344901978</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5994587280108201</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.96302211302211271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>132341</v>
+      </c>
+      <c r="F7">
+        <v>40.720307692307699</v>
+      </c>
+      <c r="G7">
+        <v>171474</v>
+      </c>
+      <c r="H7">
+        <v>141880</v>
+      </c>
+      <c r="I7">
+        <v>29594</v>
+      </c>
+      <c r="J7">
+        <v>82.741406860515298</v>
+      </c>
+      <c r="K7">
+        <v>17.258593139484699</v>
+      </c>
+      <c r="L7">
+        <v>87.018384325341401</v>
+      </c>
+      <c r="M7">
+        <v>7.53507983164703</v>
+      </c>
+      <c r="N7">
+        <v>2.4353752805253102</v>
+      </c>
+      <c r="O7">
+        <v>3.0111605624863</v>
+      </c>
+      <c r="P7">
+        <v>0.51419946031663699</v>
+      </c>
+      <c r="Q7">
+        <v>4.4313146233382599E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.15606936416185</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="0"/>
+        <v>132341</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="6"/>
+        <v>0.407203076923077</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>171474</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>141880</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>29594</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82741406860515299</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17258593139484699</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87018384325341402</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.5350798316470305E-2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4353752805253103E-2</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0111605624863001E-2</v>
+      </c>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13">
+        <f t="shared" si="4"/>
+        <v>0.12981615674658642</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.60020203002293493</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.63373620599054004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>114957</v>
+      </c>
+      <c r="F8">
+        <v>35.371384615384599</v>
+      </c>
+      <c r="G8">
+        <v>185091</v>
+      </c>
+      <c r="H8">
+        <v>114957</v>
+      </c>
+      <c r="I8">
+        <v>35185</v>
+      </c>
+      <c r="J8">
+        <v>62.108368316125599</v>
+      </c>
+      <c r="K8">
+        <v>19.009568266420299</v>
+      </c>
+      <c r="L8">
+        <v>84.092312777821306</v>
+      </c>
+      <c r="M8">
+        <v>8.0282192471967804</v>
+      </c>
+      <c r="N8">
+        <v>3.2768774411301602</v>
+      </c>
+      <c r="O8">
+        <v>4.6025905338517896</v>
+      </c>
+      <c r="P8">
+        <v>0.8441412429995</v>
+      </c>
+      <c r="Q8">
+        <v>8.3612040133779295E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.7953321364452399</v>
+      </c>
+      <c r="S8">
+        <v>0.16920473773265701</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="0"/>
+        <v>114957</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.35371384615384599</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="1"/>
+        <v>185091</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="1"/>
+        <v>114957</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="1"/>
+        <v>35185</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62108368316125595</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19009568266420299</v>
+      </c>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.8409231277782131</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="3"/>
+        <v>8.02821924719678E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2768774411301604E-2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6025905338517893E-2</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13">
+        <f>SUM(AH8:AJ8)</f>
+        <v>0.15907687222178729</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.98532831474072746</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="7"/>
+        <v>0.98416843479679761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>132330</v>
+      </c>
+      <c r="F9">
+        <v>40.716923076923102</v>
+      </c>
+      <c r="G9">
+        <v>171833</v>
+      </c>
+      <c r="H9">
+        <v>141806</v>
+      </c>
+      <c r="I9">
+        <v>30027</v>
+      </c>
+      <c r="J9">
+        <v>82.525475316149993</v>
+      </c>
+      <c r="K9">
+        <v>17.474524683849999</v>
+      </c>
+      <c r="L9">
+        <v>82.532305599637297</v>
+      </c>
+      <c r="M9">
+        <v>8.5037406483790505</v>
+      </c>
+      <c r="N9">
+        <v>3.74215975213481</v>
+      </c>
+      <c r="O9">
+        <v>5.2217939998488596</v>
+      </c>
+      <c r="P9">
+        <v>0.89381814222275902</v>
+      </c>
+      <c r="Q9">
+        <v>8.4985835694051E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.8258426966292101</v>
+      </c>
+      <c r="S9">
+        <v>0.14430014430014401</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="0"/>
+        <v>132330</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40716923076923101</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="1"/>
+        <v>171833</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="1"/>
+        <v>141806</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="1"/>
+        <v>30027</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82525475316149999</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17474524683849998</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82532305599637301</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5037406483790504E-2</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="3"/>
+        <v>3.7421597521348098E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.2217939998488595E-2</v>
+      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17467694400362718</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.043313937169589</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="8"/>
+        <v>0.85281385281384858</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0008937691521922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>325000</v>
+      </c>
+      <c r="E10">
+        <v>133706</v>
+      </c>
+      <c r="F10">
+        <v>41.140307692307701</v>
+      </c>
+      <c r="G10">
+        <v>185091</v>
+      </c>
+      <c r="H10">
+        <v>143912</v>
+      </c>
+      <c r="I10">
+        <v>41179</v>
+      </c>
+      <c r="J10">
+        <v>77.752024679752097</v>
+      </c>
+      <c r="K10">
+        <v>22.2479753202479</v>
+      </c>
+      <c r="L10">
+        <v>82.789104453053696</v>
+      </c>
+      <c r="M10">
+        <v>8.1432396451916897</v>
+      </c>
+      <c r="N10">
+        <v>3.58622649694105</v>
+      </c>
+      <c r="O10">
+        <v>5.4814294048135501</v>
+      </c>
+      <c r="P10">
+        <v>0.94745157687596304</v>
+      </c>
+      <c r="Q10">
+        <v>9.3209054593874803E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.8349597082906099</v>
+      </c>
+      <c r="S10">
+        <v>0.269541778975741</v>
+      </c>
+      <c r="U10" s="2">
+        <v>9</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="0"/>
+        <v>133706</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="6"/>
+        <v>0.41140307692307698</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="1"/>
+        <v>185091</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="1"/>
+        <v>143912</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="1"/>
+        <v>41179</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77752024679752096</v>
+      </c>
+      <c r="AE10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22247975320247901</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82789104453053697</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="3"/>
+        <v>8.1432396451916897E-2</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5862264969410501E-2</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="shared" si="3"/>
+        <v>5.4814294048135502E-2</v>
+      </c>
+      <c r="AL10" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17210895546946289</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1059178464310508</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5929919137466246</v>
+      </c>
+      <c r="AP10" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0058915491811231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <f>F2/$A$12</f>
+        <v>0.35163384615384602</v>
+      </c>
+      <c r="J12">
+        <f>J2/$A$12</f>
+        <v>0.62083258636331495</v>
+      </c>
+      <c r="K12">
+        <f>K2/$A$12</f>
+        <v>0.37916741363668499</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:O12" si="9">L2/$A$12</f>
+        <v>0.85295018419509805</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>6.8629080949589194E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>3.2507590938126198E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="9"/>
+        <v>4.5913143917186601E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P20" si="10">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" ref="F13:F20" si="11">F3/$A$12</f>
+        <v>0.35234461538461503</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:O20" si="12">J3/$A$12</f>
+        <v>0.61978112382416295</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>0.380218876175837</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="12"/>
+        <v>0.85384937823110207</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="12"/>
+        <v>6.9879139304177704E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>3.0817730892832199E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>4.5453751571887704E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="10"/>
+        <v>0.97375583540414024</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R20" si="13">R3/$R$2</f>
+        <v>0.96681096681096634</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S18" si="14">S3/$S$2</f>
+        <v>1.0085324232081909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="11"/>
+        <v>0.35280615384615399</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="12"/>
+        <v>0.62026398355512302</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>0.37973601644487703</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="12"/>
+        <v>0.88909141651113699</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="12"/>
+        <v>6.19734524079468E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="12"/>
+        <v>2.1480525370218603E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="12"/>
+        <v>2.7454605710697501E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="10"/>
+        <v>0.5842791149433445</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="13"/>
+        <v>0.67320574162679481</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="11"/>
+        <v>0.406923076923077</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="12"/>
+        <v>0.82876932518923296</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.17123067481076698</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>0.81479017013232491</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>8.8393194706994291E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>3.8381852551984903E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>5.8434782608695696E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>1.1753328657197639</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="13"/>
+        <v>1.0763738365421358</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="14"/>
+        <v>1.6554621848739437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="11"/>
+        <v>0.40756923076923102</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="12"/>
+        <v>0.82803179175583597</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>0.17196820824416398</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="12"/>
+        <v>0.82797825758719601</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>8.5754189944134099E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>3.4878453872867296E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>5.1389098595802499E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>1.0325499344901978</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>0.96302211302211271</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="14"/>
+        <v>1.5994587280108201</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="11"/>
+        <v>0.407203076923077</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>0.82741406860515299</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>0.17258593139484699</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>0.87018384325341402</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>7.5350798316470305E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>2.4353752805253103E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>3.0111605624863001E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="10"/>
+        <v>0.60020203002293493</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>0.63373620599054004</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="11"/>
+        <v>0.35371384615384599</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="12"/>
+        <v>0.62108368316125595</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0.19009568266420299</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="12"/>
+        <v>0.8409231277782131</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="12"/>
+        <v>8.02821924719678E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>3.2768774411301604E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
+        <v>4.6025905338517893E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>0.98532831474072746</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="13"/>
+        <v>0.98416843479679761</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="11"/>
+        <v>0.40716923076923101</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="12"/>
+        <v>0.82525475316149999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>0.17474524683849998</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>0.82532305599637301</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="12"/>
+        <v>8.5037406483790504E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>3.7421597521348098E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="12"/>
+        <v>5.2217939998488595E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>1.043313937169589</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="13"/>
+        <v>1.0008937691521922</v>
+      </c>
+      <c r="S19">
+        <f>S9/$S$2</f>
+        <v>0.85281385281384858</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="11"/>
+        <v>0.41140307692307698</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="12"/>
+        <v>0.77752024679752096</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="12"/>
+        <v>0.22247975320247901</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="12"/>
+        <v>0.82789104453053697</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>8.1432396451916897E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>3.5862264969410501E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="12"/>
+        <v>5.4814294048135502E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>1.1059178464310508</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="13"/>
+        <v>1.0058915491811231</v>
+      </c>
+      <c r="S20">
+        <f>S10/$S$2</f>
+        <v>1.5929919137466246</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1D0009-5FE1-4A14-ADBA-C90B5D5E5D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C7F10-D9EF-470B-9388-9EA244469A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,13 @@
     <sheet name="3-8-21" sheetId="7" r:id="rId7"/>
     <sheet name="3-9-21 " sheetId="9" r:id="rId8"/>
     <sheet name="3-10-21" sheetId="10" r:id="rId9"/>
+    <sheet name="3-11-21" sheetId="11" r:id="rId10"/>
+    <sheet name="3-12-21" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'3-10-21'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'3-11-21'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'3-12-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-3-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'3-8-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3-9-21 '!$A$1:$S$1</definedName>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="121">
   <si>
     <t>Treatment</t>
   </si>
@@ -363,6 +367,54 @@
   </si>
   <si>
     <t>0.92% [0.27%-1.89%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89% [0.17%-1.89%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87% [0.17%-1.83%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49% [0.0%-1.19%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96% [0.27%-1.92%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89% [0.15%-1.79%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52% [0.0%-1.21%]  </t>
+  </si>
+  <si>
+    <t>0.88% [0.17%-1.89%]</t>
+  </si>
+  <si>
+    <t>0.90% [0.27%-1.79%]</t>
+  </si>
+  <si>
+    <t>0.92% [0.27%-1.84%]</t>
+  </si>
+  <si>
+    <t>XTouch</t>
+  </si>
+  <si>
+    <t>XTouchST</t>
+  </si>
+  <si>
+    <t>0.33% [0.0%-0.84%]</t>
+  </si>
+  <si>
+    <t>0.95% [0.27%-1.89%]</t>
+  </si>
+  <si>
+    <t>One-Way ST</t>
+  </si>
+  <si>
+    <t>Tocuhes off</t>
+  </si>
+  <si>
+    <t>Touches off ,ST only</t>
   </si>
 </sst>
 </file>
@@ -913,7 +965,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -991,6 +1043,37 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1382,26 +1465,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="R3" s="26" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="R3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -2712,6 +2795,3972 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78BF6C9-0723-454B-A0E7-1858173DA444}">
+  <dimension ref="A1:AP22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114776</v>
+      </c>
+      <c r="F2">
+        <v>35.315692307692302</v>
+      </c>
+      <c r="G2">
+        <v>185018</v>
+      </c>
+      <c r="H2">
+        <v>114776</v>
+      </c>
+      <c r="I2">
+        <v>70242</v>
+      </c>
+      <c r="J2">
+        <v>62.035045238841597</v>
+      </c>
+      <c r="K2">
+        <v>37.964954761158403</v>
+      </c>
+      <c r="L2">
+        <v>84.824353523384701</v>
+      </c>
+      <c r="M2">
+        <v>7.0641946051439302</v>
+      </c>
+      <c r="N2">
+        <v>3.27507492855649</v>
+      </c>
+      <c r="O2">
+        <v>4.8363769429149004</v>
+      </c>
+      <c r="P2">
+        <v>0.89042151634938604</v>
+      </c>
+      <c r="Q2">
+        <v>8.5763293310463107E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.89328743545611</v>
+      </c>
+      <c r="S2">
+        <v>0.17064846416382301</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:Y10" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" si="0"/>
+        <v>114776</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>F14</f>
+        <v>0.35315692307692303</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AC10" si="1">G2</f>
+        <v>185018</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="1"/>
+        <v>114776</v>
+      </c>
+      <c r="AC2" s="3">
+        <f t="shared" si="1"/>
+        <v>70242</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" ref="AD2:AE10" si="2">J14</f>
+        <v>0.62035045238841602</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37964954761158404</v>
+      </c>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="4">
+        <f t="shared" ref="AG2:AJ10" si="3">L14</f>
+        <v>0.84824353523384699</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0641946051439308E-2</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="3"/>
+        <v>3.2750749285564901E-2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="3"/>
+        <v>4.8363769429149002E-2</v>
+      </c>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13">
+        <f t="shared" ref="AL2:AL10" si="4">SUM(AH2:AJ2)</f>
+        <v>0.1517564647661532</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN2" s="4">
+        <f t="shared" ref="AN2:AN10" si="5">P14</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="4">
+        <f>S14</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4">
+        <f>R14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114434</v>
+      </c>
+      <c r="F3">
+        <v>35.210461538461502</v>
+      </c>
+      <c r="G3">
+        <v>184470</v>
+      </c>
+      <c r="H3">
+        <v>114434</v>
+      </c>
+      <c r="I3">
+        <v>70036</v>
+      </c>
+      <c r="J3">
+        <v>62.033935057190902</v>
+      </c>
+      <c r="K3">
+        <v>37.966064942809098</v>
+      </c>
+      <c r="L3">
+        <v>85.481587640037006</v>
+      </c>
+      <c r="M3">
+        <v>6.7200307600887896</v>
+      </c>
+      <c r="N3">
+        <v>3.1188283202544702</v>
+      </c>
+      <c r="O3">
+        <v>4.6795532796196904</v>
+      </c>
+      <c r="P3">
+        <v>0.86955981735668197</v>
+      </c>
+      <c r="Q3">
+        <v>8.5324232081911301E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.8348623853210999</v>
+      </c>
+      <c r="S3">
+        <v>0.17123287671232901</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="0"/>
+        <v>114434</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z10" si="6">F15</f>
+        <v>0.35210461538461502</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="1"/>
+        <v>184470</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="1"/>
+        <v>114434</v>
+      </c>
+      <c r="AC3" s="3">
+        <f t="shared" si="1"/>
+        <v>70036</v>
+      </c>
+      <c r="AD3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62033935057190903</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37966064942809097</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="4">
+        <f t="shared" si="3"/>
+        <v>0.85481587640037004</v>
+      </c>
+      <c r="AH3" s="4">
+        <f t="shared" si="3"/>
+        <v>6.7200307600887896E-2</v>
+      </c>
+      <c r="AI3" s="4">
+        <f t="shared" si="3"/>
+        <v>3.11882832025447E-2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <f t="shared" si="3"/>
+        <v>4.6795532796196901E-2</v>
+      </c>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
+        <f t="shared" si="4"/>
+        <v>0.14518412359962951</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="4">
+        <f t="shared" si="5"/>
+        <v>0.97657098507880358</v>
+      </c>
+      <c r="AO3" s="4">
+        <f>S15</f>
+        <v>1.0034246575342451</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" ref="AP3:AP10" si="7">R15</f>
+        <v>0.96914095079232654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114599</v>
+      </c>
+      <c r="F4">
+        <v>35.261230769230799</v>
+      </c>
+      <c r="G4">
+        <v>184625</v>
+      </c>
+      <c r="H4">
+        <v>114599</v>
+      </c>
+      <c r="I4">
+        <v>70026</v>
+      </c>
+      <c r="J4">
+        <v>62.0712254570075</v>
+      </c>
+      <c r="K4">
+        <v>37.928774542992599</v>
+      </c>
+      <c r="L4">
+        <v>88.849815443415693</v>
+      </c>
+      <c r="M4">
+        <v>6.2949938481138599</v>
+      </c>
+      <c r="N4">
+        <v>2.1562142776114999</v>
+      </c>
+      <c r="O4">
+        <v>2.6989764308589099</v>
+      </c>
+      <c r="P4">
+        <v>0.49112153642608902</v>
+      </c>
+      <c r="Q4">
+        <v>5.0335570469798698E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.1926061823847101</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>114599</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="6"/>
+        <v>0.352612307692308</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="1"/>
+        <v>184625</v>
+      </c>
+      <c r="AB4" s="3">
+        <f t="shared" si="1"/>
+        <v>114599</v>
+      </c>
+      <c r="AC4" s="3">
+        <f t="shared" si="1"/>
+        <v>70026</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62071225457007495</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37928774542992599</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88849815443415692</v>
+      </c>
+      <c r="AH4" s="4">
+        <f t="shared" si="3"/>
+        <v>6.2949938481138598E-2</v>
+      </c>
+      <c r="AI4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1562142776114998E-2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6989764308589098E-2</v>
+      </c>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13">
+        <f t="shared" si="4"/>
+        <v>0.11150184556584269</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.55156072422825575</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" ref="AO4:AO10" si="8">S16</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="7"/>
+        <v>0.62991290178683323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>132624</v>
+      </c>
+      <c r="F5">
+        <v>40.807384615384599</v>
+      </c>
+      <c r="G5">
+        <v>171551</v>
+      </c>
+      <c r="H5">
+        <v>142299</v>
+      </c>
+      <c r="I5">
+        <v>29252</v>
+      </c>
+      <c r="J5">
+        <v>82.948510938438105</v>
+      </c>
+      <c r="K5">
+        <v>17.051489061561899</v>
+      </c>
+      <c r="L5">
+        <v>81.959524671251103</v>
+      </c>
+      <c r="M5">
+        <v>8.54370249728556</v>
+      </c>
+      <c r="N5">
+        <v>3.8831584027023802</v>
+      </c>
+      <c r="O5">
+        <v>5.6136144287610099</v>
+      </c>
+      <c r="P5">
+        <v>0.969756284174351</v>
+      </c>
+      <c r="Q5">
+        <v>9.5759233926128607E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.92320936639117</v>
+      </c>
+      <c r="S5">
+        <v>0.27434842249657099</v>
+      </c>
+      <c r="U5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>132624</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40807384615384601</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="1"/>
+        <v>171551</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="1"/>
+        <v>142299</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="1"/>
+        <v>29252</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82948510938438103</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17051489061561897</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.81959524671251105</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5437024972855602E-2</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8831584027023802E-2</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6136144287610101E-2</v>
+      </c>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13">
+        <f t="shared" si="4"/>
+        <v>0.18040475328748951</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0890979905227665</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6076817558299015</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="7"/>
+        <v>1.0158042198847907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>132479</v>
+      </c>
+      <c r="F6">
+        <v>40.762769230769202</v>
+      </c>
+      <c r="G6">
+        <v>171273</v>
+      </c>
+      <c r="H6">
+        <v>142043</v>
+      </c>
+      <c r="I6">
+        <v>29230</v>
+      </c>
+      <c r="J6">
+        <v>82.933678980341298</v>
+      </c>
+      <c r="K6">
+        <v>17.066321019658702</v>
+      </c>
+      <c r="L6">
+        <v>82.669706142105497</v>
+      </c>
+      <c r="M6">
+        <v>8.5583375478377697</v>
+      </c>
+      <c r="N6">
+        <v>3.6300092844903702</v>
+      </c>
+      <c r="O6">
+        <v>5.1419470255663198</v>
+      </c>
+      <c r="P6">
+        <v>0.88820620270943096</v>
+      </c>
+      <c r="Q6">
+        <v>8.4626234132581107E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.78817056396149</v>
+      </c>
+      <c r="S6">
+        <v>0.15220700152207001</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>132479</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40762769230769202</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="1"/>
+        <v>171273</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="1"/>
+        <v>142043</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>29230</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82933678980341297</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17066321019658701</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82669706142105492</v>
+      </c>
+      <c r="AH6" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5583375478377702E-2</v>
+      </c>
+      <c r="AI6" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6300092844903702E-2</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f t="shared" si="3"/>
+        <v>5.1419470255663201E-2</v>
+      </c>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1733029385789446</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" si="5"/>
+        <v>0.99751206187263131</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" si="8"/>
+        <v>0.89193302891932769</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.94447917969238704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>132729</v>
+      </c>
+      <c r="F7">
+        <v>40.839692307692303</v>
+      </c>
+      <c r="G7">
+        <v>171225</v>
+      </c>
+      <c r="H7">
+        <v>142229</v>
+      </c>
+      <c r="I7">
+        <v>28996</v>
+      </c>
+      <c r="J7">
+        <v>83.065557015622701</v>
+      </c>
+      <c r="K7">
+        <v>16.934442984377299</v>
+      </c>
+      <c r="L7">
+        <v>87.077428444424399</v>
+      </c>
+      <c r="M7">
+        <v>7.46483436174461</v>
+      </c>
+      <c r="N7">
+        <v>2.4297629003458199</v>
+      </c>
+      <c r="O7">
+        <v>3.0279742934852201</v>
+      </c>
+      <c r="P7">
+        <v>0.52492731660306502</v>
+      </c>
+      <c r="Q7">
+        <v>4.5731707317073203E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.21300969203417</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="0"/>
+        <v>132729</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40839692307692305</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>171225</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>142229</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>28996</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83065557015622704</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.16934442984377299</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.87077428444424398</v>
+      </c>
+      <c r="AH7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.46483436174461E-2</v>
+      </c>
+      <c r="AI7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.42976290034582E-2</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0279742934852201E-2</v>
+      </c>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13">
+        <f t="shared" si="4"/>
+        <v>0.12922571555575649</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.58952676565498963</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.64068966461077526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>114651</v>
+      </c>
+      <c r="F8">
+        <v>35.277230769230798</v>
+      </c>
+      <c r="G8">
+        <v>185123</v>
+      </c>
+      <c r="H8">
+        <v>114651</v>
+      </c>
+      <c r="I8">
+        <v>44089</v>
+      </c>
+      <c r="J8">
+        <v>61.932336878723902</v>
+      </c>
+      <c r="K8">
+        <v>23.816057432085699</v>
+      </c>
+      <c r="L8">
+        <v>83.948679034635504</v>
+      </c>
+      <c r="M8">
+        <v>7.9859748279561504</v>
+      </c>
+      <c r="N8">
+        <v>3.31702296534701</v>
+      </c>
+      <c r="O8">
+        <v>4.7483231720613004</v>
+      </c>
+      <c r="P8">
+        <v>0.88049439984808398</v>
+      </c>
+      <c r="Q8">
+        <v>8.5616438356164396E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8965517241379299</v>
+      </c>
+      <c r="S8">
+        <v>0.17152658662092601</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="0"/>
+        <v>114651</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="6"/>
+        <v>0.352772307692308</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="1"/>
+        <v>185123</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="1"/>
+        <v>114651</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="1"/>
+        <v>44089</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.61932336878723904</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23816057432085699</v>
+      </c>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.83948679034635498</v>
+      </c>
+      <c r="AH8" s="4">
+        <f t="shared" si="3"/>
+        <v>7.9859748279561507E-2</v>
+      </c>
+      <c r="AI8" s="4">
+        <f t="shared" si="3"/>
+        <v>3.31702296534701E-2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f t="shared" si="3"/>
+        <v>4.7483231720613001E-2</v>
+      </c>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13">
+        <f>SUM(AH8:AJ8)</f>
+        <v>0.1605132096536446</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="5"/>
+        <v>0.98885121673384313</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0051457975986235</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="7"/>
+        <v>1.001724137931034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>132017</v>
+      </c>
+      <c r="F9">
+        <v>40.620615384615398</v>
+      </c>
+      <c r="G9">
+        <v>171592</v>
+      </c>
+      <c r="H9">
+        <v>141463</v>
+      </c>
+      <c r="I9">
+        <v>30129</v>
+      </c>
+      <c r="J9">
+        <v>82.441489113711597</v>
+      </c>
+      <c r="K9">
+        <v>17.558510886288399</v>
+      </c>
+      <c r="L9">
+        <v>82.490133846398606</v>
+      </c>
+      <c r="M9">
+        <v>8.5617761348917192</v>
+      </c>
+      <c r="N9">
+        <v>3.6964936333957001</v>
+      </c>
+      <c r="O9">
+        <v>5.2515963853140102</v>
+      </c>
+      <c r="P9">
+        <v>0.90086113591206296</v>
+      </c>
+      <c r="Q9">
+        <v>8.5348506401138006E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.79372197309417</v>
+      </c>
+      <c r="S9">
+        <v>0.26701379617267501</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="0"/>
+        <v>132017</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40620615384615399</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="1"/>
+        <v>171592</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="1"/>
+        <v>141463</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="1"/>
+        <v>30129</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82441489113711597</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.175585108862884</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82490133846398606</v>
+      </c>
+      <c r="AH9" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5617761348917187E-2</v>
+      </c>
+      <c r="AI9" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6964936333957005E-2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f t="shared" si="3"/>
+        <v>5.2515963853140099E-2</v>
+      </c>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
+        <f t="shared" si="4"/>
+        <v>0.17509866153601428</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN9" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0117243568029195</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5647008455718712</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="7"/>
+        <v>0.94741133306155711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>325000</v>
+      </c>
+      <c r="E10">
+        <v>133406</v>
+      </c>
+      <c r="F10">
+        <v>41.048000000000002</v>
+      </c>
+      <c r="G10">
+        <v>185123</v>
+      </c>
+      <c r="H10">
+        <v>143552</v>
+      </c>
+      <c r="I10">
+        <v>41571</v>
+      </c>
+      <c r="J10">
+        <v>77.544119315266101</v>
+      </c>
+      <c r="K10">
+        <v>22.455880684733899</v>
+      </c>
+      <c r="L10">
+        <v>82.502286253991599</v>
+      </c>
+      <c r="M10">
+        <v>8.4411495734824502</v>
+      </c>
+      <c r="N10">
+        <v>3.6759965818628801</v>
+      </c>
+      <c r="O10">
+        <v>5.3805675906630901</v>
+      </c>
+      <c r="P10">
+        <v>0.919776363394056</v>
+      </c>
+      <c r="Q10">
+        <v>8.6455331412103806E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.8361581920904</v>
+      </c>
+      <c r="S10">
+        <v>0.269541778975741</v>
+      </c>
+      <c r="U10" s="2">
+        <v>9</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="0"/>
+        <v>133406</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="6"/>
+        <v>0.41048000000000001</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="1"/>
+        <v>185123</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="1"/>
+        <v>143552</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="1"/>
+        <v>41571</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77544119315266102</v>
+      </c>
+      <c r="AE10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.22455880684733898</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82502286253991597</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4411495734824496E-2</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6759965818628802E-2</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f t="shared" si="3"/>
+        <v>5.38056759066309E-2</v>
+      </c>
+      <c r="AL10" s="13">
+        <f t="shared" si="4"/>
+        <v>0.1749771374600842</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0329673604081593</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5795148247978377</v>
+      </c>
+      <c r="AP10" s="4">
+        <f t="shared" si="7"/>
+        <v>0.96982537236774768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="5"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="5"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <f>F2/$A$14</f>
+        <v>0.35315692307692303</v>
+      </c>
+      <c r="J14">
+        <f>J2/$A$14</f>
+        <v>0.62035045238841602</v>
+      </c>
+      <c r="K14">
+        <f>K2/$A$14</f>
+        <v>0.37964954761158404</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:O14" si="9">L2/$A$14</f>
+        <v>0.84824353523384699</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>7.0641946051439308E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>3.2750749285564901E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>4.8363769429149002E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P22" si="10">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" ref="F15:F22" si="11">F3/$A$14</f>
+        <v>0.35210461538461502</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:O22" si="12">J3/$A$14</f>
+        <v>0.62033935057190903</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>0.37966064942809097</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="12"/>
+        <v>0.85481587640037004</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>6.7200307600887896E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>3.11882832025447E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="12"/>
+        <v>4.6795532796196901E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="10"/>
+        <v>0.97657098507880358</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15:R22" si="13">R3/$R$2</f>
+        <v>0.96914095079232654</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S20" si="14">S3/$S$2</f>
+        <v>1.0034246575342451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="11"/>
+        <v>0.352612307692308</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="12"/>
+        <v>0.62071225457007495</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>0.37928774542992599</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="12"/>
+        <v>0.88849815443415692</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>6.2949938481138598E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>2.1562142776114998E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>2.6989764308589098E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="10"/>
+        <v>0.55156072422825575</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>0.62991290178683323</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="11"/>
+        <v>0.40807384615384601</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="12"/>
+        <v>0.82948510938438103</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>0.17051489061561897</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="12"/>
+        <v>0.81959524671251105</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>8.5437024972855602E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>3.8831584027023802E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>5.6136144287610101E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="10"/>
+        <v>1.0890979905227665</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>1.0158042198847907</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="14"/>
+        <v>1.6076817558299015</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="11"/>
+        <v>0.40762769230769202</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="12"/>
+        <v>0.82933678980341297</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0.17066321019658701</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="12"/>
+        <v>0.82669706142105492</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="12"/>
+        <v>8.5583375478377702E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>3.6300092844903702E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
+        <v>5.1419470255663201E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="10"/>
+        <v>0.99751206187263131</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="13"/>
+        <v>0.94447917969238704</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>0.89193302891932769</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="11"/>
+        <v>0.40839692307692305</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="12"/>
+        <v>0.83065557015622704</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>0.16934442984377299</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>0.87077428444424398</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="12"/>
+        <v>7.46483436174461E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>2.42976290034582E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="12"/>
+        <v>3.0279742934852201E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="10"/>
+        <v>0.58952676565498963</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="13"/>
+        <v>0.64068966461077526</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="11"/>
+        <v>0.352772307692308</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="12"/>
+        <v>0.61932336878723904</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="12"/>
+        <v>0.23816057432085699</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="12"/>
+        <v>0.83948679034635498</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>7.9859748279561507E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>3.31702296534701E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="12"/>
+        <v>4.7483231720613001E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="10"/>
+        <v>0.98885121673384313</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="13"/>
+        <v>1.001724137931034</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="14"/>
+        <v>1.0051457975986235</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="11"/>
+        <v>0.40620615384615399</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="12"/>
+        <v>0.82441489113711597</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="12"/>
+        <v>0.175585108862884</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="12"/>
+        <v>0.82490133846398606</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="12"/>
+        <v>8.5617761348917187E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="12"/>
+        <v>3.6964936333957005E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="12"/>
+        <v>5.2515963853140099E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>1.0117243568029195</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="13"/>
+        <v>0.94741133306155711</v>
+      </c>
+      <c r="S21">
+        <f>S9/$S$2</f>
+        <v>1.5647008455718712</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="11"/>
+        <v>0.41048000000000001</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="12"/>
+        <v>0.77544119315266102</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="12"/>
+        <v>0.22455880684733898</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="12"/>
+        <v>0.82502286253991597</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="12"/>
+        <v>8.4411495734824496E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>3.6759965818628802E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="12"/>
+        <v>5.38056759066309E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>1.0329673604081593</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="13"/>
+        <v>0.96982537236774768</v>
+      </c>
+      <c r="S22">
+        <f>S10/$S$2</f>
+        <v>1.5795148247978377</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC761CE6-EC3B-4496-A398-6A9F48574E80}">
+  <dimension ref="A1:AP25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="36" width="0" hidden="1" customWidth="1"/>
+    <col min="39" max="40" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114776</v>
+      </c>
+      <c r="F2">
+        <v>35.315692307692302</v>
+      </c>
+      <c r="G2">
+        <v>185018</v>
+      </c>
+      <c r="H2">
+        <v>114776</v>
+      </c>
+      <c r="I2">
+        <v>70242</v>
+      </c>
+      <c r="J2">
+        <v>62.035045238841597</v>
+      </c>
+      <c r="K2">
+        <v>37.964954761158403</v>
+      </c>
+      <c r="L2">
+        <v>84.824353523384701</v>
+      </c>
+      <c r="M2">
+        <v>7.0641946051439302</v>
+      </c>
+      <c r="N2">
+        <v>3.27507492855649</v>
+      </c>
+      <c r="O2">
+        <v>4.8363769429149004</v>
+      </c>
+      <c r="P2">
+        <v>0.89042151634938604</v>
+      </c>
+      <c r="Q2">
+        <v>8.5763293310463107E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.89328743545611</v>
+      </c>
+      <c r="S2">
+        <v>0.17064846416382301</v>
+      </c>
+      <c r="U2" s="31">
+        <v>1</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="31">
+        <f t="shared" ref="W2:Y10" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="32">
+        <f t="shared" si="0"/>
+        <v>114776</v>
+      </c>
+      <c r="Z2" s="33">
+        <f>F15</f>
+        <v>0.35315692307692303</v>
+      </c>
+      <c r="AA2" s="32">
+        <f t="shared" ref="AA2:AC10" si="1">G2</f>
+        <v>185018</v>
+      </c>
+      <c r="AB2" s="32">
+        <f t="shared" si="1"/>
+        <v>114776</v>
+      </c>
+      <c r="AC2" s="32">
+        <f t="shared" si="1"/>
+        <v>70242</v>
+      </c>
+      <c r="AD2" s="34">
+        <f t="shared" ref="AD2:AE10" si="2">J15</f>
+        <v>0.62035045238841602</v>
+      </c>
+      <c r="AE2" s="33">
+        <f t="shared" si="2"/>
+        <v>0.37964954761158404</v>
+      </c>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="34">
+        <f t="shared" ref="AG2:AJ10" si="3">L15</f>
+        <v>0.84824353523384699</v>
+      </c>
+      <c r="AH2" s="34">
+        <f t="shared" si="3"/>
+        <v>7.0641946051439308E-2</v>
+      </c>
+      <c r="AI2" s="34">
+        <f t="shared" si="3"/>
+        <v>3.2750749285564901E-2</v>
+      </c>
+      <c r="AJ2" s="34">
+        <f t="shared" si="3"/>
+        <v>4.8363769429149002E-2</v>
+      </c>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36">
+        <f t="shared" ref="AL2:AL10" si="4">SUM(AH2:AJ2)</f>
+        <v>0.1517564647661532</v>
+      </c>
+      <c r="AM2" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN2" s="34">
+        <f t="shared" ref="AN2:AN10" si="5">P15</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="34">
+        <f>S15</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="34">
+        <f>R15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114434</v>
+      </c>
+      <c r="F3">
+        <v>35.210461538461502</v>
+      </c>
+      <c r="G3">
+        <v>184470</v>
+      </c>
+      <c r="H3">
+        <v>114434</v>
+      </c>
+      <c r="I3">
+        <v>70036</v>
+      </c>
+      <c r="J3">
+        <v>62.033935057190902</v>
+      </c>
+      <c r="K3">
+        <v>37.966064942809098</v>
+      </c>
+      <c r="L3">
+        <v>85.481587640037006</v>
+      </c>
+      <c r="M3">
+        <v>6.7200307600887896</v>
+      </c>
+      <c r="N3">
+        <v>3.1188283202544702</v>
+      </c>
+      <c r="O3">
+        <v>4.6795532796196904</v>
+      </c>
+      <c r="P3">
+        <v>0.86955981735668197</v>
+      </c>
+      <c r="Q3">
+        <v>8.5324232081911301E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.8348623853210999</v>
+      </c>
+      <c r="S3">
+        <v>0.17123287671232901</v>
+      </c>
+      <c r="U3" s="31">
+        <v>2</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="32">
+        <f t="shared" si="0"/>
+        <v>114434</v>
+      </c>
+      <c r="Z3" s="33">
+        <f t="shared" ref="Z3:Z10" si="6">F16</f>
+        <v>0.35210461538461502</v>
+      </c>
+      <c r="AA3" s="32">
+        <f t="shared" si="1"/>
+        <v>184470</v>
+      </c>
+      <c r="AB3" s="32">
+        <f t="shared" si="1"/>
+        <v>114434</v>
+      </c>
+      <c r="AC3" s="32">
+        <f t="shared" si="1"/>
+        <v>70036</v>
+      </c>
+      <c r="AD3" s="34">
+        <f t="shared" si="2"/>
+        <v>0.62033935057190903</v>
+      </c>
+      <c r="AE3" s="33">
+        <f t="shared" si="2"/>
+        <v>0.37966064942809097</v>
+      </c>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="34">
+        <f t="shared" si="3"/>
+        <v>0.85481587640037004</v>
+      </c>
+      <c r="AH3" s="34">
+        <f t="shared" si="3"/>
+        <v>6.7200307600887896E-2</v>
+      </c>
+      <c r="AI3" s="34">
+        <f t="shared" si="3"/>
+        <v>3.11882832025447E-2</v>
+      </c>
+      <c r="AJ3" s="34">
+        <f t="shared" si="3"/>
+        <v>4.6795532796196901E-2</v>
+      </c>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36">
+        <f t="shared" si="4"/>
+        <v>0.14518412359962951</v>
+      </c>
+      <c r="AM3" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="34">
+        <f t="shared" si="5"/>
+        <v>0.97657098507880358</v>
+      </c>
+      <c r="AO3" s="34">
+        <f>S16</f>
+        <v>1.0034246575342451</v>
+      </c>
+      <c r="AP3" s="34">
+        <f t="shared" ref="AP3:AP10" si="7">R16</f>
+        <v>0.96914095079232654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114599</v>
+      </c>
+      <c r="F4">
+        <v>35.261230769230799</v>
+      </c>
+      <c r="G4">
+        <v>184625</v>
+      </c>
+      <c r="H4">
+        <v>114599</v>
+      </c>
+      <c r="I4">
+        <v>70026</v>
+      </c>
+      <c r="J4">
+        <v>62.0712254570075</v>
+      </c>
+      <c r="K4">
+        <v>37.928774542992599</v>
+      </c>
+      <c r="L4">
+        <v>88.849815443415693</v>
+      </c>
+      <c r="M4">
+        <v>6.2949938481138599</v>
+      </c>
+      <c r="N4">
+        <v>2.1562142776114999</v>
+      </c>
+      <c r="O4">
+        <v>2.6989764308589099</v>
+      </c>
+      <c r="P4">
+        <v>0.49112153642608902</v>
+      </c>
+      <c r="Q4">
+        <v>5.0335570469798698E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.1926061823847101</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="31">
+        <v>3</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="32">
+        <f t="shared" si="0"/>
+        <v>114599</v>
+      </c>
+      <c r="Z4" s="33">
+        <f t="shared" si="6"/>
+        <v>0.352612307692308</v>
+      </c>
+      <c r="AA4" s="32">
+        <f t="shared" si="1"/>
+        <v>184625</v>
+      </c>
+      <c r="AB4" s="32">
+        <f t="shared" si="1"/>
+        <v>114599</v>
+      </c>
+      <c r="AC4" s="32">
+        <f t="shared" si="1"/>
+        <v>70026</v>
+      </c>
+      <c r="AD4" s="34">
+        <f t="shared" si="2"/>
+        <v>0.62071225457007495</v>
+      </c>
+      <c r="AE4" s="33">
+        <f t="shared" si="2"/>
+        <v>0.37928774542992599</v>
+      </c>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="34">
+        <f t="shared" si="3"/>
+        <v>0.88849815443415692</v>
+      </c>
+      <c r="AH4" s="34">
+        <f t="shared" si="3"/>
+        <v>6.2949938481138598E-2</v>
+      </c>
+      <c r="AI4" s="34">
+        <f t="shared" si="3"/>
+        <v>2.1562142776114998E-2</v>
+      </c>
+      <c r="AJ4" s="34">
+        <f t="shared" si="3"/>
+        <v>2.6989764308589098E-2</v>
+      </c>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36">
+        <f t="shared" si="4"/>
+        <v>0.11150184556584269</v>
+      </c>
+      <c r="AM4" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" s="34">
+        <f t="shared" si="5"/>
+        <v>0.55156072422825575</v>
+      </c>
+      <c r="AO4" s="34">
+        <f t="shared" ref="AO4:AO10" si="8">S17</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="34">
+        <f t="shared" si="7"/>
+        <v>0.62991290178683323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>132624</v>
+      </c>
+      <c r="F5">
+        <v>40.807384615384599</v>
+      </c>
+      <c r="G5">
+        <v>171551</v>
+      </c>
+      <c r="H5">
+        <v>142299</v>
+      </c>
+      <c r="I5">
+        <v>29252</v>
+      </c>
+      <c r="J5">
+        <v>82.948510938438105</v>
+      </c>
+      <c r="K5">
+        <v>17.051489061561899</v>
+      </c>
+      <c r="L5">
+        <v>81.959524671251103</v>
+      </c>
+      <c r="M5">
+        <v>8.54370249728556</v>
+      </c>
+      <c r="N5">
+        <v>3.8831584027023802</v>
+      </c>
+      <c r="O5">
+        <v>5.6136144287610099</v>
+      </c>
+      <c r="P5">
+        <v>0.969756284174351</v>
+      </c>
+      <c r="Q5">
+        <v>9.5759233926128607E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.92320936639117</v>
+      </c>
+      <c r="S5">
+        <v>0.27434842249657099</v>
+      </c>
+      <c r="U5" s="31">
+        <v>4</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="32">
+        <f t="shared" si="0"/>
+        <v>132624</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" si="6"/>
+        <v>0.40807384615384601</v>
+      </c>
+      <c r="AA5" s="32">
+        <f t="shared" si="1"/>
+        <v>171551</v>
+      </c>
+      <c r="AB5" s="32">
+        <f t="shared" si="1"/>
+        <v>142299</v>
+      </c>
+      <c r="AC5" s="32">
+        <f t="shared" si="1"/>
+        <v>29252</v>
+      </c>
+      <c r="AD5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.82948510938438103</v>
+      </c>
+      <c r="AE5" s="33">
+        <f t="shared" si="2"/>
+        <v>0.17051489061561897</v>
+      </c>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="34">
+        <f t="shared" si="3"/>
+        <v>0.81959524671251105</v>
+      </c>
+      <c r="AH5" s="34">
+        <f t="shared" si="3"/>
+        <v>8.5437024972855602E-2</v>
+      </c>
+      <c r="AI5" s="34">
+        <f t="shared" si="3"/>
+        <v>3.8831584027023802E-2</v>
+      </c>
+      <c r="AJ5" s="34">
+        <f t="shared" si="3"/>
+        <v>5.6136144287610101E-2</v>
+      </c>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36">
+        <f t="shared" si="4"/>
+        <v>0.18040475328748951</v>
+      </c>
+      <c r="AM5" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN5" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0890979905227665</v>
+      </c>
+      <c r="AO5" s="34">
+        <f t="shared" si="8"/>
+        <v>1.6076817558299015</v>
+      </c>
+      <c r="AP5" s="34">
+        <f t="shared" si="7"/>
+        <v>1.0158042198847907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>132479</v>
+      </c>
+      <c r="F6">
+        <v>40.762769230769202</v>
+      </c>
+      <c r="G6">
+        <v>171273</v>
+      </c>
+      <c r="H6">
+        <v>142043</v>
+      </c>
+      <c r="I6">
+        <v>29230</v>
+      </c>
+      <c r="J6">
+        <v>82.933678980341298</v>
+      </c>
+      <c r="K6">
+        <v>17.066321019658702</v>
+      </c>
+      <c r="L6">
+        <v>82.669706142105497</v>
+      </c>
+      <c r="M6">
+        <v>8.5583375478377697</v>
+      </c>
+      <c r="N6">
+        <v>3.6300092844903702</v>
+      </c>
+      <c r="O6">
+        <v>5.1419470255663198</v>
+      </c>
+      <c r="P6">
+        <v>0.88820620270943096</v>
+      </c>
+      <c r="Q6">
+        <v>8.4626234132581107E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.78817056396149</v>
+      </c>
+      <c r="S6">
+        <v>0.15220700152207001</v>
+      </c>
+      <c r="U6" s="31">
+        <v>5</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="32">
+        <f t="shared" si="0"/>
+        <v>132479</v>
+      </c>
+      <c r="Z6" s="33">
+        <f t="shared" si="6"/>
+        <v>0.40762769230769202</v>
+      </c>
+      <c r="AA6" s="32">
+        <f t="shared" si="1"/>
+        <v>171273</v>
+      </c>
+      <c r="AB6" s="32">
+        <f t="shared" si="1"/>
+        <v>142043</v>
+      </c>
+      <c r="AC6" s="32">
+        <f t="shared" si="1"/>
+        <v>29230</v>
+      </c>
+      <c r="AD6" s="34">
+        <f t="shared" si="2"/>
+        <v>0.82933678980341297</v>
+      </c>
+      <c r="AE6" s="33">
+        <f t="shared" si="2"/>
+        <v>0.17066321019658701</v>
+      </c>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="34">
+        <f t="shared" si="3"/>
+        <v>0.82669706142105492</v>
+      </c>
+      <c r="AH6" s="34">
+        <f t="shared" si="3"/>
+        <v>8.5583375478377702E-2</v>
+      </c>
+      <c r="AI6" s="34">
+        <f t="shared" si="3"/>
+        <v>3.6300092844903702E-2</v>
+      </c>
+      <c r="AJ6" s="34">
+        <f t="shared" si="3"/>
+        <v>5.1419470255663201E-2</v>
+      </c>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36">
+        <f t="shared" si="4"/>
+        <v>0.1733029385789446</v>
+      </c>
+      <c r="AM6" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN6" s="34">
+        <f t="shared" si="5"/>
+        <v>0.99751206187263131</v>
+      </c>
+      <c r="AO6" s="34">
+        <f t="shared" si="8"/>
+        <v>0.89193302891932769</v>
+      </c>
+      <c r="AP6" s="34">
+        <f t="shared" si="7"/>
+        <v>0.94447917969238704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>132729</v>
+      </c>
+      <c r="F7">
+        <v>40.839692307692303</v>
+      </c>
+      <c r="G7">
+        <v>171225</v>
+      </c>
+      <c r="H7">
+        <v>142229</v>
+      </c>
+      <c r="I7">
+        <v>28996</v>
+      </c>
+      <c r="J7">
+        <v>83.065557015622701</v>
+      </c>
+      <c r="K7">
+        <v>16.934442984377299</v>
+      </c>
+      <c r="L7">
+        <v>87.077428444424399</v>
+      </c>
+      <c r="M7">
+        <v>7.46483436174461</v>
+      </c>
+      <c r="N7">
+        <v>2.4297629003458199</v>
+      </c>
+      <c r="O7">
+        <v>3.0279742934852201</v>
+      </c>
+      <c r="P7">
+        <v>0.52492731660306502</v>
+      </c>
+      <c r="Q7">
+        <v>4.5731707317073203E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.21300969203417</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="31">
+        <v>6</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="32">
+        <f t="shared" si="0"/>
+        <v>132729</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" si="6"/>
+        <v>0.40839692307692305</v>
+      </c>
+      <c r="AA7" s="32">
+        <f t="shared" si="1"/>
+        <v>171225</v>
+      </c>
+      <c r="AB7" s="32">
+        <f t="shared" si="1"/>
+        <v>142229</v>
+      </c>
+      <c r="AC7" s="32">
+        <f t="shared" si="1"/>
+        <v>28996</v>
+      </c>
+      <c r="AD7" s="34">
+        <f t="shared" si="2"/>
+        <v>0.83065557015622704</v>
+      </c>
+      <c r="AE7" s="33">
+        <f t="shared" si="2"/>
+        <v>0.16934442984377299</v>
+      </c>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="34">
+        <f t="shared" si="3"/>
+        <v>0.87077428444424398</v>
+      </c>
+      <c r="AH7" s="34">
+        <f t="shared" si="3"/>
+        <v>7.46483436174461E-2</v>
+      </c>
+      <c r="AI7" s="34">
+        <f t="shared" si="3"/>
+        <v>2.42976290034582E-2</v>
+      </c>
+      <c r="AJ7" s="34">
+        <f t="shared" si="3"/>
+        <v>3.0279742934852201E-2</v>
+      </c>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36">
+        <f t="shared" si="4"/>
+        <v>0.12922571555575649</v>
+      </c>
+      <c r="AM7" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN7" s="34">
+        <f t="shared" si="5"/>
+        <v>0.58952676565498963</v>
+      </c>
+      <c r="AO7" s="34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="34">
+        <f t="shared" si="7"/>
+        <v>0.64068966461077526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>114651</v>
+      </c>
+      <c r="F8">
+        <v>35.277230769230798</v>
+      </c>
+      <c r="G8">
+        <v>185123</v>
+      </c>
+      <c r="H8">
+        <v>114651</v>
+      </c>
+      <c r="I8">
+        <v>44089</v>
+      </c>
+      <c r="J8">
+        <v>61.932336878723902</v>
+      </c>
+      <c r="K8">
+        <v>23.816057432085699</v>
+      </c>
+      <c r="L8">
+        <v>83.948679034635504</v>
+      </c>
+      <c r="M8">
+        <v>7.9859748279561504</v>
+      </c>
+      <c r="N8">
+        <v>3.31702296534701</v>
+      </c>
+      <c r="O8">
+        <v>4.7483231720613004</v>
+      </c>
+      <c r="P8">
+        <v>0.88049439984808398</v>
+      </c>
+      <c r="Q8">
+        <v>8.5616438356164396E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8965517241379299</v>
+      </c>
+      <c r="S8">
+        <v>0.17152658662092601</v>
+      </c>
+      <c r="U8" s="31">
+        <v>7</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="W8" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="32">
+        <f t="shared" si="0"/>
+        <v>114651</v>
+      </c>
+      <c r="Z8" s="33">
+        <f t="shared" si="6"/>
+        <v>0.352772307692308</v>
+      </c>
+      <c r="AA8" s="32">
+        <f t="shared" si="1"/>
+        <v>185123</v>
+      </c>
+      <c r="AB8" s="32">
+        <f t="shared" si="1"/>
+        <v>114651</v>
+      </c>
+      <c r="AC8" s="32">
+        <f t="shared" si="1"/>
+        <v>44089</v>
+      </c>
+      <c r="AD8" s="34">
+        <f t="shared" si="2"/>
+        <v>0.61932336878723904</v>
+      </c>
+      <c r="AE8" s="33">
+        <f t="shared" si="2"/>
+        <v>0.23816057432085699</v>
+      </c>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="34">
+        <f t="shared" si="3"/>
+        <v>0.83948679034635498</v>
+      </c>
+      <c r="AH8" s="34">
+        <f t="shared" si="3"/>
+        <v>7.9859748279561507E-2</v>
+      </c>
+      <c r="AI8" s="34">
+        <f t="shared" si="3"/>
+        <v>3.31702296534701E-2</v>
+      </c>
+      <c r="AJ8" s="34">
+        <f t="shared" si="3"/>
+        <v>4.7483231720613001E-2</v>
+      </c>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36">
+        <f>SUM(AH8:AJ8)</f>
+        <v>0.1605132096536446</v>
+      </c>
+      <c r="AM8" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN8" s="34">
+        <f t="shared" si="5"/>
+        <v>0.98885121673384313</v>
+      </c>
+      <c r="AO8" s="34">
+        <f t="shared" si="8"/>
+        <v>1.0051457975986235</v>
+      </c>
+      <c r="AP8" s="34">
+        <f t="shared" si="7"/>
+        <v>1.001724137931034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>132017</v>
+      </c>
+      <c r="F9">
+        <v>40.620615384615398</v>
+      </c>
+      <c r="G9">
+        <v>171592</v>
+      </c>
+      <c r="H9">
+        <v>141463</v>
+      </c>
+      <c r="I9">
+        <v>30129</v>
+      </c>
+      <c r="J9">
+        <v>82.441489113711597</v>
+      </c>
+      <c r="K9">
+        <v>17.558510886288399</v>
+      </c>
+      <c r="L9">
+        <v>82.490133846398606</v>
+      </c>
+      <c r="M9">
+        <v>8.5617761348917192</v>
+      </c>
+      <c r="N9">
+        <v>3.6964936333957001</v>
+      </c>
+      <c r="O9">
+        <v>5.2515963853140102</v>
+      </c>
+      <c r="P9">
+        <v>0.90086113591206296</v>
+      </c>
+      <c r="Q9">
+        <v>8.5348506401138006E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.79372197309417</v>
+      </c>
+      <c r="S9">
+        <v>0.26701379617267501</v>
+      </c>
+      <c r="U9" s="31">
+        <v>8</v>
+      </c>
+      <c r="V9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="32">
+        <f t="shared" si="0"/>
+        <v>132017</v>
+      </c>
+      <c r="Z9" s="33">
+        <f t="shared" si="6"/>
+        <v>0.40620615384615399</v>
+      </c>
+      <c r="AA9" s="32">
+        <f t="shared" si="1"/>
+        <v>171592</v>
+      </c>
+      <c r="AB9" s="32">
+        <f t="shared" si="1"/>
+        <v>141463</v>
+      </c>
+      <c r="AC9" s="32">
+        <f t="shared" si="1"/>
+        <v>30129</v>
+      </c>
+      <c r="AD9" s="34">
+        <f t="shared" si="2"/>
+        <v>0.82441489113711597</v>
+      </c>
+      <c r="AE9" s="33">
+        <f t="shared" si="2"/>
+        <v>0.175585108862884</v>
+      </c>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="34">
+        <f t="shared" si="3"/>
+        <v>0.82490133846398606</v>
+      </c>
+      <c r="AH9" s="34">
+        <f t="shared" si="3"/>
+        <v>8.5617761348917187E-2</v>
+      </c>
+      <c r="AI9" s="34">
+        <f t="shared" si="3"/>
+        <v>3.6964936333957005E-2</v>
+      </c>
+      <c r="AJ9" s="34">
+        <f t="shared" si="3"/>
+        <v>5.2515963853140099E-2</v>
+      </c>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36">
+        <f t="shared" si="4"/>
+        <v>0.17509866153601428</v>
+      </c>
+      <c r="AM9" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN9" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0117243568029195</v>
+      </c>
+      <c r="AO9" s="34">
+        <f t="shared" si="8"/>
+        <v>1.5647008455718712</v>
+      </c>
+      <c r="AP9" s="34">
+        <f t="shared" si="7"/>
+        <v>0.94741133306155711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>325000</v>
+      </c>
+      <c r="E10">
+        <v>133406</v>
+      </c>
+      <c r="F10">
+        <v>41.048000000000002</v>
+      </c>
+      <c r="G10">
+        <v>185123</v>
+      </c>
+      <c r="H10">
+        <v>143552</v>
+      </c>
+      <c r="I10">
+        <v>41571</v>
+      </c>
+      <c r="J10">
+        <v>77.544119315266101</v>
+      </c>
+      <c r="K10">
+        <v>22.455880684733899</v>
+      </c>
+      <c r="L10">
+        <v>82.502286253991599</v>
+      </c>
+      <c r="M10">
+        <v>8.4411495734824502</v>
+      </c>
+      <c r="N10">
+        <v>3.6759965818628801</v>
+      </c>
+      <c r="O10">
+        <v>5.3805675906630901</v>
+      </c>
+      <c r="P10">
+        <v>0.919776363394056</v>
+      </c>
+      <c r="Q10">
+        <v>8.6455331412103806E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.8361581920904</v>
+      </c>
+      <c r="S10">
+        <v>0.269541778975741</v>
+      </c>
+      <c r="U10" s="31">
+        <v>9</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" s="31">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X10" s="32">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y10" s="32">
+        <f t="shared" si="0"/>
+        <v>133406</v>
+      </c>
+      <c r="Z10" s="33">
+        <f t="shared" si="6"/>
+        <v>0.41048000000000001</v>
+      </c>
+      <c r="AA10" s="32">
+        <f t="shared" si="1"/>
+        <v>185123</v>
+      </c>
+      <c r="AB10" s="32">
+        <f t="shared" si="1"/>
+        <v>143552</v>
+      </c>
+      <c r="AC10" s="32">
+        <f t="shared" si="1"/>
+        <v>41571</v>
+      </c>
+      <c r="AD10" s="34">
+        <f t="shared" si="2"/>
+        <v>0.77544119315266102</v>
+      </c>
+      <c r="AE10" s="33">
+        <f t="shared" si="2"/>
+        <v>0.22455880684733898</v>
+      </c>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="34">
+        <f t="shared" si="3"/>
+        <v>0.82502286253991597</v>
+      </c>
+      <c r="AH10" s="34">
+        <f t="shared" si="3"/>
+        <v>8.4411495734824496E-2</v>
+      </c>
+      <c r="AI10" s="34">
+        <f t="shared" si="3"/>
+        <v>3.6759965818628802E-2</v>
+      </c>
+      <c r="AJ10" s="34">
+        <f t="shared" si="3"/>
+        <v>5.38056759066309E-2</v>
+      </c>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="36">
+        <f t="shared" si="4"/>
+        <v>0.1749771374600842</v>
+      </c>
+      <c r="AM10" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN10" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0329673604081593</v>
+      </c>
+      <c r="AO10" s="34">
+        <f t="shared" si="8"/>
+        <v>1.5795148247978377</v>
+      </c>
+      <c r="AP10" s="34">
+        <f t="shared" si="7"/>
+        <v>0.96982537236774768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>325000</v>
+      </c>
+      <c r="E11">
+        <v>132830</v>
+      </c>
+      <c r="F11">
+        <v>40.870769230769199</v>
+      </c>
+      <c r="G11">
+        <v>171516</v>
+      </c>
+      <c r="H11">
+        <v>142446</v>
+      </c>
+      <c r="I11">
+        <v>29070</v>
+      </c>
+      <c r="J11">
+        <v>83.051143916602499</v>
+      </c>
+      <c r="K11">
+        <v>16.948856083397501</v>
+      </c>
+      <c r="L11">
+        <v>95.644809154558502</v>
+      </c>
+      <c r="M11">
+        <v>1.5764511029135</v>
+      </c>
+      <c r="N11">
+        <v>0.91018595196868202</v>
+      </c>
+      <c r="O11">
+        <v>1.8685537905593601</v>
+      </c>
+      <c r="P11">
+        <v>0.33092414740208698</v>
+      </c>
+      <c r="Q11">
+        <v>2.84495021337127E-3</v>
+      </c>
+      <c r="R11">
+        <v>0.84151472650771397</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="31">
+        <v>10</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="W11" s="31">
+        <f t="shared" ref="W11:W12" si="9">C11</f>
+        <v>200</v>
+      </c>
+      <c r="X11" s="32">
+        <f t="shared" ref="X11:X12" si="10">D11</f>
+        <v>325000</v>
+      </c>
+      <c r="Y11" s="32">
+        <f t="shared" ref="Y11:Y12" si="11">E11</f>
+        <v>132830</v>
+      </c>
+      <c r="Z11" s="33">
+        <f t="shared" ref="Z11:Z12" si="12">F24</f>
+        <v>0.40870769230769199</v>
+      </c>
+      <c r="AA11" s="32">
+        <f t="shared" ref="AA11:AA12" si="13">G11</f>
+        <v>171516</v>
+      </c>
+      <c r="AB11" s="32">
+        <f t="shared" ref="AB11:AB12" si="14">H11</f>
+        <v>142446</v>
+      </c>
+      <c r="AC11" s="32">
+        <f t="shared" ref="AC11:AC12" si="15">I11</f>
+        <v>29070</v>
+      </c>
+      <c r="AD11" s="34">
+        <f t="shared" ref="AD11:AD12" si="16">J24</f>
+        <v>0.83051143916602499</v>
+      </c>
+      <c r="AE11" s="33">
+        <f t="shared" ref="AE11:AE12" si="17">K24</f>
+        <v>0.16948856083397501</v>
+      </c>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="34">
+        <f t="shared" ref="AG11:AG12" si="18">L24</f>
+        <v>0.95644809154558497</v>
+      </c>
+      <c r="AH11" s="34">
+        <f t="shared" ref="AH11:AH12" si="19">M24</f>
+        <v>1.5764511029134998E-2</v>
+      </c>
+      <c r="AI11" s="34">
+        <f t="shared" ref="AI11:AI12" si="20">N24</f>
+        <v>9.10185951968682E-3</v>
+      </c>
+      <c r="AJ11" s="34">
+        <f t="shared" ref="AJ11:AJ12" si="21">O24</f>
+        <v>1.8685537905593602E-2</v>
+      </c>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="36">
+        <f t="shared" ref="AL11:AL12" si="22">SUM(AH11:AJ11)</f>
+        <v>4.3551908454415422E-2</v>
+      </c>
+      <c r="AM11" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN11" s="34">
+        <f t="shared" ref="AN11:AN12" si="23">P24</f>
+        <v>0.37164886666130165</v>
+      </c>
+      <c r="AO11" s="34">
+        <f t="shared" ref="AO11:AO12" si="24">S24</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="34">
+        <f t="shared" ref="AP11:AP12" si="25">R24</f>
+        <v>0.44447277827361986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>325000</v>
+      </c>
+      <c r="E12">
+        <v>132435</v>
+      </c>
+      <c r="F12">
+        <v>40.749230769230799</v>
+      </c>
+      <c r="G12">
+        <v>171653</v>
+      </c>
+      <c r="H12">
+        <v>142183</v>
+      </c>
+      <c r="I12">
+        <v>29470</v>
+      </c>
+      <c r="J12">
+        <v>82.831642907493602</v>
+      </c>
+      <c r="K12">
+        <v>17.168357092506401</v>
+      </c>
+      <c r="L12">
+        <v>82.2667723789029</v>
+      </c>
+      <c r="M12">
+        <v>8.3769396307622603</v>
+      </c>
+      <c r="N12">
+        <v>3.8237626005210101</v>
+      </c>
+      <c r="O12">
+        <v>5.5325253898138698</v>
+      </c>
+      <c r="P12">
+        <v>0.95013547980706703</v>
+      </c>
+      <c r="Q12">
+        <v>9.0090090090090107E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.8919017270545599</v>
+      </c>
+      <c r="S12">
+        <v>0.27137042062415201</v>
+      </c>
+      <c r="U12" s="31">
+        <v>11</v>
+      </c>
+      <c r="V12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="W12" s="31">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="X12" s="32">
+        <f t="shared" si="10"/>
+        <v>325000</v>
+      </c>
+      <c r="Y12" s="32">
+        <f t="shared" si="11"/>
+        <v>132435</v>
+      </c>
+      <c r="Z12" s="33">
+        <f t="shared" si="12"/>
+        <v>0.40749230769230799</v>
+      </c>
+      <c r="AA12" s="32">
+        <f t="shared" si="13"/>
+        <v>171653</v>
+      </c>
+      <c r="AB12" s="32">
+        <f t="shared" si="14"/>
+        <v>142183</v>
+      </c>
+      <c r="AC12" s="32">
+        <f t="shared" si="15"/>
+        <v>29470</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" si="16"/>
+        <v>0.82831642907493608</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" si="17"/>
+        <v>0.17168357092506401</v>
+      </c>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="34">
+        <f t="shared" si="18"/>
+        <v>0.82266772378902897</v>
+      </c>
+      <c r="AH12" s="34">
+        <f t="shared" si="19"/>
+        <v>8.3769396307622604E-2</v>
+      </c>
+      <c r="AI12" s="34">
+        <f t="shared" si="20"/>
+        <v>3.82376260052101E-2</v>
+      </c>
+      <c r="AJ12" s="34">
+        <f t="shared" si="21"/>
+        <v>5.53252538981387E-2</v>
+      </c>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="36">
+        <f t="shared" si="22"/>
+        <v>0.17733227621097139</v>
+      </c>
+      <c r="AM12" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN12" s="34">
+        <f t="shared" si="23"/>
+        <v>1.0670625791956383</v>
+      </c>
+      <c r="AO12" s="34">
+        <f t="shared" si="24"/>
+        <v>1.5902306648575262</v>
+      </c>
+      <c r="AP12" s="34">
+        <f t="shared" si="25"/>
+        <v>0.99926809401699945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="5"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <f>F2/$A$15</f>
+        <v>0.35315692307692303</v>
+      </c>
+      <c r="J15">
+        <f>J2/$A$15</f>
+        <v>0.62035045238841602</v>
+      </c>
+      <c r="K15">
+        <f>K2/$A$15</f>
+        <v>0.37964954761158404</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:O15" si="26">L2/$A$15</f>
+        <v>0.84824353523384699</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="26"/>
+        <v>7.0641946051439308E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="26"/>
+        <v>3.2750749285564901E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="26"/>
+        <v>4.8363769429149002E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:P23" si="27">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" ref="F16:F25" si="28">F3/$A$15</f>
+        <v>0.35210461538461502</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:O23" si="29">J3/$A$15</f>
+        <v>0.62033935057190903</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="29"/>
+        <v>0.37966064942809097</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="29"/>
+        <v>0.85481587640037004</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="29"/>
+        <v>6.7200307600887896E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="29"/>
+        <v>3.11882832025447E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="29"/>
+        <v>4.6795532796196901E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="27"/>
+        <v>0.97657098507880358</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R25" si="30">R3/$R$2</f>
+        <v>0.96914095079232654</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:S21" si="31">S3/$S$2</f>
+        <v>1.0034246575342451</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="28"/>
+        <v>0.352612307692308</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="29"/>
+        <v>0.62071225457007495</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="29"/>
+        <v>0.37928774542992599</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="29"/>
+        <v>0.88849815443415692</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="29"/>
+        <v>6.2949938481138598E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="29"/>
+        <v>2.1562142776114998E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="29"/>
+        <v>2.6989764308589098E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="27"/>
+        <v>0.55156072422825575</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="30"/>
+        <v>0.62991290178683323</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="28"/>
+        <v>0.40807384615384601</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="29"/>
+        <v>0.82948510938438103</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="29"/>
+        <v>0.17051489061561897</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="29"/>
+        <v>0.81959524671251105</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="29"/>
+        <v>8.5437024972855602E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="29"/>
+        <v>3.8831584027023802E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="29"/>
+        <v>5.6136144287610101E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="27"/>
+        <v>1.0890979905227665</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="30"/>
+        <v>1.0158042198847907</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="31"/>
+        <v>1.6076817558299015</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="28"/>
+        <v>0.40762769230769202</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="29"/>
+        <v>0.82933678980341297</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="29"/>
+        <v>0.17066321019658701</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="29"/>
+        <v>0.82669706142105492</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="29"/>
+        <v>8.5583375478377702E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="29"/>
+        <v>3.6300092844903702E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="29"/>
+        <v>5.1419470255663201E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="27"/>
+        <v>0.99751206187263131</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="30"/>
+        <v>0.94447917969238704</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="31"/>
+        <v>0.89193302891932769</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="28"/>
+        <v>0.40839692307692305</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="29"/>
+        <v>0.83065557015622704</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="29"/>
+        <v>0.16934442984377299</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="29"/>
+        <v>0.87077428444424398</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="29"/>
+        <v>7.46483436174461E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="29"/>
+        <v>2.42976290034582E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="29"/>
+        <v>3.0279742934852201E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="27"/>
+        <v>0.58952676565498963</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="30"/>
+        <v>0.64068966461077526</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="28"/>
+        <v>0.352772307692308</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="29"/>
+        <v>0.61932336878723904</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="29"/>
+        <v>0.23816057432085699</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="29"/>
+        <v>0.83948679034635498</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="29"/>
+        <v>7.9859748279561507E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="29"/>
+        <v>3.31702296534701E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="29"/>
+        <v>4.7483231720613001E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="27"/>
+        <v>0.98885121673384313</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="30"/>
+        <v>1.001724137931034</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="31"/>
+        <v>1.0051457975986235</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="28"/>
+        <v>0.40620615384615399</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="29"/>
+        <v>0.82441489113711597</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="29"/>
+        <v>0.175585108862884</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="29"/>
+        <v>0.82490133846398606</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="29"/>
+        <v>8.5617761348917187E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="29"/>
+        <v>3.6964936333957005E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="29"/>
+        <v>5.2515963853140099E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="27"/>
+        <v>1.0117243568029195</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="30"/>
+        <v>0.94741133306155711</v>
+      </c>
+      <c r="S22">
+        <f>S9/$S$2</f>
+        <v>1.5647008455718712</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="28"/>
+        <v>0.41048000000000001</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="29"/>
+        <v>0.77544119315266102</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="29"/>
+        <v>0.22455880684733898</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="29"/>
+        <v>0.82502286253991597</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="29"/>
+        <v>8.4411495734824496E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="29"/>
+        <v>3.6759965818628802E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="29"/>
+        <v>5.38056759066309E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="27"/>
+        <v>1.0329673604081593</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="30"/>
+        <v>0.96982537236774768</v>
+      </c>
+      <c r="S23">
+        <f>S10/$S$2</f>
+        <v>1.5795148247978377</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>F11/$A$15</f>
+        <v>0.40870769230769199</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:O24" si="32">J11/$A$15</f>
+        <v>0.83051143916602499</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="32"/>
+        <v>0.16948856083397501</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="32"/>
+        <v>0.95644809154558497</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="32"/>
+        <v>1.5764511029134998E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="32"/>
+        <v>9.10185951968682E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="32"/>
+        <v>1.8685537905593602E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P25" si="33">P11/$P$2</f>
+        <v>0.37164886666130165</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="30"/>
+        <v>0.44447277827361986</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S24:S25" si="34">S11/$S$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="28"/>
+        <v>0.40749230769230799</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:O25" si="35">J12/$A$15</f>
+        <v>0.82831642907493608</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="35"/>
+        <v>0.17168357092506401</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="35"/>
+        <v>0.82266772378902897</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="35"/>
+        <v>8.3769396307622604E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="35"/>
+        <v>3.82376260052101E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="35"/>
+        <v>5.53252538981387E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="33"/>
+        <v>1.0670625791956383</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="30"/>
+        <v>0.99926809401699945</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="34"/>
+        <v>1.5902306648575262</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S12">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7771,8 +11820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AEF58A-6676-4911-9A0F-F93CCACAFA8C}">
   <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2:AP7"/>
+    <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9542,8 +13591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815D215-4C00-4D69-A4B6-A85223BC21D4}">
   <dimension ref="A1:AP20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11308,10 +15357,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0070892F-2534-4A57-B23B-26AC79CAE576}">
-  <dimension ref="A1:AP20"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11520,7 +15569,7 @@
         <v>114281</v>
       </c>
       <c r="Z2" s="5">
-        <f>F12</f>
+        <f>F13</f>
         <v>0.35163384615384602</v>
       </c>
       <c r="AA2" s="3">
@@ -11536,7 +15585,7 @@
         <v>69796</v>
       </c>
       <c r="AD2" s="4">
-        <f t="shared" ref="AD2:AE10" si="2">J12</f>
+        <f t="shared" ref="AD2:AE10" si="2">J13</f>
         <v>0.62083258636331495</v>
       </c>
       <c r="AE2" s="5">
@@ -11545,7 +15594,7 @@
       </c>
       <c r="AF2" s="12"/>
       <c r="AG2" s="4">
-        <f t="shared" ref="AG2:AJ10" si="3">L12</f>
+        <f t="shared" ref="AG2:AJ10" si="3">L13</f>
         <v>0.85295018419509805</v>
       </c>
       <c r="AH2" s="4">
@@ -11569,15 +15618,15 @@
         <v>98</v>
       </c>
       <c r="AN2" s="4">
-        <f t="shared" ref="AN2:AN10" si="5">P12</f>
+        <f t="shared" ref="AN2:AN10" si="5">P13</f>
         <v>1</v>
       </c>
       <c r="AO2" s="4">
-        <f>S12</f>
+        <f>S13</f>
         <v>1</v>
       </c>
       <c r="AP2" s="4">
-        <f>R12</f>
+        <f>R13</f>
         <v>1</v>
       </c>
     </row>
@@ -11658,7 +15707,7 @@
         <v>114512</v>
       </c>
       <c r="Z3" s="5">
-        <f t="shared" ref="Z3:Z10" si="6">F13</f>
+        <f t="shared" ref="Z3:Z10" si="6">F14</f>
         <v>0.35234461538461503</v>
       </c>
       <c r="AA3" s="3">
@@ -11711,11 +15760,11 @@
         <v>0.97375583540414024</v>
       </c>
       <c r="AO3" s="4">
-        <f>S13</f>
+        <f>S14</f>
         <v>1.0085324232081909</v>
       </c>
       <c r="AP3" s="4">
-        <f t="shared" ref="AP3:AP10" si="7">R13</f>
+        <f t="shared" ref="AP3:AP10" si="7">R14</f>
         <v>0.96681096681096634</v>
       </c>
     </row>
@@ -11849,7 +15898,7 @@
         <v>0.5842791149433445</v>
       </c>
       <c r="AO4" s="4">
-        <f t="shared" ref="AO4:AO10" si="8">S14</f>
+        <f t="shared" ref="AO4:AO10" si="8">S15</f>
         <v>0</v>
       </c>
       <c r="AP4" s="4">
@@ -12683,383 +16732,405 @@
         <v>1.0058915491811231</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="5"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>100</v>
       </c>
-      <c r="F12">
-        <f>F2/$A$12</f>
+      <c r="F13">
+        <f>F2/$A$13</f>
         <v>0.35163384615384602</v>
       </c>
-      <c r="J12">
-        <f>J2/$A$12</f>
+      <c r="J13">
+        <f>J2/$A$13</f>
         <v>0.62083258636331495</v>
       </c>
-      <c r="K12">
-        <f>K2/$A$12</f>
+      <c r="K13">
+        <f>K2/$A$13</f>
         <v>0.37916741363668499</v>
       </c>
-      <c r="L12">
-        <f t="shared" ref="L12:O12" si="9">L2/$A$12</f>
+      <c r="L13">
+        <f t="shared" ref="L13:O13" si="9">L2/$A$13</f>
         <v>0.85295018419509805</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <f t="shared" si="9"/>
         <v>6.8629080949589194E-2</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <f t="shared" si="9"/>
         <v>3.2507590938126198E-2</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <f t="shared" si="9"/>
         <v>4.5913143917186601E-2</v>
       </c>
-      <c r="P12">
-        <f t="shared" ref="P12:P20" si="10">P2/$P$2</f>
+      <c r="P13">
+        <f t="shared" ref="P13:P21" si="10">P2/$P$2</f>
         <v>1</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <f>R2/$R$2</f>
         <v>1</v>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>S2/$S$2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f t="shared" ref="F13:F20" si="11">F3/$A$12</f>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" ref="F14:F21" si="11">F3/$A$13</f>
         <v>0.35234461538461503</v>
       </c>
-      <c r="J13">
-        <f t="shared" ref="J13:O20" si="12">J3/$A$12</f>
+      <c r="J14">
+        <f t="shared" ref="J14:O21" si="12">J3/$A$13</f>
         <v>0.61978112382416295</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f t="shared" si="12"/>
         <v>0.380218876175837</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f t="shared" si="12"/>
         <v>0.85384937823110207</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f t="shared" si="12"/>
         <v>6.9879139304177704E-2</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <f t="shared" si="12"/>
         <v>3.0817730892832199E-2</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <f t="shared" si="12"/>
         <v>4.5453751571887704E-2</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <f t="shared" si="10"/>
         <v>0.97375583540414024</v>
       </c>
-      <c r="R13">
-        <f t="shared" ref="R13:R20" si="13">R3/$R$2</f>
+      <c r="R14">
+        <f t="shared" ref="R14:R21" si="13">R3/$R$2</f>
         <v>0.96681096681096634</v>
       </c>
-      <c r="S13">
-        <f t="shared" ref="S13:S18" si="14">S3/$S$2</f>
+      <c r="S14">
+        <f t="shared" ref="S14:S19" si="14">S3/$S$2</f>
         <v>1.0085324232081909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f t="shared" si="11"/>
-        <v>0.35280615384615399</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="12"/>
-        <v>0.62026398355512302</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="12"/>
-        <v>0.37973601644487703</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="12"/>
-        <v>0.88909141651113699</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="12"/>
-        <v>6.19734524079468E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="12"/>
-        <v>2.1480525370218603E-2</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="12"/>
-        <v>2.7454605710697501E-2</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="10"/>
-        <v>0.5842791149433445</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="13"/>
-        <v>0.67320574162679481</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="14"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F15">
         <f t="shared" si="11"/>
-        <v>0.406923076923077</v>
+        <v>0.35280615384615399</v>
       </c>
       <c r="J15">
         <f t="shared" si="12"/>
-        <v>0.82876932518923296</v>
+        <v>0.62026398355512302</v>
       </c>
       <c r="K15">
         <f t="shared" si="12"/>
-        <v>0.17123067481076698</v>
+        <v>0.37973601644487703</v>
       </c>
       <c r="L15">
         <f t="shared" si="12"/>
-        <v>0.81479017013232491</v>
+        <v>0.88909141651113699</v>
       </c>
       <c r="M15">
         <f t="shared" si="12"/>
-        <v>8.8393194706994291E-2</v>
+        <v>6.19734524079468E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="12"/>
-        <v>3.8381852551984903E-2</v>
+        <v>2.1480525370218603E-2</v>
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>5.8434782608695696E-2</v>
+        <v>2.7454605710697501E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="10"/>
-        <v>1.1753328657197639</v>
+        <v>0.5842791149433445</v>
       </c>
       <c r="R15">
         <f t="shared" si="13"/>
-        <v>1.0763738365421358</v>
+        <v>0.67320574162679481</v>
       </c>
       <c r="S15">
         <f t="shared" si="14"/>
-        <v>1.6554621848739437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="F16">
         <f t="shared" si="11"/>
-        <v>0.40756923076923102</v>
+        <v>0.406923076923077</v>
       </c>
       <c r="J16">
         <f t="shared" si="12"/>
-        <v>0.82803179175583597</v>
+        <v>0.82876932518923296</v>
       </c>
       <c r="K16">
         <f t="shared" si="12"/>
-        <v>0.17196820824416398</v>
+        <v>0.17123067481076698</v>
       </c>
       <c r="L16">
         <f t="shared" si="12"/>
-        <v>0.82797825758719601</v>
+        <v>0.81479017013232491</v>
       </c>
       <c r="M16">
         <f t="shared" si="12"/>
-        <v>8.5754189944134099E-2</v>
+        <v>8.8393194706994291E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="12"/>
-        <v>3.4878453872867296E-2</v>
+        <v>3.8381852551984903E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="12"/>
-        <v>5.1389098595802499E-2</v>
+        <v>5.8434782608695696E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="10"/>
-        <v>1.0325499344901978</v>
+        <v>1.1753328657197639</v>
       </c>
       <c r="R16">
         <f t="shared" si="13"/>
-        <v>0.96302211302211271</v>
+        <v>1.0763738365421358</v>
       </c>
       <c r="S16">
         <f t="shared" si="14"/>
-        <v>1.5994587280108201</v>
+        <v>1.6554621848739437</v>
       </c>
     </row>
     <row r="17" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F17">
         <f t="shared" si="11"/>
-        <v>0.407203076923077</v>
+        <v>0.40756923076923102</v>
       </c>
       <c r="J17">
         <f t="shared" si="12"/>
-        <v>0.82741406860515299</v>
+        <v>0.82803179175583597</v>
       </c>
       <c r="K17">
         <f t="shared" si="12"/>
-        <v>0.17258593139484699</v>
+        <v>0.17196820824416398</v>
       </c>
       <c r="L17">
         <f t="shared" si="12"/>
-        <v>0.87018384325341402</v>
+        <v>0.82797825758719601</v>
       </c>
       <c r="M17">
         <f t="shared" si="12"/>
-        <v>7.5350798316470305E-2</v>
+        <v>8.5754189944134099E-2</v>
       </c>
       <c r="N17">
         <f t="shared" si="12"/>
-        <v>2.4353752805253103E-2</v>
+        <v>3.4878453872867296E-2</v>
       </c>
       <c r="O17">
         <f t="shared" si="12"/>
-        <v>3.0111605624863001E-2</v>
+        <v>5.1389098595802499E-2</v>
       </c>
       <c r="P17">
         <f t="shared" si="10"/>
-        <v>0.60020203002293493</v>
+        <v>1.0325499344901978</v>
       </c>
       <c r="R17">
         <f t="shared" si="13"/>
-        <v>0.63373620599054004</v>
+        <v>0.96302211302211271</v>
       </c>
       <c r="S17">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.5994587280108201</v>
       </c>
     </row>
     <row r="18" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F18">
         <f t="shared" si="11"/>
-        <v>0.35371384615384599</v>
+        <v>0.407203076923077</v>
       </c>
       <c r="J18">
         <f t="shared" si="12"/>
-        <v>0.62108368316125595</v>
+        <v>0.82741406860515299</v>
       </c>
       <c r="K18">
         <f t="shared" si="12"/>
-        <v>0.19009568266420299</v>
+        <v>0.17258593139484699</v>
       </c>
       <c r="L18">
         <f t="shared" si="12"/>
-        <v>0.8409231277782131</v>
+        <v>0.87018384325341402</v>
       </c>
       <c r="M18">
         <f t="shared" si="12"/>
-        <v>8.02821924719678E-2</v>
+        <v>7.5350798316470305E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="12"/>
-        <v>3.2768774411301604E-2</v>
+        <v>2.4353752805253103E-2</v>
       </c>
       <c r="O18">
         <f t="shared" si="12"/>
-        <v>4.6025905338517893E-2</v>
+        <v>3.0111605624863001E-2</v>
       </c>
       <c r="P18">
         <f t="shared" si="10"/>
-        <v>0.98532831474072746</v>
+        <v>0.60020203002293493</v>
       </c>
       <c r="R18">
         <f t="shared" si="13"/>
-        <v>0.98416843479679761</v>
+        <v>0.63373620599054004</v>
       </c>
       <c r="S18">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F19">
         <f t="shared" si="11"/>
-        <v>0.40716923076923101</v>
+        <v>0.35371384615384599</v>
       </c>
       <c r="J19">
         <f t="shared" si="12"/>
-        <v>0.82525475316149999</v>
+        <v>0.62108368316125595</v>
       </c>
       <c r="K19">
         <f t="shared" si="12"/>
-        <v>0.17474524683849998</v>
+        <v>0.19009568266420299</v>
       </c>
       <c r="L19">
         <f t="shared" si="12"/>
-        <v>0.82532305599637301</v>
+        <v>0.8409231277782131</v>
       </c>
       <c r="M19">
         <f t="shared" si="12"/>
-        <v>8.5037406483790504E-2</v>
+        <v>8.02821924719678E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="12"/>
-        <v>3.7421597521348098E-2</v>
+        <v>3.2768774411301604E-2</v>
       </c>
       <c r="O19">
         <f t="shared" si="12"/>
-        <v>5.2217939998488595E-2</v>
+        <v>4.6025905338517893E-2</v>
       </c>
       <c r="P19">
         <f t="shared" si="10"/>
-        <v>1.043313937169589</v>
+        <v>0.98532831474072746</v>
       </c>
       <c r="R19">
         <f t="shared" si="13"/>
-        <v>1.0008937691521922</v>
+        <v>0.98416843479679761</v>
       </c>
       <c r="S19">
-        <f>S9/$S$2</f>
-        <v>0.85281385281384858</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F20">
         <f t="shared" si="11"/>
-        <v>0.41140307692307698</v>
+        <v>0.40716923076923101</v>
       </c>
       <c r="J20">
         <f t="shared" si="12"/>
-        <v>0.77752024679752096</v>
+        <v>0.82525475316149999</v>
       </c>
       <c r="K20">
         <f t="shared" si="12"/>
-        <v>0.22247975320247901</v>
+        <v>0.17474524683849998</v>
       </c>
       <c r="L20">
         <f t="shared" si="12"/>
-        <v>0.82789104453053697</v>
+        <v>0.82532305599637301</v>
       </c>
       <c r="M20">
         <f t="shared" si="12"/>
-        <v>8.1432396451916897E-2</v>
+        <v>8.5037406483790504E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="12"/>
-        <v>3.5862264969410501E-2</v>
+        <v>3.7421597521348098E-2</v>
       </c>
       <c r="O20">
         <f t="shared" si="12"/>
-        <v>5.4814294048135502E-2</v>
+        <v>5.2217939998488595E-2</v>
       </c>
       <c r="P20">
         <f t="shared" si="10"/>
-        <v>1.1059178464310508</v>
+        <v>1.043313937169589</v>
       </c>
       <c r="R20">
         <f t="shared" si="13"/>
+        <v>1.0008937691521922</v>
+      </c>
+      <c r="S20">
+        <f>S9/$S$2</f>
+        <v>0.85281385281384858</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="11"/>
+        <v>0.41140307692307698</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="12"/>
+        <v>0.77752024679752096</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="12"/>
+        <v>0.22247975320247901</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="12"/>
+        <v>0.82789104453053697</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="12"/>
+        <v>8.1432396451916897E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="12"/>
+        <v>3.5862264969410501E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="12"/>
+        <v>5.4814294048135502E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>1.1059178464310508</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="13"/>
         <v>1.0058915491811231</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>S10/$S$2</f>
         <v>1.5929919137466246</v>
       </c>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C7F10-D9EF-470B-9388-9EA244469A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77857636-7849-4399-904D-0C964F26EEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,13 @@
     <sheet name="3-10-21" sheetId="10" r:id="rId9"/>
     <sheet name="3-11-21" sheetId="11" r:id="rId10"/>
     <sheet name="3-12-21" sheetId="12" r:id="rId11"/>
+    <sheet name="3-2-21" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'3-10-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'3-11-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'3-12-21'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'3-2-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-3-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'3-8-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3-9-21 '!$A$1:$S$1</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="140">
   <si>
     <t>Treatment</t>
   </si>
@@ -416,6 +418,63 @@
   <si>
     <t>Touches off ,ST only</t>
   </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>TouchST</t>
+  </si>
+  <si>
+    <t>WStation</t>
+  </si>
+  <si>
+    <t>WBucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85% [0.17%-1.75%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83% [0.17%-1.74%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49% [0.0%-1.20%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90% [0.15%-1.81%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86% [0.14%-1.77%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52% [0.0%-1.20%]  </t>
+  </si>
+  <si>
+    <t>0.81% [0.17%-1.73%]</t>
+  </si>
+  <si>
+    <t>0.31% [0.0%-0.8%]</t>
+  </si>
+  <si>
+    <t>0.88% [0.27%-1.72%]</t>
+  </si>
+  <si>
+    <t>0.76% [0.14%-1.57%]</t>
+  </si>
+  <si>
+    <t>0.38% [0.0%-0.97%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84% [0.15%-1.71%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86% [0.14%-1.72%]  </t>
+  </si>
+  <si>
+    <t>% Consumed</t>
+  </si>
+  <si>
+    <t>% relative dicarded</t>
+  </si>
 </sst>
 </file>
 
@@ -586,7 +645,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +843,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -965,7 +1030,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1043,9 +1108,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1074,6 +1136,59 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1465,26 +1580,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="R3" s="27" t="s">
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="R3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -4614,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC761CE6-EC3B-4496-A398-6A9F48574E80}">
   <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4742,7 @@
     <col min="39" max="40" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4685,66 +4800,66 @@
       <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="28" t="s">
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AI1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AM1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AP1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4806,82 +4921,82 @@
       <c r="S2">
         <v>0.17064846416382301</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="30">
         <v>1</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="30">
         <f t="shared" ref="W2:Y10" si="0">C2</f>
         <v>200</v>
       </c>
-      <c r="X2" s="32">
+      <c r="X2" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y2" s="32">
+      <c r="Y2" s="31">
         <f t="shared" si="0"/>
         <v>114776</v>
       </c>
-      <c r="Z2" s="33">
+      <c r="Z2" s="32">
         <f>F15</f>
         <v>0.35315692307692303</v>
       </c>
-      <c r="AA2" s="32">
+      <c r="AA2" s="31">
         <f t="shared" ref="AA2:AC10" si="1">G2</f>
         <v>185018</v>
       </c>
-      <c r="AB2" s="32">
+      <c r="AB2" s="31">
         <f t="shared" si="1"/>
         <v>114776</v>
       </c>
-      <c r="AC2" s="32">
+      <c r="AC2" s="31">
         <f t="shared" si="1"/>
         <v>70242</v>
       </c>
-      <c r="AD2" s="34">
+      <c r="AD2" s="33">
         <f t="shared" ref="AD2:AE10" si="2">J15</f>
         <v>0.62035045238841602</v>
       </c>
-      <c r="AE2" s="33">
+      <c r="AE2" s="32">
         <f t="shared" si="2"/>
         <v>0.37964954761158404</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="34">
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="33">
         <f t="shared" ref="AG2:AJ10" si="3">L15</f>
         <v>0.84824353523384699</v>
       </c>
-      <c r="AH2" s="34">
+      <c r="AH2" s="33">
         <f t="shared" si="3"/>
         <v>7.0641946051439308E-2</v>
       </c>
-      <c r="AI2" s="34">
+      <c r="AI2" s="33">
         <f t="shared" si="3"/>
         <v>3.2750749285564901E-2</v>
       </c>
-      <c r="AJ2" s="34">
+      <c r="AJ2" s="33">
         <f t="shared" si="3"/>
         <v>4.8363769429149002E-2</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36">
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35">
         <f t="shared" ref="AL2:AL10" si="4">SUM(AH2:AJ2)</f>
         <v>0.1517564647661532</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AN2" s="34">
+      <c r="AN2" s="33">
         <f t="shared" ref="AN2:AN10" si="5">P15</f>
         <v>1</v>
       </c>
-      <c r="AO2" s="34">
+      <c r="AO2" s="33">
         <f>S15</f>
         <v>1</v>
       </c>
-      <c r="AP2" s="34">
+      <c r="AP2" s="33">
         <f>R15</f>
         <v>1</v>
       </c>
@@ -4944,82 +5059,82 @@
       <c r="S3">
         <v>0.17123287671232901</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="30">
         <v>2</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X3" s="32">
+      <c r="X3" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y3" s="32">
+      <c r="Y3" s="31">
         <f t="shared" si="0"/>
         <v>114434</v>
       </c>
-      <c r="Z3" s="33">
+      <c r="Z3" s="32">
         <f t="shared" ref="Z3:Z10" si="6">F16</f>
         <v>0.35210461538461502</v>
       </c>
-      <c r="AA3" s="32">
+      <c r="AA3" s="31">
         <f t="shared" si="1"/>
         <v>184470</v>
       </c>
-      <c r="AB3" s="32">
+      <c r="AB3" s="31">
         <f t="shared" si="1"/>
         <v>114434</v>
       </c>
-      <c r="AC3" s="32">
+      <c r="AC3" s="31">
         <f t="shared" si="1"/>
         <v>70036</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3" s="33">
         <f t="shared" si="2"/>
         <v>0.62033935057190903</v>
       </c>
-      <c r="AE3" s="33">
+      <c r="AE3" s="32">
         <f t="shared" si="2"/>
         <v>0.37966064942809097</v>
       </c>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="34">
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="33">
         <f t="shared" si="3"/>
         <v>0.85481587640037004</v>
       </c>
-      <c r="AH3" s="34">
+      <c r="AH3" s="33">
         <f t="shared" si="3"/>
         <v>6.7200307600887896E-2</v>
       </c>
-      <c r="AI3" s="34">
+      <c r="AI3" s="33">
         <f t="shared" si="3"/>
         <v>3.11882832025447E-2</v>
       </c>
-      <c r="AJ3" s="34">
+      <c r="AJ3" s="33">
         <f t="shared" si="3"/>
         <v>4.6795532796196901E-2</v>
       </c>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36">
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35">
         <f t="shared" si="4"/>
         <v>0.14518412359962951</v>
       </c>
-      <c r="AM3" s="33" t="s">
+      <c r="AM3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AN3" s="34">
+      <c r="AN3" s="33">
         <f t="shared" si="5"/>
         <v>0.97657098507880358</v>
       </c>
-      <c r="AO3" s="34">
+      <c r="AO3" s="33">
         <f>S16</f>
         <v>1.0034246575342451</v>
       </c>
-      <c r="AP3" s="34">
+      <c r="AP3" s="33">
         <f t="shared" ref="AP3:AP10" si="7">R16</f>
         <v>0.96914095079232654</v>
       </c>
@@ -5082,82 +5197,82 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="30">
         <v>3</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X4" s="32">
+      <c r="X4" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y4" s="32">
+      <c r="Y4" s="31">
         <f t="shared" si="0"/>
         <v>114599</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="32">
         <f t="shared" si="6"/>
         <v>0.352612307692308</v>
       </c>
-      <c r="AA4" s="32">
+      <c r="AA4" s="31">
         <f t="shared" si="1"/>
         <v>184625</v>
       </c>
-      <c r="AB4" s="32">
+      <c r="AB4" s="31">
         <f t="shared" si="1"/>
         <v>114599</v>
       </c>
-      <c r="AC4" s="32">
+      <c r="AC4" s="31">
         <f t="shared" si="1"/>
         <v>70026</v>
       </c>
-      <c r="AD4" s="34">
+      <c r="AD4" s="33">
         <f t="shared" si="2"/>
         <v>0.62071225457007495</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AE4" s="32">
         <f t="shared" si="2"/>
         <v>0.37928774542992599</v>
       </c>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="34">
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="33">
         <f t="shared" si="3"/>
         <v>0.88849815443415692</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="33">
         <f t="shared" si="3"/>
         <v>6.2949938481138598E-2</v>
       </c>
-      <c r="AI4" s="34">
+      <c r="AI4" s="33">
         <f t="shared" si="3"/>
         <v>2.1562142776114998E-2</v>
       </c>
-      <c r="AJ4" s="34">
+      <c r="AJ4" s="33">
         <f t="shared" si="3"/>
         <v>2.6989764308589098E-2</v>
       </c>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36">
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35">
         <f t="shared" si="4"/>
         <v>0.11150184556584269</v>
       </c>
-      <c r="AM4" s="33" t="s">
+      <c r="AM4" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AN4" s="34">
+      <c r="AN4" s="33">
         <f t="shared" si="5"/>
         <v>0.55156072422825575</v>
       </c>
-      <c r="AO4" s="34">
+      <c r="AO4" s="33">
         <f t="shared" ref="AO4:AO10" si="8">S17</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="34">
+      <c r="AP4" s="33">
         <f t="shared" si="7"/>
         <v>0.62991290178683323</v>
       </c>
@@ -5220,82 +5335,82 @@
       <c r="S5">
         <v>0.27434842249657099</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="30">
         <v>4</v>
       </c>
-      <c r="V5" s="31" t="s">
+      <c r="V5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X5" s="32">
+      <c r="X5" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="31">
         <f t="shared" si="0"/>
         <v>132624</v>
       </c>
-      <c r="Z5" s="33">
+      <c r="Z5" s="32">
         <f t="shared" si="6"/>
         <v>0.40807384615384601</v>
       </c>
-      <c r="AA5" s="32">
+      <c r="AA5" s="31">
         <f t="shared" si="1"/>
         <v>171551</v>
       </c>
-      <c r="AB5" s="32">
+      <c r="AB5" s="31">
         <f t="shared" si="1"/>
         <v>142299</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AC5" s="31">
         <f t="shared" si="1"/>
         <v>29252</v>
       </c>
-      <c r="AD5" s="34">
+      <c r="AD5" s="33">
         <f t="shared" si="2"/>
         <v>0.82948510938438103</v>
       </c>
-      <c r="AE5" s="33">
+      <c r="AE5" s="32">
         <f t="shared" si="2"/>
         <v>0.17051489061561897</v>
       </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="34">
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="33">
         <f t="shared" si="3"/>
         <v>0.81959524671251105</v>
       </c>
-      <c r="AH5" s="34">
+      <c r="AH5" s="33">
         <f t="shared" si="3"/>
         <v>8.5437024972855602E-2</v>
       </c>
-      <c r="AI5" s="34">
+      <c r="AI5" s="33">
         <f t="shared" si="3"/>
         <v>3.8831584027023802E-2</v>
       </c>
-      <c r="AJ5" s="34">
+      <c r="AJ5" s="33">
         <f t="shared" si="3"/>
         <v>5.6136144287610101E-2</v>
       </c>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36">
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35">
         <f t="shared" si="4"/>
         <v>0.18040475328748951</v>
       </c>
-      <c r="AM5" s="31" t="s">
+      <c r="AM5" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="AN5" s="34">
+      <c r="AN5" s="33">
         <f t="shared" si="5"/>
         <v>1.0890979905227665</v>
       </c>
-      <c r="AO5" s="34">
+      <c r="AO5" s="33">
         <f t="shared" si="8"/>
         <v>1.6076817558299015</v>
       </c>
-      <c r="AP5" s="34">
+      <c r="AP5" s="33">
         <f t="shared" si="7"/>
         <v>1.0158042198847907</v>
       </c>
@@ -5358,82 +5473,82 @@
       <c r="S6">
         <v>0.15220700152207001</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="30">
         <v>5</v>
       </c>
-      <c r="V6" s="31" t="s">
+      <c r="V6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="31">
         <f t="shared" si="0"/>
         <v>132479</v>
       </c>
-      <c r="Z6" s="33">
+      <c r="Z6" s="32">
         <f t="shared" si="6"/>
         <v>0.40762769230769202</v>
       </c>
-      <c r="AA6" s="32">
+      <c r="AA6" s="31">
         <f t="shared" si="1"/>
         <v>171273</v>
       </c>
-      <c r="AB6" s="32">
+      <c r="AB6" s="31">
         <f t="shared" si="1"/>
         <v>142043</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="31">
         <f t="shared" si="1"/>
         <v>29230</v>
       </c>
-      <c r="AD6" s="34">
+      <c r="AD6" s="33">
         <f t="shared" si="2"/>
         <v>0.82933678980341297</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AE6" s="32">
         <f t="shared" si="2"/>
         <v>0.17066321019658701</v>
       </c>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="34">
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="33">
         <f t="shared" si="3"/>
         <v>0.82669706142105492</v>
       </c>
-      <c r="AH6" s="34">
+      <c r="AH6" s="33">
         <f t="shared" si="3"/>
         <v>8.5583375478377702E-2</v>
       </c>
-      <c r="AI6" s="34">
+      <c r="AI6" s="33">
         <f t="shared" si="3"/>
         <v>3.6300092844903702E-2</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="33">
         <f t="shared" si="3"/>
         <v>5.1419470255663201E-2</v>
       </c>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36">
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35">
         <f t="shared" si="4"/>
         <v>0.1733029385789446</v>
       </c>
-      <c r="AM6" s="33" t="s">
+      <c r="AM6" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="AN6" s="34">
+      <c r="AN6" s="33">
         <f t="shared" si="5"/>
         <v>0.99751206187263131</v>
       </c>
-      <c r="AO6" s="34">
+      <c r="AO6" s="33">
         <f t="shared" si="8"/>
         <v>0.89193302891932769</v>
       </c>
-      <c r="AP6" s="34">
+      <c r="AP6" s="33">
         <f t="shared" si="7"/>
         <v>0.94447917969238704</v>
       </c>
@@ -5496,87 +5611,87 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="30">
         <v>6</v>
       </c>
-      <c r="V7" s="31" t="s">
+      <c r="V7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X7" s="32">
+      <c r="X7" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y7" s="32">
+      <c r="Y7" s="31">
         <f t="shared" si="0"/>
         <v>132729</v>
       </c>
-      <c r="Z7" s="33">
+      <c r="Z7" s="32">
         <f t="shared" si="6"/>
         <v>0.40839692307692305</v>
       </c>
-      <c r="AA7" s="32">
+      <c r="AA7" s="31">
         <f t="shared" si="1"/>
         <v>171225</v>
       </c>
-      <c r="AB7" s="32">
+      <c r="AB7" s="31">
         <f t="shared" si="1"/>
         <v>142229</v>
       </c>
-      <c r="AC7" s="32">
+      <c r="AC7" s="31">
         <f t="shared" si="1"/>
         <v>28996</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="33">
         <f t="shared" si="2"/>
         <v>0.83065557015622704</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="32">
         <f t="shared" si="2"/>
         <v>0.16934442984377299</v>
       </c>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="34">
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="33">
         <f t="shared" si="3"/>
         <v>0.87077428444424398</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="33">
         <f t="shared" si="3"/>
         <v>7.46483436174461E-2</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="33">
         <f t="shared" si="3"/>
         <v>2.42976290034582E-2</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="33">
         <f t="shared" si="3"/>
         <v>3.0279742934852201E-2</v>
       </c>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36">
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35">
         <f t="shared" si="4"/>
         <v>0.12922571555575649</v>
       </c>
-      <c r="AM7" s="33" t="s">
+      <c r="AM7" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="33">
         <f t="shared" si="5"/>
         <v>0.58952676565498963</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="33">
         <f t="shared" si="7"/>
         <v>0.64068966461077526</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -5634,82 +5749,82 @@
       <c r="S8">
         <v>0.17152658662092601</v>
       </c>
-      <c r="U8" s="31">
+      <c r="U8" s="30">
         <v>7</v>
       </c>
-      <c r="V8" s="31" t="s">
+      <c r="V8" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X8" s="32">
+      <c r="X8" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="31">
         <f t="shared" si="0"/>
         <v>114651</v>
       </c>
-      <c r="Z8" s="33">
+      <c r="Z8" s="32">
         <f t="shared" si="6"/>
         <v>0.352772307692308</v>
       </c>
-      <c r="AA8" s="32">
+      <c r="AA8" s="31">
         <f t="shared" si="1"/>
         <v>185123</v>
       </c>
-      <c r="AB8" s="32">
+      <c r="AB8" s="31">
         <f t="shared" si="1"/>
         <v>114651</v>
       </c>
-      <c r="AC8" s="32">
+      <c r="AC8" s="31">
         <f t="shared" si="1"/>
         <v>44089</v>
       </c>
-      <c r="AD8" s="34">
+      <c r="AD8" s="33">
         <f t="shared" si="2"/>
         <v>0.61932336878723904</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="32">
         <f t="shared" si="2"/>
         <v>0.23816057432085699</v>
       </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="34">
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="33">
         <f t="shared" si="3"/>
         <v>0.83948679034635498</v>
       </c>
-      <c r="AH8" s="34">
+      <c r="AH8" s="33">
         <f t="shared" si="3"/>
         <v>7.9859748279561507E-2</v>
       </c>
-      <c r="AI8" s="34">
+      <c r="AI8" s="33">
         <f t="shared" si="3"/>
         <v>3.31702296534701E-2</v>
       </c>
-      <c r="AJ8" s="34">
+      <c r="AJ8" s="33">
         <f t="shared" si="3"/>
         <v>4.7483231720613001E-2</v>
       </c>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36">
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35">
         <f>SUM(AH8:AJ8)</f>
         <v>0.1605132096536446</v>
       </c>
-      <c r="AM8" s="33" t="s">
+      <c r="AM8" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AN8" s="34">
+      <c r="AN8" s="33">
         <f t="shared" si="5"/>
         <v>0.98885121673384313</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="AO8" s="33">
         <f t="shared" si="8"/>
         <v>1.0051457975986235</v>
       </c>
-      <c r="AP8" s="34">
+      <c r="AP8" s="33">
         <f t="shared" si="7"/>
         <v>1.001724137931034</v>
       </c>
@@ -5772,87 +5887,87 @@
       <c r="S9">
         <v>0.26701379617267501</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="30">
         <v>8</v>
       </c>
-      <c r="V9" s="31" t="s">
+      <c r="V9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="31">
+      <c r="W9" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X9" s="32">
+      <c r="X9" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="31">
         <f t="shared" si="0"/>
         <v>132017</v>
       </c>
-      <c r="Z9" s="33">
+      <c r="Z9" s="32">
         <f t="shared" si="6"/>
         <v>0.40620615384615399</v>
       </c>
-      <c r="AA9" s="32">
+      <c r="AA9" s="31">
         <f t="shared" si="1"/>
         <v>171592</v>
       </c>
-      <c r="AB9" s="32">
+      <c r="AB9" s="31">
         <f t="shared" si="1"/>
         <v>141463</v>
       </c>
-      <c r="AC9" s="32">
+      <c r="AC9" s="31">
         <f t="shared" si="1"/>
         <v>30129</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="33">
         <f t="shared" si="2"/>
         <v>0.82441489113711597</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AE9" s="32">
         <f t="shared" si="2"/>
         <v>0.175585108862884</v>
       </c>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="34">
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="33">
         <f t="shared" si="3"/>
         <v>0.82490133846398606</v>
       </c>
-      <c r="AH9" s="34">
+      <c r="AH9" s="33">
         <f t="shared" si="3"/>
         <v>8.5617761348917187E-2</v>
       </c>
-      <c r="AI9" s="34">
+      <c r="AI9" s="33">
         <f t="shared" si="3"/>
         <v>3.6964936333957005E-2</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AJ9" s="33">
         <f t="shared" si="3"/>
         <v>5.2515963853140099E-2</v>
       </c>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36">
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <f t="shared" si="4"/>
         <v>0.17509866153601428</v>
       </c>
-      <c r="AM9" s="33" t="s">
+      <c r="AM9" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AN9" s="34">
+      <c r="AN9" s="33">
         <f t="shared" si="5"/>
         <v>1.0117243568029195</v>
       </c>
-      <c r="AO9" s="34">
+      <c r="AO9" s="33">
         <f t="shared" si="8"/>
         <v>1.5647008455718712</v>
       </c>
-      <c r="AP9" s="34">
+      <c r="AP9" s="33">
         <f t="shared" si="7"/>
         <v>0.94741133306155711</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5910,87 +6025,87 @@
       <c r="S10">
         <v>0.269541778975741</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="30">
         <v>9</v>
       </c>
-      <c r="V10" s="31" t="s">
+      <c r="V10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="W10" s="31">
+      <c r="W10" s="30">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="X10" s="32">
+      <c r="X10" s="31">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="31">
         <f t="shared" si="0"/>
         <v>133406</v>
       </c>
-      <c r="Z10" s="33">
+      <c r="Z10" s="32">
         <f t="shared" si="6"/>
         <v>0.41048000000000001</v>
       </c>
-      <c r="AA10" s="32">
+      <c r="AA10" s="31">
         <f t="shared" si="1"/>
         <v>185123</v>
       </c>
-      <c r="AB10" s="32">
+      <c r="AB10" s="31">
         <f t="shared" si="1"/>
         <v>143552</v>
       </c>
-      <c r="AC10" s="32">
+      <c r="AC10" s="31">
         <f t="shared" si="1"/>
         <v>41571</v>
       </c>
-      <c r="AD10" s="34">
+      <c r="AD10" s="33">
         <f t="shared" si="2"/>
         <v>0.77544119315266102</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="32">
         <f t="shared" si="2"/>
         <v>0.22455880684733898</v>
       </c>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="34">
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="33">
         <f t="shared" si="3"/>
         <v>0.82502286253991597</v>
       </c>
-      <c r="AH10" s="34">
+      <c r="AH10" s="33">
         <f t="shared" si="3"/>
         <v>8.4411495734824496E-2</v>
       </c>
-      <c r="AI10" s="34">
+      <c r="AI10" s="33">
         <f t="shared" si="3"/>
         <v>3.6759965818628802E-2</v>
       </c>
-      <c r="AJ10" s="34">
+      <c r="AJ10" s="33">
         <f t="shared" si="3"/>
         <v>5.38056759066309E-2</v>
       </c>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="36">
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="35">
         <f t="shared" si="4"/>
         <v>0.1749771374600842</v>
       </c>
-      <c r="AM10" s="33" t="s">
+      <c r="AM10" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AN10" s="34">
+      <c r="AN10" s="33">
         <f t="shared" si="5"/>
         <v>1.0329673604081593</v>
       </c>
-      <c r="AO10" s="34">
+      <c r="AO10" s="33">
         <f t="shared" si="8"/>
         <v>1.5795148247978377</v>
       </c>
-      <c r="AP10" s="34">
+      <c r="AP10" s="33">
         <f t="shared" si="7"/>
         <v>0.96982537236774768</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6048,82 +6163,82 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="30">
         <v>10</v>
       </c>
-      <c r="V11" s="31" t="s">
+      <c r="V11" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="30">
         <f t="shared" ref="W11:W12" si="9">C11</f>
         <v>200</v>
       </c>
-      <c r="X11" s="32">
+      <c r="X11" s="31">
         <f t="shared" ref="X11:X12" si="10">D11</f>
         <v>325000</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="31">
         <f t="shared" ref="Y11:Y12" si="11">E11</f>
         <v>132830</v>
       </c>
-      <c r="Z11" s="33">
+      <c r="Z11" s="32">
         <f t="shared" ref="Z11:Z12" si="12">F24</f>
         <v>0.40870769230769199</v>
       </c>
-      <c r="AA11" s="32">
+      <c r="AA11" s="31">
         <f t="shared" ref="AA11:AA12" si="13">G11</f>
         <v>171516</v>
       </c>
-      <c r="AB11" s="32">
+      <c r="AB11" s="31">
         <f t="shared" ref="AB11:AB12" si="14">H11</f>
         <v>142446</v>
       </c>
-      <c r="AC11" s="32">
+      <c r="AC11" s="31">
         <f t="shared" ref="AC11:AC12" si="15">I11</f>
         <v>29070</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="33">
         <f t="shared" ref="AD11:AD12" si="16">J24</f>
         <v>0.83051143916602499</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AE11" s="32">
         <f t="shared" ref="AE11:AE12" si="17">K24</f>
         <v>0.16948856083397501</v>
       </c>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="34">
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="33">
         <f t="shared" ref="AG11:AG12" si="18">L24</f>
         <v>0.95644809154558497</v>
       </c>
-      <c r="AH11" s="34">
+      <c r="AH11" s="33">
         <f t="shared" ref="AH11:AH12" si="19">M24</f>
         <v>1.5764511029134998E-2</v>
       </c>
-      <c r="AI11" s="34">
+      <c r="AI11" s="33">
         <f t="shared" ref="AI11:AI12" si="20">N24</f>
         <v>9.10185951968682E-3</v>
       </c>
-      <c r="AJ11" s="34">
+      <c r="AJ11" s="33">
         <f t="shared" ref="AJ11:AJ12" si="21">O24</f>
         <v>1.8685537905593602E-2</v>
       </c>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="36">
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="35">
         <f t="shared" ref="AL11:AL12" si="22">SUM(AH11:AJ11)</f>
         <v>4.3551908454415422E-2</v>
       </c>
-      <c r="AM11" s="33" t="s">
+      <c r="AM11" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="AN11" s="34">
+      <c r="AN11" s="33">
         <f t="shared" ref="AN11:AN12" si="23">P24</f>
         <v>0.37164886666130165</v>
       </c>
-      <c r="AO11" s="34">
+      <c r="AO11" s="33">
         <f t="shared" ref="AO11:AO12" si="24">S24</f>
         <v>0</v>
       </c>
-      <c r="AP11" s="34">
+      <c r="AP11" s="33">
         <f t="shared" ref="AP11:AP12" si="25">R24</f>
         <v>0.44447277827361986</v>
       </c>
@@ -6186,82 +6301,82 @@
       <c r="S12">
         <v>0.27137042062415201</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="30">
         <v>11</v>
       </c>
-      <c r="V12" s="31" t="s">
+      <c r="V12" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="30">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="31">
         <f t="shared" si="10"/>
         <v>325000</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="31">
         <f t="shared" si="11"/>
         <v>132435</v>
       </c>
-      <c r="Z12" s="33">
+      <c r="Z12" s="32">
         <f t="shared" si="12"/>
         <v>0.40749230769230799</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AA12" s="31">
         <f t="shared" si="13"/>
         <v>171653</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AB12" s="31">
         <f t="shared" si="14"/>
         <v>142183</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="31">
         <f t="shared" si="15"/>
         <v>29470</v>
       </c>
-      <c r="AD12" s="34">
+      <c r="AD12" s="33">
         <f t="shared" si="16"/>
         <v>0.82831642907493608</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="32">
         <f t="shared" si="17"/>
         <v>0.17168357092506401</v>
       </c>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="34">
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="33">
         <f t="shared" si="18"/>
         <v>0.82266772378902897</v>
       </c>
-      <c r="AH12" s="34">
+      <c r="AH12" s="33">
         <f t="shared" si="19"/>
         <v>8.3769396307622604E-2</v>
       </c>
-      <c r="AI12" s="34">
+      <c r="AI12" s="33">
         <f t="shared" si="20"/>
         <v>3.82376260052101E-2</v>
       </c>
-      <c r="AJ12" s="34">
+      <c r="AJ12" s="33">
         <f t="shared" si="21"/>
         <v>5.53252538981387E-2</v>
       </c>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="36">
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="35">
         <f t="shared" si="22"/>
         <v>0.17733227621097139</v>
       </c>
-      <c r="AM12" s="33" t="s">
+      <c r="AM12" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="AN12" s="34">
+      <c r="AN12" s="33">
         <f t="shared" si="23"/>
         <v>1.0670625791956383</v>
       </c>
-      <c r="AO12" s="34">
+      <c r="AO12" s="33">
         <f t="shared" si="24"/>
         <v>1.5902306648575262</v>
       </c>
-      <c r="AP12" s="34">
+      <c r="AP12" s="33">
         <f t="shared" si="25"/>
         <v>0.99926809401699945</v>
       </c>
@@ -6756,6 +6871,2733 @@
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S12">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F617BA-C4EB-4F39-A84D-0603482CD0CC}">
+  <dimension ref="A1:AT29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="37" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="42" width="9.140625" customWidth="1"/>
+    <col min="43" max="44" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF1" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114655</v>
+      </c>
+      <c r="F2">
+        <v>35.278461538461499</v>
+      </c>
+      <c r="G2">
+        <v>184761</v>
+      </c>
+      <c r="H2">
+        <v>114655</v>
+      </c>
+      <c r="I2">
+        <v>70106</v>
+      </c>
+      <c r="J2">
+        <v>62.055845118829197</v>
+      </c>
+      <c r="K2">
+        <v>37.944154881170803</v>
+      </c>
+      <c r="L2">
+        <v>85.269722210108597</v>
+      </c>
+      <c r="M2">
+        <v>6.9425668309275697</v>
+      </c>
+      <c r="N2">
+        <v>3.0779294404953998</v>
+      </c>
+      <c r="O2">
+        <v>4.7097815184684499</v>
+      </c>
+      <c r="P2">
+        <v>0.850585547041393</v>
+      </c>
+      <c r="Q2">
+        <v>8.4459459459459499E-3</v>
+      </c>
+      <c r="R2">
+        <v>1.7543859649122799</v>
+      </c>
+      <c r="S2">
+        <v>0.17152658662092601</v>
+      </c>
+      <c r="U2" s="30">
+        <v>1</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" ref="W2:Y12" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="31">
+        <f t="shared" si="0"/>
+        <v>114655</v>
+      </c>
+      <c r="Z2" s="32">
+        <f>F17</f>
+        <v>0.35278461538461497</v>
+      </c>
+      <c r="AA2" s="31">
+        <f t="shared" ref="AA2:AC12" si="1">G2</f>
+        <v>184761</v>
+      </c>
+      <c r="AB2" s="31">
+        <f t="shared" si="1"/>
+        <v>114655</v>
+      </c>
+      <c r="AC2" s="31">
+        <f t="shared" si="1"/>
+        <v>70106</v>
+      </c>
+      <c r="AD2" s="45">
+        <f>AA2/$AA$2</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="45">
+        <f>AC2/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AF2" s="45">
+        <f>AB2/$AB$2</f>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="33">
+        <f>J17</f>
+        <v>0.620558451188292</v>
+      </c>
+      <c r="AH2" s="32">
+        <f>K17</f>
+        <v>0.37944154881170805</v>
+      </c>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="33">
+        <f>L17</f>
+        <v>0.85269722210108601</v>
+      </c>
+      <c r="AK2" s="33">
+        <f>M17</f>
+        <v>6.9425668309275698E-2</v>
+      </c>
+      <c r="AL2" s="33">
+        <f>N17</f>
+        <v>3.0779294404954E-2</v>
+      </c>
+      <c r="AM2" s="33">
+        <f>O17</f>
+        <v>4.7097815184684498E-2</v>
+      </c>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35">
+        <f t="shared" ref="AO2:AO12" si="2">SUM(AK2:AM2)</f>
+        <v>0.14730277789891419</v>
+      </c>
+      <c r="AP2" s="35">
+        <f>AO2/$AO$2</f>
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR2" s="33">
+        <f t="shared" ref="AR2:AR12" si="3">P17</f>
+        <v>1</v>
+      </c>
+      <c r="AS2" s="33">
+        <f>S17</f>
+        <v>1</v>
+      </c>
+      <c r="AT2" s="33">
+        <f>R17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>114811</v>
+      </c>
+      <c r="F3">
+        <v>35.326461538461501</v>
+      </c>
+      <c r="G3">
+        <v>184648</v>
+      </c>
+      <c r="H3">
+        <v>114811</v>
+      </c>
+      <c r="I3">
+        <v>69837</v>
+      </c>
+      <c r="J3">
+        <v>62.178306832459597</v>
+      </c>
+      <c r="K3">
+        <v>37.821693167540403</v>
+      </c>
+      <c r="L3">
+        <v>85.886369772931204</v>
+      </c>
+      <c r="M3">
+        <v>6.67270557699175</v>
+      </c>
+      <c r="N3">
+        <v>2.9587757270644799</v>
+      </c>
+      <c r="O3">
+        <v>4.4821489230126002</v>
+      </c>
+      <c r="P3">
+        <v>0.82540242542324405</v>
+      </c>
+      <c r="Q3">
+        <v>8.0385852090032097E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.7421602787456401</v>
+      </c>
+      <c r="S3">
+        <v>0.168634064080944</v>
+      </c>
+      <c r="U3" s="30">
+        <v>2</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="31">
+        <f t="shared" si="0"/>
+        <v>114811</v>
+      </c>
+      <c r="Z3" s="32">
+        <f t="shared" ref="Z3:Z12" si="4">F18</f>
+        <v>0.35326461538461501</v>
+      </c>
+      <c r="AA3" s="31">
+        <f t="shared" si="1"/>
+        <v>184648</v>
+      </c>
+      <c r="AB3" s="31">
+        <f t="shared" si="1"/>
+        <v>114811</v>
+      </c>
+      <c r="AC3" s="31">
+        <f t="shared" si="1"/>
+        <v>69837</v>
+      </c>
+      <c r="AD3" s="45">
+        <f t="shared" ref="AD3:AD14" si="5">AA3/$AA$2</f>
+        <v>0.99938839906690269</v>
+      </c>
+      <c r="AE3" s="45">
+        <f>AC3/$AC$2</f>
+        <v>0.99616295324223314</v>
+      </c>
+      <c r="AF3" s="45">
+        <f t="shared" ref="AF3:AF14" si="6">AB3/$AB$2</f>
+        <v>1.0013606035497797</v>
+      </c>
+      <c r="AG3" s="33">
+        <f>J18</f>
+        <v>0.62178306832459596</v>
+      </c>
+      <c r="AH3" s="32">
+        <f>K18</f>
+        <v>0.37821693167540404</v>
+      </c>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="33">
+        <f>L18</f>
+        <v>0.85886369772931204</v>
+      </c>
+      <c r="AK3" s="33">
+        <f>M18</f>
+        <v>6.6727055769917498E-2</v>
+      </c>
+      <c r="AL3" s="33">
+        <f>N18</f>
+        <v>2.9587757270644797E-2</v>
+      </c>
+      <c r="AM3" s="33">
+        <f>O18</f>
+        <v>4.4821489230126001E-2</v>
+      </c>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35">
+        <f t="shared" si="2"/>
+        <v>0.1411363022706883</v>
+      </c>
+      <c r="AP3" s="35">
+        <f>AO3/$AO$2</f>
+        <v>0.95813741114605722</v>
+      </c>
+      <c r="AQ3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR3" s="33">
+        <f t="shared" si="3"/>
+        <v>0.97039319359969867</v>
+      </c>
+      <c r="AS3" s="33">
+        <f>S18</f>
+        <v>0.98313659359190486</v>
+      </c>
+      <c r="AT3" s="33">
+        <f t="shared" ref="AT3:AT12" si="7">R18</f>
+        <v>0.99303135888501526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114982</v>
+      </c>
+      <c r="F4">
+        <v>35.379076923076902</v>
+      </c>
+      <c r="G4">
+        <v>184873</v>
+      </c>
+      <c r="H4">
+        <v>114982</v>
+      </c>
+      <c r="I4">
+        <v>69891</v>
+      </c>
+      <c r="J4">
+        <v>62.1951285477057</v>
+      </c>
+      <c r="K4">
+        <v>37.8048714522943</v>
+      </c>
+      <c r="L4">
+        <v>89.010453810161593</v>
+      </c>
+      <c r="M4">
+        <v>6.18009775443113</v>
+      </c>
+      <c r="N4">
+        <v>2.1490320224035102</v>
+      </c>
+      <c r="O4">
+        <v>2.66041641300377</v>
+      </c>
+      <c r="P4">
+        <v>0.48751454704574498</v>
+      </c>
+      <c r="Q4">
+        <v>4.9916805324459199E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.2027491408934701</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="30">
+        <v>3</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="31">
+        <f t="shared" si="0"/>
+        <v>114982</v>
+      </c>
+      <c r="Z4" s="32">
+        <f t="shared" si="4"/>
+        <v>0.35379076923076902</v>
+      </c>
+      <c r="AA4" s="31">
+        <f t="shared" si="1"/>
+        <v>184873</v>
+      </c>
+      <c r="AB4" s="31">
+        <f t="shared" si="1"/>
+        <v>114982</v>
+      </c>
+      <c r="AC4" s="31">
+        <f t="shared" si="1"/>
+        <v>69891</v>
+      </c>
+      <c r="AD4" s="45">
+        <f t="shared" si="5"/>
+        <v>1.0006061885354594</v>
+      </c>
+      <c r="AE4" s="45">
+        <f>AC4/$AC$2</f>
+        <v>0.99693321541665481</v>
+      </c>
+      <c r="AF4" s="45">
+        <f t="shared" si="6"/>
+        <v>1.0028520343639615</v>
+      </c>
+      <c r="AG4" s="33">
+        <f>J19</f>
+        <v>0.62195128547705703</v>
+      </c>
+      <c r="AH4" s="32">
+        <f>K19</f>
+        <v>0.37804871452294297</v>
+      </c>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="33">
+        <f>L19</f>
+        <v>0.89010453810161594</v>
+      </c>
+      <c r="AK4" s="33">
+        <f>M19</f>
+        <v>6.1800977544311297E-2</v>
+      </c>
+      <c r="AL4" s="33">
+        <f>N19</f>
+        <v>2.1490320224035103E-2</v>
+      </c>
+      <c r="AM4" s="33">
+        <f>O19</f>
+        <v>2.6604164130037699E-2</v>
+      </c>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35">
+        <f t="shared" si="2"/>
+        <v>0.1098954618983841</v>
+      </c>
+      <c r="AP4" s="35">
+        <f t="shared" ref="AP4:AP14" si="8">AO4/$AO$2</f>
+        <v>0.7460515237112455</v>
+      </c>
+      <c r="AQ4" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR4" s="33">
+        <f t="shared" si="3"/>
+        <v>0.57315169384370046</v>
+      </c>
+      <c r="AS4" s="33">
+        <f t="shared" ref="AS4:AS12" si="9">S19</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="33">
+        <f t="shared" si="7"/>
+        <v>0.68556701030927825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>132488</v>
+      </c>
+      <c r="F5">
+        <v>40.765538461538497</v>
+      </c>
+      <c r="G5">
+        <v>171373</v>
+      </c>
+      <c r="H5">
+        <v>142195</v>
+      </c>
+      <c r="I5">
+        <v>29178</v>
+      </c>
+      <c r="J5">
+        <v>82.973980732087298</v>
+      </c>
+      <c r="K5">
+        <v>17.026019267912702</v>
+      </c>
+      <c r="L5">
+        <v>82.288207233862707</v>
+      </c>
+      <c r="M5">
+        <v>8.7728699957732008</v>
+      </c>
+      <c r="N5">
+        <v>3.65014189964374</v>
+      </c>
+      <c r="O5">
+        <v>5.2887808707203696</v>
+      </c>
+      <c r="P5">
+        <v>0.89619028337436801</v>
+      </c>
+      <c r="Q5">
+        <v>8.4626234132581107E-3</v>
+      </c>
+      <c r="R5">
+        <v>1.8105849582172699</v>
+      </c>
+      <c r="S5">
+        <v>0.145985401459854</v>
+      </c>
+      <c r="U5" s="30">
+        <v>4</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="31">
+        <f t="shared" si="0"/>
+        <v>132488</v>
+      </c>
+      <c r="Z5" s="32">
+        <f t="shared" si="4"/>
+        <v>0.40765538461538497</v>
+      </c>
+      <c r="AA5" s="31">
+        <f t="shared" si="1"/>
+        <v>171373</v>
+      </c>
+      <c r="AB5" s="31">
+        <f t="shared" si="1"/>
+        <v>142195</v>
+      </c>
+      <c r="AC5" s="31">
+        <f t="shared" si="1"/>
+        <v>29178</v>
+      </c>
+      <c r="AD5" s="45">
+        <f t="shared" si="5"/>
+        <v>0.92753882042205882</v>
+      </c>
+      <c r="AE5" s="45">
+        <f>AC5/$AC$2</f>
+        <v>0.41619832824579922</v>
+      </c>
+      <c r="AF5" s="45">
+        <f t="shared" si="6"/>
+        <v>1.240198857441891</v>
+      </c>
+      <c r="AG5" s="33">
+        <f>J20</f>
+        <v>0.82973980732087294</v>
+      </c>
+      <c r="AH5" s="32">
+        <f>K20</f>
+        <v>0.17026019267912701</v>
+      </c>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="33">
+        <f>L20</f>
+        <v>0.82288207233862709</v>
+      </c>
+      <c r="AK5" s="33">
+        <f>M20</f>
+        <v>8.7728699957732012E-2</v>
+      </c>
+      <c r="AL5" s="33">
+        <f>N20</f>
+        <v>3.6501418996437399E-2</v>
+      </c>
+      <c r="AM5" s="33">
+        <f>O20</f>
+        <v>5.2887808707203693E-2</v>
+      </c>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35">
+        <f t="shared" si="2"/>
+        <v>0.1771179276613731</v>
+      </c>
+      <c r="AP5" s="35">
+        <f t="shared" si="8"/>
+        <v>1.2024072470847726</v>
+      </c>
+      <c r="AQ5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="33">
+        <f t="shared" si="3"/>
+        <v>1.0536156962595977</v>
+      </c>
+      <c r="AS5" s="33">
+        <f t="shared" si="9"/>
+        <v>0.85109489051095</v>
+      </c>
+      <c r="AT5" s="33">
+        <f t="shared" si="7"/>
+        <v>1.0320334261838444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>132789</v>
+      </c>
+      <c r="F6">
+        <v>40.858153846153797</v>
+      </c>
+      <c r="G6">
+        <v>171937</v>
+      </c>
+      <c r="H6">
+        <v>142606</v>
+      </c>
+      <c r="I6">
+        <v>29331</v>
+      </c>
+      <c r="J6">
+        <v>82.940844611689201</v>
+      </c>
+      <c r="K6">
+        <v>17.059155388310799</v>
+      </c>
+      <c r="L6">
+        <v>83.195144176098907</v>
+      </c>
+      <c r="M6">
+        <v>8.2725225734059293</v>
+      </c>
+      <c r="N6">
+        <v>3.5507459202192999</v>
+      </c>
+      <c r="O6">
+        <v>4.9815873302758504</v>
+      </c>
+      <c r="P6">
+        <v>0.86030701805448995</v>
+      </c>
+      <c r="Q6">
+        <v>8.3102493074792196E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.7725258493353</v>
+      </c>
+      <c r="S6">
+        <v>0.145137880986938</v>
+      </c>
+      <c r="U6" s="30">
+        <v>5</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="31">
+        <f t="shared" si="0"/>
+        <v>132789</v>
+      </c>
+      <c r="Z6" s="32">
+        <f t="shared" si="4"/>
+        <v>0.408581538461538</v>
+      </c>
+      <c r="AA6" s="31">
+        <f t="shared" si="1"/>
+        <v>171937</v>
+      </c>
+      <c r="AB6" s="31">
+        <f t="shared" si="1"/>
+        <v>142606</v>
+      </c>
+      <c r="AC6" s="31">
+        <f t="shared" si="1"/>
+        <v>29331</v>
+      </c>
+      <c r="AD6" s="45">
+        <f t="shared" si="5"/>
+        <v>0.93059141268990753</v>
+      </c>
+      <c r="AE6" s="45">
+        <f t="shared" ref="AE6:AE14" si="10">AC6/$AC$2</f>
+        <v>0.41838073773999374</v>
+      </c>
+      <c r="AF6" s="45">
+        <f t="shared" si="6"/>
+        <v>1.243783524486503</v>
+      </c>
+      <c r="AG6" s="33">
+        <f>J21</f>
+        <v>0.82940844611689202</v>
+      </c>
+      <c r="AH6" s="32">
+        <f>K21</f>
+        <v>0.17059155388310798</v>
+      </c>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="33">
+        <f>L21</f>
+        <v>0.83195144176098912</v>
+      </c>
+      <c r="AK6" s="33">
+        <f>M21</f>
+        <v>8.2725225734059299E-2</v>
+      </c>
+      <c r="AL6" s="33">
+        <f>N21</f>
+        <v>3.5507459202192997E-2</v>
+      </c>
+      <c r="AM6" s="33">
+        <f>O21</f>
+        <v>4.9815873302758502E-2</v>
+      </c>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35">
+        <f t="shared" si="2"/>
+        <v>0.1680485582390108</v>
+      </c>
+      <c r="AP6" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1408376721471831</v>
+      </c>
+      <c r="AQ6" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR6" s="33">
+        <f t="shared" si="3"/>
+        <v>1.0114291514203495</v>
+      </c>
+      <c r="AS6" s="33">
+        <f t="shared" si="9"/>
+        <v>0.8461538461538497</v>
+      </c>
+      <c r="AT6" s="33">
+        <f t="shared" si="7"/>
+        <v>1.0103397341211215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>132935</v>
+      </c>
+      <c r="F7">
+        <v>40.903076923076902</v>
+      </c>
+      <c r="G7">
+        <v>171549</v>
+      </c>
+      <c r="H7">
+        <v>142523</v>
+      </c>
+      <c r="I7">
+        <v>29026</v>
+      </c>
+      <c r="J7">
+        <v>83.080052929483699</v>
+      </c>
+      <c r="K7">
+        <v>16.919947070516301</v>
+      </c>
+      <c r="L7">
+        <v>87.110241847519504</v>
+      </c>
+      <c r="M7">
+        <v>7.4329559559183096</v>
+      </c>
+      <c r="N7">
+        <v>2.3868808064091498</v>
+      </c>
+      <c r="O7">
+        <v>3.06992139015308</v>
+      </c>
+      <c r="P7">
+        <v>0.52196848500286497</v>
+      </c>
+      <c r="Q7">
+        <v>4.4709388971684097E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.1984420772303599</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
+        <v>6</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="31">
+        <f t="shared" si="0"/>
+        <v>132935</v>
+      </c>
+      <c r="Z7" s="32">
+        <f t="shared" si="4"/>
+        <v>0.40903076923076903</v>
+      </c>
+      <c r="AA7" s="31">
+        <f t="shared" si="1"/>
+        <v>171549</v>
+      </c>
+      <c r="AB7" s="31">
+        <f t="shared" si="1"/>
+        <v>142523</v>
+      </c>
+      <c r="AC7" s="31">
+        <f t="shared" si="1"/>
+        <v>29026</v>
+      </c>
+      <c r="AD7" s="45">
+        <f t="shared" si="5"/>
+        <v>0.92849140240635197</v>
+      </c>
+      <c r="AE7" s="45">
+        <f t="shared" si="10"/>
+        <v>0.41403018286594584</v>
+      </c>
+      <c r="AF7" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2430596136234791</v>
+      </c>
+      <c r="AG7" s="33">
+        <f>J22</f>
+        <v>0.83080052929483694</v>
+      </c>
+      <c r="AH7" s="32">
+        <f>K22</f>
+        <v>0.169199470705163</v>
+      </c>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="33">
+        <f>L22</f>
+        <v>0.87110241847519498</v>
+      </c>
+      <c r="AK7" s="33">
+        <f>M22</f>
+        <v>7.4329559559183092E-2</v>
+      </c>
+      <c r="AL7" s="33">
+        <f>N22</f>
+        <v>2.3868808064091498E-2</v>
+      </c>
+      <c r="AM7" s="33">
+        <f>O22</f>
+        <v>3.0699213901530801E-2</v>
+      </c>
+      <c r="AN7" s="35"/>
+      <c r="AO7" s="35">
+        <f>SUM(AK7:AM7)</f>
+        <v>0.1288975815248054</v>
+      </c>
+      <c r="AP7" s="35">
+        <f t="shared" si="8"/>
+        <v>0.87505193970789019</v>
+      </c>
+      <c r="AQ7" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR7" s="33">
+        <f t="shared" si="3"/>
+        <v>0.61365783467452195</v>
+      </c>
+      <c r="AS7" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="33">
+        <f t="shared" si="7"/>
+        <v>0.68311198402130546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>11</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="48">
+        <v>200</v>
+      </c>
+      <c r="D8" s="48">
+        <v>325000</v>
+      </c>
+      <c r="E8" s="48">
+        <v>114364</v>
+      </c>
+      <c r="F8" s="48">
+        <v>35.188923076923103</v>
+      </c>
+      <c r="G8" s="48">
+        <v>184204</v>
+      </c>
+      <c r="H8" s="48">
+        <v>114364</v>
+      </c>
+      <c r="I8" s="48">
+        <v>32490</v>
+      </c>
+      <c r="J8" s="48">
+        <v>62.085513886777697</v>
+      </c>
+      <c r="K8" s="48">
+        <v>17.6380534624655</v>
+      </c>
+      <c r="L8" s="48">
+        <v>84.878982896715797</v>
+      </c>
+      <c r="M8" s="48">
+        <v>7.5495785387009899</v>
+      </c>
+      <c r="N8" s="48">
+        <v>3.1941869819173898</v>
+      </c>
+      <c r="O8" s="48">
+        <v>4.3772515826658704</v>
+      </c>
+      <c r="P8" s="48">
+        <v>0.80908761402005602</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>7.2595281306715104E-3</v>
+      </c>
+      <c r="R8" s="48">
+        <v>1.7331022530329301</v>
+      </c>
+      <c r="S8" s="48">
+        <v>0.16977928692699501</v>
+      </c>
+      <c r="U8" s="49">
+        <v>7</v>
+      </c>
+      <c r="V8" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="W8" s="49">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="50">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="50">
+        <f t="shared" si="0"/>
+        <v>114364</v>
+      </c>
+      <c r="Z8" s="51">
+        <f t="shared" si="4"/>
+        <v>0.35188923076923101</v>
+      </c>
+      <c r="AA8" s="50">
+        <f t="shared" si="1"/>
+        <v>184204</v>
+      </c>
+      <c r="AB8" s="50">
+        <f t="shared" si="1"/>
+        <v>114364</v>
+      </c>
+      <c r="AC8" s="50">
+        <f t="shared" si="1"/>
+        <v>32490</v>
+      </c>
+      <c r="AD8" s="52">
+        <f t="shared" si="5"/>
+        <v>0.99698529451561746</v>
+      </c>
+      <c r="AE8" s="52">
+        <f t="shared" si="10"/>
+        <v>0.46344107494365677</v>
+      </c>
+      <c r="AF8" s="52">
+        <f t="shared" si="6"/>
+        <v>0.99746195107060309</v>
+      </c>
+      <c r="AG8" s="53">
+        <f>J23</f>
+        <v>0.62085513886777699</v>
+      </c>
+      <c r="AH8" s="51">
+        <f>K23</f>
+        <v>0.176380534624655</v>
+      </c>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="53">
+        <f>L23</f>
+        <v>0.84878982896715793</v>
+      </c>
+      <c r="AK8" s="53">
+        <f>M23</f>
+        <v>7.5495785387009906E-2</v>
+      </c>
+      <c r="AL8" s="53">
+        <f>N23</f>
+        <v>3.19418698191739E-2</v>
+      </c>
+      <c r="AM8" s="53">
+        <f>O23</f>
+        <v>4.3772515826658705E-2</v>
+      </c>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55">
+        <f>SUM(AK8:AM8)</f>
+        <v>0.15121017103284251</v>
+      </c>
+      <c r="AP8" s="55">
+        <f t="shared" si="8"/>
+        <v>1.026526269155696</v>
+      </c>
+      <c r="AQ8" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR8" s="53">
+        <f t="shared" si="3"/>
+        <v>0.95121251099824122</v>
+      </c>
+      <c r="AS8" s="53">
+        <f t="shared" si="9"/>
+        <v>0.98981324278438221</v>
+      </c>
+      <c r="AT8" s="53">
+        <f t="shared" si="7"/>
+        <v>0.9878682842287706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>133006</v>
+      </c>
+      <c r="F9">
+        <v>40.9249230769231</v>
+      </c>
+      <c r="G9">
+        <v>171600</v>
+      </c>
+      <c r="H9">
+        <v>142473</v>
+      </c>
+      <c r="I9">
+        <v>29127</v>
+      </c>
+      <c r="J9">
+        <v>83.026223776223802</v>
+      </c>
+      <c r="K9">
+        <v>16.973776223776198</v>
+      </c>
+      <c r="L9">
+        <v>95.609972482444405</v>
+      </c>
+      <c r="M9">
+        <v>1.65556441062809</v>
+      </c>
+      <c r="N9">
+        <v>0.97364028690435001</v>
+      </c>
+      <c r="O9">
+        <v>1.7608228200231599</v>
+      </c>
+      <c r="P9">
+        <v>0.31454730903723499</v>
+      </c>
+      <c r="Q9">
+        <v>2.8248587570621499E-3</v>
+      </c>
+      <c r="R9">
+        <v>0.8</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="30">
+        <v>8</v>
+      </c>
+      <c r="V9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="W9" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="31">
+        <f t="shared" si="0"/>
+        <v>133006</v>
+      </c>
+      <c r="Z9" s="32">
+        <f t="shared" si="4"/>
+        <v>0.40924923076923103</v>
+      </c>
+      <c r="AA9" s="31">
+        <f t="shared" si="1"/>
+        <v>171600</v>
+      </c>
+      <c r="AB9" s="31">
+        <f t="shared" si="1"/>
+        <v>142473</v>
+      </c>
+      <c r="AC9" s="31">
+        <f t="shared" si="1"/>
+        <v>29127</v>
+      </c>
+      <c r="AD9" s="45">
+        <f t="shared" si="5"/>
+        <v>0.92876743468589151</v>
+      </c>
+      <c r="AE9" s="45">
+        <f t="shared" si="10"/>
+        <v>0.41547085841440107</v>
+      </c>
+      <c r="AF9" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2426235227421394</v>
+      </c>
+      <c r="AG9" s="33">
+        <f>J24</f>
+        <v>0.83026223776223806</v>
+      </c>
+      <c r="AH9" s="32">
+        <f>K24</f>
+        <v>0.16973776223776199</v>
+      </c>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="33">
+        <f>L24</f>
+        <v>0.95609972482444405</v>
+      </c>
+      <c r="AK9" s="33">
+        <f>M24</f>
+        <v>1.6555644106280899E-2</v>
+      </c>
+      <c r="AL9" s="33">
+        <f>N24</f>
+        <v>9.7364028690435003E-3</v>
+      </c>
+      <c r="AM9" s="33">
+        <f>O24</f>
+        <v>1.7608228200231599E-2</v>
+      </c>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35">
+        <f t="shared" si="2"/>
+        <v>4.3900275175555996E-2</v>
+      </c>
+      <c r="AP9" s="35">
+        <f t="shared" si="8"/>
+        <v>0.29802747647897276</v>
+      </c>
+      <c r="AQ9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR9" s="33">
+        <f t="shared" si="3"/>
+        <v>0.36980090965727147</v>
+      </c>
+      <c r="AS9" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="33">
+        <f t="shared" si="7"/>
+        <v>0.45600000000000024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>325000</v>
+      </c>
+      <c r="E10">
+        <v>132483</v>
+      </c>
+      <c r="F10">
+        <v>40.764000000000003</v>
+      </c>
+      <c r="G10">
+        <v>171389</v>
+      </c>
+      <c r="H10">
+        <v>142074</v>
+      </c>
+      <c r="I10">
+        <v>29315</v>
+      </c>
+      <c r="J10">
+        <v>82.895635075763295</v>
+      </c>
+      <c r="K10">
+        <v>17.104364924236702</v>
+      </c>
+      <c r="L10">
+        <v>82.884596514269802</v>
+      </c>
+      <c r="M10">
+        <v>8.4018326879675094</v>
+      </c>
+      <c r="N10">
+        <v>3.5370575847467198</v>
+      </c>
+      <c r="O10">
+        <v>5.1765132130160101</v>
+      </c>
+      <c r="P10">
+        <v>0.88018851356459304</v>
+      </c>
+      <c r="Q10">
+        <v>8.4985835694051E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="S10">
+        <v>0.27100271002710002</v>
+      </c>
+      <c r="U10" s="30">
+        <v>9</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="W10" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X10" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y10" s="31">
+        <f t="shared" si="0"/>
+        <v>132483</v>
+      </c>
+      <c r="Z10" s="32">
+        <f t="shared" si="4"/>
+        <v>0.40764</v>
+      </c>
+      <c r="AA10" s="31">
+        <f t="shared" si="1"/>
+        <v>171389</v>
+      </c>
+      <c r="AB10" s="31">
+        <f t="shared" si="1"/>
+        <v>142074</v>
+      </c>
+      <c r="AC10" s="31">
+        <f t="shared" si="1"/>
+        <v>29315</v>
+      </c>
+      <c r="AD10" s="45">
+        <f t="shared" si="5"/>
+        <v>0.9276254187842673</v>
+      </c>
+      <c r="AE10" s="45">
+        <f t="shared" si="10"/>
+        <v>0.41815251191053548</v>
+      </c>
+      <c r="AF10" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2391435175090488</v>
+      </c>
+      <c r="AG10" s="33">
+        <f>J25</f>
+        <v>0.82895635075763296</v>
+      </c>
+      <c r="AH10" s="32">
+        <f>K25</f>
+        <v>0.17104364924236701</v>
+      </c>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="33">
+        <f>L25</f>
+        <v>0.82884596514269804</v>
+      </c>
+      <c r="AK10" s="33">
+        <f>M25</f>
+        <v>8.4018326879675087E-2</v>
+      </c>
+      <c r="AL10" s="33">
+        <f>N25</f>
+        <v>3.5370575847467195E-2</v>
+      </c>
+      <c r="AM10" s="33">
+        <f>O25</f>
+        <v>5.1765132130160103E-2</v>
+      </c>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="35">
+        <f t="shared" si="2"/>
+        <v>0.17115403485730238</v>
+      </c>
+      <c r="AP10" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1619199399943156</v>
+      </c>
+      <c r="AQ10" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR10" s="33">
+        <f t="shared" si="3"/>
+        <v>1.0348030443571121</v>
+      </c>
+      <c r="AS10" s="33">
+        <f t="shared" si="9"/>
+        <v>1.5799457994579953</v>
+      </c>
+      <c r="AT10" s="33">
+        <f t="shared" si="7"/>
+        <v>0.98275862068965403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>325000</v>
+      </c>
+      <c r="E11">
+        <v>132352</v>
+      </c>
+      <c r="F11">
+        <v>40.723692307692303</v>
+      </c>
+      <c r="G11">
+        <v>171026</v>
+      </c>
+      <c r="H11">
+        <v>142010</v>
+      </c>
+      <c r="I11">
+        <v>29016</v>
+      </c>
+      <c r="J11">
+        <v>83.034158548992593</v>
+      </c>
+      <c r="K11">
+        <v>16.9658414510074</v>
+      </c>
+      <c r="L11">
+        <v>84.413533607350104</v>
+      </c>
+      <c r="M11">
+        <v>8.0059235976789207</v>
+      </c>
+      <c r="N11">
+        <v>3.1522001934235999</v>
+      </c>
+      <c r="O11">
+        <v>4.4283426015473903</v>
+      </c>
+      <c r="P11">
+        <v>0.75868463542893905</v>
+      </c>
+      <c r="Q11">
+        <v>7.12250712250712E-3</v>
+      </c>
+      <c r="R11">
+        <v>1.5691868758915799</v>
+      </c>
+      <c r="S11">
+        <v>0.140056022408964</v>
+      </c>
+      <c r="U11" s="38">
+        <v>10</v>
+      </c>
+      <c r="V11" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="W11" s="38">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X11" s="39">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y11" s="39">
+        <f t="shared" si="0"/>
+        <v>132352</v>
+      </c>
+      <c r="Z11" s="40">
+        <f t="shared" si="4"/>
+        <v>0.40723692307692305</v>
+      </c>
+      <c r="AA11" s="39">
+        <f t="shared" si="1"/>
+        <v>171026</v>
+      </c>
+      <c r="AB11" s="39">
+        <f t="shared" si="1"/>
+        <v>142010</v>
+      </c>
+      <c r="AC11" s="39">
+        <f t="shared" si="1"/>
+        <v>29016</v>
+      </c>
+      <c r="AD11" s="45">
+        <f t="shared" si="5"/>
+        <v>0.92566071844166242</v>
+      </c>
+      <c r="AE11" s="45">
+        <f t="shared" si="10"/>
+        <v>0.41388754172253445</v>
+      </c>
+      <c r="AF11" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2385853211809341</v>
+      </c>
+      <c r="AG11" s="41">
+        <f>J26</f>
+        <v>0.83034158548992598</v>
+      </c>
+      <c r="AH11" s="40">
+        <f>K26</f>
+        <v>0.16965841451007399</v>
+      </c>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="41">
+        <f>L26</f>
+        <v>0.844135336073501</v>
+      </c>
+      <c r="AK11" s="41">
+        <f>M26</f>
+        <v>8.0059235976789211E-2</v>
+      </c>
+      <c r="AL11" s="41">
+        <f>N26</f>
+        <v>3.1522001934236002E-2</v>
+      </c>
+      <c r="AM11" s="41">
+        <f>O26</f>
+        <v>4.4283426015473901E-2</v>
+      </c>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="43">
+        <f t="shared" si="2"/>
+        <v>0.15586466392649911</v>
+      </c>
+      <c r="AP11" s="35">
+        <f t="shared" si="8"/>
+        <v>1.0581244030133667</v>
+      </c>
+      <c r="AQ11" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR11" s="41">
+        <f t="shared" si="3"/>
+        <v>0.89195570988466177</v>
+      </c>
+      <c r="AS11" s="41">
+        <f t="shared" si="9"/>
+        <v>0.81652661064426124</v>
+      </c>
+      <c r="AT11" s="41">
+        <f t="shared" si="7"/>
+        <v>0.89443651925820089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>325000</v>
+      </c>
+      <c r="E12">
+        <v>132205</v>
+      </c>
+      <c r="F12">
+        <v>40.678461538461498</v>
+      </c>
+      <c r="G12">
+        <v>171438</v>
+      </c>
+      <c r="H12">
+        <v>141821</v>
+      </c>
+      <c r="I12">
+        <v>29617</v>
+      </c>
+      <c r="J12">
+        <v>82.724366826491206</v>
+      </c>
+      <c r="K12">
+        <v>17.275633173508801</v>
+      </c>
+      <c r="L12">
+        <v>86.952838394916995</v>
+      </c>
+      <c r="M12">
+        <v>8.2440149767406705</v>
+      </c>
+      <c r="N12">
+        <v>2.5150334707461899</v>
+      </c>
+      <c r="O12">
+        <v>2.2881131575961602</v>
+      </c>
+      <c r="P12">
+        <v>0.37550221474678502</v>
+      </c>
+      <c r="Q12">
+        <v>2.92397660818713E-3</v>
+      </c>
+      <c r="R12">
+        <v>0.977653631284916</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <v>11</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X12" s="39">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y12" s="39">
+        <f t="shared" si="0"/>
+        <v>132205</v>
+      </c>
+      <c r="Z12" s="40">
+        <f t="shared" si="4"/>
+        <v>0.40678461538461497</v>
+      </c>
+      <c r="AA12" s="39">
+        <f t="shared" si="1"/>
+        <v>171438</v>
+      </c>
+      <c r="AB12" s="39">
+        <f t="shared" si="1"/>
+        <v>141821</v>
+      </c>
+      <c r="AC12" s="39">
+        <f t="shared" si="1"/>
+        <v>29617</v>
+      </c>
+      <c r="AD12" s="45">
+        <f t="shared" si="5"/>
+        <v>0.92789062626853069</v>
+      </c>
+      <c r="AE12" s="45">
+        <f t="shared" si="10"/>
+        <v>0.42246027444155992</v>
+      </c>
+      <c r="AF12" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2369368976494701</v>
+      </c>
+      <c r="AG12" s="41">
+        <f>J27</f>
+        <v>0.82724366826491202</v>
+      </c>
+      <c r="AH12" s="40">
+        <f>K27</f>
+        <v>0.172756331735088</v>
+      </c>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="41">
+        <f>L27</f>
+        <v>0.86952838394916998</v>
+      </c>
+      <c r="AK12" s="41">
+        <f>M27</f>
+        <v>8.2440149767406712E-2</v>
+      </c>
+      <c r="AL12" s="41">
+        <f>N27</f>
+        <v>2.5150334707461898E-2</v>
+      </c>
+      <c r="AM12" s="41">
+        <f>O27</f>
+        <v>2.28811315759616E-2</v>
+      </c>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="43">
+        <f t="shared" si="2"/>
+        <v>0.13047161605083021</v>
+      </c>
+      <c r="AP12" s="35">
+        <f t="shared" si="8"/>
+        <v>0.88573764807317978</v>
+      </c>
+      <c r="AQ12" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR12" s="41">
+        <f t="shared" si="3"/>
+        <v>0.44146319679766616</v>
+      </c>
+      <c r="AS12" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="41">
+        <f t="shared" si="7"/>
+        <v>0.55726256983240241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>325000</v>
+      </c>
+      <c r="E13">
+        <v>132404</v>
+      </c>
+      <c r="F13">
+        <v>40.739692307692302</v>
+      </c>
+      <c r="G13">
+        <v>171894</v>
+      </c>
+      <c r="H13">
+        <v>141792</v>
+      </c>
+      <c r="I13">
+        <v>30102</v>
+      </c>
+      <c r="J13">
+        <v>82.488044957939195</v>
+      </c>
+      <c r="K13">
+        <v>17.511955042060801</v>
+      </c>
+      <c r="L13">
+        <v>83.122111114467799</v>
+      </c>
+      <c r="M13">
+        <v>8.4000483369082506</v>
+      </c>
+      <c r="N13">
+        <v>3.5217969245642098</v>
+      </c>
+      <c r="O13">
+        <v>4.9560436240597001</v>
+      </c>
+      <c r="P13">
+        <v>0.83741546803082101</v>
+      </c>
+      <c r="Q13">
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="R13">
+        <v>1.7095851216022699</v>
+      </c>
+      <c r="S13">
+        <v>0.145348837209302</v>
+      </c>
+      <c r="U13" s="30">
+        <v>12</v>
+      </c>
+      <c r="V13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" s="30">
+        <f t="shared" ref="W13:W14" si="11">C13</f>
+        <v>200</v>
+      </c>
+      <c r="X13" s="31">
+        <f t="shared" ref="X13:X14" si="12">D13</f>
+        <v>325000</v>
+      </c>
+      <c r="Y13" s="31">
+        <f t="shared" ref="Y13:Y14" si="13">E13</f>
+        <v>132404</v>
+      </c>
+      <c r="Z13" s="32">
+        <f>F28</f>
+        <v>0.40739692307692299</v>
+      </c>
+      <c r="AA13" s="31">
+        <f t="shared" ref="AA13:AA14" si="14">G13</f>
+        <v>171894</v>
+      </c>
+      <c r="AB13" s="31">
+        <f t="shared" ref="AB13:AB14" si="15">H13</f>
+        <v>141792</v>
+      </c>
+      <c r="AC13" s="31">
+        <f t="shared" ref="AC13:AC14" si="16">I13</f>
+        <v>30102</v>
+      </c>
+      <c r="AD13" s="45">
+        <f t="shared" si="5"/>
+        <v>0.93035867959147223</v>
+      </c>
+      <c r="AE13" s="45">
+        <f t="shared" si="10"/>
+        <v>0.42937836989701311</v>
+      </c>
+      <c r="AF13" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2366839649382932</v>
+      </c>
+      <c r="AG13" s="33">
+        <f t="shared" ref="AG13:AG14" si="17">J28</f>
+        <v>0.82488044957939199</v>
+      </c>
+      <c r="AH13" s="32">
+        <f t="shared" ref="AH13:AH14" si="18">K28</f>
+        <v>0.17511955042060801</v>
+      </c>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="33">
+        <f t="shared" ref="AJ13:AJ14" si="19">L28</f>
+        <v>0.831221111144678</v>
+      </c>
+      <c r="AK13" s="33">
+        <f t="shared" ref="AK13:AK14" si="20">M28</f>
+        <v>8.4000483369082501E-2</v>
+      </c>
+      <c r="AL13" s="33">
+        <f t="shared" ref="AL13:AL14" si="21">N28</f>
+        <v>3.5217969245642099E-2</v>
+      </c>
+      <c r="AM13" s="33">
+        <f t="shared" ref="AM13:AM14" si="22">O28</f>
+        <v>4.9560436240597E-2</v>
+      </c>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35">
+        <f t="shared" ref="AO13:AO14" si="23">SUM(AK13:AM13)</f>
+        <v>0.16877888885532161</v>
+      </c>
+      <c r="AP13" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1457956955241217</v>
+      </c>
+      <c r="AQ13" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR13" s="33">
+        <f t="shared" ref="AR13:AR14" si="24">P28</f>
+        <v>0.98451645568587232</v>
+      </c>
+      <c r="AS13" s="33">
+        <f>S28</f>
+        <v>0.84738372093023184</v>
+      </c>
+      <c r="AT13" s="33">
+        <f>R28</f>
+        <v>0.97446351931329434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>325000</v>
+      </c>
+      <c r="E14">
+        <v>132991</v>
+      </c>
+      <c r="F14">
+        <v>40.920307692307702</v>
+      </c>
+      <c r="G14">
+        <v>184204</v>
+      </c>
+      <c r="H14">
+        <v>143269</v>
+      </c>
+      <c r="I14">
+        <v>40935</v>
+      </c>
+      <c r="J14">
+        <v>77.777355540596304</v>
+      </c>
+      <c r="K14">
+        <v>22.2226444594037</v>
+      </c>
+      <c r="L14">
+        <v>83.055244339842503</v>
+      </c>
+      <c r="M14">
+        <v>8.29078659458159</v>
+      </c>
+      <c r="N14">
+        <v>3.5904685279455002</v>
+      </c>
+      <c r="O14">
+        <v>5.0635005376303699</v>
+      </c>
+      <c r="P14">
+        <v>0.85996013468335897</v>
+      </c>
+      <c r="Q14">
+        <v>8.3449235048678704E-3</v>
+      </c>
+      <c r="R14">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="S14">
+        <v>0.14388489208633101</v>
+      </c>
+      <c r="U14" s="30">
+        <v>13</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="X14" s="31">
+        <f t="shared" si="12"/>
+        <v>325000</v>
+      </c>
+      <c r="Y14" s="31">
+        <f t="shared" si="13"/>
+        <v>132991</v>
+      </c>
+      <c r="Z14" s="32">
+        <f t="shared" ref="Z14" si="25">F29</f>
+        <v>0.409203076923077</v>
+      </c>
+      <c r="AA14" s="31">
+        <f t="shared" si="14"/>
+        <v>184204</v>
+      </c>
+      <c r="AB14" s="31">
+        <f t="shared" si="15"/>
+        <v>143269</v>
+      </c>
+      <c r="AC14" s="31">
+        <f t="shared" si="16"/>
+        <v>40935</v>
+      </c>
+      <c r="AD14" s="45">
+        <f t="shared" si="5"/>
+        <v>0.99698529451561746</v>
+      </c>
+      <c r="AE14" s="45">
+        <f t="shared" si="10"/>
+        <v>0.58390152055458877</v>
+      </c>
+      <c r="AF14" s="45">
+        <f t="shared" si="6"/>
+        <v>1.2495660895730669</v>
+      </c>
+      <c r="AG14" s="33">
+        <f t="shared" si="17"/>
+        <v>0.77777355540596305</v>
+      </c>
+      <c r="AH14" s="32">
+        <f t="shared" si="18"/>
+        <v>0.22222644459403701</v>
+      </c>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="33">
+        <f t="shared" si="19"/>
+        <v>0.83055244339842504</v>
+      </c>
+      <c r="AK14" s="33">
+        <f t="shared" si="20"/>
+        <v>8.2907865945815895E-2</v>
+      </c>
+      <c r="AL14" s="33">
+        <f t="shared" si="21"/>
+        <v>3.5904685279454999E-2</v>
+      </c>
+      <c r="AM14" s="33">
+        <f t="shared" si="22"/>
+        <v>5.06350053763037E-2</v>
+      </c>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35">
+        <f t="shared" si="23"/>
+        <v>0.16944755660157459</v>
+      </c>
+      <c r="AP14" s="35">
+        <f t="shared" si="8"/>
+        <v>1.1503351058176048</v>
+      </c>
+      <c r="AQ14" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR14" s="33">
+        <f t="shared" si="24"/>
+        <v>1.0110213342732823</v>
+      </c>
+      <c r="AS14" s="33">
+        <f>S29</f>
+        <v>0.83884892086331098</v>
+      </c>
+      <c r="AT14" s="33">
+        <f t="shared" ref="AT14" si="26">R29</f>
+        <v>0.98275862068965403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="5"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <f>F2/$A$17</f>
+        <v>0.35278461538461497</v>
+      </c>
+      <c r="J17">
+        <f>J2/$A$17</f>
+        <v>0.620558451188292</v>
+      </c>
+      <c r="K17">
+        <f>K2/$A$17</f>
+        <v>0.37944154881170805</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:O17" si="27">L2/$A$17</f>
+        <v>0.85269722210108601</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="27"/>
+        <v>6.9425668309275698E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="27"/>
+        <v>3.0779294404954E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="27"/>
+        <v>4.7097815184684498E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P29" si="28">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" ref="F18:F29" si="29">F3/$A$17</f>
+        <v>0.35326461538461501</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:O27" si="30">J3/$A$17</f>
+        <v>0.62178306832459596</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="30"/>
+        <v>0.37821693167540404</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="30"/>
+        <v>0.85886369772931204</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="30"/>
+        <v>6.6727055769917498E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="30"/>
+        <v>2.9587757270644797E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="30"/>
+        <v>4.4821489230126001E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="28"/>
+        <v>0.97039319359969867</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:R29" si="31">R3/$R$2</f>
+        <v>0.99303135888501526</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S23" si="32">S3/$S$2</f>
+        <v>0.98313659359190486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="29"/>
+        <v>0.35379076923076902</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="30"/>
+        <v>0.62195128547705703</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="30"/>
+        <v>0.37804871452294297</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="30"/>
+        <v>0.89010453810161594</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="30"/>
+        <v>6.1800977544311297E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="30"/>
+        <v>2.1490320224035103E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="30"/>
+        <v>2.6604164130037699E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="28"/>
+        <v>0.57315169384370046</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="31"/>
+        <v>0.68556701030927825</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="29"/>
+        <v>0.40765538461538497</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="30"/>
+        <v>0.82973980732087294</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="30"/>
+        <v>0.17026019267912701</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="30"/>
+        <v>0.82288207233862709</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="30"/>
+        <v>8.7728699957732012E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="30"/>
+        <v>3.6501418996437399E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="30"/>
+        <v>5.2887808707203693E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="28"/>
+        <v>1.0536156962595977</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="31"/>
+        <v>1.0320334261838444</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="32"/>
+        <v>0.85109489051095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="29"/>
+        <v>0.408581538461538</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="30"/>
+        <v>0.82940844611689202</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="30"/>
+        <v>0.17059155388310798</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="30"/>
+        <v>0.83195144176098912</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="30"/>
+        <v>8.2725225734059299E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="30"/>
+        <v>3.5507459202192997E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="30"/>
+        <v>4.9815873302758502E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="28"/>
+        <v>1.0114291514203495</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="31"/>
+        <v>1.0103397341211215</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="32"/>
+        <v>0.8461538461538497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="29"/>
+        <v>0.40903076923076903</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="30"/>
+        <v>0.83080052929483694</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="30"/>
+        <v>0.169199470705163</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="30"/>
+        <v>0.87110241847519498</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="30"/>
+        <v>7.4329559559183092E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="30"/>
+        <v>2.3868808064091498E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="30"/>
+        <v>3.0699213901530801E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="28"/>
+        <v>0.61365783467452195</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="31"/>
+        <v>0.68311198402130546</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="29"/>
+        <v>0.35188923076923101</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="30"/>
+        <v>0.62085513886777699</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="30"/>
+        <v>0.176380534624655</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="30"/>
+        <v>0.84878982896715793</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="30"/>
+        <v>7.5495785387009906E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="30"/>
+        <v>3.19418698191739E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="30"/>
+        <v>4.3772515826658705E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="28"/>
+        <v>0.95121251099824122</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="31"/>
+        <v>0.9878682842287706</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="32"/>
+        <v>0.98981324278438221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="29"/>
+        <v>0.40924923076923103</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="30"/>
+        <v>0.83026223776223806</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="30"/>
+        <v>0.16973776223776199</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="30"/>
+        <v>0.95609972482444405</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="30"/>
+        <v>1.6555644106280899E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="30"/>
+        <v>9.7364028690435003E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="30"/>
+        <v>1.7608228200231599E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="28"/>
+        <v>0.36980090965727147</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="31"/>
+        <v>0.45600000000000024</v>
+      </c>
+      <c r="S24">
+        <f>S9/$S$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="29"/>
+        <v>0.40764</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="30"/>
+        <v>0.82895635075763296</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="30"/>
+        <v>0.17104364924236701</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="30"/>
+        <v>0.82884596514269804</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="30"/>
+        <v>8.4018326879675087E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="30"/>
+        <v>3.5370575847467195E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="30"/>
+        <v>5.1765132130160103E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="28"/>
+        <v>1.0348030443571121</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="31"/>
+        <v>0.98275862068965403</v>
+      </c>
+      <c r="S25">
+        <f>S10/$S$2</f>
+        <v>1.5799457994579953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>F11/$A$17</f>
+        <v>0.40723692307692305</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="30"/>
+        <v>0.83034158548992598</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="30"/>
+        <v>0.16965841451007399</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="30"/>
+        <v>0.844135336073501</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="30"/>
+        <v>8.0059235976789211E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="30"/>
+        <v>3.1522001934236002E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="30"/>
+        <v>4.4283426015473901E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="28"/>
+        <v>0.89195570988466177</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="31"/>
+        <v>0.89443651925820089</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:S27" si="33">S11/$S$2</f>
+        <v>0.81652661064426124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="29"/>
+        <v>0.40678461538461497</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="30"/>
+        <v>0.82724366826491202</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="30"/>
+        <v>0.172756331735088</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="30"/>
+        <v>0.86952838394916998</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="30"/>
+        <v>8.2440149767406712E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="30"/>
+        <v>2.5150334707461898E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="30"/>
+        <v>2.28811315759616E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="28"/>
+        <v>0.44146319679766616</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="31"/>
+        <v>0.55726256983240241</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>F13/$A$17</f>
+        <v>0.40739692307692299</v>
+      </c>
+      <c r="J28">
+        <f>J13/$A$17</f>
+        <v>0.82488044957939199</v>
+      </c>
+      <c r="K28">
+        <f>K13/$A$17</f>
+        <v>0.17511955042060801</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:O28" si="34">L13/$A$17</f>
+        <v>0.831221111144678</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="34"/>
+        <v>8.4000483369082501E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="34"/>
+        <v>3.5217969245642099E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="34"/>
+        <v>4.9560436240597E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="28"/>
+        <v>0.98451645568587232</v>
+      </c>
+      <c r="R28">
+        <f>R13/$R$2</f>
+        <v>0.97446351931329434</v>
+      </c>
+      <c r="S28">
+        <f>S13/$S$2</f>
+        <v>0.84738372093023184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="29"/>
+        <v>0.409203076923077</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:O29" si="35">J14/$A$17</f>
+        <v>0.77777355540596305</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="35"/>
+        <v>0.22222644459403701</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="35"/>
+        <v>0.83055244339842504</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="35"/>
+        <v>8.2907865945815895E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="35"/>
+        <v>3.5904685279454999E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="35"/>
+        <v>5.06350053763037E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="28"/>
+        <v>1.0110213342732823</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="31"/>
+        <v>0.98275862068965403</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29" si="36">S14/$S$2</f>
+        <v>0.83884892086331098</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S14">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77857636-7849-4399-904D-0C964F26EEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E3CB0-C742-466B-B829-FF6585192B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="3-11-21" sheetId="11" r:id="rId10"/>
     <sheet name="3-12-21" sheetId="12" r:id="rId11"/>
     <sheet name="3-2-21" sheetId="13" r:id="rId12"/>
+    <sheet name="5-13" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'3-10-21'!$A$1:$S$1</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3-3-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'3-8-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3-9-21 '!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'5-13'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="142">
   <si>
     <t>Treatment</t>
   </si>
@@ -474,6 +476,12 @@
   </si>
   <si>
     <t>% relative dicarded</t>
+  </si>
+  <si>
+    <t>Sanitizer</t>
+  </si>
+  <si>
+    <t>%Relative Used</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1038,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1155,9 +1163,6 @@
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1189,6 +1194,10 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1580,26 +1589,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="R3" s="44" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="R3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -6883,8 +6892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F617BA-C4EB-4F39-A84D-0603482CD0CC}">
   <dimension ref="A1:AT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,10 +6991,10 @@
         <v>8</v>
       </c>
       <c r="AD1" s="27"/>
-      <c r="AE1" s="46" t="s">
+      <c r="AE1" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="46" t="s">
         <v>138</v>
       </c>
       <c r="AG1" s="27" t="s">
@@ -7116,46 +7125,46 @@
         <f t="shared" si="1"/>
         <v>70106</v>
       </c>
-      <c r="AD2" s="45">
+      <c r="AD2" s="44">
         <f>AA2/$AA$2</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="45">
+      <c r="AE2" s="44">
         <f>AC2/$AC$2</f>
         <v>1</v>
       </c>
-      <c r="AF2" s="45">
+      <c r="AF2" s="44">
         <f>AB2/$AB$2</f>
         <v>1</v>
       </c>
       <c r="AG2" s="33">
-        <f>J17</f>
+        <f t="shared" ref="AG2:AG12" si="2">J17</f>
         <v>0.620558451188292</v>
       </c>
       <c r="AH2" s="32">
-        <f>K17</f>
+        <f t="shared" ref="AH2:AH12" si="3">K17</f>
         <v>0.37944154881170805</v>
       </c>
       <c r="AI2" s="34"/>
       <c r="AJ2" s="33">
-        <f>L17</f>
+        <f t="shared" ref="AJ2:AJ12" si="4">L17</f>
         <v>0.85269722210108601</v>
       </c>
       <c r="AK2" s="33">
-        <f>M17</f>
+        <f t="shared" ref="AK2:AK12" si="5">M17</f>
         <v>6.9425668309275698E-2</v>
       </c>
       <c r="AL2" s="33">
-        <f>N17</f>
+        <f t="shared" ref="AL2:AL12" si="6">N17</f>
         <v>3.0779294404954E-2</v>
       </c>
       <c r="AM2" s="33">
-        <f>O17</f>
+        <f t="shared" ref="AM2:AM12" si="7">O17</f>
         <v>4.7097815184684498E-2</v>
       </c>
       <c r="AN2" s="35"/>
       <c r="AO2" s="35">
-        <f t="shared" ref="AO2:AO12" si="2">SUM(AK2:AM2)</f>
+        <f t="shared" ref="AO2:AO12" si="8">SUM(AK2:AM2)</f>
         <v>0.14730277789891419</v>
       </c>
       <c r="AP2" s="35">
@@ -7166,7 +7175,7 @@
         <v>125</v>
       </c>
       <c r="AR2" s="33">
-        <f t="shared" ref="AR2:AR12" si="3">P17</f>
+        <f t="shared" ref="AR2:AR12" si="9">P17</f>
         <v>1</v>
       </c>
       <c r="AS2" s="33">
@@ -7255,7 +7264,7 @@
         <v>114811</v>
       </c>
       <c r="Z3" s="32">
-        <f t="shared" ref="Z3:Z12" si="4">F18</f>
+        <f t="shared" ref="Z3:Z12" si="10">F18</f>
         <v>0.35326461538461501</v>
       </c>
       <c r="AA3" s="31">
@@ -7270,46 +7279,46 @@
         <f t="shared" si="1"/>
         <v>69837</v>
       </c>
-      <c r="AD3" s="45">
-        <f t="shared" ref="AD3:AD14" si="5">AA3/$AA$2</f>
+      <c r="AD3" s="44">
+        <f t="shared" ref="AD3:AD14" si="11">AA3/$AA$2</f>
         <v>0.99938839906690269</v>
       </c>
-      <c r="AE3" s="45">
+      <c r="AE3" s="44">
         <f>AC3/$AC$2</f>
         <v>0.99616295324223314</v>
       </c>
-      <c r="AF3" s="45">
-        <f t="shared" ref="AF3:AF14" si="6">AB3/$AB$2</f>
+      <c r="AF3" s="44">
+        <f t="shared" ref="AF3:AF14" si="12">AB3/$AB$2</f>
         <v>1.0013606035497797</v>
       </c>
       <c r="AG3" s="33">
-        <f>J18</f>
+        <f t="shared" si="2"/>
         <v>0.62178306832459596</v>
       </c>
       <c r="AH3" s="32">
-        <f>K18</f>
+        <f t="shared" si="3"/>
         <v>0.37821693167540404</v>
       </c>
       <c r="AI3" s="34"/>
       <c r="AJ3" s="33">
-        <f>L18</f>
+        <f t="shared" si="4"/>
         <v>0.85886369772931204</v>
       </c>
       <c r="AK3" s="33">
-        <f>M18</f>
+        <f t="shared" si="5"/>
         <v>6.6727055769917498E-2</v>
       </c>
       <c r="AL3" s="33">
-        <f>N18</f>
+        <f t="shared" si="6"/>
         <v>2.9587757270644797E-2</v>
       </c>
       <c r="AM3" s="33">
-        <f>O18</f>
+        <f t="shared" si="7"/>
         <v>4.4821489230126001E-2</v>
       </c>
       <c r="AN3" s="35"/>
       <c r="AO3" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1411363022706883</v>
       </c>
       <c r="AP3" s="35">
@@ -7320,7 +7329,7 @@
         <v>126</v>
       </c>
       <c r="AR3" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.97039319359969867</v>
       </c>
       <c r="AS3" s="33">
@@ -7328,7 +7337,7 @@
         <v>0.98313659359190486</v>
       </c>
       <c r="AT3" s="33">
-        <f t="shared" ref="AT3:AT12" si="7">R18</f>
+        <f t="shared" ref="AT3:AT12" si="13">R18</f>
         <v>0.99303135888501526</v>
       </c>
     </row>
@@ -7409,7 +7418,7 @@
         <v>114982</v>
       </c>
       <c r="Z4" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.35379076923076902</v>
       </c>
       <c r="AA4" s="31">
@@ -7424,65 +7433,65 @@
         <f t="shared" si="1"/>
         <v>69891</v>
       </c>
-      <c r="AD4" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD4" s="44">
+        <f t="shared" si="11"/>
         <v>1.0006061885354594</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AE4" s="44">
         <f>AC4/$AC$2</f>
         <v>0.99693321541665481</v>
       </c>
-      <c r="AF4" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF4" s="44">
+        <f t="shared" si="12"/>
         <v>1.0028520343639615</v>
       </c>
       <c r="AG4" s="33">
-        <f>J19</f>
+        <f t="shared" si="2"/>
         <v>0.62195128547705703</v>
       </c>
       <c r="AH4" s="32">
-        <f>K19</f>
+        <f t="shared" si="3"/>
         <v>0.37804871452294297</v>
       </c>
       <c r="AI4" s="34"/>
       <c r="AJ4" s="33">
-        <f>L19</f>
+        <f t="shared" si="4"/>
         <v>0.89010453810161594</v>
       </c>
       <c r="AK4" s="33">
-        <f>M19</f>
+        <f t="shared" si="5"/>
         <v>6.1800977544311297E-2</v>
       </c>
       <c r="AL4" s="33">
-        <f>N19</f>
+        <f t="shared" si="6"/>
         <v>2.1490320224035103E-2</v>
       </c>
       <c r="AM4" s="33">
-        <f>O19</f>
+        <f t="shared" si="7"/>
         <v>2.6604164130037699E-2</v>
       </c>
       <c r="AN4" s="35"/>
       <c r="AO4" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1098954618983841</v>
       </c>
       <c r="AP4" s="35">
-        <f t="shared" ref="AP4:AP14" si="8">AO4/$AO$2</f>
+        <f t="shared" ref="AP4:AP14" si="14">AO4/$AO$2</f>
         <v>0.7460515237112455</v>
       </c>
       <c r="AQ4" s="32" t="s">
         <v>127</v>
       </c>
       <c r="AR4" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.57315169384370046</v>
       </c>
       <c r="AS4" s="33">
-        <f t="shared" ref="AS4:AS12" si="9">S19</f>
+        <f t="shared" ref="AS4:AS12" si="15">S19</f>
         <v>0</v>
       </c>
       <c r="AT4" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.68556701030927825</v>
       </c>
     </row>
@@ -7563,7 +7572,7 @@
         <v>132488</v>
       </c>
       <c r="Z5" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.40765538461538497</v>
       </c>
       <c r="AA5" s="31">
@@ -7578,65 +7587,65 @@
         <f t="shared" si="1"/>
         <v>29178</v>
       </c>
-      <c r="AD5" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD5" s="44">
+        <f t="shared" si="11"/>
         <v>0.92753882042205882</v>
       </c>
-      <c r="AE5" s="45">
+      <c r="AE5" s="44">
         <f>AC5/$AC$2</f>
         <v>0.41619832824579922</v>
       </c>
-      <c r="AF5" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF5" s="44">
+        <f t="shared" si="12"/>
         <v>1.240198857441891</v>
       </c>
       <c r="AG5" s="33">
-        <f>J20</f>
+        <f t="shared" si="2"/>
         <v>0.82973980732087294</v>
       </c>
       <c r="AH5" s="32">
-        <f>K20</f>
+        <f t="shared" si="3"/>
         <v>0.17026019267912701</v>
       </c>
       <c r="AI5" s="34"/>
       <c r="AJ5" s="33">
-        <f>L20</f>
+        <f t="shared" si="4"/>
         <v>0.82288207233862709</v>
       </c>
       <c r="AK5" s="33">
-        <f>M20</f>
+        <f t="shared" si="5"/>
         <v>8.7728699957732012E-2</v>
       </c>
       <c r="AL5" s="33">
-        <f>N20</f>
+        <f t="shared" si="6"/>
         <v>3.6501418996437399E-2</v>
       </c>
       <c r="AM5" s="33">
-        <f>O20</f>
+        <f t="shared" si="7"/>
         <v>5.2887808707203693E-2</v>
       </c>
       <c r="AN5" s="35"/>
       <c r="AO5" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1771179276613731</v>
       </c>
       <c r="AP5" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.2024072470847726</v>
       </c>
       <c r="AQ5" s="30" t="s">
         <v>128</v>
       </c>
       <c r="AR5" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.0536156962595977</v>
       </c>
       <c r="AS5" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.85109489051095</v>
       </c>
       <c r="AT5" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0320334261838444</v>
       </c>
     </row>
@@ -7717,7 +7726,7 @@
         <v>132789</v>
       </c>
       <c r="Z6" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.408581538461538</v>
       </c>
       <c r="AA6" s="31">
@@ -7732,65 +7741,65 @@
         <f t="shared" si="1"/>
         <v>29331</v>
       </c>
-      <c r="AD6" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD6" s="44">
+        <f t="shared" si="11"/>
         <v>0.93059141268990753</v>
       </c>
-      <c r="AE6" s="45">
-        <f t="shared" ref="AE6:AE14" si="10">AC6/$AC$2</f>
+      <c r="AE6" s="44">
+        <f t="shared" ref="AE6:AE14" si="16">AC6/$AC$2</f>
         <v>0.41838073773999374</v>
       </c>
-      <c r="AF6" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF6" s="44">
+        <f t="shared" si="12"/>
         <v>1.243783524486503</v>
       </c>
       <c r="AG6" s="33">
-        <f>J21</f>
+        <f t="shared" si="2"/>
         <v>0.82940844611689202</v>
       </c>
       <c r="AH6" s="32">
-        <f>K21</f>
+        <f t="shared" si="3"/>
         <v>0.17059155388310798</v>
       </c>
       <c r="AI6" s="34"/>
       <c r="AJ6" s="33">
-        <f>L21</f>
+        <f t="shared" si="4"/>
         <v>0.83195144176098912</v>
       </c>
       <c r="AK6" s="33">
-        <f>M21</f>
+        <f t="shared" si="5"/>
         <v>8.2725225734059299E-2</v>
       </c>
       <c r="AL6" s="33">
-        <f>N21</f>
+        <f t="shared" si="6"/>
         <v>3.5507459202192997E-2</v>
       </c>
       <c r="AM6" s="33">
-        <f>O21</f>
+        <f t="shared" si="7"/>
         <v>4.9815873302758502E-2</v>
       </c>
       <c r="AN6" s="35"/>
       <c r="AO6" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.1680485582390108</v>
       </c>
       <c r="AP6" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1408376721471831</v>
       </c>
       <c r="AQ6" s="32" t="s">
         <v>129</v>
       </c>
       <c r="AR6" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.0114291514203495</v>
       </c>
       <c r="AS6" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.8461538461538497</v>
       </c>
       <c r="AT6" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0103397341211215</v>
       </c>
     </row>
@@ -7871,7 +7880,7 @@
         <v>132935</v>
       </c>
       <c r="Z7" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.40903076923076903</v>
       </c>
       <c r="AA7" s="31">
@@ -7886,41 +7895,41 @@
         <f t="shared" si="1"/>
         <v>29026</v>
       </c>
-      <c r="AD7" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD7" s="44">
+        <f t="shared" si="11"/>
         <v>0.92849140240635197</v>
       </c>
-      <c r="AE7" s="45">
-        <f t="shared" si="10"/>
+      <c r="AE7" s="44">
+        <f t="shared" si="16"/>
         <v>0.41403018286594584</v>
       </c>
-      <c r="AF7" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF7" s="44">
+        <f t="shared" si="12"/>
         <v>1.2430596136234791</v>
       </c>
       <c r="AG7" s="33">
-        <f>J22</f>
+        <f t="shared" si="2"/>
         <v>0.83080052929483694</v>
       </c>
       <c r="AH7" s="32">
-        <f>K22</f>
+        <f t="shared" si="3"/>
         <v>0.169199470705163</v>
       </c>
       <c r="AI7" s="34"/>
       <c r="AJ7" s="33">
-        <f>L22</f>
+        <f t="shared" si="4"/>
         <v>0.87110241847519498</v>
       </c>
       <c r="AK7" s="33">
-        <f>M22</f>
+        <f t="shared" si="5"/>
         <v>7.4329559559183092E-2</v>
       </c>
       <c r="AL7" s="33">
-        <f>N22</f>
+        <f t="shared" si="6"/>
         <v>2.3868808064091498E-2</v>
       </c>
       <c r="AM7" s="33">
-        <f>O22</f>
+        <f t="shared" si="7"/>
         <v>3.0699213901530801E-2</v>
       </c>
       <c r="AN7" s="35"/>
@@ -7929,176 +7938,176 @@
         <v>0.1288975815248054</v>
       </c>
       <c r="AP7" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.87505193970789019</v>
       </c>
       <c r="AQ7" s="32" t="s">
         <v>130</v>
       </c>
       <c r="AR7" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.61365783467452195</v>
       </c>
       <c r="AS7" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT7" s="33">
+        <f t="shared" si="13"/>
+        <v>0.68311198402130546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
+        <v>11</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="47">
+        <v>200</v>
+      </c>
+      <c r="D8" s="47">
+        <v>325000</v>
+      </c>
+      <c r="E8" s="47">
+        <v>114364</v>
+      </c>
+      <c r="F8" s="47">
+        <v>35.188923076923103</v>
+      </c>
+      <c r="G8" s="47">
+        <v>184204</v>
+      </c>
+      <c r="H8" s="47">
+        <v>114364</v>
+      </c>
+      <c r="I8" s="47">
+        <v>32490</v>
+      </c>
+      <c r="J8" s="47">
+        <v>62.085513886777697</v>
+      </c>
+      <c r="K8" s="47">
+        <v>17.6380534624655</v>
+      </c>
+      <c r="L8" s="47">
+        <v>84.878982896715797</v>
+      </c>
+      <c r="M8" s="47">
+        <v>7.5495785387009899</v>
+      </c>
+      <c r="N8" s="47">
+        <v>3.1941869819173898</v>
+      </c>
+      <c r="O8" s="47">
+        <v>4.3772515826658704</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0.80908761402005602</v>
+      </c>
+      <c r="Q8" s="47">
+        <v>7.2595281306715104E-3</v>
+      </c>
+      <c r="R8" s="47">
+        <v>1.7331022530329301</v>
+      </c>
+      <c r="S8" s="47">
+        <v>0.16977928692699501</v>
+      </c>
+      <c r="U8" s="48">
+        <v>7</v>
+      </c>
+      <c r="V8" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="W8" s="48">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="49">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="49">
+        <f t="shared" si="0"/>
+        <v>114364</v>
+      </c>
+      <c r="Z8" s="50">
+        <f t="shared" si="10"/>
+        <v>0.35188923076923101</v>
+      </c>
+      <c r="AA8" s="49">
+        <f t="shared" si="1"/>
+        <v>184204</v>
+      </c>
+      <c r="AB8" s="49">
+        <f t="shared" si="1"/>
+        <v>114364</v>
+      </c>
+      <c r="AC8" s="49">
+        <f t="shared" si="1"/>
+        <v>32490</v>
+      </c>
+      <c r="AD8" s="51">
+        <f t="shared" si="11"/>
+        <v>0.99698529451561746</v>
+      </c>
+      <c r="AE8" s="51">
+        <f t="shared" si="16"/>
+        <v>0.46344107494365677</v>
+      </c>
+      <c r="AF8" s="51">
+        <f t="shared" si="12"/>
+        <v>0.99746195107060309</v>
+      </c>
+      <c r="AG8" s="52">
+        <f t="shared" si="2"/>
+        <v>0.62085513886777699</v>
+      </c>
+      <c r="AH8" s="50">
+        <f t="shared" si="3"/>
+        <v>0.176380534624655</v>
+      </c>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="52">
+        <f t="shared" si="4"/>
+        <v>0.84878982896715793</v>
+      </c>
+      <c r="AK8" s="52">
+        <f t="shared" si="5"/>
+        <v>7.5495785387009906E-2</v>
+      </c>
+      <c r="AL8" s="52">
+        <f t="shared" si="6"/>
+        <v>3.19418698191739E-2</v>
+      </c>
+      <c r="AM8" s="52">
         <f t="shared" si="7"/>
-        <v>0.68311198402130546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
-        <v>11</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="48">
-        <v>200</v>
-      </c>
-      <c r="D8" s="48">
-        <v>325000</v>
-      </c>
-      <c r="E8" s="48">
-        <v>114364</v>
-      </c>
-      <c r="F8" s="48">
-        <v>35.188923076923103</v>
-      </c>
-      <c r="G8" s="48">
-        <v>184204</v>
-      </c>
-      <c r="H8" s="48">
-        <v>114364</v>
-      </c>
-      <c r="I8" s="48">
-        <v>32490</v>
-      </c>
-      <c r="J8" s="48">
-        <v>62.085513886777697</v>
-      </c>
-      <c r="K8" s="48">
-        <v>17.6380534624655</v>
-      </c>
-      <c r="L8" s="48">
-        <v>84.878982896715797</v>
-      </c>
-      <c r="M8" s="48">
-        <v>7.5495785387009899</v>
-      </c>
-      <c r="N8" s="48">
-        <v>3.1941869819173898</v>
-      </c>
-      <c r="O8" s="48">
-        <v>4.3772515826658704</v>
-      </c>
-      <c r="P8" s="48">
-        <v>0.80908761402005602</v>
-      </c>
-      <c r="Q8" s="48">
-        <v>7.2595281306715104E-3</v>
-      </c>
-      <c r="R8" s="48">
-        <v>1.7331022530329301</v>
-      </c>
-      <c r="S8" s="48">
-        <v>0.16977928692699501</v>
-      </c>
-      <c r="U8" s="49">
-        <v>7</v>
-      </c>
-      <c r="V8" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="W8" s="49">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="X8" s="50">
-        <f t="shared" si="0"/>
-        <v>325000</v>
-      </c>
-      <c r="Y8" s="50">
-        <f t="shared" si="0"/>
-        <v>114364</v>
-      </c>
-      <c r="Z8" s="51">
-        <f t="shared" si="4"/>
-        <v>0.35188923076923101</v>
-      </c>
-      <c r="AA8" s="50">
-        <f t="shared" si="1"/>
-        <v>184204</v>
-      </c>
-      <c r="AB8" s="50">
-        <f t="shared" si="1"/>
-        <v>114364</v>
-      </c>
-      <c r="AC8" s="50">
-        <f t="shared" si="1"/>
-        <v>32490</v>
-      </c>
-      <c r="AD8" s="52">
-        <f t="shared" si="5"/>
-        <v>0.99698529451561746</v>
-      </c>
-      <c r="AE8" s="52">
-        <f t="shared" si="10"/>
-        <v>0.46344107494365677</v>
-      </c>
-      <c r="AF8" s="52">
-        <f t="shared" si="6"/>
-        <v>0.99746195107060309</v>
-      </c>
-      <c r="AG8" s="53">
-        <f>J23</f>
-        <v>0.62085513886777699</v>
-      </c>
-      <c r="AH8" s="51">
-        <f>K23</f>
-        <v>0.176380534624655</v>
-      </c>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="53">
-        <f>L23</f>
-        <v>0.84878982896715793</v>
-      </c>
-      <c r="AK8" s="53">
-        <f>M23</f>
-        <v>7.5495785387009906E-2</v>
-      </c>
-      <c r="AL8" s="53">
-        <f>N23</f>
-        <v>3.19418698191739E-2</v>
-      </c>
-      <c r="AM8" s="53">
-        <f>O23</f>
         <v>4.3772515826658705E-2</v>
       </c>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55">
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54">
         <f>SUM(AK8:AM8)</f>
         <v>0.15121017103284251</v>
       </c>
-      <c r="AP8" s="55">
-        <f t="shared" si="8"/>
+      <c r="AP8" s="54">
+        <f t="shared" si="14"/>
         <v>1.026526269155696</v>
       </c>
-      <c r="AQ8" s="51" t="s">
+      <c r="AQ8" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR8" s="53">
-        <f t="shared" si="3"/>
+      <c r="AR8" s="52">
+        <f t="shared" si="9"/>
         <v>0.95121251099824122</v>
       </c>
-      <c r="AS8" s="53">
-        <f t="shared" si="9"/>
+      <c r="AS8" s="52">
+        <f t="shared" si="15"/>
         <v>0.98981324278438221</v>
       </c>
-      <c r="AT8" s="53">
-        <f t="shared" si="7"/>
+      <c r="AT8" s="52">
+        <f t="shared" si="13"/>
         <v>0.9878682842287706</v>
       </c>
     </row>
@@ -8176,7 +8185,7 @@
         <v>133006</v>
       </c>
       <c r="Z9" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.40924923076923103</v>
       </c>
       <c r="AA9" s="31">
@@ -8191,65 +8200,65 @@
         <f t="shared" si="1"/>
         <v>29127</v>
       </c>
-      <c r="AD9" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD9" s="44">
+        <f t="shared" si="11"/>
         <v>0.92876743468589151</v>
       </c>
-      <c r="AE9" s="45">
-        <f t="shared" si="10"/>
+      <c r="AE9" s="44">
+        <f t="shared" si="16"/>
         <v>0.41547085841440107</v>
       </c>
-      <c r="AF9" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF9" s="44">
+        <f t="shared" si="12"/>
         <v>1.2426235227421394</v>
       </c>
       <c r="AG9" s="33">
-        <f>J24</f>
+        <f t="shared" si="2"/>
         <v>0.83026223776223806</v>
       </c>
       <c r="AH9" s="32">
-        <f>K24</f>
+        <f t="shared" si="3"/>
         <v>0.16973776223776199</v>
       </c>
       <c r="AI9" s="34"/>
       <c r="AJ9" s="33">
-        <f>L24</f>
+        <f t="shared" si="4"/>
         <v>0.95609972482444405</v>
       </c>
       <c r="AK9" s="33">
-        <f>M24</f>
+        <f t="shared" si="5"/>
         <v>1.6555644106280899E-2</v>
       </c>
       <c r="AL9" s="33">
-        <f>N24</f>
+        <f t="shared" si="6"/>
         <v>9.7364028690435003E-3</v>
       </c>
       <c r="AM9" s="33">
-        <f>O24</f>
+        <f t="shared" si="7"/>
         <v>1.7608228200231599E-2</v>
       </c>
       <c r="AN9" s="35"/>
       <c r="AO9" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.3900275175555996E-2</v>
       </c>
       <c r="AP9" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.29802747647897276</v>
       </c>
       <c r="AQ9" s="32" t="s">
         <v>132</v>
       </c>
       <c r="AR9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.36980090965727147</v>
       </c>
       <c r="AS9" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT9" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.45600000000000024</v>
       </c>
     </row>
@@ -8327,7 +8336,7 @@
         <v>132483</v>
       </c>
       <c r="Z10" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.40764</v>
       </c>
       <c r="AA10" s="31">
@@ -8342,65 +8351,65 @@
         <f t="shared" si="1"/>
         <v>29315</v>
       </c>
-      <c r="AD10" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD10" s="44">
+        <f t="shared" si="11"/>
         <v>0.9276254187842673</v>
       </c>
-      <c r="AE10" s="45">
-        <f t="shared" si="10"/>
+      <c r="AE10" s="44">
+        <f t="shared" si="16"/>
         <v>0.41815251191053548</v>
       </c>
-      <c r="AF10" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF10" s="44">
+        <f t="shared" si="12"/>
         <v>1.2391435175090488</v>
       </c>
       <c r="AG10" s="33">
-        <f>J25</f>
+        <f t="shared" si="2"/>
         <v>0.82895635075763296</v>
       </c>
       <c r="AH10" s="32">
-        <f>K25</f>
+        <f t="shared" si="3"/>
         <v>0.17104364924236701</v>
       </c>
       <c r="AI10" s="36"/>
       <c r="AJ10" s="33">
-        <f>L25</f>
+        <f t="shared" si="4"/>
         <v>0.82884596514269804</v>
       </c>
       <c r="AK10" s="33">
-        <f>M25</f>
+        <f t="shared" si="5"/>
         <v>8.4018326879675087E-2</v>
       </c>
       <c r="AL10" s="33">
-        <f>N25</f>
+        <f t="shared" si="6"/>
         <v>3.5370575847467195E-2</v>
       </c>
       <c r="AM10" s="33">
-        <f>O25</f>
+        <f t="shared" si="7"/>
         <v>5.1765132130160103E-2</v>
       </c>
       <c r="AN10" s="36"/>
       <c r="AO10" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.17115403485730238</v>
       </c>
       <c r="AP10" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1619199399943156</v>
       </c>
       <c r="AQ10" s="32" t="s">
         <v>133</v>
       </c>
       <c r="AR10" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.0348030443571121</v>
       </c>
       <c r="AS10" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.5799457994579953</v>
       </c>
       <c r="AT10" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.98275862068965403</v>
       </c>
     </row>
@@ -8481,7 +8490,7 @@
         <v>132352</v>
       </c>
       <c r="Z11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.40723692307692305</v>
       </c>
       <c r="AA11" s="39">
@@ -8496,65 +8505,65 @@
         <f t="shared" si="1"/>
         <v>29016</v>
       </c>
-      <c r="AD11" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD11" s="44">
+        <f t="shared" si="11"/>
         <v>0.92566071844166242</v>
       </c>
-      <c r="AE11" s="45">
-        <f t="shared" si="10"/>
+      <c r="AE11" s="44">
+        <f t="shared" si="16"/>
         <v>0.41388754172253445</v>
       </c>
-      <c r="AF11" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF11" s="44">
+        <f t="shared" si="12"/>
         <v>1.2385853211809341</v>
       </c>
       <c r="AG11" s="41">
-        <f>J26</f>
+        <f t="shared" si="2"/>
         <v>0.83034158548992598</v>
       </c>
       <c r="AH11" s="40">
-        <f>K26</f>
+        <f t="shared" si="3"/>
         <v>0.16965841451007399</v>
       </c>
       <c r="AI11" s="42"/>
       <c r="AJ11" s="41">
-        <f>L26</f>
+        <f t="shared" si="4"/>
         <v>0.844135336073501</v>
       </c>
       <c r="AK11" s="41">
-        <f>M26</f>
+        <f t="shared" si="5"/>
         <v>8.0059235976789211E-2</v>
       </c>
       <c r="AL11" s="41">
-        <f>N26</f>
+        <f t="shared" si="6"/>
         <v>3.1522001934236002E-2</v>
       </c>
       <c r="AM11" s="41">
-        <f>O26</f>
+        <f t="shared" si="7"/>
         <v>4.4283426015473901E-2</v>
       </c>
       <c r="AN11" s="42"/>
       <c r="AO11" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.15586466392649911</v>
       </c>
       <c r="AP11" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.0581244030133667</v>
       </c>
       <c r="AQ11" s="40" t="s">
         <v>134</v>
       </c>
       <c r="AR11" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.89195570988466177</v>
       </c>
       <c r="AS11" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.81652661064426124</v>
       </c>
       <c r="AT11" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.89443651925820089</v>
       </c>
     </row>
@@ -8635,7 +8644,7 @@
         <v>132205</v>
       </c>
       <c r="Z12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.40678461538461497</v>
       </c>
       <c r="AA12" s="39">
@@ -8650,65 +8659,65 @@
         <f t="shared" si="1"/>
         <v>29617</v>
       </c>
-      <c r="AD12" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD12" s="44">
+        <f t="shared" si="11"/>
         <v>0.92789062626853069</v>
       </c>
-      <c r="AE12" s="45">
-        <f t="shared" si="10"/>
+      <c r="AE12" s="44">
+        <f t="shared" si="16"/>
         <v>0.42246027444155992</v>
       </c>
-      <c r="AF12" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF12" s="44">
+        <f t="shared" si="12"/>
         <v>1.2369368976494701</v>
       </c>
       <c r="AG12" s="41">
-        <f>J27</f>
+        <f t="shared" si="2"/>
         <v>0.82724366826491202</v>
       </c>
       <c r="AH12" s="40">
-        <f>K27</f>
+        <f t="shared" si="3"/>
         <v>0.172756331735088</v>
       </c>
       <c r="AI12" s="42"/>
       <c r="AJ12" s="41">
-        <f>L27</f>
+        <f t="shared" si="4"/>
         <v>0.86952838394916998</v>
       </c>
       <c r="AK12" s="41">
-        <f>M27</f>
+        <f t="shared" si="5"/>
         <v>8.2440149767406712E-2</v>
       </c>
       <c r="AL12" s="41">
-        <f>N27</f>
+        <f t="shared" si="6"/>
         <v>2.5150334707461898E-2</v>
       </c>
       <c r="AM12" s="41">
-        <f>O27</f>
+        <f t="shared" si="7"/>
         <v>2.28811315759616E-2</v>
       </c>
       <c r="AN12" s="42"/>
       <c r="AO12" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.13047161605083021</v>
       </c>
       <c r="AP12" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.88573764807317978</v>
       </c>
       <c r="AQ12" s="40" t="s">
         <v>135</v>
       </c>
       <c r="AR12" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.44146319679766616</v>
       </c>
       <c r="AS12" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT12" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.55726256983240241</v>
       </c>
     </row>
@@ -8777,15 +8786,15 @@
         <v>59</v>
       </c>
       <c r="W13" s="30">
-        <f t="shared" ref="W13:W14" si="11">C13</f>
+        <f t="shared" ref="W13:W14" si="17">C13</f>
         <v>200</v>
       </c>
       <c r="X13" s="31">
-        <f t="shared" ref="X13:X14" si="12">D13</f>
+        <f t="shared" ref="X13:X14" si="18">D13</f>
         <v>325000</v>
       </c>
       <c r="Y13" s="31">
-        <f t="shared" ref="Y13:Y14" si="13">E13</f>
+        <f t="shared" ref="Y13:Y14" si="19">E13</f>
         <v>132404</v>
       </c>
       <c r="Z13" s="32">
@@ -8793,68 +8802,68 @@
         <v>0.40739692307692299</v>
       </c>
       <c r="AA13" s="31">
-        <f t="shared" ref="AA13:AA14" si="14">G13</f>
+        <f t="shared" ref="AA13:AA14" si="20">G13</f>
         <v>171894</v>
       </c>
       <c r="AB13" s="31">
-        <f t="shared" ref="AB13:AB14" si="15">H13</f>
+        <f t="shared" ref="AB13:AB14" si="21">H13</f>
         <v>141792</v>
       </c>
       <c r="AC13" s="31">
-        <f t="shared" ref="AC13:AC14" si="16">I13</f>
+        <f t="shared" ref="AC13:AC14" si="22">I13</f>
         <v>30102</v>
       </c>
-      <c r="AD13" s="45">
-        <f t="shared" si="5"/>
+      <c r="AD13" s="44">
+        <f t="shared" si="11"/>
         <v>0.93035867959147223</v>
       </c>
-      <c r="AE13" s="45">
-        <f t="shared" si="10"/>
+      <c r="AE13" s="44">
+        <f t="shared" si="16"/>
         <v>0.42937836989701311</v>
       </c>
-      <c r="AF13" s="45">
-        <f t="shared" si="6"/>
+      <c r="AF13" s="44">
+        <f t="shared" si="12"/>
         <v>1.2366839649382932</v>
       </c>
       <c r="AG13" s="33">
-        <f t="shared" ref="AG13:AG14" si="17">J28</f>
+        <f t="shared" ref="AG13:AG14" si="23">J28</f>
         <v>0.82488044957939199</v>
       </c>
       <c r="AH13" s="32">
-        <f t="shared" ref="AH13:AH14" si="18">K28</f>
+        <f t="shared" ref="AH13:AH14" si="24">K28</f>
         <v>0.17511955042060801</v>
       </c>
       <c r="AI13" s="34"/>
       <c r="AJ13" s="33">
-        <f t="shared" ref="AJ13:AJ14" si="19">L28</f>
+        <f t="shared" ref="AJ13:AJ14" si="25">L28</f>
         <v>0.831221111144678</v>
       </c>
       <c r="AK13" s="33">
-        <f t="shared" ref="AK13:AK14" si="20">M28</f>
+        <f t="shared" ref="AK13:AK14" si="26">M28</f>
         <v>8.4000483369082501E-2</v>
       </c>
       <c r="AL13" s="33">
-        <f t="shared" ref="AL13:AL14" si="21">N28</f>
+        <f t="shared" ref="AL13:AL14" si="27">N28</f>
         <v>3.5217969245642099E-2</v>
       </c>
       <c r="AM13" s="33">
-        <f t="shared" ref="AM13:AM14" si="22">O28</f>
+        <f t="shared" ref="AM13:AM14" si="28">O28</f>
         <v>4.9560436240597E-2</v>
       </c>
       <c r="AN13" s="35"/>
       <c r="AO13" s="35">
-        <f t="shared" ref="AO13:AO14" si="23">SUM(AK13:AM13)</f>
+        <f t="shared" ref="AO13:AO14" si="29">SUM(AK13:AM13)</f>
         <v>0.16877888885532161</v>
       </c>
       <c r="AP13" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1457956955241217</v>
       </c>
       <c r="AQ13" s="32" t="s">
         <v>136</v>
       </c>
       <c r="AR13" s="33">
-        <f t="shared" ref="AR13:AR14" si="24">P28</f>
+        <f t="shared" ref="AR13:AR14" si="30">P28</f>
         <v>0.98451645568587232</v>
       </c>
       <c r="AS13" s="33">
@@ -8931,84 +8940,84 @@
         <v>77</v>
       </c>
       <c r="W14" s="30">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="X14" s="31">
+        <f t="shared" si="18"/>
+        <v>325000</v>
+      </c>
+      <c r="Y14" s="31">
+        <f t="shared" si="19"/>
+        <v>132991</v>
+      </c>
+      <c r="Z14" s="32">
+        <f t="shared" ref="Z14" si="31">F29</f>
+        <v>0.409203076923077</v>
+      </c>
+      <c r="AA14" s="31">
+        <f t="shared" si="20"/>
+        <v>184204</v>
+      </c>
+      <c r="AB14" s="31">
+        <f t="shared" si="21"/>
+        <v>143269</v>
+      </c>
+      <c r="AC14" s="31">
+        <f t="shared" si="22"/>
+        <v>40935</v>
+      </c>
+      <c r="AD14" s="44">
         <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="X14" s="31">
+        <v>0.99698529451561746</v>
+      </c>
+      <c r="AE14" s="44">
+        <f t="shared" si="16"/>
+        <v>0.58390152055458877</v>
+      </c>
+      <c r="AF14" s="44">
         <f t="shared" si="12"/>
-        <v>325000</v>
-      </c>
-      <c r="Y14" s="31">
-        <f t="shared" si="13"/>
-        <v>132991</v>
-      </c>
-      <c r="Z14" s="32">
-        <f t="shared" ref="Z14" si="25">F29</f>
-        <v>0.409203076923077</v>
-      </c>
-      <c r="AA14" s="31">
-        <f t="shared" si="14"/>
-        <v>184204</v>
-      </c>
-      <c r="AB14" s="31">
-        <f t="shared" si="15"/>
-        <v>143269</v>
-      </c>
-      <c r="AC14" s="31">
-        <f t="shared" si="16"/>
-        <v>40935</v>
-      </c>
-      <c r="AD14" s="45">
-        <f t="shared" si="5"/>
-        <v>0.99698529451561746</v>
-      </c>
-      <c r="AE14" s="45">
-        <f t="shared" si="10"/>
-        <v>0.58390152055458877</v>
-      </c>
-      <c r="AF14" s="45">
-        <f t="shared" si="6"/>
         <v>1.2495660895730669</v>
       </c>
       <c r="AG14" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.77777355540596305</v>
       </c>
       <c r="AH14" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.22222644459403701</v>
       </c>
       <c r="AI14" s="34"/>
       <c r="AJ14" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.83055244339842504</v>
       </c>
       <c r="AK14" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>8.2907865945815895E-2</v>
       </c>
       <c r="AL14" s="33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.5904685279454999E-2</v>
       </c>
       <c r="AM14" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>5.06350053763037E-2</v>
       </c>
       <c r="AN14" s="35"/>
       <c r="AO14" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.16944755660157459</v>
       </c>
       <c r="AP14" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1503351058176048</v>
       </c>
       <c r="AQ14" s="32" t="s">
         <v>137</v>
       </c>
       <c r="AR14" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1.0110213342732823</v>
       </c>
       <c r="AS14" s="33">
@@ -9016,7 +9025,7 @@
         <v>0.83884892086331098</v>
       </c>
       <c r="AT14" s="33">
-        <f t="shared" ref="AT14" si="26">R29</f>
+        <f t="shared" ref="AT14" si="32">R29</f>
         <v>0.98275862068965403</v>
       </c>
     </row>
@@ -9063,23 +9072,23 @@
         <v>0.37944154881170805</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:O17" si="27">L2/$A$17</f>
+        <f t="shared" ref="L17:O17" si="33">L2/$A$17</f>
         <v>0.85269722210108601</v>
       </c>
       <c r="M17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.9425668309275698E-2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3.0779294404954E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>4.7097815184684498E-2</v>
       </c>
       <c r="P17">
-        <f t="shared" ref="P17:P29" si="28">P2/$P$2</f>
+        <f t="shared" ref="P17:P29" si="34">P2/$P$2</f>
         <v>1</v>
       </c>
       <c r="R17">
@@ -9093,291 +9102,291 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F18">
-        <f t="shared" ref="F18:F29" si="29">F3/$A$17</f>
+        <f t="shared" ref="F18:F29" si="35">F3/$A$17</f>
         <v>0.35326461538461501</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:O27" si="30">J3/$A$17</f>
+        <f t="shared" ref="J18:O27" si="36">J3/$A$17</f>
         <v>0.62178306832459596</v>
       </c>
       <c r="K18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.37821693167540404</v>
       </c>
       <c r="L18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.85886369772931204</v>
       </c>
       <c r="M18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>6.6727055769917498E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.9587757270644797E-2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>4.4821489230126001E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.97039319359969867</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18:R29" si="31">R3/$R$2</f>
+        <f t="shared" ref="R18:R29" si="37">R3/$R$2</f>
         <v>0.99303135888501526</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S23" si="32">S3/$S$2</f>
+        <f t="shared" ref="S18:S23" si="38">S3/$S$2</f>
         <v>0.98313659359190486</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.35379076923076902</v>
       </c>
       <c r="J19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.62195128547705703</v>
       </c>
       <c r="K19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.37804871452294297</v>
       </c>
       <c r="L19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.89010453810161594</v>
       </c>
       <c r="M19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>6.1800977544311297E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.1490320224035103E-2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.6604164130037699E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.57315169384370046</v>
       </c>
       <c r="R19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.68556701030927825</v>
       </c>
       <c r="S19">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.40765538461538497</v>
       </c>
       <c r="J20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.82973980732087294</v>
       </c>
       <c r="K20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.17026019267912701</v>
       </c>
       <c r="L20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.82288207233862709</v>
       </c>
       <c r="M20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8.7728699957732012E-2</v>
       </c>
       <c r="N20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.6501418996437399E-2</v>
       </c>
       <c r="O20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5.2887808707203693E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.0536156962595977</v>
       </c>
       <c r="R20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1.0320334261838444</v>
       </c>
       <c r="S20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.85109489051095</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.408581538461538</v>
       </c>
       <c r="J21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.82940844611689202</v>
       </c>
       <c r="K21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.17059155388310798</v>
       </c>
       <c r="L21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.83195144176098912</v>
       </c>
       <c r="M21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8.2725225734059299E-2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.5507459202192997E-2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>4.9815873302758502E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.0114291514203495</v>
       </c>
       <c r="R21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1.0103397341211215</v>
       </c>
       <c r="S21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.8461538461538497</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.40903076923076903</v>
       </c>
       <c r="J22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.83080052929483694</v>
       </c>
       <c r="K22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.169199470705163</v>
       </c>
       <c r="L22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.87110241847519498</v>
       </c>
       <c r="M22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>7.4329559559183092E-2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.3868808064091498E-2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.0699213901530801E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.61365783467452195</v>
       </c>
       <c r="R22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.68311198402130546</v>
       </c>
       <c r="S22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.35188923076923101</v>
       </c>
       <c r="J23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.62085513886777699</v>
       </c>
       <c r="K23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.176380534624655</v>
       </c>
       <c r="L23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.84878982896715793</v>
       </c>
       <c r="M23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>7.5495785387009906E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.19418698191739E-2</v>
       </c>
       <c r="O23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>4.3772515826658705E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.95121251099824122</v>
       </c>
       <c r="R23">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.9878682842287706</v>
       </c>
       <c r="S23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.98981324278438221</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.40924923076923103</v>
       </c>
       <c r="J24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.83026223776223806</v>
       </c>
       <c r="K24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.16973776223776199</v>
       </c>
       <c r="L24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.95609972482444405</v>
       </c>
       <c r="M24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.6555644106280899E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>9.7364028690435003E-3</v>
       </c>
       <c r="O24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.7608228200231599E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.36980090965727147</v>
       </c>
       <c r="R24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.45600000000000024</v>
       </c>
       <c r="S24">
@@ -9387,39 +9396,39 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.40764</v>
       </c>
       <c r="J25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.82895635075763296</v>
       </c>
       <c r="K25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.17104364924236701</v>
       </c>
       <c r="L25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.82884596514269804</v>
       </c>
       <c r="M25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8.4018326879675087E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.5370575847467195E-2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5.1765132130160103E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.0348030443571121</v>
       </c>
       <c r="R25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.98275862068965403</v>
       </c>
       <c r="S25">
@@ -9433,81 +9442,81 @@
         <v>0.40723692307692305</v>
       </c>
       <c r="J26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.83034158548992598</v>
       </c>
       <c r="K26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.16965841451007399</v>
       </c>
       <c r="L26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.844135336073501</v>
       </c>
       <c r="M26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8.0059235976789211E-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>3.1522001934236002E-2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>4.4283426015473901E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.89195570988466177</v>
       </c>
       <c r="R26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.89443651925820089</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S27" si="33">S11/$S$2</f>
+        <f t="shared" ref="S26:S27" si="39">S11/$S$2</f>
         <v>0.81652661064426124</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.40678461538461497</v>
       </c>
       <c r="J27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.82724366826491202</v>
       </c>
       <c r="K27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.172756331735088</v>
       </c>
       <c r="L27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.86952838394916998</v>
       </c>
       <c r="M27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8.2440149767406712E-2</v>
       </c>
       <c r="N27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.5150334707461898E-2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>2.28811315759616E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.44146319679766616</v>
       </c>
       <c r="R27">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.55726256983240241</v>
       </c>
       <c r="S27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -9525,23 +9534,23 @@
         <v>0.17511955042060801</v>
       </c>
       <c r="L28">
-        <f t="shared" ref="L28:O28" si="34">L13/$A$17</f>
+        <f t="shared" ref="L28:O28" si="40">L13/$A$17</f>
         <v>0.831221111144678</v>
       </c>
       <c r="M28">
+        <f t="shared" si="40"/>
+        <v>8.4000483369082501E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="40"/>
+        <v>3.5217969245642099E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="40"/>
+        <v>4.9560436240597E-2</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="34"/>
-        <v>8.4000483369082501E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="34"/>
-        <v>3.5217969245642099E-2</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="34"/>
-        <v>4.9560436240597E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="28"/>
         <v>0.98451645568587232</v>
       </c>
       <c r="R28">
@@ -9555,49 +9564,3080 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.409203076923077</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:O29" si="35">J14/$A$17</f>
+        <f t="shared" ref="J29:O29" si="41">J14/$A$17</f>
         <v>0.77777355540596305</v>
       </c>
       <c r="K29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.22222644459403701</v>
       </c>
       <c r="L29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.83055244339842504</v>
       </c>
       <c r="M29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>8.2907865945815895E-2</v>
       </c>
       <c r="N29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3.5904685279454999E-2</v>
       </c>
       <c r="O29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>5.06350053763037E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.0110213342732823</v>
       </c>
       <c r="R29">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.98275862068965403</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29" si="36">S14/$S$2</f>
+        <f t="shared" ref="S29" si="42">S14/$S$2</f>
         <v>0.83884892086331098</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S14">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62BFE16-FEA2-4F3C-BB28-BC00FB47DE86}">
+  <dimension ref="A1:AU31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11:AS15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="37" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="43" width="9.140625" customWidth="1"/>
+    <col min="44" max="45" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>162500</v>
+      </c>
+      <c r="E2">
+        <v>57403</v>
+      </c>
+      <c r="F2">
+        <v>35.324923076923099</v>
+      </c>
+      <c r="G2">
+        <v>92574</v>
+      </c>
+      <c r="H2">
+        <v>57403</v>
+      </c>
+      <c r="I2">
+        <v>35171</v>
+      </c>
+      <c r="J2">
+        <v>62.007691144381802</v>
+      </c>
+      <c r="K2">
+        <v>37.992308855618198</v>
+      </c>
+      <c r="L2">
+        <v>74.642440290577198</v>
+      </c>
+      <c r="M2">
+        <v>11.887880424368101</v>
+      </c>
+      <c r="N2">
+        <v>5.5380380816333599</v>
+      </c>
+      <c r="O2">
+        <v>7.9316412034214201</v>
+      </c>
+      <c r="P2" s="25">
+        <v>1.4770391723296801</v>
+      </c>
+      <c r="Q2" s="56">
+        <v>1.44E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.6501766784452299</v>
+      </c>
+      <c r="S2">
+        <v>0.50590219224283295</v>
+      </c>
+      <c r="U2" s="30">
+        <v>1</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" ref="W2:Y15" si="0">C2</f>
+        <v>100</v>
+      </c>
+      <c r="X2" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y2" s="31">
+        <f t="shared" si="0"/>
+        <v>57403</v>
+      </c>
+      <c r="Z2" s="32">
+        <f>F18</f>
+        <v>0.35324923076923098</v>
+      </c>
+      <c r="AA2" s="31">
+        <f t="shared" ref="AA2:AC15" si="1">G2</f>
+        <v>92574</v>
+      </c>
+      <c r="AB2" s="31">
+        <f t="shared" si="1"/>
+        <v>57403</v>
+      </c>
+      <c r="AC2" s="31">
+        <f>I2</f>
+        <v>35171</v>
+      </c>
+      <c r="AD2" s="44">
+        <f>AA2/$AA$2</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="44">
+        <f>AA2/$AA$2</f>
+        <v>1</v>
+      </c>
+      <c r="AF2" s="44">
+        <f>AC2/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="44">
+        <f>AB2/$AB$2</f>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="33">
+        <f>J18</f>
+        <v>0.62007691144381805</v>
+      </c>
+      <c r="AI2" s="32">
+        <f>K18</f>
+        <v>0.37992308855618195</v>
+      </c>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="33">
+        <f>L18</f>
+        <v>0.74642440290577194</v>
+      </c>
+      <c r="AL2" s="33">
+        <f>M18</f>
+        <v>0.11887880424368101</v>
+      </c>
+      <c r="AM2" s="33">
+        <f>N18</f>
+        <v>5.5380380816333598E-2</v>
+      </c>
+      <c r="AN2" s="33">
+        <f>O18</f>
+        <v>7.9316412034214204E-2</v>
+      </c>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35">
+        <f t="shared" ref="AP2:AP15" si="2">SUM(AL2:AN2)</f>
+        <v>0.25357559709422883</v>
+      </c>
+      <c r="AQ2" s="35">
+        <f>AP2/$AP$2</f>
+        <v>1</v>
+      </c>
+      <c r="AR2" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS2" s="33">
+        <f>P18</f>
+        <v>1</v>
+      </c>
+      <c r="AT2" s="33">
+        <f>S18</f>
+        <v>1</v>
+      </c>
+      <c r="AU2" s="33">
+        <f>R18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>162500</v>
+      </c>
+      <c r="E3">
+        <v>56980</v>
+      </c>
+      <c r="F3">
+        <v>35.064615384615401</v>
+      </c>
+      <c r="G3">
+        <v>92304</v>
+      </c>
+      <c r="H3">
+        <v>56980</v>
+      </c>
+      <c r="I3">
+        <v>35324</v>
+      </c>
+      <c r="J3">
+        <v>61.730802565436001</v>
+      </c>
+      <c r="K3">
+        <v>38.269197434563999</v>
+      </c>
+      <c r="L3">
+        <v>75.093015093015097</v>
+      </c>
+      <c r="M3">
+        <v>11.7795717795718</v>
+      </c>
+      <c r="N3">
+        <v>5.3738153738153702</v>
+      </c>
+      <c r="O3">
+        <v>7.7535977535977496</v>
+      </c>
+      <c r="P3" s="25">
+        <v>1.42733783237738</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>1.38648180242634E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.6595744680851099</v>
+      </c>
+      <c r="S3">
+        <v>0.50761421319796995</v>
+      </c>
+      <c r="U3" s="30">
+        <v>2</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X3" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y3" s="31">
+        <f t="shared" si="0"/>
+        <v>56980</v>
+      </c>
+      <c r="Z3" s="32">
+        <f>F19</f>
+        <v>0.350646153846154</v>
+      </c>
+      <c r="AA3" s="31">
+        <f t="shared" si="1"/>
+        <v>92304</v>
+      </c>
+      <c r="AB3" s="31">
+        <f t="shared" si="1"/>
+        <v>56980</v>
+      </c>
+      <c r="AC3" s="31">
+        <f t="shared" si="1"/>
+        <v>35324</v>
+      </c>
+      <c r="AD3" s="44">
+        <f t="shared" ref="AD3:AD15" si="3">AA3/$AA$2</f>
+        <v>0.99708341434960135</v>
+      </c>
+      <c r="AE3" s="44">
+        <f t="shared" ref="AE3:AE14" si="4">AA3/$AA$2</f>
+        <v>0.99708341434960135</v>
+      </c>
+      <c r="AF3" s="44">
+        <f>AC3/$AC$2</f>
+        <v>1.0043501748599699</v>
+      </c>
+      <c r="AG3" s="44">
+        <f t="shared" ref="AG3:AG15" si="5">AB3/$AB$2</f>
+        <v>0.99263104715781403</v>
+      </c>
+      <c r="AH3" s="33">
+        <f>J19</f>
+        <v>0.61730802565436005</v>
+      </c>
+      <c r="AI3" s="32">
+        <f>K19</f>
+        <v>0.38269197434564001</v>
+      </c>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="33">
+        <f>L19</f>
+        <v>0.75093015093015092</v>
+      </c>
+      <c r="AL3" s="33">
+        <f>M19</f>
+        <v>0.117795717795718</v>
+      </c>
+      <c r="AM3" s="33">
+        <f>N19</f>
+        <v>5.3738153738153702E-2</v>
+      </c>
+      <c r="AN3" s="33">
+        <f>O19</f>
+        <v>7.7535977535977491E-2</v>
+      </c>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35">
+        <f t="shared" si="2"/>
+        <v>0.24906984906984919</v>
+      </c>
+      <c r="AQ3" s="35">
+        <f>AP3/$AP$2</f>
+        <v>0.98223114496815989</v>
+      </c>
+      <c r="AR3" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS3" s="33">
+        <f>P19</f>
+        <v>0.96635069612005753</v>
+      </c>
+      <c r="AT3" s="33">
+        <f>S19</f>
+        <v>1.0033840947546542</v>
+      </c>
+      <c r="AU3" s="33">
+        <f>R19</f>
+        <v>1.0035460992907814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>162500</v>
+      </c>
+      <c r="E4">
+        <v>57395</v>
+      </c>
+      <c r="F4">
+        <v>35.32</v>
+      </c>
+      <c r="G4">
+        <v>92349</v>
+      </c>
+      <c r="H4">
+        <v>57395</v>
+      </c>
+      <c r="I4">
+        <v>34954</v>
+      </c>
+      <c r="J4">
+        <v>62.1501044949052</v>
+      </c>
+      <c r="K4">
+        <v>37.8498955050948</v>
+      </c>
+      <c r="L4">
+        <v>80.043557801202198</v>
+      </c>
+      <c r="M4">
+        <v>11.011412143915001</v>
+      </c>
+      <c r="N4">
+        <v>3.9376252286784599</v>
+      </c>
+      <c r="O4">
+        <v>5.00740482620437</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0.91477051460260494</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>8.7412587412587402E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.84563758389262</v>
+      </c>
+      <c r="S4">
+        <v>0.173010380622837</v>
+      </c>
+      <c r="U4" s="30">
+        <v>3</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X4" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y4" s="31">
+        <f t="shared" si="0"/>
+        <v>57395</v>
+      </c>
+      <c r="Z4" s="32">
+        <f>F20</f>
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="AA4" s="31">
+        <f t="shared" si="1"/>
+        <v>92349</v>
+      </c>
+      <c r="AB4" s="31">
+        <f t="shared" si="1"/>
+        <v>57395</v>
+      </c>
+      <c r="AC4" s="31">
+        <f t="shared" si="1"/>
+        <v>34954</v>
+      </c>
+      <c r="AD4" s="44">
+        <f t="shared" si="3"/>
+        <v>0.99756951195800114</v>
+      </c>
+      <c r="AE4" s="44">
+        <f t="shared" si="4"/>
+        <v>0.99756951195800114</v>
+      </c>
+      <c r="AF4" s="44">
+        <f>AC4/$AC$2</f>
+        <v>0.9938301441528532</v>
+      </c>
+      <c r="AG4" s="44">
+        <f t="shared" si="5"/>
+        <v>0.99986063446161355</v>
+      </c>
+      <c r="AH4" s="33">
+        <f>J20</f>
+        <v>0.62150104494905201</v>
+      </c>
+      <c r="AI4" s="32">
+        <f>K20</f>
+        <v>0.37849895505094799</v>
+      </c>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="33">
+        <f>L20</f>
+        <v>0.80043557801202203</v>
+      </c>
+      <c r="AL4" s="33">
+        <f>M20</f>
+        <v>0.11011412143915</v>
+      </c>
+      <c r="AM4" s="33">
+        <f>N20</f>
+        <v>3.9376252286784597E-2</v>
+      </c>
+      <c r="AN4" s="33">
+        <f>O20</f>
+        <v>5.0074048262043702E-2</v>
+      </c>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35">
+        <f t="shared" si="2"/>
+        <v>0.1995644219879783</v>
+      </c>
+      <c r="AQ4" s="35">
+        <f t="shared" ref="AQ4:AQ15" si="6">AP4/$AP$2</f>
+        <v>0.78700168421104044</v>
+      </c>
+      <c r="AR4" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS4" s="33">
+        <f>P20</f>
+        <v>0.61932718626532479</v>
+      </c>
+      <c r="AT4" s="33">
+        <f>S20</f>
+        <v>0.34198385236447454</v>
+      </c>
+      <c r="AU4" s="33">
+        <f>R20</f>
+        <v>0.69642058165548193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>162500</v>
+      </c>
+      <c r="E5">
+        <v>65518</v>
+      </c>
+      <c r="F5">
+        <v>40.318769230769199</v>
+      </c>
+      <c r="G5">
+        <v>85803</v>
+      </c>
+      <c r="H5">
+        <v>69753</v>
+      </c>
+      <c r="I5">
+        <v>16050</v>
+      </c>
+      <c r="J5">
+        <v>81.294360337051202</v>
+      </c>
+      <c r="K5">
+        <v>18.705639662948801</v>
+      </c>
+      <c r="L5">
+        <v>70.092188406239501</v>
+      </c>
+      <c r="M5">
+        <v>14.5425684544705</v>
+      </c>
+      <c r="N5">
+        <v>6.3127690100430396</v>
+      </c>
+      <c r="O5">
+        <v>9.0524741292469209</v>
+      </c>
+      <c r="P5" s="25">
+        <v>1.55864278841754</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>1.53203342618384E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.6481164830574802</v>
+      </c>
+      <c r="S5">
+        <v>0.68399452804377603</v>
+      </c>
+      <c r="U5" s="30">
+        <v>4</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X5" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y5" s="31">
+        <f t="shared" si="0"/>
+        <v>65518</v>
+      </c>
+      <c r="Z5" s="32">
+        <f>F21</f>
+        <v>0.40318769230769197</v>
+      </c>
+      <c r="AA5" s="31">
+        <f t="shared" si="1"/>
+        <v>85803</v>
+      </c>
+      <c r="AB5" s="31">
+        <f t="shared" si="1"/>
+        <v>69753</v>
+      </c>
+      <c r="AC5" s="31">
+        <f t="shared" si="1"/>
+        <v>16050</v>
+      </c>
+      <c r="AD5" s="44">
+        <f t="shared" si="3"/>
+        <v>0.92685851318944845</v>
+      </c>
+      <c r="AE5" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92685851318944845</v>
+      </c>
+      <c r="AF5" s="44">
+        <f>AC5/$AC$2</f>
+        <v>0.45634187256546588</v>
+      </c>
+      <c r="AG5" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2151455498841524</v>
+      </c>
+      <c r="AH5" s="33">
+        <f>J21</f>
+        <v>0.81294360337051197</v>
+      </c>
+      <c r="AI5" s="32">
+        <f>K21</f>
+        <v>0.187056396629488</v>
+      </c>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="33">
+        <f>L21</f>
+        <v>0.70092188406239497</v>
+      </c>
+      <c r="AL5" s="33">
+        <f>M21</f>
+        <v>0.145425684544705</v>
+      </c>
+      <c r="AM5" s="33">
+        <f>N21</f>
+        <v>6.31276901004304E-2</v>
+      </c>
+      <c r="AN5" s="33">
+        <f>O21</f>
+        <v>9.0524741292469207E-2</v>
+      </c>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35">
+        <f t="shared" si="2"/>
+        <v>0.29907811593760458</v>
+      </c>
+      <c r="AQ5" s="35">
+        <f t="shared" si="6"/>
+        <v>1.1794436032678137</v>
+      </c>
+      <c r="AR5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS5" s="33">
+        <f>P21</f>
+        <v>1.0552481055456027</v>
+      </c>
+      <c r="AT5" s="33">
+        <f>S21</f>
+        <v>1.3520291837665308</v>
+      </c>
+      <c r="AU5" s="33">
+        <f>R21</f>
+        <v>0.99922261960702241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>162500</v>
+      </c>
+      <c r="E6">
+        <v>65436</v>
+      </c>
+      <c r="F6">
+        <v>40.268307692307701</v>
+      </c>
+      <c r="G6">
+        <v>85872</v>
+      </c>
+      <c r="H6">
+        <v>69771</v>
+      </c>
+      <c r="I6">
+        <v>16101</v>
+      </c>
+      <c r="J6">
+        <v>81.25</v>
+      </c>
+      <c r="K6">
+        <v>18.75</v>
+      </c>
+      <c r="L6">
+        <v>71.2956170915093</v>
+      </c>
+      <c r="M6">
+        <v>14.0870468855064</v>
+      </c>
+      <c r="N6">
+        <v>5.9569655846934397</v>
+      </c>
+      <c r="O6">
+        <v>8.6603704382908493</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1.48892043546339</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>1.4513788098693799E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.5825891752832302</v>
+      </c>
+      <c r="S6">
+        <v>0.57803468208092501</v>
+      </c>
+      <c r="U6" s="30">
+        <v>5</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X6" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y6" s="31">
+        <f t="shared" si="0"/>
+        <v>65436</v>
+      </c>
+      <c r="Z6" s="32">
+        <f>F22</f>
+        <v>0.40268307692307703</v>
+      </c>
+      <c r="AA6" s="31">
+        <f t="shared" si="1"/>
+        <v>85872</v>
+      </c>
+      <c r="AB6" s="31">
+        <f t="shared" si="1"/>
+        <v>69771</v>
+      </c>
+      <c r="AC6" s="31">
+        <f t="shared" si="1"/>
+        <v>16101</v>
+      </c>
+      <c r="AD6" s="44">
+        <f t="shared" si="3"/>
+        <v>0.92760386285566143</v>
+      </c>
+      <c r="AE6" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92760386285566143</v>
+      </c>
+      <c r="AF6" s="44">
+        <f t="shared" ref="AF6:AF15" si="7">AC6/$AC$2</f>
+        <v>0.4577919308521225</v>
+      </c>
+      <c r="AG6" s="44">
+        <f t="shared" si="5"/>
+        <v>1.215459122345522</v>
+      </c>
+      <c r="AH6" s="33">
+        <f>J22</f>
+        <v>0.8125</v>
+      </c>
+      <c r="AI6" s="32">
+        <f>K22</f>
+        <v>0.1875</v>
+      </c>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="33">
+        <f>L22</f>
+        <v>0.712956170915093</v>
+      </c>
+      <c r="AL6" s="33">
+        <f>M22</f>
+        <v>0.14087046885506399</v>
+      </c>
+      <c r="AM6" s="33">
+        <f>N22</f>
+        <v>5.9569655846934397E-2</v>
+      </c>
+      <c r="AN6" s="33">
+        <f>O22</f>
+        <v>8.6603704382908486E-2</v>
+      </c>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35">
+        <f t="shared" si="2"/>
+        <v>0.28704382908490689</v>
+      </c>
+      <c r="AQ6" s="35">
+        <f t="shared" si="6"/>
+        <v>1.1319852240286403</v>
+      </c>
+      <c r="AR6" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS6" s="33">
+        <f>P22</f>
+        <v>1.0080439729401152</v>
+      </c>
+      <c r="AT6" s="33">
+        <f>S22</f>
+        <v>1.1425818882466288</v>
+      </c>
+      <c r="AU6" s="33">
+        <f>R22</f>
+        <v>0.97449698214020541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>162500</v>
+      </c>
+      <c r="E7">
+        <v>65468</v>
+      </c>
+      <c r="F7">
+        <v>40.287999999999997</v>
+      </c>
+      <c r="G7">
+        <v>85764</v>
+      </c>
+      <c r="H7">
+        <v>69717</v>
+      </c>
+      <c r="I7">
+        <v>16047</v>
+      </c>
+      <c r="J7">
+        <v>81.289352175738102</v>
+      </c>
+      <c r="K7">
+        <v>18.710647824261901</v>
+      </c>
+      <c r="L7">
+        <v>78.047290279220405</v>
+      </c>
+      <c r="M7">
+        <v>12.6244882996273</v>
+      </c>
+      <c r="N7">
+        <v>4.2631514633103196</v>
+      </c>
+      <c r="O7">
+        <v>5.0650699578419998</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0.87448030735345195</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.7266809031161201</v>
+      </c>
+      <c r="S7">
+        <v>0.27359781121750998</v>
+      </c>
+      <c r="U7" s="30">
+        <v>6</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X7" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y7" s="31">
+        <f t="shared" si="0"/>
+        <v>65468</v>
+      </c>
+      <c r="Z7" s="32">
+        <f>F23</f>
+        <v>0.40287999999999996</v>
+      </c>
+      <c r="AA7" s="31">
+        <f t="shared" si="1"/>
+        <v>85764</v>
+      </c>
+      <c r="AB7" s="31">
+        <f t="shared" si="1"/>
+        <v>69717</v>
+      </c>
+      <c r="AC7" s="31">
+        <f t="shared" si="1"/>
+        <v>16047</v>
+      </c>
+      <c r="AD7" s="44">
+        <f t="shared" si="3"/>
+        <v>0.92643722859550193</v>
+      </c>
+      <c r="AE7" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92643722859550193</v>
+      </c>
+      <c r="AF7" s="44">
+        <f t="shared" si="7"/>
+        <v>0.45625657501919192</v>
+      </c>
+      <c r="AG7" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2145184049614131</v>
+      </c>
+      <c r="AH7" s="33">
+        <f>J23</f>
+        <v>0.81289352175738105</v>
+      </c>
+      <c r="AI7" s="32">
+        <f>K23</f>
+        <v>0.187106478242619</v>
+      </c>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="33">
+        <f>L23</f>
+        <v>0.78047290279220405</v>
+      </c>
+      <c r="AL7" s="33">
+        <f>M23</f>
+        <v>0.12624488299627301</v>
+      </c>
+      <c r="AM7" s="33">
+        <f>N23</f>
+        <v>4.2631514633103197E-2</v>
+      </c>
+      <c r="AN7" s="33">
+        <f>O23</f>
+        <v>5.065069957842E-2</v>
+      </c>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35">
+        <f>SUM(AL7:AN7)</f>
+        <v>0.2195270972077962</v>
+      </c>
+      <c r="AQ7" s="35">
+        <f t="shared" si="6"/>
+        <v>0.86572643315602571</v>
+      </c>
+      <c r="AR7" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS7" s="33">
+        <f>P23</f>
+        <v>0.59204950263720224</v>
+      </c>
+      <c r="AT7" s="33">
+        <f>S23</f>
+        <v>0.54081167350661152</v>
+      </c>
+      <c r="AU7" s="33">
+        <f>R23</f>
+        <v>0.65153426077581589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>162500</v>
+      </c>
+      <c r="E8">
+        <v>65059</v>
+      </c>
+      <c r="F8">
+        <v>40.036307692307702</v>
+      </c>
+      <c r="G8">
+        <v>85534</v>
+      </c>
+      <c r="H8">
+        <v>69311</v>
+      </c>
+      <c r="I8">
+        <v>16223</v>
+      </c>
+      <c r="J8">
+        <v>81.033273318212593</v>
+      </c>
+      <c r="K8">
+        <v>18.966726681787399</v>
+      </c>
+      <c r="L8">
+        <v>78.945265067092905</v>
+      </c>
+      <c r="M8">
+        <v>13.2894757066663</v>
+      </c>
+      <c r="N8">
+        <v>4.1316343626554399</v>
+      </c>
+      <c r="O8">
+        <v>3.6336248635853599</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0.614996389209715</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>4.3795620437956199E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.84397163120567</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30">
+        <v>8</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="30">
+        <f t="shared" ref="W8" si="8">C8</f>
+        <v>100</v>
+      </c>
+      <c r="X8" s="31">
+        <f t="shared" ref="X8" si="9">D8</f>
+        <v>162500</v>
+      </c>
+      <c r="Y8" s="31">
+        <f t="shared" ref="Y8" si="10">E8</f>
+        <v>65059</v>
+      </c>
+      <c r="Z8" s="32">
+        <f>F24</f>
+        <v>0.40036307692307704</v>
+      </c>
+      <c r="AA8" s="31">
+        <f>G8</f>
+        <v>85534</v>
+      </c>
+      <c r="AB8" s="31">
+        <f t="shared" ref="AB8" si="11">H8</f>
+        <v>69311</v>
+      </c>
+      <c r="AC8" s="31">
+        <f>I8</f>
+        <v>16223</v>
+      </c>
+      <c r="AD8" s="44">
+        <f t="shared" ref="AD8" si="12">AA8/$AA$2</f>
+        <v>0.92395272970812536</v>
+      </c>
+      <c r="AE8" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92395272970812536</v>
+      </c>
+      <c r="AF8" s="44">
+        <f t="shared" ref="AF8" si="13">AC8/$AC$2</f>
+        <v>0.46126069773392853</v>
+      </c>
+      <c r="AG8" s="44">
+        <f>AB8/$AB$2</f>
+        <v>1.2074456038882986</v>
+      </c>
+      <c r="AH8" s="33">
+        <f>J24</f>
+        <v>0.81033273318212595</v>
+      </c>
+      <c r="AI8" s="32">
+        <f>K24</f>
+        <v>0.18966726681787399</v>
+      </c>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="33">
+        <f>L24</f>
+        <v>0.78945265067092907</v>
+      </c>
+      <c r="AL8" s="33">
+        <f>M24</f>
+        <v>0.13289475706666301</v>
+      </c>
+      <c r="AM8" s="33">
+        <f>N24</f>
+        <v>4.1316343626554397E-2</v>
+      </c>
+      <c r="AN8" s="33">
+        <f>O24</f>
+        <v>3.63362486358536E-2</v>
+      </c>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35">
+        <f>SUM(AL8:AN8)</f>
+        <v>0.21054734932907102</v>
+      </c>
+      <c r="AQ8" s="35">
+        <f t="shared" ref="AQ8" si="14">AP8/$AP$2</f>
+        <v>0.83031392508495805</v>
+      </c>
+      <c r="AR8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS8" s="33">
+        <f>P24</f>
+        <v>0.41637107581900051</v>
+      </c>
+      <c r="AT8" s="33">
+        <f>S25</f>
+        <v>1.0295138888888886</v>
+      </c>
+      <c r="AU8" s="33">
+        <f>R25</f>
+        <v>1.0182415272415277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>162500</v>
+      </c>
+      <c r="E9">
+        <v>57301</v>
+      </c>
+      <c r="F9">
+        <v>35.2621538461539</v>
+      </c>
+      <c r="G9">
+        <v>92066</v>
+      </c>
+      <c r="H9">
+        <v>57301</v>
+      </c>
+      <c r="I9">
+        <v>16175</v>
+      </c>
+      <c r="J9">
+        <v>62.239045901852997</v>
+      </c>
+      <c r="K9">
+        <v>17.568917950166199</v>
+      </c>
+      <c r="L9">
+        <v>72.632240275038797</v>
+      </c>
+      <c r="M9">
+        <v>13.7013315648942</v>
+      </c>
+      <c r="N9">
+        <v>5.5426606865499704</v>
+      </c>
+      <c r="O9">
+        <v>8.1237674735170398</v>
+      </c>
+      <c r="P9" s="25">
+        <v>1.4938123054480601</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>1.4414414414414401E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.6985199485199498</v>
+      </c>
+      <c r="S9">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="U9" s="30">
+        <v>9</v>
+      </c>
+      <c r="V9" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="48">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X9" s="49">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y9" s="49">
+        <f t="shared" si="0"/>
+        <v>57301</v>
+      </c>
+      <c r="Z9" s="50">
+        <f t="shared" ref="Z9:Z13" si="15">F25</f>
+        <v>0.35262153846153899</v>
+      </c>
+      <c r="AA9" s="49">
+        <f t="shared" si="1"/>
+        <v>92066</v>
+      </c>
+      <c r="AB9" s="49">
+        <f t="shared" si="1"/>
+        <v>57301</v>
+      </c>
+      <c r="AC9" s="49">
+        <f t="shared" si="1"/>
+        <v>16175</v>
+      </c>
+      <c r="AD9" s="51">
+        <f>AA9/$AA$2</f>
+        <v>0.99451249810962039</v>
+      </c>
+      <c r="AE9" s="44">
+        <f t="shared" si="4"/>
+        <v>0.99451249810962039</v>
+      </c>
+      <c r="AF9" s="51">
+        <f t="shared" si="7"/>
+        <v>0.45989593699354581</v>
+      </c>
+      <c r="AG9" s="51">
+        <f t="shared" si="5"/>
+        <v>0.99822308938557214</v>
+      </c>
+      <c r="AH9" s="52">
+        <f>J25</f>
+        <v>0.62239045901852996</v>
+      </c>
+      <c r="AI9" s="50">
+        <f>K25</f>
+        <v>0.17568917950166199</v>
+      </c>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="52">
+        <f>L25</f>
+        <v>0.72632240275038795</v>
+      </c>
+      <c r="AL9" s="52">
+        <f>M25</f>
+        <v>0.13701331564894201</v>
+      </c>
+      <c r="AM9" s="52">
+        <f>N25</f>
+        <v>5.5426606865499703E-2</v>
+      </c>
+      <c r="AN9" s="52">
+        <f>O25</f>
+        <v>8.1237674735170393E-2</v>
+      </c>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54">
+        <f>SUM(AL9:AN9)</f>
+        <v>0.2736775972496121</v>
+      </c>
+      <c r="AQ9" s="54">
+        <f t="shared" si="6"/>
+        <v>1.0792741903627001</v>
+      </c>
+      <c r="AR9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS9" s="52">
+        <f>P25</f>
+        <v>1.0113559162360768</v>
+      </c>
+      <c r="AT9" s="52">
+        <f>S24</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="52">
+        <f>R24</f>
+        <v>0.69579196217493944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>162500</v>
+      </c>
+      <c r="E10">
+        <v>65401</v>
+      </c>
+      <c r="F10">
+        <v>40.246769230769203</v>
+      </c>
+      <c r="G10">
+        <v>85826</v>
+      </c>
+      <c r="H10">
+        <v>69718</v>
+      </c>
+      <c r="I10">
+        <v>16108</v>
+      </c>
+      <c r="J10">
+        <v>81.231794561088705</v>
+      </c>
+      <c r="K10">
+        <v>18.768205438911298</v>
+      </c>
+      <c r="L10">
+        <v>92.394611703185006</v>
+      </c>
+      <c r="M10">
+        <v>2.8546964113698601</v>
+      </c>
+      <c r="N10">
+        <v>1.58254460940964</v>
+      </c>
+      <c r="O10">
+        <v>3.1681472760355298</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0.57275232138252496</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>5.6899004267425297E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.1713030746705699</v>
+      </c>
+      <c r="S10">
+        <v>0.13869625520111001</v>
+      </c>
+      <c r="U10" s="30">
+        <v>10</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="W10" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X10" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y10" s="31">
+        <f t="shared" si="0"/>
+        <v>65401</v>
+      </c>
+      <c r="Z10" s="32">
+        <f t="shared" si="15"/>
+        <v>0.40246769230769203</v>
+      </c>
+      <c r="AA10" s="31">
+        <f t="shared" si="1"/>
+        <v>85826</v>
+      </c>
+      <c r="AB10" s="31">
+        <f t="shared" si="1"/>
+        <v>69718</v>
+      </c>
+      <c r="AC10" s="31">
+        <f t="shared" si="1"/>
+        <v>16108</v>
+      </c>
+      <c r="AD10" s="44">
+        <f t="shared" si="3"/>
+        <v>0.92710696307818607</v>
+      </c>
+      <c r="AE10" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92710696307818607</v>
+      </c>
+      <c r="AF10" s="44">
+        <f t="shared" si="7"/>
+        <v>0.45799095846009497</v>
+      </c>
+      <c r="AG10" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2145358256537115</v>
+      </c>
+      <c r="AH10" s="33">
+        <f>J26</f>
+        <v>0.8123179456108871</v>
+      </c>
+      <c r="AI10" s="32">
+        <f>K26</f>
+        <v>0.18768205438911298</v>
+      </c>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="33">
+        <f>L26</f>
+        <v>0.92394611703185003</v>
+      </c>
+      <c r="AL10" s="33">
+        <f>M26</f>
+        <v>2.85469641136986E-2</v>
+      </c>
+      <c r="AM10" s="33">
+        <f>N26</f>
+        <v>1.5825446094096401E-2</v>
+      </c>
+      <c r="AN10" s="33">
+        <f>O26</f>
+        <v>3.1681472760355295E-2</v>
+      </c>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35">
+        <f t="shared" si="2"/>
+        <v>7.6053882968150299E-2</v>
+      </c>
+      <c r="AQ10" s="35">
+        <f t="shared" si="6"/>
+        <v>0.29992587551667532</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS10" s="33">
+        <f>P26</f>
+        <v>0.38777056973996404</v>
+      </c>
+      <c r="AT10" s="33">
+        <f>S26</f>
+        <v>0.2741562644475275</v>
+      </c>
+      <c r="AU10" s="33">
+        <f>R26</f>
+        <v>0.44197169350902837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>162500</v>
+      </c>
+      <c r="E11">
+        <v>65450</v>
+      </c>
+      <c r="F11">
+        <v>40.276923076923097</v>
+      </c>
+      <c r="G11">
+        <v>85925</v>
+      </c>
+      <c r="H11">
+        <v>69787</v>
+      </c>
+      <c r="I11">
+        <v>16138</v>
+      </c>
+      <c r="J11">
+        <v>81.218504509746893</v>
+      </c>
+      <c r="K11">
+        <v>18.7814954902531</v>
+      </c>
+      <c r="L11">
+        <v>71.107715813598205</v>
+      </c>
+      <c r="M11">
+        <v>13.9831932773109</v>
+      </c>
+      <c r="N11">
+        <v>6.0137509549274304</v>
+      </c>
+      <c r="O11">
+        <v>8.8953399541634806</v>
+      </c>
+      <c r="P11" s="25">
+        <v>1.5291412280279599</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>1.49253731343284E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.62008733624454</v>
+      </c>
+      <c r="S11">
+        <v>0.583920325168649</v>
+      </c>
+      <c r="U11" s="30">
+        <v>11</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="W11" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X11" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y11" s="31">
+        <f t="shared" si="0"/>
+        <v>65450</v>
+      </c>
+      <c r="Z11" s="32">
+        <f t="shared" si="15"/>
+        <v>0.40276923076923099</v>
+      </c>
+      <c r="AA11" s="31">
+        <f t="shared" si="1"/>
+        <v>85925</v>
+      </c>
+      <c r="AB11" s="31">
+        <f t="shared" si="1"/>
+        <v>69787</v>
+      </c>
+      <c r="AC11" s="31">
+        <f t="shared" si="1"/>
+        <v>16138</v>
+      </c>
+      <c r="AD11" s="44">
+        <f t="shared" si="3"/>
+        <v>0.92817637781666562</v>
+      </c>
+      <c r="AE11" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92817637781666562</v>
+      </c>
+      <c r="AF11" s="44">
+        <f t="shared" si="7"/>
+        <v>0.45884393392283418</v>
+      </c>
+      <c r="AG11" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2157378534222949</v>
+      </c>
+      <c r="AH11" s="33">
+        <f>J27</f>
+        <v>0.81218504509746892</v>
+      </c>
+      <c r="AI11" s="32">
+        <f>K27</f>
+        <v>0.187814954902531</v>
+      </c>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="33">
+        <f>L27</f>
+        <v>0.71107715813598205</v>
+      </c>
+      <c r="AL11" s="33">
+        <f>M27</f>
+        <v>0.13983193277310899</v>
+      </c>
+      <c r="AM11" s="33">
+        <f>N27</f>
+        <v>6.0137509549274305E-2</v>
+      </c>
+      <c r="AN11" s="33">
+        <f>O27</f>
+        <v>8.8953399541634809E-2</v>
+      </c>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="35">
+        <f t="shared" si="2"/>
+        <v>0.28892284186401807</v>
+      </c>
+      <c r="AQ11" s="35">
+        <f t="shared" si="6"/>
+        <v>1.1393952934542599</v>
+      </c>
+      <c r="AR11" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS11" s="33">
+        <f>P27</f>
+        <v>1.0352746607363847</v>
+      </c>
+      <c r="AT11" s="33">
+        <f>S27</f>
+        <v>1.1542158427500298</v>
+      </c>
+      <c r="AU11" s="33">
+        <f>R27</f>
+        <v>0.98864628820960643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>162500</v>
+      </c>
+      <c r="E12">
+        <v>64975</v>
+      </c>
+      <c r="F12">
+        <v>39.984615384615402</v>
+      </c>
+      <c r="G12">
+        <v>85462</v>
+      </c>
+      <c r="H12">
+        <v>69134</v>
+      </c>
+      <c r="I12">
+        <v>16328</v>
+      </c>
+      <c r="J12">
+        <v>80.894432613325193</v>
+      </c>
+      <c r="K12">
+        <v>19.105567386674799</v>
+      </c>
+      <c r="L12">
+        <v>72.253943824547903</v>
+      </c>
+      <c r="M12">
+        <v>13.7668333974606</v>
+      </c>
+      <c r="N12">
+        <v>5.9068872643324397</v>
+      </c>
+      <c r="O12">
+        <v>8.0723355136591</v>
+      </c>
+      <c r="P12" s="25">
+        <v>1.3901981667223899</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>1.3313609467455601E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.5174825174825202</v>
+      </c>
+      <c r="S12">
+        <v>0.54081828295001699</v>
+      </c>
+      <c r="U12" s="30">
+        <v>12</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X12" s="39">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y12" s="39">
+        <f t="shared" si="0"/>
+        <v>64975</v>
+      </c>
+      <c r="Z12" s="40">
+        <f t="shared" si="15"/>
+        <v>0.39984615384615402</v>
+      </c>
+      <c r="AA12" s="39">
+        <f t="shared" si="1"/>
+        <v>85462</v>
+      </c>
+      <c r="AB12" s="39">
+        <f t="shared" si="1"/>
+        <v>69134</v>
+      </c>
+      <c r="AC12" s="39">
+        <f t="shared" si="1"/>
+        <v>16328</v>
+      </c>
+      <c r="AD12" s="44">
+        <f t="shared" si="3"/>
+        <v>0.92317497353468581</v>
+      </c>
+      <c r="AE12" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92317497353468581</v>
+      </c>
+      <c r="AF12" s="44">
+        <f t="shared" si="7"/>
+        <v>0.46424611185351566</v>
+      </c>
+      <c r="AG12" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2043621413514973</v>
+      </c>
+      <c r="AH12" s="41">
+        <f>J28</f>
+        <v>0.80894432613325196</v>
+      </c>
+      <c r="AI12" s="40">
+        <f>K28</f>
+        <v>0.19105567386674799</v>
+      </c>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="41">
+        <f>L28</f>
+        <v>0.72253943824547906</v>
+      </c>
+      <c r="AL12" s="41">
+        <f>M28</f>
+        <v>0.13766833397460598</v>
+      </c>
+      <c r="AM12" s="41">
+        <f>N28</f>
+        <v>5.9068872643324395E-2</v>
+      </c>
+      <c r="AN12" s="41">
+        <f>O28</f>
+        <v>8.0723355136590999E-2</v>
+      </c>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="43">
+        <f t="shared" si="2"/>
+        <v>0.27746056175452138</v>
+      </c>
+      <c r="AQ12" s="35">
+        <f t="shared" si="6"/>
+        <v>1.0941926783728202</v>
+      </c>
+      <c r="AR12" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS12" s="41">
+        <f>P28</f>
+        <v>0.94120602402824638</v>
+      </c>
+      <c r="AT12" s="41">
+        <f>S28</f>
+        <v>1.0690174726312005</v>
+      </c>
+      <c r="AU12" s="41">
+        <f>R28</f>
+        <v>0.9499300699300709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>162500</v>
+      </c>
+      <c r="E13">
+        <v>65647</v>
+      </c>
+      <c r="F13">
+        <v>40.398153846153797</v>
+      </c>
+      <c r="G13">
+        <v>86143</v>
+      </c>
+      <c r="H13">
+        <v>69971</v>
+      </c>
+      <c r="I13">
+        <v>16172</v>
+      </c>
+      <c r="J13">
+        <v>81.226565130074405</v>
+      </c>
+      <c r="K13">
+        <v>18.773434869925602</v>
+      </c>
+      <c r="L13">
+        <v>77.694334851554501</v>
+      </c>
+      <c r="M13">
+        <v>13.9442777278474</v>
+      </c>
+      <c r="N13">
+        <v>4.2621901990951603</v>
+      </c>
+      <c r="O13">
+        <v>4.09919722150289</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0.67844290435280397</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>6.2305295950155796E-3</v>
+      </c>
+      <c r="R13">
+        <v>1.4471780028943599</v>
+      </c>
+      <c r="S13">
+        <v>0.14044943820224701</v>
+      </c>
+      <c r="U13" s="30">
+        <v>13</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="38">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X13" s="39">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y13" s="39">
+        <f t="shared" si="0"/>
+        <v>65647</v>
+      </c>
+      <c r="Z13" s="40">
+        <f t="shared" si="15"/>
+        <v>0.40398153846153795</v>
+      </c>
+      <c r="AA13" s="39">
+        <f t="shared" si="1"/>
+        <v>86143</v>
+      </c>
+      <c r="AB13" s="39">
+        <f t="shared" si="1"/>
+        <v>69971</v>
+      </c>
+      <c r="AC13" s="39">
+        <f t="shared" si="1"/>
+        <v>16172</v>
+      </c>
+      <c r="AD13" s="44">
+        <f t="shared" si="3"/>
+        <v>0.93053125067513554</v>
+      </c>
+      <c r="AE13" s="44">
+        <f t="shared" si="4"/>
+        <v>0.93053125067513554</v>
+      </c>
+      <c r="AF13" s="44">
+        <f t="shared" si="7"/>
+        <v>0.45981063944727191</v>
+      </c>
+      <c r="AG13" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2189432608051844</v>
+      </c>
+      <c r="AH13" s="41">
+        <f>J29</f>
+        <v>0.81226565130074402</v>
+      </c>
+      <c r="AI13" s="40">
+        <f>K29</f>
+        <v>0.18773434869925601</v>
+      </c>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="41">
+        <f>L29</f>
+        <v>0.77694334851554503</v>
+      </c>
+      <c r="AL13" s="41">
+        <f>M29</f>
+        <v>0.13944277727847398</v>
+      </c>
+      <c r="AM13" s="41">
+        <f>N29</f>
+        <v>4.2621901990951602E-2</v>
+      </c>
+      <c r="AN13" s="41">
+        <f>O29</f>
+        <v>4.0991972215028899E-2</v>
+      </c>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="43">
+        <f t="shared" si="2"/>
+        <v>0.2230566514844545</v>
+      </c>
+      <c r="AQ13" s="35">
+        <f t="shared" si="6"/>
+        <v>0.87964557331424331</v>
+      </c>
+      <c r="AR13" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS13" s="41">
+        <f>P29</f>
+        <v>0.45932627723252639</v>
+      </c>
+      <c r="AT13" s="41">
+        <f>S29</f>
+        <v>0.27762172284644165</v>
+      </c>
+      <c r="AU13" s="41">
+        <f>R29</f>
+        <v>0.54606849975880511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>162500</v>
+      </c>
+      <c r="E14">
+        <v>64804</v>
+      </c>
+      <c r="F14">
+        <v>39.879384615384602</v>
+      </c>
+      <c r="G14">
+        <v>85709</v>
+      </c>
+      <c r="H14">
+        <v>68940</v>
+      </c>
+      <c r="I14">
+        <v>16769</v>
+      </c>
+      <c r="J14">
+        <v>80.434960155876297</v>
+      </c>
+      <c r="K14">
+        <v>19.565039844123699</v>
+      </c>
+      <c r="L14">
+        <v>71.625208320474002</v>
+      </c>
+      <c r="M14">
+        <v>13.8942040614777</v>
+      </c>
+      <c r="N14">
+        <v>5.8638355657058199</v>
+      </c>
+      <c r="O14">
+        <v>8.6167520523424503</v>
+      </c>
+      <c r="P14" s="25">
+        <v>1.4891319833618499</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>1.4492753623188401E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.63543191800879</v>
+      </c>
+      <c r="S14">
+        <v>0.56896983706194204</v>
+      </c>
+      <c r="U14" s="30">
+        <v>14</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X14" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y14" s="31">
+        <f t="shared" si="0"/>
+        <v>64804</v>
+      </c>
+      <c r="Z14" s="32">
+        <f>F30</f>
+        <v>0.398793846153846</v>
+      </c>
+      <c r="AA14" s="31">
+        <f t="shared" si="1"/>
+        <v>85709</v>
+      </c>
+      <c r="AB14" s="31">
+        <f t="shared" si="1"/>
+        <v>68940</v>
+      </c>
+      <c r="AC14" s="31">
+        <f t="shared" si="1"/>
+        <v>16769</v>
+      </c>
+      <c r="AD14" s="44">
+        <f t="shared" si="3"/>
+        <v>0.92584310929634672</v>
+      </c>
+      <c r="AE14" s="44">
+        <f t="shared" si="4"/>
+        <v>0.92584310929634672</v>
+      </c>
+      <c r="AF14" s="44">
+        <f t="shared" si="7"/>
+        <v>0.47678485115578173</v>
+      </c>
+      <c r="AG14" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2009825270456247</v>
+      </c>
+      <c r="AH14" s="33">
+        <f>J30</f>
+        <v>0.80434960155876301</v>
+      </c>
+      <c r="AI14" s="32">
+        <f>K30</f>
+        <v>0.19565039844123699</v>
+      </c>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="33">
+        <f>L30</f>
+        <v>0.71625208320473999</v>
+      </c>
+      <c r="AL14" s="33">
+        <f>M30</f>
+        <v>0.138942040614777</v>
+      </c>
+      <c r="AM14" s="33">
+        <f>N30</f>
+        <v>5.8638355657058196E-2</v>
+      </c>
+      <c r="AN14" s="33">
+        <f>O30</f>
+        <v>8.616752052342451E-2</v>
+      </c>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35">
+        <f t="shared" si="2"/>
+        <v>0.28374791679525968</v>
+      </c>
+      <c r="AQ14" s="35">
+        <f t="shared" si="6"/>
+        <v>1.1189874737426677</v>
+      </c>
+      <c r="AR14" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS14" s="33">
+        <f>P30</f>
+        <v>1.008187197238037</v>
+      </c>
+      <c r="AT14" s="33">
+        <f>S30</f>
+        <v>1.1246637112591056</v>
+      </c>
+      <c r="AU14" s="33">
+        <f>R30</f>
+        <v>0.99443631039531666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>162500</v>
+      </c>
+      <c r="E15">
+        <v>65715</v>
+      </c>
+      <c r="F15">
+        <v>40.44</v>
+      </c>
+      <c r="G15">
+        <v>92066</v>
+      </c>
+      <c r="H15">
+        <v>70220</v>
+      </c>
+      <c r="I15">
+        <v>21846</v>
+      </c>
+      <c r="J15">
+        <v>76.271370538526696</v>
+      </c>
+      <c r="K15">
+        <v>23.7286294614733</v>
+      </c>
+      <c r="L15">
+        <v>71.312485733850707</v>
+      </c>
+      <c r="M15">
+        <v>13.4307235790915</v>
+      </c>
+      <c r="N15">
+        <v>6.0731948565776497</v>
+      </c>
+      <c r="O15">
+        <v>9.1835958304800993</v>
+      </c>
+      <c r="P15" s="25">
+        <v>1.5588623660526899</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>1.5299026425591101E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.7181688125894099</v>
+      </c>
+      <c r="S15">
+        <v>0.67842605156038005</v>
+      </c>
+      <c r="U15" s="30">
+        <v>15</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="X15" s="31">
+        <f t="shared" si="0"/>
+        <v>162500</v>
+      </c>
+      <c r="Y15" s="31">
+        <f t="shared" si="0"/>
+        <v>65715</v>
+      </c>
+      <c r="Z15" s="32">
+        <f t="shared" ref="Z15" si="16">F31</f>
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="AA15" s="31">
+        <f t="shared" si="1"/>
+        <v>92066</v>
+      </c>
+      <c r="AB15" s="31">
+        <f t="shared" si="1"/>
+        <v>70220</v>
+      </c>
+      <c r="AC15" s="31">
+        <f t="shared" si="1"/>
+        <v>21846</v>
+      </c>
+      <c r="AD15" s="44">
+        <f t="shared" si="3"/>
+        <v>0.99451249810962039</v>
+      </c>
+      <c r="AE15" s="44">
+        <f>AA15/$AA$2</f>
+        <v>0.99451249810962039</v>
+      </c>
+      <c r="AF15" s="44">
+        <f t="shared" si="7"/>
+        <v>0.62113673196667707</v>
+      </c>
+      <c r="AG15" s="44">
+        <f t="shared" si="5"/>
+        <v>1.2232810131874641</v>
+      </c>
+      <c r="AH15" s="33">
+        <f>J31</f>
+        <v>0.76271370538526695</v>
+      </c>
+      <c r="AI15" s="32">
+        <f>K31</f>
+        <v>0.237286294614733</v>
+      </c>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="33">
+        <f>L31</f>
+        <v>0.71312485733850706</v>
+      </c>
+      <c r="AL15" s="33">
+        <f>M31</f>
+        <v>0.134307235790915</v>
+      </c>
+      <c r="AM15" s="33">
+        <f>N31</f>
+        <v>6.0731948565776496E-2</v>
+      </c>
+      <c r="AN15" s="33">
+        <f>O31</f>
+        <v>9.1835958304800999E-2</v>
+      </c>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35">
+        <f t="shared" si="2"/>
+        <v>0.2868751426614925</v>
+      </c>
+      <c r="AQ15" s="35">
+        <f t="shared" si="6"/>
+        <v>1.1313199927313571</v>
+      </c>
+      <c r="AR15" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS15" s="33">
+        <f>P31</f>
+        <v>1.0553967662170753</v>
+      </c>
+      <c r="AT15" s="33">
+        <f>S31</f>
+        <v>1.3410221619176848</v>
+      </c>
+      <c r="AU15" s="33">
+        <f t="shared" ref="AU15" si="17">R31</f>
+        <v>1.0256556986170706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="5"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <f>F2/$A$18</f>
+        <v>0.35324923076923098</v>
+      </c>
+      <c r="J18">
+        <f>J2/$A$18</f>
+        <v>0.62007691144381805</v>
+      </c>
+      <c r="K18">
+        <f>K2/$A$18</f>
+        <v>0.37992308855618195</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:O18" si="18">L2/$A$18</f>
+        <v>0.74642440290577194</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="18"/>
+        <v>0.11887880424368101</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="18"/>
+        <v>5.5380380816333598E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="18"/>
+        <v>7.9316412034214204E-2</v>
+      </c>
+      <c r="P18">
+        <f>P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f>S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <f>F3/$A$18</f>
+        <v>0.350646153846154</v>
+      </c>
+      <c r="J19">
+        <f>J3/$A$18</f>
+        <v>0.61730802565436005</v>
+      </c>
+      <c r="K19">
+        <f>K3/$A$18</f>
+        <v>0.38269197434564001</v>
+      </c>
+      <c r="L19">
+        <f>L3/$A$18</f>
+        <v>0.75093015093015092</v>
+      </c>
+      <c r="M19">
+        <f>M3/$A$18</f>
+        <v>0.117795717795718</v>
+      </c>
+      <c r="N19">
+        <f>N3/$A$18</f>
+        <v>5.3738153738153702E-2</v>
+      </c>
+      <c r="O19">
+        <f>O3/$A$18</f>
+        <v>7.7535977535977491E-2</v>
+      </c>
+      <c r="P19">
+        <f>P3/$P$2</f>
+        <v>0.96635069612005753</v>
+      </c>
+      <c r="R19">
+        <f>R3/$R$2</f>
+        <v>1.0035460992907814</v>
+      </c>
+      <c r="S19">
+        <f>S3/$S$2</f>
+        <v>1.0033840947546542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>F4/$A$18</f>
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="J20">
+        <f>J4/$A$18</f>
+        <v>0.62150104494905201</v>
+      </c>
+      <c r="K20">
+        <f>K4/$A$18</f>
+        <v>0.37849895505094799</v>
+      </c>
+      <c r="L20">
+        <f>L4/$A$18</f>
+        <v>0.80043557801202203</v>
+      </c>
+      <c r="M20">
+        <f>M4/$A$18</f>
+        <v>0.11011412143915</v>
+      </c>
+      <c r="N20">
+        <f>N4/$A$18</f>
+        <v>3.9376252286784597E-2</v>
+      </c>
+      <c r="O20">
+        <f>O4/$A$18</f>
+        <v>5.0074048262043702E-2</v>
+      </c>
+      <c r="P20">
+        <f>P4/$P$2</f>
+        <v>0.61932718626532479</v>
+      </c>
+      <c r="R20">
+        <f>R4/$R$2</f>
+        <v>0.69642058165548193</v>
+      </c>
+      <c r="S20">
+        <f>S4/$S$2</f>
+        <v>0.34198385236447454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <f>F5/$A$18</f>
+        <v>0.40318769230769197</v>
+      </c>
+      <c r="J21">
+        <f>J5/$A$18</f>
+        <v>0.81294360337051197</v>
+      </c>
+      <c r="K21">
+        <f>K5/$A$18</f>
+        <v>0.187056396629488</v>
+      </c>
+      <c r="L21">
+        <f>L5/$A$18</f>
+        <v>0.70092188406239497</v>
+      </c>
+      <c r="M21">
+        <f>M5/$A$18</f>
+        <v>0.145425684544705</v>
+      </c>
+      <c r="N21">
+        <f>N5/$A$18</f>
+        <v>6.31276901004304E-2</v>
+      </c>
+      <c r="O21">
+        <f>O5/$A$18</f>
+        <v>9.0524741292469207E-2</v>
+      </c>
+      <c r="P21">
+        <f>P5/$P$2</f>
+        <v>1.0552481055456027</v>
+      </c>
+      <c r="R21">
+        <f>R5/$R$2</f>
+        <v>0.99922261960702241</v>
+      </c>
+      <c r="S21">
+        <f>S5/$S$2</f>
+        <v>1.3520291837665308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <f>F6/$A$18</f>
+        <v>0.40268307692307703</v>
+      </c>
+      <c r="J22">
+        <f>J6/$A$18</f>
+        <v>0.8125</v>
+      </c>
+      <c r="K22">
+        <f>K6/$A$18</f>
+        <v>0.1875</v>
+      </c>
+      <c r="L22">
+        <f>L6/$A$18</f>
+        <v>0.712956170915093</v>
+      </c>
+      <c r="M22">
+        <f>M6/$A$18</f>
+        <v>0.14087046885506399</v>
+      </c>
+      <c r="N22">
+        <f>N6/$A$18</f>
+        <v>5.9569655846934397E-2</v>
+      </c>
+      <c r="O22">
+        <f>O6/$A$18</f>
+        <v>8.6603704382908486E-2</v>
+      </c>
+      <c r="P22">
+        <f>P6/$P$2</f>
+        <v>1.0080439729401152</v>
+      </c>
+      <c r="R22">
+        <f>R6/$R$2</f>
+        <v>0.97449698214020541</v>
+      </c>
+      <c r="S22">
+        <f>S6/$S$2</f>
+        <v>1.1425818882466288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <f>F7/$A$18</f>
+        <v>0.40287999999999996</v>
+      </c>
+      <c r="J23">
+        <f>J7/$A$18</f>
+        <v>0.81289352175738105</v>
+      </c>
+      <c r="K23">
+        <f>K7/$A$18</f>
+        <v>0.187106478242619</v>
+      </c>
+      <c r="L23">
+        <f>L7/$A$18</f>
+        <v>0.78047290279220405</v>
+      </c>
+      <c r="M23">
+        <f>M7/$A$18</f>
+        <v>0.12624488299627301</v>
+      </c>
+      <c r="N23">
+        <f>N7/$A$18</f>
+        <v>4.2631514633103197E-2</v>
+      </c>
+      <c r="O23">
+        <f>O7/$A$18</f>
+        <v>5.065069957842E-2</v>
+      </c>
+      <c r="P23">
+        <f>P7/$P$2</f>
+        <v>0.59204950263720224</v>
+      </c>
+      <c r="R23">
+        <f>R7/$R$2</f>
+        <v>0.65153426077581589</v>
+      </c>
+      <c r="S23">
+        <f>S7/$S$2</f>
+        <v>0.54081167350661152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24">
+        <f>F8/$A$18</f>
+        <v>0.40036307692307704</v>
+      </c>
+      <c r="J24">
+        <f>J8/$A$18</f>
+        <v>0.81033273318212595</v>
+      </c>
+      <c r="K24">
+        <f>K8/$A$18</f>
+        <v>0.18966726681787399</v>
+      </c>
+      <c r="L24">
+        <f>L8/$A$18</f>
+        <v>0.78945265067092907</v>
+      </c>
+      <c r="M24">
+        <f>M8/$A$18</f>
+        <v>0.13289475706666301</v>
+      </c>
+      <c r="N24">
+        <f>N8/$A$18</f>
+        <v>4.1316343626554397E-2</v>
+      </c>
+      <c r="O24">
+        <f>O8/$A$18</f>
+        <v>3.63362486358536E-2</v>
+      </c>
+      <c r="P24">
+        <f>P8/$P$2</f>
+        <v>0.41637107581900051</v>
+      </c>
+      <c r="R24">
+        <f>R8/$R$2</f>
+        <v>0.69579196217493944</v>
+      </c>
+      <c r="S24">
+        <f>S8/$S$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <f>F9/$A$18</f>
+        <v>0.35262153846153899</v>
+      </c>
+      <c r="J25">
+        <f>J9/$A$18</f>
+        <v>0.62239045901852996</v>
+      </c>
+      <c r="K25">
+        <f>K9/$A$18</f>
+        <v>0.17568917950166199</v>
+      </c>
+      <c r="L25">
+        <f>L9/$A$18</f>
+        <v>0.72632240275038795</v>
+      </c>
+      <c r="M25">
+        <f>M9/$A$18</f>
+        <v>0.13701331564894201</v>
+      </c>
+      <c r="N25">
+        <f>N9/$A$18</f>
+        <v>5.5426606865499703E-2</v>
+      </c>
+      <c r="O25">
+        <f>O9/$A$18</f>
+        <v>8.1237674735170393E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P32" si="19">P9/$P$2</f>
+        <v>1.0113559162360768</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:R32" si="20">R9/$R$2</f>
+        <v>1.0182415272415277</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25" si="21">S9/$S$2</f>
+        <v>1.0295138888888886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26">
+        <f>F10/$A$18</f>
+        <v>0.40246769230769203</v>
+      </c>
+      <c r="J26">
+        <f>J10/$A$18</f>
+        <v>0.8123179456108871</v>
+      </c>
+      <c r="K26">
+        <f>K10/$A$18</f>
+        <v>0.18768205438911298</v>
+      </c>
+      <c r="L26">
+        <f>L10/$A$18</f>
+        <v>0.92394611703185003</v>
+      </c>
+      <c r="M26">
+        <f>M10/$A$18</f>
+        <v>2.85469641136986E-2</v>
+      </c>
+      <c r="N26">
+        <f>N10/$A$18</f>
+        <v>1.5825446094096401E-2</v>
+      </c>
+      <c r="O26">
+        <f>O10/$A$18</f>
+        <v>3.1681472760355295E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="19"/>
+        <v>0.38777056973996404</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="20"/>
+        <v>0.44197169350902837</v>
+      </c>
+      <c r="S26">
+        <f>S10/$S$2</f>
+        <v>0.2741562644475275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27">
+        <f>F11/$A$18</f>
+        <v>0.40276923076923099</v>
+      </c>
+      <c r="J27">
+        <f>J11/$A$18</f>
+        <v>0.81218504509746892</v>
+      </c>
+      <c r="K27">
+        <f>K11/$A$18</f>
+        <v>0.187814954902531</v>
+      </c>
+      <c r="L27">
+        <f>L11/$A$18</f>
+        <v>0.71107715813598205</v>
+      </c>
+      <c r="M27">
+        <f>M11/$A$18</f>
+        <v>0.13983193277310899</v>
+      </c>
+      <c r="N27">
+        <f>N11/$A$18</f>
+        <v>6.0137509549274305E-2</v>
+      </c>
+      <c r="O27">
+        <f>O11/$A$18</f>
+        <v>8.8953399541634809E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>1.0352746607363847</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="20"/>
+        <v>0.98864628820960643</v>
+      </c>
+      <c r="S27">
+        <f>S11/$S$2</f>
+        <v>1.1542158427500298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28">
+        <f>F12/$A$18</f>
+        <v>0.39984615384615402</v>
+      </c>
+      <c r="J28">
+        <f>J12/$A$18</f>
+        <v>0.80894432613325196</v>
+      </c>
+      <c r="K28">
+        <f>K12/$A$18</f>
+        <v>0.19105567386674799</v>
+      </c>
+      <c r="L28">
+        <f>L12/$A$18</f>
+        <v>0.72253943824547906</v>
+      </c>
+      <c r="M28">
+        <f>M12/$A$18</f>
+        <v>0.13766833397460598</v>
+      </c>
+      <c r="N28">
+        <f>N12/$A$18</f>
+        <v>5.9068872643324395E-2</v>
+      </c>
+      <c r="O28">
+        <f>O12/$A$18</f>
+        <v>8.0723355136590999E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>0.94120602402824638</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="20"/>
+        <v>0.9499300699300709</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S29" si="22">S12/$S$2</f>
+        <v>1.0690174726312005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29">
+        <f>F13/$A$18</f>
+        <v>0.40398153846153795</v>
+      </c>
+      <c r="J29">
+        <f>J13/$A$18</f>
+        <v>0.81226565130074402</v>
+      </c>
+      <c r="K29">
+        <f>K13/$A$18</f>
+        <v>0.18773434869925601</v>
+      </c>
+      <c r="L29">
+        <f>L13/$A$18</f>
+        <v>0.77694334851554503</v>
+      </c>
+      <c r="M29">
+        <f>M13/$A$18</f>
+        <v>0.13944277727847398</v>
+      </c>
+      <c r="N29">
+        <f>N13/$A$18</f>
+        <v>4.2621901990951602E-2</v>
+      </c>
+      <c r="O29">
+        <f>O13/$A$18</f>
+        <v>4.0991972215028899E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>0.45932627723252639</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="20"/>
+        <v>0.54606849975880511</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="22"/>
+        <v>0.27762172284644165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <f>F14/$A$18</f>
+        <v>0.398793846153846</v>
+      </c>
+      <c r="J30">
+        <f>J14/$A$18</f>
+        <v>0.80434960155876301</v>
+      </c>
+      <c r="K30">
+        <f>K14/$A$18</f>
+        <v>0.19565039844123699</v>
+      </c>
+      <c r="L30">
+        <f>L14/$A$18</f>
+        <v>0.71625208320473999</v>
+      </c>
+      <c r="M30">
+        <f>M14/$A$18</f>
+        <v>0.138942040614777</v>
+      </c>
+      <c r="N30">
+        <f>N14/$A$18</f>
+        <v>5.8638355657058196E-2</v>
+      </c>
+      <c r="O30">
+        <f>O14/$A$18</f>
+        <v>8.616752052342451E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>1.008187197238037</v>
+      </c>
+      <c r="R30">
+        <f>R14/$R$2</f>
+        <v>0.99443631039531666</v>
+      </c>
+      <c r="S30">
+        <f>S14/$S$2</f>
+        <v>1.1246637112591056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <f>F15/$A$18</f>
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:O32" si="23">J15/$A$18</f>
+        <v>0.76271370538526695</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="23"/>
+        <v>0.237286294614733</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="23"/>
+        <v>0.71312485733850706</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="23"/>
+        <v>0.134307235790915</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="23"/>
+        <v>6.0731948565776496E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="23"/>
+        <v>9.1835958304800999E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>1.0553967662170753</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="20"/>
+        <v>1.0256556986170706</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31:S32" si="24">S15/$S$2</f>
+        <v>1.3410221619176848</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S15">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E3CB0-C742-466B-B829-FF6585192B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E92A5E-0B1E-42B3-ABD4-128729ECE438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="3-12-21" sheetId="12" r:id="rId11"/>
     <sheet name="3-2-21" sheetId="13" r:id="rId12"/>
     <sheet name="5-13" sheetId="14" r:id="rId13"/>
+    <sheet name="5-14" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'3-10-21'!$A$1:$S$1</definedName>
@@ -36,6 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'3-8-21'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3-9-21 '!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'5-13'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'5-14'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="156">
   <si>
     <t>Treatment</t>
   </si>
@@ -482,6 +484,48 @@
   </si>
   <si>
     <t>%Relative Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45% [0.51%-2.60%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41% [0.50%-2.56%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59% [0.69%-2.75%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56% [0.61%-2.67%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89% [0.17%-1.79%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89% [0.27%-1.74%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68% [0.0%-2.00%]  </t>
+  </si>
+  <si>
+    <t>1.48% [0.52%-2.69%]</t>
+  </si>
+  <si>
+    <t>0.55% [0.14%-1.61%]</t>
+  </si>
+  <si>
+    <t>1.54% [0.67%-2.64%]</t>
+  </si>
+  <si>
+    <t>1.41% [0.57%-2.46%]</t>
+  </si>
+  <si>
+    <t>0.64% [0.14%-1.39%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49% [0.57%-2.65%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52% [0.58%-2.64%]  </t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1238,10 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1589,26 +1633,26 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="R3" s="55" t="s">
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="R3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
     </row>
     <row r="4" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -9619,8 +9663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62BFE16-FEA2-4F3C-BB28-BC00FB47DE86}">
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11:AS15"/>
+    <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2:AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9812,7 +9856,7 @@
       <c r="P2" s="25">
         <v>1.4770391723296801</v>
       </c>
-      <c r="Q2" s="56">
+      <c r="Q2" s="55">
         <v>1.44E-2</v>
       </c>
       <c r="R2">
@@ -9840,15 +9884,15 @@
         <v>57403</v>
       </c>
       <c r="Z2" s="32">
-        <f>F18</f>
+        <f t="shared" ref="Z2:Z8" si="1">F18</f>
         <v>0.35324923076923098</v>
       </c>
       <c r="AA2" s="31">
-        <f t="shared" ref="AA2:AC15" si="1">G2</f>
+        <f t="shared" ref="AA2:AC15" si="2">G2</f>
         <v>92574</v>
       </c>
       <c r="AB2" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57403</v>
       </c>
       <c r="AC2" s="31">
@@ -9872,33 +9916,33 @@
         <v>1</v>
       </c>
       <c r="AH2" s="33">
-        <f>J18</f>
+        <f t="shared" ref="AH2:AH15" si="3">J18</f>
         <v>0.62007691144381805</v>
       </c>
       <c r="AI2" s="32">
-        <f>K18</f>
+        <f t="shared" ref="AI2:AI15" si="4">K18</f>
         <v>0.37992308855618195</v>
       </c>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="33">
-        <f>L18</f>
+        <f t="shared" ref="AK2:AK15" si="5">L18</f>
         <v>0.74642440290577194</v>
       </c>
       <c r="AL2" s="33">
-        <f>M18</f>
+        <f t="shared" ref="AL2:AL15" si="6">M18</f>
         <v>0.11887880424368101</v>
       </c>
       <c r="AM2" s="33">
-        <f>N18</f>
+        <f t="shared" ref="AM2:AM15" si="7">N18</f>
         <v>5.5380380816333598E-2</v>
       </c>
       <c r="AN2" s="33">
-        <f>O18</f>
+        <f t="shared" ref="AN2:AN15" si="8">O18</f>
         <v>7.9316412034214204E-2</v>
       </c>
       <c r="AO2" s="35"/>
       <c r="AP2" s="35">
-        <f t="shared" ref="AP2:AP15" si="2">SUM(AL2:AN2)</f>
+        <f t="shared" ref="AP2:AP15" si="9">SUM(AL2:AN2)</f>
         <v>0.25357559709422883</v>
       </c>
       <c r="AQ2" s="35">
@@ -9909,15 +9953,15 @@
         <v>125</v>
       </c>
       <c r="AS2" s="33">
-        <f>P18</f>
+        <f t="shared" ref="AS2:AS15" si="10">P18</f>
         <v>1</v>
       </c>
       <c r="AT2" s="33">
-        <f>S18</f>
+        <f t="shared" ref="AT2:AT7" si="11">S18</f>
         <v>1</v>
       </c>
       <c r="AU2" s="33">
-        <f>R18</f>
+        <f t="shared" ref="AU2:AU7" si="12">R18</f>
         <v>1</v>
       </c>
     </row>
@@ -9970,7 +10014,7 @@
       <c r="P3" s="25">
         <v>1.42733783237738</v>
       </c>
-      <c r="Q3" s="56">
+      <c r="Q3" s="55">
         <v>1.38648180242634E-2</v>
       </c>
       <c r="R3">
@@ -9998,27 +10042,27 @@
         <v>56980</v>
       </c>
       <c r="Z3" s="32">
-        <f>F19</f>
+        <f t="shared" si="1"/>
         <v>0.350646153846154</v>
       </c>
       <c r="AA3" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92304</v>
       </c>
       <c r="AB3" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56980</v>
       </c>
       <c r="AC3" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35324</v>
       </c>
       <c r="AD3" s="44">
-        <f t="shared" ref="AD3:AD15" si="3">AA3/$AA$2</f>
+        <f t="shared" ref="AD3:AD15" si="13">AA3/$AA$2</f>
         <v>0.99708341434960135</v>
       </c>
       <c r="AE3" s="44">
-        <f t="shared" ref="AE3:AE14" si="4">AA3/$AA$2</f>
+        <f t="shared" ref="AE3:AE14" si="14">AA3/$AA$2</f>
         <v>0.99708341434960135</v>
       </c>
       <c r="AF3" s="44">
@@ -10026,37 +10070,37 @@
         <v>1.0043501748599699</v>
       </c>
       <c r="AG3" s="44">
-        <f t="shared" ref="AG3:AG15" si="5">AB3/$AB$2</f>
+        <f t="shared" ref="AG3:AG15" si="15">AB3/$AB$2</f>
         <v>0.99263104715781403</v>
       </c>
       <c r="AH3" s="33">
-        <f>J19</f>
+        <f t="shared" si="3"/>
         <v>0.61730802565436005</v>
       </c>
       <c r="AI3" s="32">
-        <f>K19</f>
+        <f t="shared" si="4"/>
         <v>0.38269197434564001</v>
       </c>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="33">
-        <f>L19</f>
+        <f t="shared" si="5"/>
         <v>0.75093015093015092</v>
       </c>
       <c r="AL3" s="33">
-        <f>M19</f>
+        <f t="shared" si="6"/>
         <v>0.117795717795718</v>
       </c>
       <c r="AM3" s="33">
-        <f>N19</f>
+        <f t="shared" si="7"/>
         <v>5.3738153738153702E-2</v>
       </c>
       <c r="AN3" s="33">
-        <f>O19</f>
+        <f t="shared" si="8"/>
         <v>7.7535977535977491E-2</v>
       </c>
       <c r="AO3" s="35"/>
       <c r="AP3" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.24906984906984919</v>
       </c>
       <c r="AQ3" s="35">
@@ -10067,15 +10111,15 @@
         <v>126</v>
       </c>
       <c r="AS3" s="33">
-        <f>P19</f>
+        <f t="shared" si="10"/>
         <v>0.96635069612005753</v>
       </c>
       <c r="AT3" s="33">
-        <f>S19</f>
+        <f t="shared" si="11"/>
         <v>1.0033840947546542</v>
       </c>
       <c r="AU3" s="33">
-        <f>R19</f>
+        <f t="shared" si="12"/>
         <v>1.0035460992907814</v>
       </c>
     </row>
@@ -10128,7 +10172,7 @@
       <c r="P4" s="25">
         <v>0.91477051460260494</v>
       </c>
-      <c r="Q4" s="56">
+      <c r="Q4" s="55">
         <v>8.7412587412587402E-3</v>
       </c>
       <c r="R4">
@@ -10156,27 +10200,27 @@
         <v>57395</v>
       </c>
       <c r="Z4" s="32">
-        <f>F20</f>
+        <f t="shared" si="1"/>
         <v>0.35320000000000001</v>
       </c>
       <c r="AA4" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92349</v>
       </c>
       <c r="AB4" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57395</v>
       </c>
       <c r="AC4" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34954</v>
       </c>
       <c r="AD4" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.99756951195800114</v>
       </c>
       <c r="AE4" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.99756951195800114</v>
       </c>
       <c r="AF4" s="44">
@@ -10184,56 +10228,56 @@
         <v>0.9938301441528532</v>
       </c>
       <c r="AG4" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0.99986063446161355</v>
       </c>
       <c r="AH4" s="33">
-        <f>J20</f>
+        <f t="shared" si="3"/>
         <v>0.62150104494905201</v>
       </c>
       <c r="AI4" s="32">
-        <f>K20</f>
+        <f t="shared" si="4"/>
         <v>0.37849895505094799</v>
       </c>
       <c r="AJ4" s="34"/>
       <c r="AK4" s="33">
-        <f>L20</f>
+        <f t="shared" si="5"/>
         <v>0.80043557801202203</v>
       </c>
       <c r="AL4" s="33">
-        <f>M20</f>
+        <f t="shared" si="6"/>
         <v>0.11011412143915</v>
       </c>
       <c r="AM4" s="33">
-        <f>N20</f>
+        <f t="shared" si="7"/>
         <v>3.9376252286784597E-2</v>
       </c>
       <c r="AN4" s="33">
-        <f>O20</f>
+        <f t="shared" si="8"/>
         <v>5.0074048262043702E-2</v>
       </c>
       <c r="AO4" s="35"/>
       <c r="AP4" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1995644219879783</v>
       </c>
       <c r="AQ4" s="35">
-        <f t="shared" ref="AQ4:AQ15" si="6">AP4/$AP$2</f>
+        <f t="shared" ref="AQ4:AQ15" si="16">AP4/$AP$2</f>
         <v>0.78700168421104044</v>
       </c>
       <c r="AR4" s="32" t="s">
         <v>127</v>
       </c>
       <c r="AS4" s="33">
-        <f>P20</f>
+        <f t="shared" si="10"/>
         <v>0.61932718626532479</v>
       </c>
       <c r="AT4" s="33">
-        <f>S20</f>
+        <f t="shared" si="11"/>
         <v>0.34198385236447454</v>
       </c>
       <c r="AU4" s="33">
-        <f>R20</f>
+        <f t="shared" si="12"/>
         <v>0.69642058165548193</v>
       </c>
     </row>
@@ -10286,7 +10330,7 @@
       <c r="P5" s="25">
         <v>1.55864278841754</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="Q5" s="55">
         <v>1.53203342618384E-2</v>
       </c>
       <c r="R5">
@@ -10314,27 +10358,27 @@
         <v>65518</v>
       </c>
       <c r="Z5" s="32">
-        <f>F21</f>
+        <f t="shared" si="1"/>
         <v>0.40318769230769197</v>
       </c>
       <c r="AA5" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85803</v>
       </c>
       <c r="AB5" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69753</v>
       </c>
       <c r="AC5" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16050</v>
       </c>
       <c r="AD5" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.92685851318944845</v>
       </c>
       <c r="AE5" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.92685851318944845</v>
       </c>
       <c r="AF5" s="44">
@@ -10342,56 +10386,56 @@
         <v>0.45634187256546588</v>
       </c>
       <c r="AG5" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.2151455498841524</v>
       </c>
       <c r="AH5" s="33">
-        <f>J21</f>
+        <f t="shared" si="3"/>
         <v>0.81294360337051197</v>
       </c>
       <c r="AI5" s="32">
-        <f>K21</f>
+        <f t="shared" si="4"/>
         <v>0.187056396629488</v>
       </c>
       <c r="AJ5" s="34"/>
       <c r="AK5" s="33">
-        <f>L21</f>
+        <f t="shared" si="5"/>
         <v>0.70092188406239497</v>
       </c>
       <c r="AL5" s="33">
-        <f>M21</f>
+        <f t="shared" si="6"/>
         <v>0.145425684544705</v>
       </c>
       <c r="AM5" s="33">
-        <f>N21</f>
+        <f t="shared" si="7"/>
         <v>6.31276901004304E-2</v>
       </c>
       <c r="AN5" s="33">
-        <f>O21</f>
+        <f t="shared" si="8"/>
         <v>9.0524741292469207E-2</v>
       </c>
       <c r="AO5" s="35"/>
       <c r="AP5" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.29907811593760458</v>
       </c>
       <c r="AQ5" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1794436032678137</v>
       </c>
       <c r="AR5" s="30" t="s">
         <v>128</v>
       </c>
       <c r="AS5" s="33">
-        <f>P21</f>
+        <f t="shared" si="10"/>
         <v>1.0552481055456027</v>
       </c>
       <c r="AT5" s="33">
-        <f>S21</f>
+        <f t="shared" si="11"/>
         <v>1.3520291837665308</v>
       </c>
       <c r="AU5" s="33">
-        <f>R21</f>
+        <f t="shared" si="12"/>
         <v>0.99922261960702241</v>
       </c>
     </row>
@@ -10444,7 +10488,7 @@
       <c r="P6" s="25">
         <v>1.48892043546339</v>
       </c>
-      <c r="Q6" s="56">
+      <c r="Q6" s="55">
         <v>1.4513788098693799E-2</v>
       </c>
       <c r="R6">
@@ -10472,84 +10516,84 @@
         <v>65436</v>
       </c>
       <c r="Z6" s="32">
-        <f>F22</f>
+        <f t="shared" si="1"/>
         <v>0.40268307692307703</v>
       </c>
       <c r="AA6" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85872</v>
       </c>
       <c r="AB6" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69771</v>
       </c>
       <c r="AC6" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16101</v>
       </c>
       <c r="AD6" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.92760386285566143</v>
       </c>
       <c r="AE6" s="44">
+        <f t="shared" si="14"/>
+        <v>0.92760386285566143</v>
+      </c>
+      <c r="AF6" s="44">
+        <f t="shared" ref="AF6:AF15" si="17">AC6/$AC$2</f>
+        <v>0.4577919308521225</v>
+      </c>
+      <c r="AG6" s="44">
+        <f t="shared" si="15"/>
+        <v>1.215459122345522</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" si="3"/>
+        <v>0.8125</v>
+      </c>
+      <c r="AI6" s="32">
         <f t="shared" si="4"/>
-        <v>0.92760386285566143</v>
-      </c>
-      <c r="AF6" s="44">
-        <f t="shared" ref="AF6:AF15" si="7">AC6/$AC$2</f>
-        <v>0.4577919308521225</v>
-      </c>
-      <c r="AG6" s="44">
-        <f t="shared" si="5"/>
-        <v>1.215459122345522</v>
-      </c>
-      <c r="AH6" s="33">
-        <f>J22</f>
-        <v>0.8125</v>
-      </c>
-      <c r="AI6" s="32">
-        <f>K22</f>
         <v>0.1875</v>
       </c>
       <c r="AJ6" s="34"/>
       <c r="AK6" s="33">
-        <f>L22</f>
+        <f t="shared" si="5"/>
         <v>0.712956170915093</v>
       </c>
       <c r="AL6" s="33">
-        <f>M22</f>
+        <f t="shared" si="6"/>
         <v>0.14087046885506399</v>
       </c>
       <c r="AM6" s="33">
-        <f>N22</f>
+        <f t="shared" si="7"/>
         <v>5.9569655846934397E-2</v>
       </c>
       <c r="AN6" s="33">
-        <f>O22</f>
+        <f t="shared" si="8"/>
         <v>8.6603704382908486E-2</v>
       </c>
       <c r="AO6" s="35"/>
       <c r="AP6" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.28704382908490689</v>
       </c>
       <c r="AQ6" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1319852240286403</v>
       </c>
       <c r="AR6" s="32" t="s">
         <v>129</v>
       </c>
       <c r="AS6" s="33">
-        <f>P22</f>
+        <f t="shared" si="10"/>
         <v>1.0080439729401152</v>
       </c>
       <c r="AT6" s="33">
-        <f>S22</f>
+        <f t="shared" si="11"/>
         <v>1.1425818882466288</v>
       </c>
       <c r="AU6" s="33">
-        <f>R22</f>
+        <f t="shared" si="12"/>
         <v>0.97449698214020541</v>
       </c>
     </row>
@@ -10602,7 +10646,7 @@
       <c r="P7" s="25">
         <v>0.87448030735345195</v>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="55">
         <v>8.4745762711864406E-3</v>
       </c>
       <c r="R7">
@@ -10630,60 +10674,60 @@
         <v>65468</v>
       </c>
       <c r="Z7" s="32">
-        <f>F23</f>
+        <f t="shared" si="1"/>
         <v>0.40287999999999996</v>
       </c>
       <c r="AA7" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85764</v>
       </c>
       <c r="AB7" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69717</v>
       </c>
       <c r="AC7" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16047</v>
       </c>
       <c r="AD7" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.92643722859550193</v>
       </c>
       <c r="AE7" s="44">
+        <f t="shared" si="14"/>
+        <v>0.92643722859550193</v>
+      </c>
+      <c r="AF7" s="44">
+        <f t="shared" si="17"/>
+        <v>0.45625657501919192</v>
+      </c>
+      <c r="AG7" s="44">
+        <f t="shared" si="15"/>
+        <v>1.2145184049614131</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81289352175738105</v>
+      </c>
+      <c r="AI7" s="32">
         <f t="shared" si="4"/>
-        <v>0.92643722859550193</v>
-      </c>
-      <c r="AF7" s="44">
-        <f t="shared" si="7"/>
-        <v>0.45625657501919192</v>
-      </c>
-      <c r="AG7" s="44">
-        <f t="shared" si="5"/>
-        <v>1.2145184049614131</v>
-      </c>
-      <c r="AH7" s="33">
-        <f>J23</f>
-        <v>0.81289352175738105</v>
-      </c>
-      <c r="AI7" s="32">
-        <f>K23</f>
         <v>0.187106478242619</v>
       </c>
       <c r="AJ7" s="34"/>
       <c r="AK7" s="33">
-        <f>L23</f>
+        <f t="shared" si="5"/>
         <v>0.78047290279220405</v>
       </c>
       <c r="AL7" s="33">
-        <f>M23</f>
+        <f t="shared" si="6"/>
         <v>0.12624488299627301</v>
       </c>
       <c r="AM7" s="33">
-        <f>N23</f>
+        <f t="shared" si="7"/>
         <v>4.2631514633103197E-2</v>
       </c>
       <c r="AN7" s="33">
-        <f>O23</f>
+        <f t="shared" si="8"/>
         <v>5.065069957842E-2</v>
       </c>
       <c r="AO7" s="35"/>
@@ -10692,22 +10736,22 @@
         <v>0.2195270972077962</v>
       </c>
       <c r="AQ7" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.86572643315602571</v>
       </c>
       <c r="AR7" s="32" t="s">
         <v>130</v>
       </c>
       <c r="AS7" s="33">
-        <f>P23</f>
+        <f t="shared" si="10"/>
         <v>0.59204950263720224</v>
       </c>
       <c r="AT7" s="33">
-        <f>S23</f>
+        <f t="shared" si="11"/>
         <v>0.54081167350661152</v>
       </c>
       <c r="AU7" s="33">
-        <f>R23</f>
+        <f t="shared" si="12"/>
         <v>0.65153426077581589</v>
       </c>
     </row>
@@ -10760,7 +10804,7 @@
       <c r="P8" s="25">
         <v>0.614996389209715</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="55">
         <v>4.3795620437956199E-3</v>
       </c>
       <c r="R8">
@@ -10776,19 +10820,19 @@
         <v>140</v>
       </c>
       <c r="W8" s="30">
-        <f t="shared" ref="W8" si="8">C8</f>
+        <f t="shared" ref="W8" si="18">C8</f>
         <v>100</v>
       </c>
       <c r="X8" s="31">
-        <f t="shared" ref="X8" si="9">D8</f>
+        <f t="shared" ref="X8" si="19">D8</f>
         <v>162500</v>
       </c>
       <c r="Y8" s="31">
-        <f t="shared" ref="Y8" si="10">E8</f>
+        <f t="shared" ref="Y8" si="20">E8</f>
         <v>65059</v>
       </c>
       <c r="Z8" s="32">
-        <f>F24</f>
+        <f t="shared" si="1"/>
         <v>0.40036307692307704</v>
       </c>
       <c r="AA8" s="31">
@@ -10796,7 +10840,7 @@
         <v>85534</v>
       </c>
       <c r="AB8" s="31">
-        <f t="shared" ref="AB8" si="11">H8</f>
+        <f t="shared" ref="AB8" si="21">H8</f>
         <v>69311</v>
       </c>
       <c r="AC8" s="31">
@@ -10804,15 +10848,15 @@
         <v>16223</v>
       </c>
       <c r="AD8" s="44">
-        <f t="shared" ref="AD8" si="12">AA8/$AA$2</f>
+        <f t="shared" ref="AD8" si="22">AA8/$AA$2</f>
         <v>0.92395272970812536</v>
       </c>
       <c r="AE8" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.92395272970812536</v>
       </c>
       <c r="AF8" s="44">
-        <f t="shared" ref="AF8" si="13">AC8/$AC$2</f>
+        <f t="shared" ref="AF8" si="23">AC8/$AC$2</f>
         <v>0.46126069773392853</v>
       </c>
       <c r="AG8" s="44">
@@ -10820,28 +10864,28 @@
         <v>1.2074456038882986</v>
       </c>
       <c r="AH8" s="33">
-        <f>J24</f>
+        <f t="shared" si="3"/>
         <v>0.81033273318212595</v>
       </c>
       <c r="AI8" s="32">
-        <f>K24</f>
+        <f t="shared" si="4"/>
         <v>0.18966726681787399</v>
       </c>
       <c r="AJ8" s="34"/>
       <c r="AK8" s="33">
-        <f>L24</f>
+        <f t="shared" si="5"/>
         <v>0.78945265067092907</v>
       </c>
       <c r="AL8" s="33">
-        <f>M24</f>
+        <f t="shared" si="6"/>
         <v>0.13289475706666301</v>
       </c>
       <c r="AM8" s="33">
-        <f>N24</f>
+        <f t="shared" si="7"/>
         <v>4.1316343626554397E-2</v>
       </c>
       <c r="AN8" s="33">
-        <f>O24</f>
+        <f t="shared" si="8"/>
         <v>3.63362486358536E-2</v>
       </c>
       <c r="AO8" s="35"/>
@@ -10850,14 +10894,14 @@
         <v>0.21054734932907102</v>
       </c>
       <c r="AQ8" s="35">
-        <f t="shared" ref="AQ8" si="14">AP8/$AP$2</f>
+        <f t="shared" ref="AQ8" si="24">AP8/$AP$2</f>
         <v>0.83031392508495805</v>
       </c>
       <c r="AR8" s="32" t="s">
         <v>130</v>
       </c>
       <c r="AS8" s="33">
-        <f>P24</f>
+        <f t="shared" si="10"/>
         <v>0.41637107581900051</v>
       </c>
       <c r="AT8" s="33">
@@ -10918,7 +10962,7 @@
       <c r="P9" s="25">
         <v>1.4938123054480601</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="55">
         <v>1.4414414414414401E-2</v>
       </c>
       <c r="R9">
@@ -10946,19 +10990,19 @@
         <v>57301</v>
       </c>
       <c r="Z9" s="50">
-        <f t="shared" ref="Z9:Z13" si="15">F25</f>
+        <f t="shared" ref="Z9:Z13" si="25">F25</f>
         <v>0.35262153846153899</v>
       </c>
       <c r="AA9" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92066</v>
       </c>
       <c r="AB9" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57301</v>
       </c>
       <c r="AC9" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16175</v>
       </c>
       <c r="AD9" s="51">
@@ -10966,40 +11010,40 @@
         <v>0.99451249810962039</v>
       </c>
       <c r="AE9" s="44">
+        <f t="shared" si="14"/>
+        <v>0.99451249810962039</v>
+      </c>
+      <c r="AF9" s="51">
+        <f t="shared" si="17"/>
+        <v>0.45989593699354581</v>
+      </c>
+      <c r="AG9" s="51">
+        <f t="shared" si="15"/>
+        <v>0.99822308938557214</v>
+      </c>
+      <c r="AH9" s="52">
+        <f t="shared" si="3"/>
+        <v>0.62239045901852996</v>
+      </c>
+      <c r="AI9" s="50">
         <f t="shared" si="4"/>
-        <v>0.99451249810962039</v>
-      </c>
-      <c r="AF9" s="51">
-        <f t="shared" si="7"/>
-        <v>0.45989593699354581</v>
-      </c>
-      <c r="AG9" s="51">
-        <f t="shared" si="5"/>
-        <v>0.99822308938557214</v>
-      </c>
-      <c r="AH9" s="52">
-        <f>J25</f>
-        <v>0.62239045901852996</v>
-      </c>
-      <c r="AI9" s="50">
-        <f>K25</f>
         <v>0.17568917950166199</v>
       </c>
       <c r="AJ9" s="53"/>
       <c r="AK9" s="52">
-        <f>L25</f>
+        <f t="shared" si="5"/>
         <v>0.72632240275038795</v>
       </c>
       <c r="AL9" s="52">
-        <f>M25</f>
+        <f t="shared" si="6"/>
         <v>0.13701331564894201</v>
       </c>
       <c r="AM9" s="52">
-        <f>N25</f>
+        <f t="shared" si="7"/>
         <v>5.5426606865499703E-2</v>
       </c>
       <c r="AN9" s="52">
-        <f>O25</f>
+        <f t="shared" si="8"/>
         <v>8.1237674735170393E-2</v>
       </c>
       <c r="AO9" s="54"/>
@@ -11008,14 +11052,14 @@
         <v>0.2736775972496121</v>
       </c>
       <c r="AQ9" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.0792741903627001</v>
       </c>
       <c r="AR9" s="50" t="s">
         <v>131</v>
       </c>
       <c r="AS9" s="52">
-        <f>P25</f>
+        <f t="shared" si="10"/>
         <v>1.0113559162360768</v>
       </c>
       <c r="AT9" s="52">
@@ -11076,7 +11120,7 @@
       <c r="P10" s="25">
         <v>0.57275232138252496</v>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="55">
         <v>5.6899004267425297E-3</v>
       </c>
       <c r="R10">
@@ -11104,80 +11148,80 @@
         <v>65401</v>
       </c>
       <c r="Z10" s="32">
+        <f t="shared" si="25"/>
+        <v>0.40246769230769203</v>
+      </c>
+      <c r="AA10" s="31">
+        <f t="shared" si="2"/>
+        <v>85826</v>
+      </c>
+      <c r="AB10" s="31">
+        <f t="shared" si="2"/>
+        <v>69718</v>
+      </c>
+      <c r="AC10" s="31">
+        <f t="shared" si="2"/>
+        <v>16108</v>
+      </c>
+      <c r="AD10" s="44">
+        <f t="shared" si="13"/>
+        <v>0.92710696307818607</v>
+      </c>
+      <c r="AE10" s="44">
+        <f t="shared" si="14"/>
+        <v>0.92710696307818607</v>
+      </c>
+      <c r="AF10" s="44">
+        <f t="shared" si="17"/>
+        <v>0.45799095846009497</v>
+      </c>
+      <c r="AG10" s="44">
         <f t="shared" si="15"/>
-        <v>0.40246769230769203</v>
-      </c>
-      <c r="AA10" s="31">
-        <f t="shared" si="1"/>
-        <v>85826</v>
-      </c>
-      <c r="AB10" s="31">
-        <f t="shared" si="1"/>
-        <v>69718</v>
-      </c>
-      <c r="AC10" s="31">
-        <f t="shared" si="1"/>
-        <v>16108</v>
-      </c>
-      <c r="AD10" s="44">
-        <f t="shared" si="3"/>
-        <v>0.92710696307818607</v>
-      </c>
-      <c r="AE10" s="44">
+        <v>1.2145358256537115</v>
+      </c>
+      <c r="AH10" s="33">
+        <f t="shared" si="3"/>
+        <v>0.8123179456108871</v>
+      </c>
+      <c r="AI10" s="32">
         <f t="shared" si="4"/>
-        <v>0.92710696307818607</v>
-      </c>
-      <c r="AF10" s="44">
-        <f t="shared" si="7"/>
-        <v>0.45799095846009497</v>
-      </c>
-      <c r="AG10" s="44">
-        <f t="shared" si="5"/>
-        <v>1.2145358256537115</v>
-      </c>
-      <c r="AH10" s="33">
-        <f>J26</f>
-        <v>0.8123179456108871</v>
-      </c>
-      <c r="AI10" s="32">
-        <f>K26</f>
         <v>0.18768205438911298</v>
       </c>
       <c r="AJ10" s="34"/>
       <c r="AK10" s="33">
-        <f>L26</f>
+        <f t="shared" si="5"/>
         <v>0.92394611703185003</v>
       </c>
       <c r="AL10" s="33">
-        <f>M26</f>
+        <f t="shared" si="6"/>
         <v>2.85469641136986E-2</v>
       </c>
       <c r="AM10" s="33">
-        <f>N26</f>
+        <f t="shared" si="7"/>
         <v>1.5825446094096401E-2</v>
       </c>
       <c r="AN10" s="33">
-        <f>O26</f>
+        <f t="shared" si="8"/>
         <v>3.1681472760355295E-2</v>
       </c>
       <c r="AO10" s="35"/>
       <c r="AP10" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>7.6053882968150299E-2</v>
       </c>
       <c r="AQ10" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.29992587551667532</v>
       </c>
       <c r="AR10" s="32" t="s">
         <v>132</v>
       </c>
       <c r="AS10" s="33">
-        <f>P26</f>
+        <f t="shared" si="10"/>
         <v>0.38777056973996404</v>
       </c>
       <c r="AT10" s="33">
-        <f>S26</f>
+        <f t="shared" ref="AT10:AT15" si="26">S26</f>
         <v>0.2741562644475275</v>
       </c>
       <c r="AU10" s="33">
@@ -11234,7 +11278,7 @@
       <c r="P11" s="25">
         <v>1.5291412280279599</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="55">
         <v>1.49253731343284E-2</v>
       </c>
       <c r="R11">
@@ -11262,80 +11306,80 @@
         <v>65450</v>
       </c>
       <c r="Z11" s="32">
+        <f t="shared" si="25"/>
+        <v>0.40276923076923099</v>
+      </c>
+      <c r="AA11" s="31">
+        <f t="shared" si="2"/>
+        <v>85925</v>
+      </c>
+      <c r="AB11" s="31">
+        <f t="shared" si="2"/>
+        <v>69787</v>
+      </c>
+      <c r="AC11" s="31">
+        <f t="shared" si="2"/>
+        <v>16138</v>
+      </c>
+      <c r="AD11" s="44">
+        <f t="shared" si="13"/>
+        <v>0.92817637781666562</v>
+      </c>
+      <c r="AE11" s="44">
+        <f t="shared" si="14"/>
+        <v>0.92817637781666562</v>
+      </c>
+      <c r="AF11" s="44">
+        <f t="shared" si="17"/>
+        <v>0.45884393392283418</v>
+      </c>
+      <c r="AG11" s="44">
         <f t="shared" si="15"/>
-        <v>0.40276923076923099</v>
-      </c>
-      <c r="AA11" s="31">
-        <f t="shared" si="1"/>
-        <v>85925</v>
-      </c>
-      <c r="AB11" s="31">
-        <f t="shared" si="1"/>
-        <v>69787</v>
-      </c>
-      <c r="AC11" s="31">
-        <f t="shared" si="1"/>
-        <v>16138</v>
-      </c>
-      <c r="AD11" s="44">
-        <f t="shared" si="3"/>
-        <v>0.92817637781666562</v>
-      </c>
-      <c r="AE11" s="44">
+        <v>1.2157378534222949</v>
+      </c>
+      <c r="AH11" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81218504509746892</v>
+      </c>
+      <c r="AI11" s="32">
         <f t="shared" si="4"/>
-        <v>0.92817637781666562</v>
-      </c>
-      <c r="AF11" s="44">
-        <f t="shared" si="7"/>
-        <v>0.45884393392283418</v>
-      </c>
-      <c r="AG11" s="44">
-        <f t="shared" si="5"/>
-        <v>1.2157378534222949</v>
-      </c>
-      <c r="AH11" s="33">
-        <f>J27</f>
-        <v>0.81218504509746892</v>
-      </c>
-      <c r="AI11" s="32">
-        <f>K27</f>
         <v>0.187814954902531</v>
       </c>
       <c r="AJ11" s="36"/>
       <c r="AK11" s="33">
-        <f>L27</f>
+        <f t="shared" si="5"/>
         <v>0.71107715813598205</v>
       </c>
       <c r="AL11" s="33">
-        <f>M27</f>
+        <f t="shared" si="6"/>
         <v>0.13983193277310899</v>
       </c>
       <c r="AM11" s="33">
-        <f>N27</f>
+        <f t="shared" si="7"/>
         <v>6.0137509549274305E-2</v>
       </c>
       <c r="AN11" s="33">
-        <f>O27</f>
+        <f t="shared" si="8"/>
         <v>8.8953399541634809E-2</v>
       </c>
       <c r="AO11" s="36"/>
       <c r="AP11" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.28892284186401807</v>
       </c>
       <c r="AQ11" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1393952934542599</v>
       </c>
       <c r="AR11" s="32" t="s">
         <v>133</v>
       </c>
       <c r="AS11" s="33">
-        <f>P27</f>
+        <f t="shared" si="10"/>
         <v>1.0352746607363847</v>
       </c>
       <c r="AT11" s="33">
-        <f>S27</f>
+        <f t="shared" si="26"/>
         <v>1.1542158427500298</v>
       </c>
       <c r="AU11" s="33">
@@ -11392,7 +11436,7 @@
       <c r="P12" s="25">
         <v>1.3901981667223899</v>
       </c>
-      <c r="Q12" s="56">
+      <c r="Q12" s="55">
         <v>1.3313609467455601E-2</v>
       </c>
       <c r="R12">
@@ -11420,80 +11464,80 @@
         <v>64975</v>
       </c>
       <c r="Z12" s="40">
+        <f t="shared" si="25"/>
+        <v>0.39984615384615402</v>
+      </c>
+      <c r="AA12" s="39">
+        <f t="shared" si="2"/>
+        <v>85462</v>
+      </c>
+      <c r="AB12" s="39">
+        <f t="shared" si="2"/>
+        <v>69134</v>
+      </c>
+      <c r="AC12" s="39">
+        <f t="shared" si="2"/>
+        <v>16328</v>
+      </c>
+      <c r="AD12" s="44">
+        <f t="shared" si="13"/>
+        <v>0.92317497353468581</v>
+      </c>
+      <c r="AE12" s="44">
+        <f t="shared" si="14"/>
+        <v>0.92317497353468581</v>
+      </c>
+      <c r="AF12" s="44">
+        <f t="shared" si="17"/>
+        <v>0.46424611185351566</v>
+      </c>
+      <c r="AG12" s="44">
         <f t="shared" si="15"/>
-        <v>0.39984615384615402</v>
-      </c>
-      <c r="AA12" s="39">
-        <f t="shared" si="1"/>
-        <v>85462</v>
-      </c>
-      <c r="AB12" s="39">
-        <f t="shared" si="1"/>
-        <v>69134</v>
-      </c>
-      <c r="AC12" s="39">
-        <f t="shared" si="1"/>
-        <v>16328</v>
-      </c>
-      <c r="AD12" s="44">
-        <f t="shared" si="3"/>
-        <v>0.92317497353468581</v>
-      </c>
-      <c r="AE12" s="44">
+        <v>1.2043621413514973</v>
+      </c>
+      <c r="AH12" s="41">
+        <f t="shared" si="3"/>
+        <v>0.80894432613325196</v>
+      </c>
+      <c r="AI12" s="40">
         <f t="shared" si="4"/>
-        <v>0.92317497353468581</v>
-      </c>
-      <c r="AF12" s="44">
-        <f t="shared" si="7"/>
-        <v>0.46424611185351566</v>
-      </c>
-      <c r="AG12" s="44">
-        <f t="shared" si="5"/>
-        <v>1.2043621413514973</v>
-      </c>
-      <c r="AH12" s="41">
-        <f>J28</f>
-        <v>0.80894432613325196</v>
-      </c>
-      <c r="AI12" s="40">
-        <f>K28</f>
         <v>0.19105567386674799</v>
       </c>
       <c r="AJ12" s="42"/>
       <c r="AK12" s="41">
-        <f>L28</f>
+        <f t="shared" si="5"/>
         <v>0.72253943824547906</v>
       </c>
       <c r="AL12" s="41">
-        <f>M28</f>
+        <f t="shared" si="6"/>
         <v>0.13766833397460598</v>
       </c>
       <c r="AM12" s="41">
-        <f>N28</f>
+        <f t="shared" si="7"/>
         <v>5.9068872643324395E-2</v>
       </c>
       <c r="AN12" s="41">
-        <f>O28</f>
+        <f t="shared" si="8"/>
         <v>8.0723355136590999E-2</v>
       </c>
       <c r="AO12" s="42"/>
       <c r="AP12" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.27746056175452138</v>
       </c>
       <c r="AQ12" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.0941926783728202</v>
       </c>
       <c r="AR12" s="40" t="s">
         <v>134</v>
       </c>
       <c r="AS12" s="41">
-        <f>P28</f>
+        <f t="shared" si="10"/>
         <v>0.94120602402824638</v>
       </c>
       <c r="AT12" s="41">
-        <f>S28</f>
+        <f t="shared" si="26"/>
         <v>1.0690174726312005</v>
       </c>
       <c r="AU12" s="41">
@@ -11550,7 +11594,7 @@
       <c r="P13" s="25">
         <v>0.67844290435280397</v>
       </c>
-      <c r="Q13" s="56">
+      <c r="Q13" s="55">
         <v>6.2305295950155796E-3</v>
       </c>
       <c r="R13">
@@ -11578,80 +11622,80 @@
         <v>65647</v>
       </c>
       <c r="Z13" s="40">
+        <f t="shared" si="25"/>
+        <v>0.40398153846153795</v>
+      </c>
+      <c r="AA13" s="39">
+        <f t="shared" si="2"/>
+        <v>86143</v>
+      </c>
+      <c r="AB13" s="39">
+        <f t="shared" si="2"/>
+        <v>69971</v>
+      </c>
+      <c r="AC13" s="39">
+        <f t="shared" si="2"/>
+        <v>16172</v>
+      </c>
+      <c r="AD13" s="44">
+        <f t="shared" si="13"/>
+        <v>0.93053125067513554</v>
+      </c>
+      <c r="AE13" s="44">
+        <f t="shared" si="14"/>
+        <v>0.93053125067513554</v>
+      </c>
+      <c r="AF13" s="44">
+        <f t="shared" si="17"/>
+        <v>0.45981063944727191</v>
+      </c>
+      <c r="AG13" s="44">
         <f t="shared" si="15"/>
-        <v>0.40398153846153795</v>
-      </c>
-      <c r="AA13" s="39">
-        <f t="shared" si="1"/>
-        <v>86143</v>
-      </c>
-      <c r="AB13" s="39">
-        <f t="shared" si="1"/>
-        <v>69971</v>
-      </c>
-      <c r="AC13" s="39">
-        <f t="shared" si="1"/>
-        <v>16172</v>
-      </c>
-      <c r="AD13" s="44">
-        <f t="shared" si="3"/>
-        <v>0.93053125067513554</v>
-      </c>
-      <c r="AE13" s="44">
+        <v>1.2189432608051844</v>
+      </c>
+      <c r="AH13" s="41">
+        <f t="shared" si="3"/>
+        <v>0.81226565130074402</v>
+      </c>
+      <c r="AI13" s="40">
         <f t="shared" si="4"/>
-        <v>0.93053125067513554</v>
-      </c>
-      <c r="AF13" s="44">
-        <f t="shared" si="7"/>
-        <v>0.45981063944727191</v>
-      </c>
-      <c r="AG13" s="44">
-        <f t="shared" si="5"/>
-        <v>1.2189432608051844</v>
-      </c>
-      <c r="AH13" s="41">
-        <f>J29</f>
-        <v>0.81226565130074402</v>
-      </c>
-      <c r="AI13" s="40">
-        <f>K29</f>
         <v>0.18773434869925601</v>
       </c>
       <c r="AJ13" s="42"/>
       <c r="AK13" s="41">
-        <f>L29</f>
+        <f t="shared" si="5"/>
         <v>0.77694334851554503</v>
       </c>
       <c r="AL13" s="41">
-        <f>M29</f>
+        <f t="shared" si="6"/>
         <v>0.13944277727847398</v>
       </c>
       <c r="AM13" s="41">
-        <f>N29</f>
+        <f t="shared" si="7"/>
         <v>4.2621901990951602E-2</v>
       </c>
       <c r="AN13" s="41">
-        <f>O29</f>
+        <f t="shared" si="8"/>
         <v>4.0991972215028899E-2</v>
       </c>
       <c r="AO13" s="42"/>
       <c r="AP13" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.2230566514844545</v>
       </c>
       <c r="AQ13" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0.87964557331424331</v>
       </c>
       <c r="AR13" s="40" t="s">
         <v>135</v>
       </c>
       <c r="AS13" s="41">
-        <f>P29</f>
+        <f t="shared" si="10"/>
         <v>0.45932627723252639</v>
       </c>
       <c r="AT13" s="41">
-        <f>S29</f>
+        <f t="shared" si="26"/>
         <v>0.27762172284644165</v>
       </c>
       <c r="AU13" s="41">
@@ -11708,7 +11752,7 @@
       <c r="P14" s="25">
         <v>1.4891319833618499</v>
       </c>
-      <c r="Q14" s="56">
+      <c r="Q14" s="55">
         <v>1.4492753623188401E-2</v>
       </c>
       <c r="R14">
@@ -11740,76 +11784,76 @@
         <v>0.398793846153846</v>
       </c>
       <c r="AA14" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85709</v>
       </c>
       <c r="AB14" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68940</v>
       </c>
       <c r="AC14" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16769</v>
       </c>
       <c r="AD14" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.92584310929634672</v>
       </c>
       <c r="AE14" s="44">
+        <f t="shared" si="14"/>
+        <v>0.92584310929634672</v>
+      </c>
+      <c r="AF14" s="44">
+        <f t="shared" si="17"/>
+        <v>0.47678485115578173</v>
+      </c>
+      <c r="AG14" s="44">
+        <f t="shared" si="15"/>
+        <v>1.2009825270456247</v>
+      </c>
+      <c r="AH14" s="33">
+        <f t="shared" si="3"/>
+        <v>0.80434960155876301</v>
+      </c>
+      <c r="AI14" s="32">
         <f t="shared" si="4"/>
-        <v>0.92584310929634672</v>
-      </c>
-      <c r="AF14" s="44">
-        <f t="shared" si="7"/>
-        <v>0.47678485115578173</v>
-      </c>
-      <c r="AG14" s="44">
-        <f t="shared" si="5"/>
-        <v>1.2009825270456247</v>
-      </c>
-      <c r="AH14" s="33">
-        <f>J30</f>
-        <v>0.80434960155876301</v>
-      </c>
-      <c r="AI14" s="32">
-        <f>K30</f>
         <v>0.19565039844123699</v>
       </c>
       <c r="AJ14" s="34"/>
       <c r="AK14" s="33">
-        <f>L30</f>
+        <f t="shared" si="5"/>
         <v>0.71625208320473999</v>
       </c>
       <c r="AL14" s="33">
-        <f>M30</f>
+        <f t="shared" si="6"/>
         <v>0.138942040614777</v>
       </c>
       <c r="AM14" s="33">
-        <f>N30</f>
+        <f t="shared" si="7"/>
         <v>5.8638355657058196E-2</v>
       </c>
       <c r="AN14" s="33">
-        <f>O30</f>
+        <f t="shared" si="8"/>
         <v>8.616752052342451E-2</v>
       </c>
       <c r="AO14" s="35"/>
       <c r="AP14" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.28374791679525968</v>
       </c>
       <c r="AQ14" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1189874737426677</v>
       </c>
       <c r="AR14" s="32" t="s">
         <v>136</v>
       </c>
       <c r="AS14" s="33">
-        <f>P30</f>
+        <f t="shared" si="10"/>
         <v>1.008187197238037</v>
       </c>
       <c r="AT14" s="33">
-        <f>S30</f>
+        <f t="shared" si="26"/>
         <v>1.1246637112591056</v>
       </c>
       <c r="AU14" s="33">
@@ -11866,7 +11910,7 @@
       <c r="P15" s="25">
         <v>1.5588623660526899</v>
       </c>
-      <c r="Q15" s="56">
+      <c r="Q15" s="55">
         <v>1.5299026425591101E-2</v>
       </c>
       <c r="R15">
@@ -11894,23 +11938,23 @@
         <v>65715</v>
       </c>
       <c r="Z15" s="32">
-        <f t="shared" ref="Z15" si="16">F31</f>
+        <f t="shared" ref="Z15" si="27">F31</f>
         <v>0.40439999999999998</v>
       </c>
       <c r="AA15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92066</v>
       </c>
       <c r="AB15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70220</v>
       </c>
       <c r="AC15" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21846</v>
       </c>
       <c r="AD15" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.99451249810962039</v>
       </c>
       <c r="AE15" s="44">
@@ -11918,60 +11962,60 @@
         <v>0.99451249810962039</v>
       </c>
       <c r="AF15" s="44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.62113673196667707</v>
       </c>
       <c r="AG15" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.2232810131874641</v>
       </c>
       <c r="AH15" s="33">
-        <f>J31</f>
+        <f t="shared" si="3"/>
         <v>0.76271370538526695</v>
       </c>
       <c r="AI15" s="32">
-        <f>K31</f>
+        <f t="shared" si="4"/>
         <v>0.237286294614733</v>
       </c>
       <c r="AJ15" s="34"/>
       <c r="AK15" s="33">
-        <f>L31</f>
+        <f t="shared" si="5"/>
         <v>0.71312485733850706</v>
       </c>
       <c r="AL15" s="33">
-        <f>M31</f>
+        <f t="shared" si="6"/>
         <v>0.134307235790915</v>
       </c>
       <c r="AM15" s="33">
-        <f>N31</f>
+        <f t="shared" si="7"/>
         <v>6.0731948565776496E-2</v>
       </c>
       <c r="AN15" s="33">
-        <f>O31</f>
+        <f t="shared" si="8"/>
         <v>9.1835958304800999E-2</v>
       </c>
       <c r="AO15" s="35"/>
       <c r="AP15" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.2868751426614925</v>
       </c>
       <c r="AQ15" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.1313199927313571</v>
       </c>
       <c r="AR15" s="32" t="s">
         <v>137</v>
       </c>
       <c r="AS15" s="33">
-        <f>P31</f>
+        <f t="shared" si="10"/>
         <v>1.0553967662170753</v>
       </c>
       <c r="AT15" s="33">
-        <f>S31</f>
+        <f t="shared" si="26"/>
         <v>1.3410221619176848</v>
       </c>
       <c r="AU15" s="33">
-        <f t="shared" ref="AU15" si="17">R31</f>
+        <f t="shared" ref="AU15" si="28">R31</f>
         <v>1.0256556986170706</v>
       </c>
     </row>
@@ -12010,43 +12054,43 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <f>F2/$A$18</f>
+        <f t="shared" ref="F18:F31" si="29">F2/$A$18</f>
         <v>0.35324923076923098</v>
       </c>
       <c r="J18">
-        <f>J2/$A$18</f>
+        <f t="shared" ref="J18:K30" si="30">J2/$A$18</f>
         <v>0.62007691144381805</v>
       </c>
       <c r="K18">
-        <f>K2/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.37992308855618195</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:O18" si="18">L2/$A$18</f>
+        <f t="shared" ref="L18:O18" si="31">L2/$A$18</f>
         <v>0.74642440290577194</v>
       </c>
       <c r="M18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>0.11887880424368101</v>
       </c>
       <c r="N18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>5.5380380816333598E-2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
         <v>7.9316412034214204E-2</v>
       </c>
       <c r="P18">
-        <f>P2/$P$2</f>
+        <f t="shared" ref="P18:P24" si="32">P2/$P$2</f>
         <v>1</v>
       </c>
       <c r="R18">
-        <f>R2/$R$2</f>
+        <f t="shared" ref="R18:R24" si="33">R2/$R$2</f>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>S2/$S$2</f>
+        <f t="shared" ref="S18:S24" si="34">S2/$S$2</f>
         <v>1</v>
       </c>
     </row>
@@ -12055,43 +12099,43 @@
         <v>26</v>
       </c>
       <c r="F19">
-        <f>F3/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.350646153846154</v>
       </c>
       <c r="J19">
-        <f>J3/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.61730802565436005</v>
       </c>
       <c r="K19">
-        <f>K3/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.38269197434564001</v>
       </c>
       <c r="L19">
-        <f>L3/$A$18</f>
+        <f t="shared" ref="L19:O30" si="35">L3/$A$18</f>
         <v>0.75093015093015092</v>
       </c>
       <c r="M19">
-        <f>M3/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.117795717795718</v>
       </c>
       <c r="N19">
-        <f>N3/$A$18</f>
+        <f t="shared" si="35"/>
         <v>5.3738153738153702E-2</v>
       </c>
       <c r="O19">
-        <f>O3/$A$18</f>
+        <f t="shared" si="35"/>
         <v>7.7535977535977491E-2</v>
       </c>
       <c r="P19">
-        <f>P3/$P$2</f>
+        <f t="shared" si="32"/>
         <v>0.96635069612005753</v>
       </c>
       <c r="R19">
-        <f>R3/$R$2</f>
+        <f t="shared" si="33"/>
         <v>1.0035460992907814</v>
       </c>
       <c r="S19">
-        <f>S3/$S$2</f>
+        <f t="shared" si="34"/>
         <v>1.0033840947546542</v>
       </c>
     </row>
@@ -12100,43 +12144,43 @@
         <v>27</v>
       </c>
       <c r="F20">
-        <f>F4/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.35320000000000001</v>
       </c>
       <c r="J20">
-        <f>J4/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.62150104494905201</v>
       </c>
       <c r="K20">
-        <f>K4/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.37849895505094799</v>
       </c>
       <c r="L20">
-        <f>L4/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.80043557801202203</v>
       </c>
       <c r="M20">
-        <f>M4/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.11011412143915</v>
       </c>
       <c r="N20">
-        <f>N4/$A$18</f>
+        <f t="shared" si="35"/>
         <v>3.9376252286784597E-2</v>
       </c>
       <c r="O20">
-        <f>O4/$A$18</f>
+        <f t="shared" si="35"/>
         <v>5.0074048262043702E-2</v>
       </c>
       <c r="P20">
-        <f>P4/$P$2</f>
+        <f t="shared" si="32"/>
         <v>0.61932718626532479</v>
       </c>
       <c r="R20">
-        <f>R4/$R$2</f>
+        <f t="shared" si="33"/>
         <v>0.69642058165548193</v>
       </c>
       <c r="S20">
-        <f>S4/$S$2</f>
+        <f t="shared" si="34"/>
         <v>0.34198385236447454</v>
       </c>
     </row>
@@ -12145,43 +12189,43 @@
         <v>22</v>
       </c>
       <c r="F21">
-        <f>F5/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40318769230769197</v>
       </c>
       <c r="J21">
-        <f>J5/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.81294360337051197</v>
       </c>
       <c r="K21">
-        <f>K5/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.187056396629488</v>
       </c>
       <c r="L21">
-        <f>L5/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.70092188406239497</v>
       </c>
       <c r="M21">
-        <f>M5/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.145425684544705</v>
       </c>
       <c r="N21">
-        <f>N5/$A$18</f>
+        <f t="shared" si="35"/>
         <v>6.31276901004304E-2</v>
       </c>
       <c r="O21">
-        <f>O5/$A$18</f>
+        <f t="shared" si="35"/>
         <v>9.0524741292469207E-2</v>
       </c>
       <c r="P21">
-        <f>P5/$P$2</f>
+        <f t="shared" si="32"/>
         <v>1.0552481055456027</v>
       </c>
       <c r="R21">
-        <f>R5/$R$2</f>
+        <f t="shared" si="33"/>
         <v>0.99922261960702241</v>
       </c>
       <c r="S21">
-        <f>S5/$S$2</f>
+        <f t="shared" si="34"/>
         <v>1.3520291837665308</v>
       </c>
     </row>
@@ -12190,43 +12234,43 @@
         <v>24</v>
       </c>
       <c r="F22">
-        <f>F6/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40268307692307703</v>
       </c>
       <c r="J22">
-        <f>J6/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.8125</v>
       </c>
       <c r="K22">
-        <f>K6/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.1875</v>
       </c>
       <c r="L22">
-        <f>L6/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.712956170915093</v>
       </c>
       <c r="M22">
-        <f>M6/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.14087046885506399</v>
       </c>
       <c r="N22">
-        <f>N6/$A$18</f>
+        <f t="shared" si="35"/>
         <v>5.9569655846934397E-2</v>
       </c>
       <c r="O22">
-        <f>O6/$A$18</f>
+        <f t="shared" si="35"/>
         <v>8.6603704382908486E-2</v>
       </c>
       <c r="P22">
-        <f>P6/$P$2</f>
+        <f t="shared" si="32"/>
         <v>1.0080439729401152</v>
       </c>
       <c r="R22">
-        <f>R6/$R$2</f>
+        <f t="shared" si="33"/>
         <v>0.97449698214020541</v>
       </c>
       <c r="S22">
-        <f>S6/$S$2</f>
+        <f t="shared" si="34"/>
         <v>1.1425818882466288</v>
       </c>
     </row>
@@ -12235,43 +12279,43 @@
         <v>25</v>
       </c>
       <c r="F23">
-        <f>F7/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40287999999999996</v>
       </c>
       <c r="J23">
-        <f>J7/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.81289352175738105</v>
       </c>
       <c r="K23">
-        <f>K7/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.187106478242619</v>
       </c>
       <c r="L23">
-        <f>L7/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.78047290279220405</v>
       </c>
       <c r="M23">
-        <f>M7/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.12624488299627301</v>
       </c>
       <c r="N23">
-        <f>N7/$A$18</f>
+        <f t="shared" si="35"/>
         <v>4.2631514633103197E-2</v>
       </c>
       <c r="O23">
-        <f>O7/$A$18</f>
+        <f t="shared" si="35"/>
         <v>5.065069957842E-2</v>
       </c>
       <c r="P23">
-        <f>P7/$P$2</f>
+        <f t="shared" si="32"/>
         <v>0.59204950263720224</v>
       </c>
       <c r="R23">
-        <f>R7/$R$2</f>
+        <f t="shared" si="33"/>
         <v>0.65153426077581589</v>
       </c>
       <c r="S23">
-        <f>S7/$S$2</f>
+        <f t="shared" si="34"/>
         <v>0.54081167350661152</v>
       </c>
     </row>
@@ -12280,43 +12324,43 @@
         <v>140</v>
       </c>
       <c r="F24">
-        <f>F8/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40036307692307704</v>
       </c>
       <c r="J24">
-        <f>J8/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.81033273318212595</v>
       </c>
       <c r="K24">
-        <f>K8/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.18966726681787399</v>
       </c>
       <c r="L24">
-        <f>L8/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.78945265067092907</v>
       </c>
       <c r="M24">
-        <f>M8/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.13289475706666301</v>
       </c>
       <c r="N24">
-        <f>N8/$A$18</f>
+        <f t="shared" si="35"/>
         <v>4.1316343626554397E-2</v>
       </c>
       <c r="O24">
-        <f>O8/$A$18</f>
+        <f t="shared" si="35"/>
         <v>3.63362486358536E-2</v>
       </c>
       <c r="P24">
-        <f>P8/$P$2</f>
+        <f t="shared" si="32"/>
         <v>0.41637107581900051</v>
       </c>
       <c r="R24">
-        <f>R8/$R$2</f>
+        <f t="shared" si="33"/>
         <v>0.69579196217493944</v>
       </c>
       <c r="S24">
-        <f>S8/$S$2</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -12325,43 +12369,43 @@
         <v>87</v>
       </c>
       <c r="F25">
-        <f>F9/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.35262153846153899</v>
       </c>
       <c r="J25">
-        <f>J9/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.62239045901852996</v>
       </c>
       <c r="K25">
-        <f>K9/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.17568917950166199</v>
       </c>
       <c r="L25">
-        <f>L9/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.72632240275038795</v>
       </c>
       <c r="M25">
-        <f>M9/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.13701331564894201</v>
       </c>
       <c r="N25">
-        <f>N9/$A$18</f>
+        <f t="shared" si="35"/>
         <v>5.5426606865499703E-2</v>
       </c>
       <c r="O25">
-        <f>O9/$A$18</f>
+        <f t="shared" si="35"/>
         <v>8.1237674735170393E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25:P32" si="19">P9/$P$2</f>
+        <f t="shared" ref="P25:P31" si="36">P9/$P$2</f>
         <v>1.0113559162360768</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25:R32" si="20">R9/$R$2</f>
+        <f t="shared" ref="R25:R31" si="37">R9/$R$2</f>
         <v>1.0182415272415277</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25" si="21">S9/$S$2</f>
+        <f t="shared" ref="S25" si="38">S9/$S$2</f>
         <v>1.0295138888888886</v>
       </c>
     </row>
@@ -12370,39 +12414,39 @@
         <v>121</v>
       </c>
       <c r="F26">
-        <f>F10/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40246769230769203</v>
       </c>
       <c r="J26">
-        <f>J10/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.8123179456108871</v>
       </c>
       <c r="K26">
-        <f>K10/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.18768205438911298</v>
       </c>
       <c r="L26">
-        <f>L10/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.92394611703185003</v>
       </c>
       <c r="M26">
-        <f>M10/$A$18</f>
+        <f t="shared" si="35"/>
         <v>2.85469641136986E-2</v>
       </c>
       <c r="N26">
-        <f>N10/$A$18</f>
+        <f t="shared" si="35"/>
         <v>1.5825446094096401E-2</v>
       </c>
       <c r="O26">
-        <f>O10/$A$18</f>
+        <f t="shared" si="35"/>
         <v>3.1681472760355295E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.38777056973996404</v>
       </c>
       <c r="R26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>0.44197169350902837</v>
       </c>
       <c r="S26">
@@ -12415,39 +12459,39 @@
         <v>122</v>
       </c>
       <c r="F27">
-        <f>F11/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40276923076923099</v>
       </c>
       <c r="J27">
-        <f>J11/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.81218504509746892</v>
       </c>
       <c r="K27">
-        <f>K11/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.187814954902531</v>
       </c>
       <c r="L27">
-        <f>L11/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.71107715813598205</v>
       </c>
       <c r="M27">
-        <f>M11/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.13983193277310899</v>
       </c>
       <c r="N27">
-        <f>N11/$A$18</f>
+        <f t="shared" si="35"/>
         <v>6.0137509549274305E-2</v>
       </c>
       <c r="O27">
-        <f>O11/$A$18</f>
+        <f t="shared" si="35"/>
         <v>8.8953399541634809E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>1.0352746607363847</v>
       </c>
       <c r="R27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>0.98864628820960643</v>
       </c>
       <c r="S27">
@@ -12460,43 +12504,43 @@
         <v>124</v>
       </c>
       <c r="F28">
-        <f>F12/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.39984615384615402</v>
       </c>
       <c r="J28">
-        <f>J12/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.80894432613325196</v>
       </c>
       <c r="K28">
-        <f>K12/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.19105567386674799</v>
       </c>
       <c r="L28">
-        <f>L12/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.72253943824547906</v>
       </c>
       <c r="M28">
-        <f>M12/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.13766833397460598</v>
       </c>
       <c r="N28">
-        <f>N12/$A$18</f>
+        <f t="shared" si="35"/>
         <v>5.9068872643324395E-2</v>
       </c>
       <c r="O28">
-        <f>O12/$A$18</f>
+        <f t="shared" si="35"/>
         <v>8.0723355136590999E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.94120602402824638</v>
       </c>
       <c r="R28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>0.9499300699300709</v>
       </c>
       <c r="S28">
-        <f t="shared" ref="S28:S29" si="22">S12/$S$2</f>
+        <f t="shared" ref="S28:S29" si="39">S12/$S$2</f>
         <v>1.0690174726312005</v>
       </c>
     </row>
@@ -12505,43 +12549,43 @@
         <v>123</v>
       </c>
       <c r="F29">
-        <f>F13/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40398153846153795</v>
       </c>
       <c r="J29">
-        <f>J13/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.81226565130074402</v>
       </c>
       <c r="K29">
-        <f>K13/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.18773434869925601</v>
       </c>
       <c r="L29">
-        <f>L13/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.77694334851554503</v>
       </c>
       <c r="M29">
-        <f>M13/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.13944277727847398</v>
       </c>
       <c r="N29">
-        <f>N13/$A$18</f>
+        <f t="shared" si="35"/>
         <v>4.2621901990951602E-2</v>
       </c>
       <c r="O29">
-        <f>O13/$A$18</f>
+        <f t="shared" si="35"/>
         <v>4.0991972215028899E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.45932627723252639</v>
       </c>
       <c r="R29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="37"/>
         <v>0.54606849975880511</v>
       </c>
       <c r="S29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="39"/>
         <v>0.27762172284644165</v>
       </c>
     </row>
@@ -12550,35 +12594,35 @@
         <v>41</v>
       </c>
       <c r="F30">
-        <f>F14/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.398793846153846</v>
       </c>
       <c r="J30">
-        <f>J14/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.80434960155876301</v>
       </c>
       <c r="K30">
-        <f>K14/$A$18</f>
+        <f t="shared" si="30"/>
         <v>0.19565039844123699</v>
       </c>
       <c r="L30">
-        <f>L14/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.71625208320473999</v>
       </c>
       <c r="M30">
-        <f>M14/$A$18</f>
+        <f t="shared" si="35"/>
         <v>0.138942040614777</v>
       </c>
       <c r="N30">
-        <f>N14/$A$18</f>
+        <f t="shared" si="35"/>
         <v>5.8638355657058196E-2</v>
       </c>
       <c r="O30">
-        <f>O14/$A$18</f>
+        <f t="shared" si="35"/>
         <v>8.616752052342451E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>1.008187197238037</v>
       </c>
       <c r="R30">
@@ -12595,44 +12639,3075 @@
         <v>76</v>
       </c>
       <c r="F31">
-        <f>F15/$A$18</f>
+        <f t="shared" si="29"/>
         <v>0.40439999999999998</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:O32" si="23">J15/$A$18</f>
+        <f t="shared" ref="J31:O31" si="40">J15/$A$18</f>
         <v>0.76271370538526695</v>
       </c>
       <c r="K31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>0.237286294614733</v>
       </c>
       <c r="L31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>0.71312485733850706</v>
       </c>
       <c r="M31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>0.134307235790915</v>
       </c>
       <c r="N31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>6.0731948565776496E-2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>9.1835958304800999E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="36"/>
+        <v>1.0553967662170753</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="37"/>
+        <v>1.0256556986170706</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31" si="41">S15/$S$2</f>
+        <v>1.3410221619176848</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S15">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4994EDBB-04D7-4BD2-94FC-8B151B953DBB}">
+  <dimension ref="A1:AU31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="37" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="43" width="9.140625" customWidth="1"/>
+    <col min="44" max="45" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>325000</v>
+      </c>
+      <c r="E2">
+        <v>114991</v>
+      </c>
+      <c r="F2">
+        <v>35.381846153846197</v>
+      </c>
+      <c r="G2">
+        <v>184880</v>
+      </c>
+      <c r="H2">
+        <v>114991</v>
+      </c>
+      <c r="I2">
+        <v>69889</v>
+      </c>
+      <c r="J2">
+        <v>62.197641713543902</v>
+      </c>
+      <c r="K2">
+        <v>37.802358286456098</v>
+      </c>
+      <c r="L2">
+        <v>74.958040194450007</v>
+      </c>
+      <c r="M2">
+        <v>11.8696245793149</v>
+      </c>
+      <c r="N2">
+        <v>5.3117200476558999</v>
+      </c>
+      <c r="O2">
+        <v>7.8606151785791898</v>
+      </c>
+      <c r="P2">
+        <v>1.45443821701261</v>
+      </c>
+      <c r="Q2">
+        <v>1.4059753954305801E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.6022304832713798</v>
+      </c>
+      <c r="S2">
+        <v>0.512820512820513</v>
+      </c>
+      <c r="U2" s="30">
+        <v>1</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" ref="W2:Y15" si="0">C2</f>
+        <v>200</v>
+      </c>
+      <c r="X2" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y2" s="31">
+        <f t="shared" si="0"/>
+        <v>114991</v>
+      </c>
+      <c r="Z2" s="32">
+        <f t="shared" ref="Z2:Z13" si="1">F18</f>
+        <v>0.35381846153846197</v>
+      </c>
+      <c r="AA2" s="31">
+        <f t="shared" ref="AA2:AC15" si="2">G2</f>
+        <v>184880</v>
+      </c>
+      <c r="AB2" s="31">
+        <f t="shared" si="2"/>
+        <v>114991</v>
+      </c>
+      <c r="AC2" s="31">
+        <f>I2</f>
+        <v>69889</v>
+      </c>
+      <c r="AD2" s="44">
+        <f>AA2/$AA$2</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="44">
+        <f>AA2/$AA$2</f>
+        <v>1</v>
+      </c>
+      <c r="AF2" s="44">
+        <f>AC2/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="44">
+        <f>AB2/$AB$2</f>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="33">
+        <f t="shared" ref="AH2:AI15" si="3">J18</f>
+        <v>0.62197641713543905</v>
+      </c>
+      <c r="AI2" s="32">
+        <f t="shared" si="3"/>
+        <v>0.378023582864561</v>
+      </c>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="33">
+        <f t="shared" ref="AK2:AN15" si="4">L18</f>
+        <v>0.74958040194450004</v>
+      </c>
+      <c r="AL2" s="33">
+        <f t="shared" si="4"/>
+        <v>0.118696245793149</v>
+      </c>
+      <c r="AM2" s="33">
+        <f t="shared" si="4"/>
+        <v>5.3117200476558997E-2</v>
+      </c>
+      <c r="AN2" s="33">
+        <f t="shared" si="4"/>
+        <v>7.8606151785791903E-2</v>
+      </c>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35">
+        <f>SUM(AL2:AN2)</f>
+        <v>0.2504195980554999</v>
+      </c>
+      <c r="AQ2" s="35">
+        <f>AP2/$AP$2</f>
+        <v>1</v>
+      </c>
+      <c r="AR2" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS2" s="33">
+        <f t="shared" ref="AS2:AS15" si="5">P18</f>
+        <v>1</v>
+      </c>
+      <c r="AT2" s="33">
+        <f t="shared" ref="AT2:AT7" si="6">S18</f>
+        <v>1</v>
+      </c>
+      <c r="AU2" s="33">
+        <f t="shared" ref="AU2:AU7" si="7">R18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>325000</v>
+      </c>
+      <c r="E3">
+        <v>115006</v>
+      </c>
+      <c r="F3">
+        <v>35.386461538461504</v>
+      </c>
+      <c r="G3">
+        <v>184943</v>
+      </c>
+      <c r="H3">
+        <v>115006</v>
+      </c>
+      <c r="I3">
+        <v>69937</v>
+      </c>
+      <c r="J3">
+        <v>62.184564974073098</v>
+      </c>
+      <c r="K3">
+        <v>37.815435025926902</v>
+      </c>
+      <c r="L3">
+        <v>74.805662313270602</v>
+      </c>
+      <c r="M3">
+        <v>12.152409439507499</v>
+      </c>
+      <c r="N3">
+        <v>5.3718936403318098</v>
+      </c>
+      <c r="O3">
+        <v>7.6700346068900798</v>
+      </c>
+      <c r="P3">
+        <v>1.41354002975423</v>
+      </c>
+      <c r="Q3">
+        <v>1.3745704467354E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.5689096259461399</v>
+      </c>
+      <c r="S3">
+        <v>0.50847457627118597</v>
+      </c>
+      <c r="U3" s="30">
+        <v>2</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X3" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y3" s="31">
+        <f t="shared" si="0"/>
+        <v>115006</v>
+      </c>
+      <c r="Z3" s="32">
+        <f t="shared" si="1"/>
+        <v>0.35386461538461506</v>
+      </c>
+      <c r="AA3" s="31">
+        <f t="shared" si="2"/>
+        <v>184943</v>
+      </c>
+      <c r="AB3" s="31">
+        <f t="shared" si="2"/>
+        <v>115006</v>
+      </c>
+      <c r="AC3" s="31">
+        <f t="shared" si="2"/>
+        <v>69937</v>
+      </c>
+      <c r="AD3" s="44">
+        <f t="shared" ref="AD3:AD15" si="8">AA3/$AA$2</f>
+        <v>1.0003407615750757</v>
+      </c>
+      <c r="AE3" s="44">
+        <f t="shared" ref="AE3:AE14" si="9">AA3/$AA$2</f>
+        <v>1.0003407615750757</v>
+      </c>
+      <c r="AF3" s="44">
+        <f>AC3/$AC$2</f>
+        <v>1.000686803359613</v>
+      </c>
+      <c r="AG3" s="44">
+        <f t="shared" ref="AG3:AG15" si="10">AB3/$AB$2</f>
+        <v>1.0001304449913471</v>
+      </c>
+      <c r="AH3" s="33">
+        <f t="shared" si="3"/>
+        <v>0.62184564974073098</v>
+      </c>
+      <c r="AI3" s="32">
+        <f t="shared" si="3"/>
+        <v>0.37815435025926902</v>
+      </c>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="33">
+        <f t="shared" si="4"/>
+        <v>0.74805662313270604</v>
+      </c>
+      <c r="AL3" s="33">
+        <f t="shared" si="4"/>
+        <v>0.121524094395075</v>
+      </c>
+      <c r="AM3" s="33">
+        <f t="shared" si="4"/>
+        <v>5.3718936403318096E-2</v>
+      </c>
+      <c r="AN3" s="33">
+        <f t="shared" si="4"/>
+        <v>7.6700346068900804E-2</v>
+      </c>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35">
+        <f t="shared" ref="AP2:AP15" si="11">SUM(AL3:AN3)</f>
+        <v>0.2519433768672939</v>
+      </c>
+      <c r="AQ3" s="35">
+        <f t="shared" ref="AQ3:AQ15" si="12">AP3/$AP$2</f>
+        <v>1.0060849023943257</v>
+      </c>
+      <c r="AR3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS3" s="33">
+        <f t="shared" si="5"/>
+        <v>0.97188042312145495</v>
+      </c>
+      <c r="AT3" s="33">
+        <f t="shared" si="6"/>
+        <v>0.99152542372881236</v>
+      </c>
+      <c r="AU3" s="33">
+        <f t="shared" si="7"/>
+        <v>0.98719527054215783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>325000</v>
+      </c>
+      <c r="E4">
+        <v>114690</v>
+      </c>
+      <c r="F4">
+        <v>35.289230769230798</v>
+      </c>
+      <c r="G4">
+        <v>184628</v>
+      </c>
+      <c r="H4">
+        <v>114690</v>
+      </c>
+      <c r="I4">
+        <v>69938</v>
+      </c>
+      <c r="J4">
+        <v>62.119505167146897</v>
+      </c>
+      <c r="K4">
+        <v>37.880494832853103</v>
+      </c>
+      <c r="L4">
+        <v>79.977330194437201</v>
+      </c>
+      <c r="M4">
+        <v>11.2668933647223</v>
+      </c>
+      <c r="N4">
+        <v>3.8931031476153102</v>
+      </c>
+      <c r="O4">
+        <v>4.8626732932252201</v>
+      </c>
+      <c r="P4">
+        <v>0.88809204375770501</v>
+      </c>
+      <c r="Q4">
+        <v>8.6430488074534899E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.7953321364452399</v>
+      </c>
+      <c r="S4">
+        <v>0.17452006980802801</v>
+      </c>
+      <c r="U4" s="30">
+        <v>3</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X4" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y4" s="31">
+        <f t="shared" si="0"/>
+        <v>114690</v>
+      </c>
+      <c r="Z4" s="32">
+        <f t="shared" si="1"/>
+        <v>0.352892307692308</v>
+      </c>
+      <c r="AA4" s="31">
+        <f t="shared" si="2"/>
+        <v>184628</v>
+      </c>
+      <c r="AB4" s="31">
+        <f t="shared" si="2"/>
+        <v>114690</v>
+      </c>
+      <c r="AC4" s="31">
+        <f t="shared" si="2"/>
+        <v>69938</v>
+      </c>
+      <c r="AD4" s="44">
+        <f t="shared" si="8"/>
+        <v>0.99863695369969707</v>
+      </c>
+      <c r="AE4" s="44">
+        <f t="shared" si="9"/>
+        <v>0.99863695369969707</v>
+      </c>
+      <c r="AF4" s="44">
+        <f>AC4/$AC$2</f>
+        <v>1.0007011117629383</v>
+      </c>
+      <c r="AG4" s="44">
+        <f t="shared" si="10"/>
+        <v>0.99738240384030052</v>
+      </c>
+      <c r="AH4" s="33">
+        <f t="shared" si="3"/>
+        <v>0.62119505167146893</v>
+      </c>
+      <c r="AI4" s="32">
+        <f t="shared" si="3"/>
+        <v>0.37880494832853101</v>
+      </c>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="33">
+        <f t="shared" si="4"/>
+        <v>0.79977330194437202</v>
+      </c>
+      <c r="AL4" s="33">
+        <f t="shared" si="4"/>
+        <v>0.112668933647223</v>
+      </c>
+      <c r="AM4" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8931031476153101E-2</v>
+      </c>
+      <c r="AN4" s="33">
+        <f t="shared" si="4"/>
+        <v>4.8626732932252198E-2</v>
+      </c>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35">
+        <f t="shared" si="11"/>
+        <v>0.20022669805562829</v>
+      </c>
+      <c r="AQ4" s="35">
+        <f t="shared" si="12"/>
+        <v>0.7995648088663273</v>
+      </c>
+      <c r="AR4" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS4" s="33">
+        <f t="shared" si="5"/>
+        <v>0.61060829767099367</v>
+      </c>
+      <c r="AT4" s="33">
+        <f t="shared" si="6"/>
+        <v>0.34031413612565448</v>
+      </c>
+      <c r="AU4" s="33">
+        <f t="shared" si="7"/>
+        <v>0.68992049243395537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>325000</v>
+      </c>
+      <c r="E5">
+        <v>131089</v>
+      </c>
+      <c r="F5">
+        <v>40.335076923076898</v>
+      </c>
+      <c r="G5">
+        <v>172228</v>
+      </c>
+      <c r="H5">
+        <v>139730</v>
+      </c>
+      <c r="I5">
+        <v>32498</v>
+      </c>
+      <c r="J5">
+        <v>81.130826578721198</v>
+      </c>
+      <c r="K5">
+        <v>18.869173421278798</v>
+      </c>
+      <c r="L5">
+        <v>70.038676014005702</v>
+      </c>
+      <c r="M5">
+        <v>14.4802386165124</v>
+      </c>
+      <c r="N5">
+        <v>6.1790081547650804</v>
+      </c>
+      <c r="O5">
+        <v>9.3020772147167197</v>
+      </c>
+      <c r="P5">
+        <v>1.5935315224117099</v>
+      </c>
+      <c r="Q5">
+        <v>1.55477109454287E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.75761973875181</v>
+      </c>
+      <c r="S5">
+        <v>0.69348127600554799</v>
+      </c>
+      <c r="U5" s="30">
+        <v>4</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X5" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y5" s="31">
+        <f t="shared" si="0"/>
+        <v>131089</v>
+      </c>
+      <c r="Z5" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40335076923076896</v>
+      </c>
+      <c r="AA5" s="31">
+        <f t="shared" si="2"/>
+        <v>172228</v>
+      </c>
+      <c r="AB5" s="31">
+        <f t="shared" si="2"/>
+        <v>139730</v>
+      </c>
+      <c r="AC5" s="31">
+        <f t="shared" si="2"/>
+        <v>32498</v>
+      </c>
+      <c r="AD5" s="44">
+        <f t="shared" si="8"/>
+        <v>0.93156642146257029</v>
+      </c>
+      <c r="AE5" s="44">
+        <f t="shared" si="9"/>
+        <v>0.93156642146257029</v>
+      </c>
+      <c r="AF5" s="44">
+        <f>AC5/$AC$2</f>
+        <v>0.46499449126471976</v>
+      </c>
+      <c r="AG5" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2151385760624744</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81130826578721194</v>
+      </c>
+      <c r="AI5" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18869173421278798</v>
+      </c>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="33">
+        <f t="shared" si="4"/>
+        <v>0.70038676014005707</v>
+      </c>
+      <c r="AL5" s="33">
+        <f t="shared" si="4"/>
+        <v>0.144802386165124</v>
+      </c>
+      <c r="AM5" s="33">
+        <f t="shared" si="4"/>
+        <v>6.1790081547650803E-2</v>
+      </c>
+      <c r="AN5" s="33">
+        <f t="shared" si="4"/>
+        <v>9.3020772147167197E-2</v>
+      </c>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35">
+        <f t="shared" si="11"/>
+        <v>0.29961323985994204</v>
+      </c>
+      <c r="AQ5" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1964448556999099</v>
+      </c>
+      <c r="AR5" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS5" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0956336981331494</v>
+      </c>
+      <c r="AT5" s="33">
+        <f t="shared" si="6"/>
+        <v>1.3522884882108182</v>
+      </c>
+      <c r="AU5" s="33">
+        <f t="shared" si="7"/>
+        <v>1.0597138710346223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>325000</v>
+      </c>
+      <c r="E6">
+        <v>130780</v>
+      </c>
+      <c r="F6">
+        <v>40.24</v>
+      </c>
+      <c r="G6">
+        <v>171444</v>
+      </c>
+      <c r="H6">
+        <v>139273</v>
+      </c>
+      <c r="I6">
+        <v>32171</v>
+      </c>
+      <c r="J6">
+        <v>81.235272158838995</v>
+      </c>
+      <c r="K6">
+        <v>18.764727841161001</v>
+      </c>
+      <c r="L6">
+        <v>70.813580058112905</v>
+      </c>
+      <c r="M6">
+        <v>14.283529591680701</v>
+      </c>
+      <c r="N6">
+        <v>5.9221593515828097</v>
+      </c>
+      <c r="O6">
+        <v>8.9807309986236401</v>
+      </c>
+      <c r="P6">
+        <v>1.5621688093027899</v>
+      </c>
+      <c r="Q6">
+        <v>1.5363128491620101E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.6785714285714302</v>
+      </c>
+      <c r="S6">
+        <v>0.60882800608828003</v>
+      </c>
+      <c r="U6" s="30">
+        <v>5</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X6" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y6" s="31">
+        <f t="shared" si="0"/>
+        <v>130780</v>
+      </c>
+      <c r="Z6" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40240000000000004</v>
+      </c>
+      <c r="AA6" s="31">
+        <f t="shared" si="2"/>
+        <v>171444</v>
+      </c>
+      <c r="AB6" s="31">
+        <f t="shared" si="2"/>
+        <v>139273</v>
+      </c>
+      <c r="AC6" s="31">
+        <f t="shared" si="2"/>
+        <v>32171</v>
+      </c>
+      <c r="AD6" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92732583297273907</v>
+      </c>
+      <c r="AE6" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92732583297273907</v>
+      </c>
+      <c r="AF6" s="44">
+        <f t="shared" ref="AF6:AF15" si="13">AC6/$AC$2</f>
+        <v>0.46031564337735553</v>
+      </c>
+      <c r="AG6" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2111643519927646</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81235272158839</v>
+      </c>
+      <c r="AI6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18764727841161</v>
+      </c>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="33">
+        <f t="shared" si="4"/>
+        <v>0.70813580058112902</v>
+      </c>
+      <c r="AL6" s="33">
+        <f t="shared" si="4"/>
+        <v>0.14283529591680699</v>
+      </c>
+      <c r="AM6" s="33">
+        <f t="shared" si="4"/>
+        <v>5.9221593515828098E-2</v>
+      </c>
+      <c r="AN6" s="33">
+        <f t="shared" si="4"/>
+        <v>8.98073099862364E-2</v>
+      </c>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35">
+        <f t="shared" si="11"/>
+        <v>0.29186419941887148</v>
+      </c>
+      <c r="AQ6" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1655006304825484</v>
+      </c>
+      <c r="AR6" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS6" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0740702430877103</v>
+      </c>
+      <c r="AT6" s="33">
+        <f t="shared" si="6"/>
+        <v>1.1872146118721456</v>
+      </c>
+      <c r="AU6" s="33">
+        <f t="shared" si="7"/>
+        <v>1.0293367346938764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>325000</v>
+      </c>
+      <c r="E7">
+        <v>130735</v>
+      </c>
+      <c r="F7">
+        <v>40.2261538461538</v>
+      </c>
+      <c r="G7">
+        <v>171504</v>
+      </c>
+      <c r="H7">
+        <v>139339</v>
+      </c>
+      <c r="I7">
+        <v>32165</v>
+      </c>
+      <c r="J7">
+        <v>81.245335385763596</v>
+      </c>
+      <c r="K7">
+        <v>18.7546646142364</v>
+      </c>
+      <c r="L7">
+        <v>77.707576394997503</v>
+      </c>
+      <c r="M7">
+        <v>12.9054958503844</v>
+      </c>
+      <c r="N7">
+        <v>4.2804145791104098</v>
+      </c>
+      <c r="O7">
+        <v>5.1065131755077102</v>
+      </c>
+      <c r="P7">
+        <v>0.886176471927138</v>
+      </c>
+      <c r="Q7">
+        <v>8.5959885386819503E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.7416545718432499</v>
+      </c>
+      <c r="S7">
+        <v>0.27027027027027001</v>
+      </c>
+      <c r="U7" s="30">
+        <v>6</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X7" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y7" s="31">
+        <f t="shared" si="0"/>
+        <v>130735</v>
+      </c>
+      <c r="Z7" s="32">
+        <f t="shared" si="1"/>
+        <v>0.402261538461538</v>
+      </c>
+      <c r="AA7" s="31">
+        <f t="shared" si="2"/>
+        <v>171504</v>
+      </c>
+      <c r="AB7" s="31">
+        <f t="shared" si="2"/>
+        <v>139339</v>
+      </c>
+      <c r="AC7" s="31">
+        <f t="shared" si="2"/>
+        <v>32165</v>
+      </c>
+      <c r="AD7" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92765036780614452</v>
+      </c>
+      <c r="AE7" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92765036780614452</v>
+      </c>
+      <c r="AF7" s="44">
+        <f t="shared" si="13"/>
+        <v>0.4602297929574039</v>
+      </c>
+      <c r="AG7" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2117383099546921</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81245335385763595</v>
+      </c>
+      <c r="AI7" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18754664614236399</v>
+      </c>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="33">
+        <f t="shared" si="4"/>
+        <v>0.77707576394997502</v>
+      </c>
+      <c r="AL7" s="33">
+        <f t="shared" si="4"/>
+        <v>0.12905495850384399</v>
+      </c>
+      <c r="AM7" s="33">
+        <f t="shared" si="4"/>
+        <v>4.2804145791104101E-2</v>
+      </c>
+      <c r="AN7" s="33">
+        <f t="shared" si="4"/>
+        <v>5.1065131755077105E-2</v>
+      </c>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35">
+        <f>SUM(AL7:AN7)</f>
+        <v>0.2229242360500252</v>
+      </c>
+      <c r="AQ7" s="35">
+        <f t="shared" si="12"/>
+        <v>0.89020283468636119</v>
+      </c>
+      <c r="AR7" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS7" s="33">
+        <f t="shared" si="5"/>
+        <v>0.60929124493670728</v>
+      </c>
+      <c r="AT7" s="33">
+        <f t="shared" si="6"/>
+        <v>0.52702702702702631</v>
+      </c>
+      <c r="AU7" s="33">
+        <f t="shared" si="7"/>
+        <v>0.66929297117976205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>325000</v>
+      </c>
+      <c r="E8">
+        <v>130607</v>
+      </c>
+      <c r="F8">
+        <v>40.186769230769201</v>
+      </c>
+      <c r="G8">
+        <v>171539</v>
+      </c>
+      <c r="H8">
+        <v>139170</v>
+      </c>
+      <c r="I8">
+        <v>32369</v>
+      </c>
+      <c r="J8">
+        <v>81.130238604632197</v>
+      </c>
+      <c r="K8">
+        <v>18.869761395367799</v>
+      </c>
+      <c r="L8">
+        <v>78.384006982780406</v>
+      </c>
+      <c r="M8">
+        <v>13.4127573560376</v>
+      </c>
+      <c r="N8">
+        <v>4.1552137328014602</v>
+      </c>
+      <c r="O8">
+        <v>4.0480219283805603</v>
+      </c>
+      <c r="P8">
+        <v>0.67970127666501601</v>
+      </c>
+      <c r="Q8">
+        <v>5.5944055944055901E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.9971469329529199</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30">
+        <v>8</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X8" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y8" s="31">
+        <f t="shared" si="0"/>
+        <v>130607</v>
+      </c>
+      <c r="Z8" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40186769230769204</v>
+      </c>
+      <c r="AA8" s="31">
+        <f>G8</f>
+        <v>171539</v>
+      </c>
+      <c r="AB8" s="31">
+        <f t="shared" si="2"/>
+        <v>139170</v>
+      </c>
+      <c r="AC8" s="31">
+        <f>I8</f>
+        <v>32369</v>
+      </c>
+      <c r="AD8" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92783967979229776</v>
+      </c>
+      <c r="AE8" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92783967979229776</v>
+      </c>
+      <c r="AF8" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46314870723575957</v>
+      </c>
+      <c r="AG8" s="44">
+        <f>AB8/$AB$2</f>
+        <v>1.2102686297188476</v>
+      </c>
+      <c r="AH8" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81130238604632199</v>
+      </c>
+      <c r="AI8" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18869761395367798</v>
+      </c>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="33">
+        <f t="shared" si="4"/>
+        <v>0.78384006982780408</v>
+      </c>
+      <c r="AL8" s="33">
+        <f t="shared" si="4"/>
+        <v>0.134127573560376</v>
+      </c>
+      <c r="AM8" s="33">
+        <f t="shared" si="4"/>
+        <v>4.1552137328014604E-2</v>
+      </c>
+      <c r="AN8" s="33">
+        <f t="shared" si="4"/>
+        <v>4.0480219283805602E-2</v>
+      </c>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35">
+        <f>SUM(AL8:AN8)</f>
+        <v>0.2161599301721962</v>
+      </c>
+      <c r="AQ8" s="35">
+        <f t="shared" si="12"/>
+        <v>0.86319094771603777</v>
+      </c>
+      <c r="AR8" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS8" s="33">
+        <f t="shared" si="5"/>
+        <v>0.46732908191941647</v>
+      </c>
+      <c r="AT8" s="33">
+        <f>S25</f>
+        <v>1.0156249999999991</v>
+      </c>
+      <c r="AU8" s="33">
+        <f>R25</f>
+        <v>1.0348807386509331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>325000</v>
+      </c>
+      <c r="E9">
+        <v>114981</v>
+      </c>
+      <c r="F9">
+        <v>35.378769230769201</v>
+      </c>
+      <c r="G9">
+        <v>185012</v>
+      </c>
+      <c r="H9">
+        <v>114981</v>
+      </c>
+      <c r="I9">
+        <v>71702</v>
+      </c>
+      <c r="J9">
+        <v>62.1478606793073</v>
+      </c>
+      <c r="K9">
+        <v>38.755323978985103</v>
+      </c>
+      <c r="L9">
+        <v>72.531113836198998</v>
+      </c>
+      <c r="M9">
+        <v>13.8683782537985</v>
+      </c>
+      <c r="N9">
+        <v>5.5522216714065804</v>
+      </c>
+      <c r="O9">
+        <v>8.0482862385959404</v>
+      </c>
+      <c r="P9">
+        <v>1.4784998360509201</v>
+      </c>
+      <c r="Q9">
+        <v>1.42095914742451E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.6929982046678602</v>
+      </c>
+      <c r="S9">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="U9" s="30">
+        <v>9</v>
+      </c>
+      <c r="V9" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="48">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X9" s="49">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y9" s="49">
+        <f t="shared" si="0"/>
+        <v>114981</v>
+      </c>
+      <c r="Z9" s="50">
+        <f t="shared" si="1"/>
+        <v>0.35378769230769203</v>
+      </c>
+      <c r="AA9" s="49">
+        <f t="shared" si="2"/>
+        <v>185012</v>
+      </c>
+      <c r="AB9" s="49">
+        <f t="shared" si="2"/>
+        <v>114981</v>
+      </c>
+      <c r="AC9" s="49">
+        <f t="shared" si="2"/>
+        <v>71702</v>
+      </c>
+      <c r="AD9" s="51">
+        <f>AA9/$AA$2</f>
+        <v>1.000713976633492</v>
+      </c>
+      <c r="AE9" s="44">
+        <f t="shared" si="9"/>
+        <v>1.000713976633492</v>
+      </c>
+      <c r="AF9" s="51">
+        <f t="shared" si="13"/>
+        <v>1.0259411352287198</v>
+      </c>
+      <c r="AG9" s="51">
+        <f t="shared" si="10"/>
+        <v>0.99991303667243525</v>
+      </c>
+      <c r="AH9" s="52">
+        <f t="shared" si="3"/>
+        <v>0.62147860679307299</v>
+      </c>
+      <c r="AI9" s="50">
+        <f t="shared" si="3"/>
+        <v>0.38755323978985101</v>
+      </c>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="52">
+        <f t="shared" si="4"/>
+        <v>0.72531113836199002</v>
+      </c>
+      <c r="AL9" s="52">
+        <f t="shared" si="4"/>
+        <v>0.138683782537985</v>
+      </c>
+      <c r="AM9" s="52">
+        <f t="shared" si="4"/>
+        <v>5.5522216714065806E-2</v>
+      </c>
+      <c r="AN9" s="52">
+        <f t="shared" si="4"/>
+        <v>8.0482862385959406E-2</v>
+      </c>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54">
+        <f>SUM(AL9:AN9)</f>
+        <v>0.27468886163801021</v>
+      </c>
+      <c r="AQ9" s="35">
+        <f t="shared" si="12"/>
+        <v>1.0969143939650106</v>
+      </c>
+      <c r="AR9" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS9" s="52">
+        <f t="shared" si="5"/>
+        <v>1.0165435827777767</v>
+      </c>
+      <c r="AT9" s="52">
+        <f>S24</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="52">
+        <f>R24</f>
+        <v>0.76747503566333508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>325000</v>
+      </c>
+      <c r="E10">
+        <v>130468</v>
+      </c>
+      <c r="F10">
+        <v>40.143999999999998</v>
+      </c>
+      <c r="G10">
+        <v>171515</v>
+      </c>
+      <c r="H10">
+        <v>139043</v>
+      </c>
+      <c r="I10">
+        <v>32472</v>
+      </c>
+      <c r="J10">
+        <v>81.067545112672406</v>
+      </c>
+      <c r="K10">
+        <v>18.932454887327602</v>
+      </c>
+      <c r="L10">
+        <v>92.424962442897893</v>
+      </c>
+      <c r="M10">
+        <v>2.8160161878774899</v>
+      </c>
+      <c r="N10">
+        <v>1.6479136646534001</v>
+      </c>
+      <c r="O10">
+        <v>3.1111077045712401</v>
+      </c>
+      <c r="P10">
+        <v>0.54815782923152701</v>
+      </c>
+      <c r="Q10">
+        <v>5.5865921787709499E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.1611030478955</v>
+      </c>
+      <c r="S10">
+        <v>0.13586956521739099</v>
+      </c>
+      <c r="U10" s="30">
+        <v>10</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="W10" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X10" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y10" s="31">
+        <f t="shared" si="0"/>
+        <v>130468</v>
+      </c>
+      <c r="Z10" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40143999999999996</v>
+      </c>
+      <c r="AA10" s="31">
+        <f t="shared" si="2"/>
+        <v>171515</v>
+      </c>
+      <c r="AB10" s="31">
+        <f t="shared" si="2"/>
+        <v>139043</v>
+      </c>
+      <c r="AC10" s="31">
+        <f t="shared" si="2"/>
+        <v>32472</v>
+      </c>
+      <c r="AD10" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92770986585893556</v>
+      </c>
+      <c r="AE10" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92770986585893556</v>
+      </c>
+      <c r="AF10" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46462247277826269</v>
+      </c>
+      <c r="AG10" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2091641954587751</v>
+      </c>
+      <c r="AH10" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81067545112672401</v>
+      </c>
+      <c r="AI10" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18932454887327602</v>
+      </c>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="33">
+        <f t="shared" si="4"/>
+        <v>0.92424962442897896</v>
+      </c>
+      <c r="AL10" s="33">
+        <f t="shared" si="4"/>
+        <v>2.81601618787749E-2</v>
+      </c>
+      <c r="AM10" s="33">
+        <f t="shared" si="4"/>
+        <v>1.6479136646534002E-2</v>
+      </c>
+      <c r="AN10" s="33">
+        <f t="shared" si="4"/>
+        <v>3.11110770457124E-2</v>
+      </c>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35">
+        <f t="shared" si="11"/>
+        <v>7.5750375571021294E-2</v>
+      </c>
+      <c r="AQ10" s="35">
+        <f t="shared" si="12"/>
+        <v>0.30249379904456569</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS10" s="33">
+        <f>P26</f>
+        <v>0.37688629384164102</v>
+      </c>
+      <c r="AT10" s="33">
+        <f t="shared" ref="AT10:AT15" si="14">S26</f>
+        <v>0.26494565217391236</v>
+      </c>
+      <c r="AU10" s="33">
+        <f>R26</f>
+        <v>0.44619531411984137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>325000</v>
+      </c>
+      <c r="E11">
+        <v>130582</v>
+      </c>
+      <c r="F11">
+        <v>40.179076923076899</v>
+      </c>
+      <c r="G11">
+        <v>171282</v>
+      </c>
+      <c r="H11">
+        <v>139124</v>
+      </c>
+      <c r="I11">
+        <v>32158</v>
+      </c>
+      <c r="J11">
+        <v>81.225114139255695</v>
+      </c>
+      <c r="K11">
+        <v>18.774885860744298</v>
+      </c>
+      <c r="L11">
+        <v>70.886492778483998</v>
+      </c>
+      <c r="M11">
+        <v>14.037156729105099</v>
+      </c>
+      <c r="N11">
+        <v>6.1134000091896299</v>
+      </c>
+      <c r="O11">
+        <v>8.9629504832212703</v>
+      </c>
+      <c r="P11">
+        <v>1.54168003423906</v>
+      </c>
+      <c r="Q11">
+        <v>1.50273224043716E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.6392961876832799</v>
+      </c>
+      <c r="S11">
+        <v>0.67842605156038005</v>
+      </c>
+      <c r="U11" s="30">
+        <v>11</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="W11" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X11" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y11" s="31">
+        <f t="shared" si="0"/>
+        <v>130582</v>
+      </c>
+      <c r="Z11" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40179076923076901</v>
+      </c>
+      <c r="AA11" s="31">
+        <f t="shared" si="2"/>
+        <v>171282</v>
+      </c>
+      <c r="AB11" s="31">
+        <f t="shared" si="2"/>
+        <v>139124</v>
+      </c>
+      <c r="AC11" s="31">
+        <f t="shared" si="2"/>
+        <v>32158</v>
+      </c>
+      <c r="AD11" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92644958892254436</v>
+      </c>
+      <c r="AE11" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92644958892254436</v>
+      </c>
+      <c r="AF11" s="44">
+        <f t="shared" si="13"/>
+        <v>0.460129634134127</v>
+      </c>
+      <c r="AG11" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2098685984120496</v>
+      </c>
+      <c r="AH11" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81225114139255694</v>
+      </c>
+      <c r="AI11" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18774885860744298</v>
+      </c>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="33">
+        <f t="shared" si="4"/>
+        <v>0.70886492778484</v>
+      </c>
+      <c r="AL11" s="33">
+        <f t="shared" si="4"/>
+        <v>0.14037156729105099</v>
+      </c>
+      <c r="AM11" s="33">
+        <f t="shared" si="4"/>
+        <v>6.1134000091896297E-2</v>
+      </c>
+      <c r="AN11" s="33">
+        <f t="shared" si="4"/>
+        <v>8.96295048322127E-2</v>
+      </c>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="35">
+        <f t="shared" si="11"/>
+        <v>0.29113507221516</v>
+      </c>
+      <c r="AQ11" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1625890085113721</v>
+      </c>
+      <c r="AR11" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS11" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0599831716507306</v>
+      </c>
+      <c r="AT11" s="33">
+        <f t="shared" si="14"/>
+        <v>1.3229308005427407</v>
+      </c>
+      <c r="AU11" s="33">
+        <f>R27</f>
+        <v>1.0142438206954301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>325000</v>
+      </c>
+      <c r="E12">
+        <v>130468</v>
+      </c>
+      <c r="F12">
+        <v>40.143999999999998</v>
+      </c>
+      <c r="G12">
+        <v>171434</v>
+      </c>
+      <c r="H12">
+        <v>139166</v>
+      </c>
+      <c r="I12">
+        <v>32268</v>
+      </c>
+      <c r="J12">
+        <v>81.177596042792004</v>
+      </c>
+      <c r="K12">
+        <v>18.822403957208</v>
+      </c>
+      <c r="L12">
+        <v>72.273660974338497</v>
+      </c>
+      <c r="M12">
+        <v>13.8018517950762</v>
+      </c>
+      <c r="N12">
+        <v>5.7117454088358803</v>
+      </c>
+      <c r="O12">
+        <v>8.2127418217494004</v>
+      </c>
+      <c r="P12">
+        <v>1.4190209793408299</v>
+      </c>
+      <c r="Q12">
+        <v>1.4005602240896401E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.46020260492041</v>
+      </c>
+      <c r="S12">
+        <v>0.56818181818181801</v>
+      </c>
+      <c r="U12" s="30">
+        <v>12</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X12" s="39">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y12" s="39">
+        <f t="shared" si="0"/>
+        <v>130468</v>
+      </c>
+      <c r="Z12" s="40">
+        <f t="shared" si="1"/>
+        <v>0.40143999999999996</v>
+      </c>
+      <c r="AA12" s="39">
+        <f t="shared" si="2"/>
+        <v>171434</v>
+      </c>
+      <c r="AB12" s="39">
+        <f t="shared" si="2"/>
+        <v>139166</v>
+      </c>
+      <c r="AC12" s="39">
+        <f t="shared" si="2"/>
+        <v>32268</v>
+      </c>
+      <c r="AD12" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92727174383383815</v>
+      </c>
+      <c r="AE12" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92727174383383815</v>
+      </c>
+      <c r="AF12" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46170355849990702</v>
+      </c>
+      <c r="AG12" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2102338443878216</v>
+      </c>
+      <c r="AH12" s="41">
+        <f t="shared" si="3"/>
+        <v>0.81177596042792</v>
+      </c>
+      <c r="AI12" s="40">
+        <f t="shared" si="3"/>
+        <v>0.18822403957208</v>
+      </c>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="41">
+        <f t="shared" si="4"/>
+        <v>0.72273660974338494</v>
+      </c>
+      <c r="AL12" s="41">
+        <f t="shared" si="4"/>
+        <v>0.138018517950762</v>
+      </c>
+      <c r="AM12" s="41">
+        <f t="shared" si="4"/>
+        <v>5.7117454088358804E-2</v>
+      </c>
+      <c r="AN12" s="41">
+        <f t="shared" si="4"/>
+        <v>8.2127418217494003E-2</v>
+      </c>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="43">
+        <f>SUM(AL12:AN12)</f>
+        <v>0.27726339025661484</v>
+      </c>
+      <c r="AQ12" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1071952531253788</v>
+      </c>
+      <c r="AR12" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS12" s="41">
+        <f t="shared" si="5"/>
+        <v>0.97564885379282285</v>
+      </c>
+      <c r="AT12" s="41">
+        <f t="shared" si="14"/>
+        <v>1.1079545454545447</v>
+      </c>
+      <c r="AU12" s="41">
+        <f>R28</f>
+        <v>0.94542071531941307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>325000</v>
+      </c>
+      <c r="E13">
+        <v>130777</v>
+      </c>
+      <c r="F13">
+        <v>40.239076923076901</v>
+      </c>
+      <c r="G13">
+        <v>171643</v>
+      </c>
+      <c r="H13">
+        <v>139327</v>
+      </c>
+      <c r="I13">
+        <v>32316</v>
+      </c>
+      <c r="J13">
+        <v>81.172550002039102</v>
+      </c>
+      <c r="K13">
+        <v>18.827449997960901</v>
+      </c>
+      <c r="L13">
+        <v>77.986190232227401</v>
+      </c>
+      <c r="M13">
+        <v>13.896174403756</v>
+      </c>
+      <c r="N13">
+        <v>4.2782752318832804</v>
+      </c>
+      <c r="O13">
+        <v>3.8393601321333302</v>
+      </c>
+      <c r="P13">
+        <v>0.63741956669175903</v>
+      </c>
+      <c r="Q13">
+        <v>5.8394160583941602E-3</v>
+      </c>
+      <c r="R13">
+        <v>1.38893718127028</v>
+      </c>
+      <c r="S13">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="U13" s="30">
+        <v>13</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="38">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X13" s="39">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y13" s="39">
+        <f t="shared" si="0"/>
+        <v>130777</v>
+      </c>
+      <c r="Z13" s="40">
+        <f t="shared" si="1"/>
+        <v>0.402390769230769</v>
+      </c>
+      <c r="AA13" s="39">
+        <f t="shared" si="2"/>
+        <v>171643</v>
+      </c>
+      <c r="AB13" s="39">
+        <f t="shared" si="2"/>
+        <v>139327</v>
+      </c>
+      <c r="AC13" s="39">
+        <f t="shared" si="2"/>
+        <v>32316</v>
+      </c>
+      <c r="AD13" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92840220683686714</v>
+      </c>
+      <c r="AE13" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92840220683686714</v>
+      </c>
+      <c r="AF13" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46239036185952009</v>
+      </c>
+      <c r="AG13" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2116339539616143</v>
+      </c>
+      <c r="AH13" s="41">
+        <f t="shared" si="3"/>
+        <v>0.81172550002039101</v>
+      </c>
+      <c r="AI13" s="40">
+        <f t="shared" si="3"/>
+        <v>0.18827449997960902</v>
+      </c>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="41">
+        <f t="shared" si="4"/>
+        <v>0.77986190232227404</v>
+      </c>
+      <c r="AL13" s="41">
+        <f t="shared" si="4"/>
+        <v>0.13896174403756001</v>
+      </c>
+      <c r="AM13" s="41">
+        <f t="shared" si="4"/>
+        <v>4.2782752318832801E-2</v>
+      </c>
+      <c r="AN13" s="41">
+        <f t="shared" si="4"/>
+        <v>3.83936013213333E-2</v>
+      </c>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="43">
+        <f t="shared" si="11"/>
+        <v>0.2201380976777261</v>
+      </c>
+      <c r="AQ13" s="35">
+        <f t="shared" si="12"/>
+        <v>0.87907695478745007</v>
+      </c>
+      <c r="AR13" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS13" s="41">
+        <f t="shared" si="5"/>
+        <v>0.43825826304331261</v>
+      </c>
+      <c r="AT13" s="41">
+        <f t="shared" si="14"/>
+        <v>0.26896551724137996</v>
+      </c>
+      <c r="AU13" s="41">
+        <f>R29</f>
+        <v>0.5337487168024353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>325000</v>
+      </c>
+      <c r="E14">
+        <v>130056</v>
+      </c>
+      <c r="F14">
+        <v>40.0172307692308</v>
+      </c>
+      <c r="G14">
+        <v>171909</v>
+      </c>
+      <c r="H14">
+        <v>138248</v>
+      </c>
+      <c r="I14">
+        <v>33661</v>
+      </c>
+      <c r="J14">
+        <v>80.419291601952196</v>
+      </c>
+      <c r="K14">
+        <v>19.580708398047801</v>
+      </c>
+      <c r="L14">
+        <v>71.379252014516794</v>
+      </c>
+      <c r="M14">
+        <v>13.960909146829099</v>
+      </c>
+      <c r="N14">
+        <v>5.8920772590268804</v>
+      </c>
+      <c r="O14">
+        <v>8.7677615796272406</v>
+      </c>
+      <c r="P14">
+        <v>1.4938169518058799</v>
+      </c>
+      <c r="Q14">
+        <v>1.45560407569141E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.6509860099853202</v>
+      </c>
+      <c r="S14">
+        <v>0.57388809182209499</v>
+      </c>
+      <c r="U14" s="30">
+        <v>14</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X14" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y14" s="31">
+        <f t="shared" si="0"/>
+        <v>130056</v>
+      </c>
+      <c r="Z14" s="32">
+        <f>F30</f>
+        <v>0.40017230769230799</v>
+      </c>
+      <c r="AA14" s="31">
+        <f t="shared" si="2"/>
+        <v>171909</v>
+      </c>
+      <c r="AB14" s="31">
+        <f t="shared" si="2"/>
+        <v>138248</v>
+      </c>
+      <c r="AC14" s="31">
+        <f t="shared" si="2"/>
+        <v>33661</v>
+      </c>
+      <c r="AD14" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92984097793163134</v>
+      </c>
+      <c r="AE14" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92984097793163134</v>
+      </c>
+      <c r="AF14" s="44">
+        <f t="shared" si="13"/>
+        <v>0.4816351643320122</v>
+      </c>
+      <c r="AG14" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2022506109173761</v>
+      </c>
+      <c r="AH14" s="33">
+        <f t="shared" si="3"/>
+        <v>0.80419291601952192</v>
+      </c>
+      <c r="AI14" s="32">
+        <f t="shared" si="3"/>
+        <v>0.195807083980478</v>
+      </c>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="33">
+        <f t="shared" si="4"/>
+        <v>0.71379252014516792</v>
+      </c>
+      <c r="AL14" s="33">
+        <f t="shared" si="4"/>
+        <v>0.13960909146829098</v>
+      </c>
+      <c r="AM14" s="33">
+        <f t="shared" si="4"/>
+        <v>5.8920772590268802E-2</v>
+      </c>
+      <c r="AN14" s="33">
+        <f t="shared" si="4"/>
+        <v>8.767761579627241E-2</v>
+      </c>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35">
+        <f t="shared" si="11"/>
+        <v>0.28620747985483219</v>
+      </c>
+      <c r="AQ14" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1429116653697395</v>
+      </c>
+      <c r="AR14" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS14" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0270748762873909</v>
+      </c>
+      <c r="AT14" s="33">
+        <f t="shared" si="14"/>
+        <v>1.1190817790530849</v>
+      </c>
+      <c r="AU14" s="33">
+        <f>R30</f>
+        <v>1.0187360524086428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>325000</v>
+      </c>
+      <c r="E15">
+        <v>131716</v>
+      </c>
+      <c r="F15">
+        <v>40.527999999999999</v>
+      </c>
+      <c r="G15">
+        <v>185012</v>
+      </c>
+      <c r="H15">
+        <v>140944</v>
+      </c>
+      <c r="I15">
+        <v>44068</v>
+      </c>
+      <c r="J15">
+        <v>76.181004475385393</v>
+      </c>
+      <c r="K15">
+        <v>23.8189955246146</v>
+      </c>
+      <c r="L15">
+        <v>71.649609766467293</v>
+      </c>
+      <c r="M15">
+        <v>13.578456679522599</v>
+      </c>
+      <c r="N15">
+        <v>5.9825685565914499</v>
+      </c>
+      <c r="O15">
+        <v>8.7893649974186907</v>
+      </c>
+      <c r="P15">
+        <v>1.5205036296855701</v>
+      </c>
+      <c r="Q15">
+        <v>1.4851822664444901E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.64255910987483</v>
+      </c>
+      <c r="S15">
+        <v>0.58224163027656495</v>
+      </c>
+      <c r="U15" s="30">
+        <v>15</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="X15" s="31">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="Y15" s="31">
+        <f t="shared" si="0"/>
+        <v>131716</v>
+      </c>
+      <c r="Z15" s="32">
+        <f t="shared" ref="Z15" si="15">F31</f>
+        <v>0.40527999999999997</v>
+      </c>
+      <c r="AA15" s="31">
+        <f t="shared" si="2"/>
+        <v>185012</v>
+      </c>
+      <c r="AB15" s="31">
+        <f t="shared" si="2"/>
+        <v>140944</v>
+      </c>
+      <c r="AC15" s="31">
+        <f t="shared" si="2"/>
+        <v>44068</v>
+      </c>
+      <c r="AD15" s="44">
+        <f t="shared" si="8"/>
+        <v>1.000713976633492</v>
+      </c>
+      <c r="AE15" s="44">
+        <f>AA15/$AA$2</f>
+        <v>1.000713976633492</v>
+      </c>
+      <c r="AF15" s="44">
+        <f t="shared" si="13"/>
+        <v>0.63054271773812764</v>
+      </c>
+      <c r="AG15" s="44">
+        <f t="shared" si="10"/>
+        <v>1.225695924028837</v>
+      </c>
+      <c r="AH15" s="33">
+        <f t="shared" si="3"/>
+        <v>0.76181004475385394</v>
+      </c>
+      <c r="AI15" s="32">
+        <f t="shared" si="3"/>
+        <v>0.238189955246146</v>
+      </c>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="33">
+        <f t="shared" si="4"/>
+        <v>0.71649609766467293</v>
+      </c>
+      <c r="AL15" s="33">
+        <f t="shared" si="4"/>
+        <v>0.13578456679522599</v>
+      </c>
+      <c r="AM15" s="33">
+        <f t="shared" si="4"/>
+        <v>5.9825685565914499E-2</v>
+      </c>
+      <c r="AN15" s="33">
+        <f t="shared" si="4"/>
+        <v>8.7893649974186902E-2</v>
+      </c>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35">
+        <f t="shared" si="11"/>
+        <v>0.28350390233532741</v>
+      </c>
+      <c r="AQ15" s="35">
+        <f t="shared" si="12"/>
+        <v>1.13211547553277</v>
+      </c>
+      <c r="AR15" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS15" s="33">
+        <f t="shared" si="5"/>
+        <v>1.045423320083446</v>
+      </c>
+      <c r="AT15" s="33">
+        <f t="shared" si="14"/>
+        <v>1.1353711790393013</v>
+      </c>
+      <c r="AU15" s="33">
+        <f t="shared" ref="AU15" si="16">R31</f>
+        <v>1.0154977150804687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="5"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F31" si="17">F2/$A$18</f>
+        <v>0.35381846153846197</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:O31" si="18">J2/$A$18</f>
+        <v>0.62197641713543905</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="18"/>
+        <v>0.378023582864561</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="18"/>
+        <v>0.74958040194450004</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="18"/>
+        <v>0.118696245793149</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="18"/>
+        <v>5.3117200476558997E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="18"/>
+        <v>7.8606151785791903E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P31" si="19">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:R31" si="20">R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S25" si="21">S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="17"/>
+        <v>0.35386461538461506</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="18"/>
+        <v>0.62184564974073098</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="18"/>
+        <v>0.37815435025926902</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="18"/>
+        <v>0.74805662313270604</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="18"/>
+        <v>0.121524094395075</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="18"/>
+        <v>5.3718936403318096E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="18"/>
+        <v>7.6700346068900804E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="19"/>
+        <v>0.97188042312145495</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="20"/>
+        <v>0.98719527054215783</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="21"/>
+        <v>0.99152542372881236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="17"/>
+        <v>0.352892307692308</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="18"/>
+        <v>0.62119505167146893</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="18"/>
+        <v>0.37880494832853101</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="18"/>
+        <v>0.79977330194437202</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="18"/>
+        <v>0.112668933647223</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="18"/>
+        <v>3.8931031476153101E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="18"/>
+        <v>4.8626732932252198E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="19"/>
+        <v>0.61060829767099367</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="20"/>
+        <v>0.68992049243395537</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="21"/>
+        <v>0.34031413612565448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="17"/>
+        <v>0.40335076923076896</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="18"/>
+        <v>0.81130826578721194</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="18"/>
+        <v>0.18869173421278798</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="18"/>
+        <v>0.70038676014005707</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="18"/>
+        <v>0.144802386165124</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="18"/>
+        <v>6.1790081547650803E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="18"/>
+        <v>9.3020772147167197E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="19"/>
+        <v>1.0956336981331494</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="20"/>
+        <v>1.0597138710346223</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="21"/>
+        <v>1.3522884882108182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="17"/>
+        <v>0.40240000000000004</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="18"/>
+        <v>0.81235272158839</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="18"/>
+        <v>0.18764727841161</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="18"/>
+        <v>0.70813580058112902</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="18"/>
+        <v>0.14283529591680699</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="18"/>
+        <v>5.9221593515828098E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="18"/>
+        <v>8.98073099862364E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="19"/>
+        <v>1.0740702430877103</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="20"/>
+        <v>1.0293367346938764</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="21"/>
+        <v>1.1872146118721456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="17"/>
+        <v>0.402261538461538</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="18"/>
+        <v>0.81245335385763595</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="18"/>
+        <v>0.18754664614236399</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="18"/>
+        <v>0.77707576394997502</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="18"/>
+        <v>0.12905495850384399</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="18"/>
+        <v>4.2804145791104101E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="18"/>
+        <v>5.1065131755077105E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>0.60929124493670728</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="20"/>
+        <v>0.66929297117976205</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="21"/>
+        <v>0.52702702702702631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="17"/>
+        <v>0.40186769230769204</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="18"/>
+        <v>0.81130238604632199</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="18"/>
+        <v>0.18869761395367798</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="18"/>
+        <v>0.78384006982780408</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="18"/>
+        <v>0.134127573560376</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="18"/>
+        <v>4.1552137328014604E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="18"/>
+        <v>4.0480219283805602E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>0.46732908191941647</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="20"/>
+        <v>0.76747503566333508</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="17"/>
+        <v>0.35378769230769203</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="18"/>
+        <v>0.62147860679307299</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="18"/>
+        <v>0.38755323978985101</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="18"/>
+        <v>0.72531113836199002</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="18"/>
+        <v>0.138683782537985</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="18"/>
+        <v>5.5522216714065806E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="18"/>
+        <v>8.0482862385959406E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>1.0165435827777767</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="20"/>
+        <v>1.0348807386509331</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="21"/>
+        <v>1.0156249999999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="17"/>
+        <v>0.40143999999999996</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="18"/>
+        <v>0.81067545112672401</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="18"/>
+        <v>0.18932454887327602</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="18"/>
+        <v>0.92424962442897896</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="18"/>
+        <v>2.81601618787749E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="18"/>
+        <v>1.6479136646534002E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="18"/>
+        <v>3.11110770457124E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="19"/>
+        <v>0.37688629384164102</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="20"/>
+        <v>0.44619531411984137</v>
+      </c>
+      <c r="S26">
+        <f>S10/$S$2</f>
+        <v>0.26494565217391236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="17"/>
+        <v>0.40179076923076901</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="18"/>
+        <v>0.81225114139255694</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="18"/>
+        <v>0.18774885860744298</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="18"/>
+        <v>0.70886492778484</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="18"/>
+        <v>0.14037156729105099</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="18"/>
+        <v>6.1134000091896297E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="18"/>
+        <v>8.96295048322127E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>1.0599831716507306</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="20"/>
+        <v>1.0142438206954301</v>
+      </c>
+      <c r="S27">
+        <f>S11/$S$2</f>
+        <v>1.3229308005427407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="17"/>
+        <v>0.40143999999999996</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="18"/>
+        <v>0.81177596042792</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="18"/>
+        <v>0.18822403957208</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="18"/>
+        <v>0.72273660974338494</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="18"/>
+        <v>0.138018517950762</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="18"/>
+        <v>5.7117454088358804E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="18"/>
+        <v>8.2127418217494003E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>0.97564885379282285</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="20"/>
+        <v>0.94542071531941307</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S29" si="22">S12/$S$2</f>
+        <v>1.1079545454545447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="17"/>
+        <v>0.402390769230769</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="18"/>
+        <v>0.81172550002039101</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="18"/>
+        <v>0.18827449997960902</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="18"/>
+        <v>0.77986190232227404</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="18"/>
+        <v>0.13896174403756001</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="18"/>
+        <v>4.2782752318832801E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="18"/>
+        <v>3.83936013213333E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>0.43825826304331261</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="20"/>
+        <v>0.5337487168024353</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="22"/>
+        <v>0.26896551724137996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="17"/>
+        <v>0.40017230769230799</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="18"/>
+        <v>0.80419291601952192</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="18"/>
+        <v>0.195807083980478</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="18"/>
+        <v>0.71379252014516792</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="18"/>
+        <v>0.13960909146829098</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="18"/>
+        <v>5.8920772590268802E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="18"/>
+        <v>8.767761579627241E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>1.0270748762873909</v>
+      </c>
+      <c r="R30">
+        <f>R14/$R$2</f>
+        <v>1.0187360524086428</v>
+      </c>
+      <c r="S30">
+        <f>S14/$S$2</f>
+        <v>1.1190817790530849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="17"/>
+        <v>0.40527999999999997</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="18"/>
+        <v>0.76181004475385394</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="18"/>
+        <v>0.238189955246146</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="18"/>
+        <v>0.71649609766467293</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="18"/>
+        <v>0.13578456679522599</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="18"/>
+        <v>5.9825685565914499E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="18"/>
+        <v>8.7893649974186902E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="19"/>
-        <v>1.0553967662170753</v>
+        <v>1.045423320083446</v>
       </c>
       <c r="R31">
         <f t="shared" si="20"/>
-        <v>1.0256556986170706</v>
+        <v>1.0154977150804687</v>
       </c>
       <c r="S31">
-        <f t="shared" ref="S31:S32" si="24">S15/$S$2</f>
-        <v>1.3410221619176848</v>
+        <f t="shared" ref="S31" si="23">S15/$S$2</f>
+        <v>1.1353711790393013</v>
       </c>
     </row>
   </sheetData>

--- a/R/Dose Response/SummaryComparison 12.xlsx
+++ b/R/Dose Response/SummaryComparison 12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Share Table\Share Table QMRA\Share-Table-QMRA\R\Dose Response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E92A5E-0B1E-42B3-ABD4-128729ECE438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21525" windowHeight="11580" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryComparison" sheetId="1" r:id="rId1"/>
@@ -27,6 +26,8 @@
     <sheet name="3-2-21" sheetId="13" r:id="rId12"/>
     <sheet name="5-13" sheetId="14" r:id="rId13"/>
     <sheet name="5-14" sheetId="15" r:id="rId14"/>
+    <sheet name="5-28" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet5" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'3-10-21'!$A$1:$S$1</definedName>
@@ -38,11 +39,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3-9-21 '!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'5-13'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'5-14'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'5-28'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet4!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SummaryComparison!$A$4:$Y$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="169">
   <si>
     <t>Treatment</t>
   </si>
@@ -527,11 +529,50 @@
   <si>
     <t xml:space="preserve">1.52% [0.58%-2.64%]  </t>
   </si>
+  <si>
+    <t xml:space="preserve">1.49% [0.52%-2.68%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44% [0.51%-2.64%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88% [0.17%-1.77%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59% [0.67%-2.75%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53% [0.58%-2.64%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89% [0.27%-1.72%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62% [0.0%-1.89%]  </t>
+  </si>
+  <si>
+    <t>1.50% [0.52%-2.69%]</t>
+  </si>
+  <si>
+    <t>1.54% [0.60%-2.66%]</t>
+  </si>
+  <si>
+    <t>1.40% [0.56%-2.46%]</t>
+  </si>
+  <si>
+    <t>0.65% [0.14%-1.40%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49% [0.57%-2.60%]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53% [0.59%-2.65%]  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1596,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1606,7 +1647,7 @@
       <selection activeCell="F50" sqref="F50:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
@@ -2951,8 +2992,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Y4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:Y18">
+  <autoFilter ref="A4:Y4">
+    <sortState ref="A13:Y18">
       <sortCondition ref="A12"/>
     </sortState>
   </autoFilter>
@@ -2967,7 +3008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78BF6C9-0723-454B-A0E7-1858173DA444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4769,8 +4810,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S10">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -4779,7 +4820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC761CE6-EC3B-4496-A398-6A9F48574E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6922,8 +6963,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S12">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S12">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -6933,7 +6974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F617BA-C4EB-4F39-A84D-0603482CD0CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT29"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9649,8 +9690,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S14">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S14">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -9660,7 +9701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62BFE16-FEA2-4F3C-BB28-BC00FB47DE86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12680,8 +12721,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S15">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S15">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -12691,11 +12732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4994EDBB-04D7-4BD2-94FC-8B151B953DBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12"/>
+    <sheetView topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13131,7 +13172,7 @@
       </c>
       <c r="AO3" s="35"/>
       <c r="AP3" s="35">
-        <f t="shared" ref="AP2:AP15" si="11">SUM(AL3:AN3)</f>
+        <f t="shared" ref="AP3:AP15" si="11">SUM(AL3:AN3)</f>
         <v>0.2519433768672939</v>
       </c>
       <c r="AQ3" s="35">
@@ -15711,8 +15752,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S15">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S15">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -15721,8 +15762,3053 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AS8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="37" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="43" width="9.140625" customWidth="1"/>
+    <col min="44" max="45" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1625000</v>
+      </c>
+      <c r="E2">
+        <v>573365</v>
+      </c>
+      <c r="F2">
+        <v>35.283999999999999</v>
+      </c>
+      <c r="G2">
+        <v>922839</v>
+      </c>
+      <c r="H2">
+        <v>573365</v>
+      </c>
+      <c r="I2">
+        <v>349474</v>
+      </c>
+      <c r="J2">
+        <v>62.130555817428601</v>
+      </c>
+      <c r="K2">
+        <v>37.869444182571399</v>
+      </c>
+      <c r="L2">
+        <v>74.2973498556766</v>
+      </c>
+      <c r="M2">
+        <v>12.2117673733137</v>
+      </c>
+      <c r="N2">
+        <v>5.4037131670053098</v>
+      </c>
+      <c r="O2">
+        <v>8.0871696040044299</v>
+      </c>
+      <c r="P2">
+        <v>1.4919223590228601</v>
+      </c>
+      <c r="Q2">
+        <v>1.4388489208633099E-2</v>
+      </c>
+      <c r="R2">
+        <v>2.6785714285714302</v>
+      </c>
+      <c r="S2">
+        <v>0.52356020942408399</v>
+      </c>
+      <c r="U2" s="30">
+        <v>1</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" ref="W2:Y15" si="0">C2</f>
+        <v>1000</v>
+      </c>
+      <c r="X2" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y2" s="31">
+        <f t="shared" si="0"/>
+        <v>573365</v>
+      </c>
+      <c r="Z2" s="32">
+        <f t="shared" ref="Z2:Z13" si="1">F18</f>
+        <v>0.35283999999999999</v>
+      </c>
+      <c r="AA2" s="31">
+        <f t="shared" ref="AA2:AC15" si="2">G2</f>
+        <v>922839</v>
+      </c>
+      <c r="AB2" s="31">
+        <f t="shared" si="2"/>
+        <v>573365</v>
+      </c>
+      <c r="AC2" s="31">
+        <f>I2</f>
+        <v>349474</v>
+      </c>
+      <c r="AD2" s="44">
+        <f>AA2/$AA$2</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="44">
+        <f>AA2/$AA$2</f>
+        <v>1</v>
+      </c>
+      <c r="AF2" s="44">
+        <f>AC2/$AC$2</f>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="44">
+        <f>AB2/$AB$2</f>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="33">
+        <f t="shared" ref="AH2:AI15" si="3">J18</f>
+        <v>0.62130555817428601</v>
+      </c>
+      <c r="AI2" s="32">
+        <f t="shared" si="3"/>
+        <v>0.37869444182571399</v>
+      </c>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="33">
+        <f t="shared" ref="AK2:AN15" si="4">L18</f>
+        <v>0.74297349855676598</v>
+      </c>
+      <c r="AL2" s="33">
+        <f t="shared" si="4"/>
+        <v>0.12211767373313701</v>
+      </c>
+      <c r="AM2" s="33">
+        <f t="shared" si="4"/>
+        <v>5.4037131670053098E-2</v>
+      </c>
+      <c r="AN2" s="33">
+        <f t="shared" si="4"/>
+        <v>8.0871696040044294E-2</v>
+      </c>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35">
+        <f>SUM(AL2:AN2)</f>
+        <v>0.25702650144323441</v>
+      </c>
+      <c r="AQ2" s="35">
+        <f>AP2/$AP$2</f>
+        <v>1</v>
+      </c>
+      <c r="AR2" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS2" s="33">
+        <f t="shared" ref="AS2:AS15" si="5">P18</f>
+        <v>1</v>
+      </c>
+      <c r="AT2" s="33">
+        <f t="shared" ref="AT2:AT7" si="6">S18</f>
+        <v>1</v>
+      </c>
+      <c r="AU2" s="33">
+        <f t="shared" ref="AU2:AU7" si="7">R18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>1625000</v>
+      </c>
+      <c r="E3">
+        <v>573369</v>
+      </c>
+      <c r="F3">
+        <v>35.284246153846198</v>
+      </c>
+      <c r="G3">
+        <v>924662</v>
+      </c>
+      <c r="H3">
+        <v>573369</v>
+      </c>
+      <c r="I3">
+        <v>351293</v>
+      </c>
+      <c r="J3">
+        <v>62.008496077485603</v>
+      </c>
+      <c r="K3">
+        <v>37.991503922514397</v>
+      </c>
+      <c r="L3">
+        <v>74.836100312364294</v>
+      </c>
+      <c r="M3">
+        <v>12.033960678027601</v>
+      </c>
+      <c r="N3">
+        <v>5.2798459630709003</v>
+      </c>
+      <c r="O3">
+        <v>7.8500930465372196</v>
+      </c>
+      <c r="P3">
+        <v>1.4460260277414401</v>
+      </c>
+      <c r="Q3">
+        <v>1.40105078809107E-2</v>
+      </c>
+      <c r="R3">
+        <v>2.6408450704225399</v>
+      </c>
+      <c r="S3">
+        <v>0.512820512820513</v>
+      </c>
+      <c r="U3" s="30">
+        <v>2</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X3" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y3" s="31">
+        <f t="shared" si="0"/>
+        <v>573369</v>
+      </c>
+      <c r="Z3" s="32">
+        <f t="shared" si="1"/>
+        <v>0.35284246153846199</v>
+      </c>
+      <c r="AA3" s="31">
+        <f t="shared" si="2"/>
+        <v>924662</v>
+      </c>
+      <c r="AB3" s="31">
+        <f t="shared" si="2"/>
+        <v>573369</v>
+      </c>
+      <c r="AC3" s="31">
+        <f t="shared" si="2"/>
+        <v>351293</v>
+      </c>
+      <c r="AD3" s="44">
+        <f t="shared" ref="AD3:AD15" si="8">AA3/$AA$2</f>
+        <v>1.001975425832675</v>
+      </c>
+      <c r="AE3" s="44">
+        <f t="shared" ref="AE3:AE14" si="9">AA3/$AA$2</f>
+        <v>1.001975425832675</v>
+      </c>
+      <c r="AF3" s="44">
+        <f>AC3/$AC$2</f>
+        <v>1.0052049651762363</v>
+      </c>
+      <c r="AG3" s="44">
+        <f t="shared" ref="AG3:AG15" si="10">AB3/$AB$2</f>
+        <v>1.0000069763588639</v>
+      </c>
+      <c r="AH3" s="33">
+        <f t="shared" si="3"/>
+        <v>0.62008496077485598</v>
+      </c>
+      <c r="AI3" s="32">
+        <f t="shared" si="3"/>
+        <v>0.37991503922514397</v>
+      </c>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="33">
+        <f t="shared" si="4"/>
+        <v>0.74836100312364295</v>
+      </c>
+      <c r="AL3" s="33">
+        <f t="shared" si="4"/>
+        <v>0.12033960678027601</v>
+      </c>
+      <c r="AM3" s="33">
+        <f t="shared" si="4"/>
+        <v>5.2798459630709005E-2</v>
+      </c>
+      <c r="AN3" s="33">
+        <f t="shared" si="4"/>
+        <v>7.8500930465372196E-2</v>
+      </c>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35">
+        <f t="shared" ref="AP3:AP15" si="11">SUM(AL3:AN3)</f>
+        <v>0.25163899687635721</v>
+      </c>
+      <c r="AQ3" s="35">
+        <f t="shared" ref="AQ3:AQ15" si="12">AP3/$AP$2</f>
+        <v>0.97903910866534882</v>
+      </c>
+      <c r="AR3" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS3" s="33">
+        <f t="shared" si="5"/>
+        <v>0.96923678299755489</v>
+      </c>
+      <c r="AT3" s="33">
+        <f t="shared" si="6"/>
+        <v>0.97948717948717945</v>
+      </c>
+      <c r="AU3" s="33">
+        <f t="shared" si="7"/>
+        <v>0.98591549295774761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1625000</v>
+      </c>
+      <c r="E4">
+        <v>572338</v>
+      </c>
+      <c r="F4">
+        <v>35.220799999999997</v>
+      </c>
+      <c r="G4">
+        <v>924122</v>
+      </c>
+      <c r="H4">
+        <v>572338</v>
+      </c>
+      <c r="I4">
+        <v>351784</v>
+      </c>
+      <c r="J4">
+        <v>61.9331646687342</v>
+      </c>
+      <c r="K4">
+        <v>38.0668353312658</v>
+      </c>
+      <c r="L4">
+        <v>80.108781873648098</v>
+      </c>
+      <c r="M4">
+        <v>11.2353189898277</v>
+      </c>
+      <c r="N4">
+        <v>3.8847673926945299</v>
+      </c>
+      <c r="O4">
+        <v>4.7711317438296996</v>
+      </c>
+      <c r="P4">
+        <v>0.87894824909539004</v>
+      </c>
+      <c r="Q4">
+        <v>8.6058519793459493E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.7730496453900699</v>
+      </c>
+      <c r="S4">
+        <v>0.174216027874564</v>
+      </c>
+      <c r="U4" s="30">
+        <v>3</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X4" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y4" s="31">
+        <f t="shared" si="0"/>
+        <v>572338</v>
+      </c>
+      <c r="Z4" s="32">
+        <f t="shared" si="1"/>
+        <v>0.35220799999999997</v>
+      </c>
+      <c r="AA4" s="31">
+        <f t="shared" si="2"/>
+        <v>924122</v>
+      </c>
+      <c r="AB4" s="31">
+        <f t="shared" si="2"/>
+        <v>572338</v>
+      </c>
+      <c r="AC4" s="31">
+        <f t="shared" si="2"/>
+        <v>351784</v>
+      </c>
+      <c r="AD4" s="44">
+        <f t="shared" si="8"/>
+        <v>1.0013902750100505</v>
+      </c>
+      <c r="AE4" s="44">
+        <f t="shared" si="9"/>
+        <v>1.0013902750100505</v>
+      </c>
+      <c r="AF4" s="44">
+        <f>AC4/$AC$2</f>
+        <v>1.0066099337862044</v>
+      </c>
+      <c r="AG4" s="44">
+        <f t="shared" si="10"/>
+        <v>0.99820881986169363</v>
+      </c>
+      <c r="AH4" s="33">
+        <f t="shared" si="3"/>
+        <v>0.61933164668734197</v>
+      </c>
+      <c r="AI4" s="32">
+        <f t="shared" si="3"/>
+        <v>0.38066835331265803</v>
+      </c>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="33">
+        <f t="shared" si="4"/>
+        <v>0.80108781873648094</v>
+      </c>
+      <c r="AL4" s="33">
+        <f t="shared" si="4"/>
+        <v>0.112353189898277</v>
+      </c>
+      <c r="AM4" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8847673926945298E-2</v>
+      </c>
+      <c r="AN4" s="33">
+        <f t="shared" si="4"/>
+        <v>4.7711317438296999E-2</v>
+      </c>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35">
+        <f t="shared" si="11"/>
+        <v>0.19891218126351928</v>
+      </c>
+      <c r="AQ4" s="35">
+        <f t="shared" si="12"/>
+        <v>0.7738975558808282</v>
+      </c>
+      <c r="AR4" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS4" s="33">
+        <f t="shared" si="5"/>
+        <v>0.58913806323745987</v>
+      </c>
+      <c r="AT4" s="33">
+        <f t="shared" si="6"/>
+        <v>0.33275261324041711</v>
+      </c>
+      <c r="AU4" s="33">
+        <f t="shared" si="7"/>
+        <v>0.6619385342789591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>1625000</v>
+      </c>
+      <c r="E5">
+        <v>651824</v>
+      </c>
+      <c r="F5">
+        <v>40.112246153846201</v>
+      </c>
+      <c r="G5">
+        <v>856278</v>
+      </c>
+      <c r="H5">
+        <v>694913</v>
+      </c>
+      <c r="I5">
+        <v>161365</v>
+      </c>
+      <c r="J5">
+        <v>81.155068797750303</v>
+      </c>
+      <c r="K5">
+        <v>18.8449312022497</v>
+      </c>
+      <c r="L5">
+        <v>70.093307395861501</v>
+      </c>
+      <c r="M5">
+        <v>14.4540550823535</v>
+      </c>
+      <c r="N5">
+        <v>6.2395677360760002</v>
+      </c>
+      <c r="O5">
+        <v>9.2130697857090293</v>
+      </c>
+      <c r="P5">
+        <v>1.59263268802789</v>
+      </c>
+      <c r="Q5">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.7496382054992798</v>
+      </c>
+      <c r="S5">
+        <v>0.67114093959731502</v>
+      </c>
+      <c r="U5" s="30">
+        <v>4</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X5" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y5" s="31">
+        <f t="shared" si="0"/>
+        <v>651824</v>
+      </c>
+      <c r="Z5" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40112246153846198</v>
+      </c>
+      <c r="AA5" s="31">
+        <f t="shared" si="2"/>
+        <v>856278</v>
+      </c>
+      <c r="AB5" s="31">
+        <f t="shared" si="2"/>
+        <v>694913</v>
+      </c>
+      <c r="AC5" s="31">
+        <f t="shared" si="2"/>
+        <v>161365</v>
+      </c>
+      <c r="AD5" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92787365943571953</v>
+      </c>
+      <c r="AE5" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92787365943571953</v>
+      </c>
+      <c r="AF5" s="44">
+        <f>AC5/$AC$2</f>
+        <v>0.46173678156314918</v>
+      </c>
+      <c r="AG5" s="44">
+        <f t="shared" si="10"/>
+        <v>1.211990616797328</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81155068797750307</v>
+      </c>
+      <c r="AI5" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18844931202249701</v>
+      </c>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="33">
+        <f t="shared" si="4"/>
+        <v>0.70093307395861504</v>
+      </c>
+      <c r="AL5" s="33">
+        <f t="shared" si="4"/>
+        <v>0.14454055082353501</v>
+      </c>
+      <c r="AM5" s="33">
+        <f t="shared" si="4"/>
+        <v>6.2395677360760002E-2</v>
+      </c>
+      <c r="AN5" s="33">
+        <f t="shared" si="4"/>
+        <v>9.2130697857090299E-2</v>
+      </c>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35">
+        <f t="shared" si="11"/>
+        <v>0.29906692604138529</v>
+      </c>
+      <c r="AQ5" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1635645521457472</v>
+      </c>
+      <c r="AR5" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS5" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0675037332847472</v>
+      </c>
+      <c r="AT5" s="33">
+        <f t="shared" si="6"/>
+        <v>1.2818791946308712</v>
+      </c>
+      <c r="AU5" s="33">
+        <f t="shared" si="7"/>
+        <v>1.0265315967197306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>1625000</v>
+      </c>
+      <c r="E6">
+        <v>653022</v>
+      </c>
+      <c r="F6">
+        <v>40.185969230769203</v>
+      </c>
+      <c r="G6">
+        <v>857931</v>
+      </c>
+      <c r="H6">
+        <v>695672</v>
+      </c>
+      <c r="I6">
+        <v>162259</v>
+      </c>
+      <c r="J6">
+        <v>81.087173677137201</v>
+      </c>
+      <c r="K6">
+        <v>18.912826322862799</v>
+      </c>
+      <c r="L6">
+        <v>71.098982882659399</v>
+      </c>
+      <c r="M6">
+        <v>14.071042016961099</v>
+      </c>
+      <c r="N6">
+        <v>6.0235336634906602</v>
+      </c>
+      <c r="O6">
+        <v>8.8064414368888002</v>
+      </c>
+      <c r="P6">
+        <v>1.5279356824660399</v>
+      </c>
+      <c r="Q6">
+        <v>1.4903129657228001E-2</v>
+      </c>
+      <c r="R6">
+        <v>2.6431889340303201</v>
+      </c>
+      <c r="S6">
+        <v>0.581395348837209</v>
+      </c>
+      <c r="U6" s="30">
+        <v>5</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X6" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y6" s="31">
+        <f t="shared" si="0"/>
+        <v>653022</v>
+      </c>
+      <c r="Z6" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40185969230769203</v>
+      </c>
+      <c r="AA6" s="31">
+        <f t="shared" si="2"/>
+        <v>857931</v>
+      </c>
+      <c r="AB6" s="31">
+        <f t="shared" si="2"/>
+        <v>695672</v>
+      </c>
+      <c r="AC6" s="31">
+        <f t="shared" si="2"/>
+        <v>162259</v>
+      </c>
+      <c r="AD6" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92966487112053131</v>
+      </c>
+      <c r="AE6" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92966487112053131</v>
+      </c>
+      <c r="AF6" s="44">
+        <f t="shared" ref="AF6:AF15" si="13">AC6/$AC$2</f>
+        <v>0.46429491178170623</v>
+      </c>
+      <c r="AG6" s="44">
+        <f t="shared" si="10"/>
+        <v>1.213314380891753</v>
+      </c>
+      <c r="AH6" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81087173677137203</v>
+      </c>
+      <c r="AI6" s="32">
+        <f t="shared" si="3"/>
+        <v>0.189128263228628</v>
+      </c>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="33">
+        <f t="shared" si="4"/>
+        <v>0.71098982882659401</v>
+      </c>
+      <c r="AL6" s="33">
+        <f t="shared" si="4"/>
+        <v>0.14071042016961099</v>
+      </c>
+      <c r="AM6" s="33">
+        <f t="shared" si="4"/>
+        <v>6.02353366349066E-2</v>
+      </c>
+      <c r="AN6" s="33">
+        <f t="shared" si="4"/>
+        <v>8.8064414368887997E-2</v>
+      </c>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35">
+        <f t="shared" si="11"/>
+        <v>0.28901017117340561</v>
+      </c>
+      <c r="AQ6" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1244372449945008</v>
+      </c>
+      <c r="AR6" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS6" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0241388723919702</v>
+      </c>
+      <c r="AT6" s="33">
+        <f t="shared" si="6"/>
+        <v>1.1104651162790686</v>
+      </c>
+      <c r="AU6" s="33">
+        <f t="shared" si="7"/>
+        <v>0.98679053537131889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>1625000</v>
+      </c>
+      <c r="E7">
+        <v>653480</v>
+      </c>
+      <c r="F7">
+        <v>40.214153846153799</v>
+      </c>
+      <c r="G7">
+        <v>858246</v>
+      </c>
+      <c r="H7">
+        <v>696296</v>
+      </c>
+      <c r="I7">
+        <v>161950</v>
+      </c>
+      <c r="J7">
+        <v>81.130118870347204</v>
+      </c>
+      <c r="K7">
+        <v>18.8698811296528</v>
+      </c>
+      <c r="L7">
+        <v>77.744842994429803</v>
+      </c>
+      <c r="M7">
+        <v>12.854257207565601</v>
+      </c>
+      <c r="N7">
+        <v>4.27924343514721</v>
+      </c>
+      <c r="O7">
+        <v>5.12165636285732</v>
+      </c>
+      <c r="P7">
+        <v>0.88589202445091098</v>
+      </c>
+      <c r="Q7">
+        <v>8.5959885386819503E-3</v>
+      </c>
+      <c r="R7">
+        <v>1.7216642754662801</v>
+      </c>
+      <c r="S7">
+        <v>0.27662517289073302</v>
+      </c>
+      <c r="U7" s="30">
+        <v>6</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X7" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y7" s="31">
+        <f t="shared" si="0"/>
+        <v>653480</v>
+      </c>
+      <c r="Z7" s="32">
+        <f t="shared" si="1"/>
+        <v>0.402141538461538</v>
+      </c>
+      <c r="AA7" s="31">
+        <f t="shared" si="2"/>
+        <v>858246</v>
+      </c>
+      <c r="AB7" s="31">
+        <f t="shared" si="2"/>
+        <v>696296</v>
+      </c>
+      <c r="AC7" s="31">
+        <f t="shared" si="2"/>
+        <v>161950</v>
+      </c>
+      <c r="AD7" s="44">
+        <f t="shared" si="8"/>
+        <v>0.93000620910039566</v>
+      </c>
+      <c r="AE7" s="44">
+        <f t="shared" si="9"/>
+        <v>0.93000620910039566</v>
+      </c>
+      <c r="AF7" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46341072583368148</v>
+      </c>
+      <c r="AG7" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2144026928745215</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81130118870347201</v>
+      </c>
+      <c r="AI7" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18869881129652799</v>
+      </c>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="33">
+        <f t="shared" si="4"/>
+        <v>0.77744842994429808</v>
+      </c>
+      <c r="AL7" s="33">
+        <f t="shared" si="4"/>
+        <v>0.128542572075656</v>
+      </c>
+      <c r="AM7" s="33">
+        <f t="shared" si="4"/>
+        <v>4.2792434351472099E-2</v>
+      </c>
+      <c r="AN7" s="33">
+        <f t="shared" si="4"/>
+        <v>5.12165636285732E-2</v>
+      </c>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35">
+        <f>SUM(AL7:AN7)</f>
+        <v>0.22255157005570131</v>
+      </c>
+      <c r="AQ7" s="35">
+        <f t="shared" si="12"/>
+        <v>0.86587012936816921</v>
+      </c>
+      <c r="AR7" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS7" s="33">
+        <f t="shared" si="5"/>
+        <v>0.59379231036602276</v>
+      </c>
+      <c r="AT7" s="33">
+        <f t="shared" si="6"/>
+        <v>0.52835408022129982</v>
+      </c>
+      <c r="AU7" s="33">
+        <f t="shared" si="7"/>
+        <v>0.64275466284074423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>1625000</v>
+      </c>
+      <c r="E8">
+        <v>651860</v>
+      </c>
+      <c r="F8">
+        <v>40.114461538461498</v>
+      </c>
+      <c r="G8">
+        <v>856979</v>
+      </c>
+      <c r="H8">
+        <v>694647</v>
+      </c>
+      <c r="I8">
+        <v>162332</v>
+      </c>
+      <c r="J8">
+        <v>81.057645519901897</v>
+      </c>
+      <c r="K8">
+        <v>18.9423544800981</v>
+      </c>
+      <c r="L8">
+        <v>79.060841284938505</v>
+      </c>
+      <c r="M8">
+        <v>13.352560365722701</v>
+      </c>
+      <c r="N8">
+        <v>3.8614119596232301</v>
+      </c>
+      <c r="O8">
+        <v>3.7251863897155801</v>
+      </c>
+      <c r="P8">
+        <v>0.62518867703869196</v>
+      </c>
+      <c r="Q8">
+        <v>4.4378698224852098E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.8978102189781001</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30">
+        <v>8</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X8" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y8" s="31">
+        <f t="shared" si="0"/>
+        <v>651860</v>
+      </c>
+      <c r="Z8" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40114461538461499</v>
+      </c>
+      <c r="AA8" s="31">
+        <f>G8</f>
+        <v>856979</v>
+      </c>
+      <c r="AB8" s="31">
+        <f t="shared" si="2"/>
+        <v>694647</v>
+      </c>
+      <c r="AC8" s="31">
+        <f>I8</f>
+        <v>162332</v>
+      </c>
+      <c r="AD8" s="44">
+        <f t="shared" si="8"/>
+        <v>0.928633271892497</v>
+      </c>
+      <c r="AE8" s="44">
+        <f t="shared" si="9"/>
+        <v>0.928633271892497</v>
+      </c>
+      <c r="AF8" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46450379713512308</v>
+      </c>
+      <c r="AG8" s="44">
+        <f>AB8/$AB$2</f>
+        <v>1.2115266889328786</v>
+      </c>
+      <c r="AH8" s="33">
+        <f t="shared" si="3"/>
+        <v>0.810576455199019</v>
+      </c>
+      <c r="AI8" s="32">
+        <f t="shared" si="3"/>
+        <v>0.189423544800981</v>
+      </c>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="33">
+        <f t="shared" si="4"/>
+        <v>0.7906084128493851</v>
+      </c>
+      <c r="AL8" s="33">
+        <f t="shared" si="4"/>
+        <v>0.13352560365722702</v>
+      </c>
+      <c r="AM8" s="33">
+        <f t="shared" si="4"/>
+        <v>3.8614119596232302E-2</v>
+      </c>
+      <c r="AN8" s="33">
+        <f t="shared" si="4"/>
+        <v>3.7251863897155804E-2</v>
+      </c>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35">
+        <f>SUM(AL8:AN8)</f>
+        <v>0.20939158715061512</v>
+      </c>
+      <c r="AQ8" s="35">
+        <f t="shared" si="12"/>
+        <v>0.81466924996004852</v>
+      </c>
+      <c r="AR8" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS8" s="33">
+        <f t="shared" si="5"/>
+        <v>0.41904906998522468</v>
+      </c>
+      <c r="AT8" s="33">
+        <f>S25</f>
+        <v>0.99825783972125315</v>
+      </c>
+      <c r="AU8" s="33">
+        <f>R25</f>
+        <v>1.0017889087656533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>1625000</v>
+      </c>
+      <c r="E9">
+        <v>572665</v>
+      </c>
+      <c r="F9">
+        <v>35.240923076923103</v>
+      </c>
+      <c r="G9">
+        <v>923438</v>
+      </c>
+      <c r="H9">
+        <v>572665</v>
+      </c>
+      <c r="I9">
+        <v>170997</v>
+      </c>
+      <c r="J9">
+        <v>62.014450347505701</v>
+      </c>
+      <c r="K9">
+        <v>18.517431598006599</v>
+      </c>
+      <c r="L9">
+        <v>72.471514759938202</v>
+      </c>
+      <c r="M9">
+        <v>13.7769900378057</v>
+      </c>
+      <c r="N9">
+        <v>5.5957671588101201</v>
+      </c>
+      <c r="O9">
+        <v>8.1557280434459898</v>
+      </c>
+      <c r="P9">
+        <v>1.50099212009594</v>
+      </c>
+      <c r="Q9">
+        <v>1.45454545454545E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.68336314847943</v>
+      </c>
+      <c r="S9">
+        <v>0.52264808362369297</v>
+      </c>
+      <c r="U9" s="30">
+        <v>9</v>
+      </c>
+      <c r="V9" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="48">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X9" s="49">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y9" s="49">
+        <f t="shared" si="0"/>
+        <v>572665</v>
+      </c>
+      <c r="Z9" s="50">
+        <f t="shared" si="1"/>
+        <v>0.35240923076923103</v>
+      </c>
+      <c r="AA9" s="49">
+        <f t="shared" si="2"/>
+        <v>923438</v>
+      </c>
+      <c r="AB9" s="49">
+        <f t="shared" si="2"/>
+        <v>572665</v>
+      </c>
+      <c r="AC9" s="49">
+        <f t="shared" si="2"/>
+        <v>170997</v>
+      </c>
+      <c r="AD9" s="51">
+        <f>AA9/$AA$2</f>
+        <v>1.0006490839680595</v>
+      </c>
+      <c r="AE9" s="44">
+        <f t="shared" si="9"/>
+        <v>1.0006490839680595</v>
+      </c>
+      <c r="AF9" s="51">
+        <f t="shared" si="13"/>
+        <v>0.48929820244138333</v>
+      </c>
+      <c r="AG9" s="51">
+        <f t="shared" si="10"/>
+        <v>0.9987791371988175</v>
+      </c>
+      <c r="AH9" s="52">
+        <f t="shared" si="3"/>
+        <v>0.62014450347505701</v>
+      </c>
+      <c r="AI9" s="50">
+        <f t="shared" si="3"/>
+        <v>0.18517431598006598</v>
+      </c>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="52">
+        <f t="shared" si="4"/>
+        <v>0.72471514759938205</v>
+      </c>
+      <c r="AL9" s="52">
+        <f t="shared" si="4"/>
+        <v>0.137769900378057</v>
+      </c>
+      <c r="AM9" s="52">
+        <f t="shared" si="4"/>
+        <v>5.59576715881012E-2</v>
+      </c>
+      <c r="AN9" s="52">
+        <f t="shared" si="4"/>
+        <v>8.1557280434459895E-2</v>
+      </c>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54">
+        <f>SUM(AL9:AN9)</f>
+        <v>0.27528485240061806</v>
+      </c>
+      <c r="AQ9" s="35">
+        <f t="shared" si="12"/>
+        <v>1.071036841939881</v>
+      </c>
+      <c r="AR9" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS9" s="52">
+        <f t="shared" si="5"/>
+        <v>1.006079244686044</v>
+      </c>
+      <c r="AT9" s="52">
+        <f>S24</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="52">
+        <f>R24</f>
+        <v>0.70851581508515693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>1625000</v>
+      </c>
+      <c r="E10">
+        <v>653346</v>
+      </c>
+      <c r="F10">
+        <v>40.205907692307697</v>
+      </c>
+      <c r="G10">
+        <v>858609</v>
+      </c>
+      <c r="H10">
+        <v>696171</v>
+      </c>
+      <c r="I10">
+        <v>162438</v>
+      </c>
+      <c r="J10">
+        <v>81.081260503908098</v>
+      </c>
+      <c r="K10">
+        <v>18.918739496091899</v>
+      </c>
+      <c r="L10">
+        <v>92.327801807924104</v>
+      </c>
+      <c r="M10">
+        <v>2.89892338822002</v>
+      </c>
+      <c r="N10">
+        <v>1.6599167975314799</v>
+      </c>
+      <c r="O10">
+        <v>3.1133580063243702</v>
+      </c>
+      <c r="P10">
+        <v>0.55505960793858999</v>
+      </c>
+      <c r="Q10">
+        <v>5.5944055944055901E-3</v>
+      </c>
+      <c r="R10">
+        <v>1.16788321167883</v>
+      </c>
+      <c r="S10">
+        <v>0.13661202185792401</v>
+      </c>
+      <c r="U10" s="30">
+        <v>10</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="W10" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X10" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y10" s="31">
+        <f t="shared" si="0"/>
+        <v>653346</v>
+      </c>
+      <c r="Z10" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40205907692307696</v>
+      </c>
+      <c r="AA10" s="31">
+        <f t="shared" si="2"/>
+        <v>858609</v>
+      </c>
+      <c r="AB10" s="31">
+        <f t="shared" si="2"/>
+        <v>696171</v>
+      </c>
+      <c r="AC10" s="31">
+        <f t="shared" si="2"/>
+        <v>162438</v>
+      </c>
+      <c r="AD10" s="44">
+        <f t="shared" si="8"/>
+        <v>0.93039956048671546</v>
+      </c>
+      <c r="AE10" s="44">
+        <f t="shared" si="9"/>
+        <v>0.93039956048671546</v>
+      </c>
+      <c r="AF10" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46480711011405712</v>
+      </c>
+      <c r="AG10" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2141846816600246</v>
+      </c>
+      <c r="AH10" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81081260503908092</v>
+      </c>
+      <c r="AI10" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18918739496091899</v>
+      </c>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="33">
+        <f t="shared" si="4"/>
+        <v>0.92327801807924104</v>
+      </c>
+      <c r="AL10" s="33">
+        <f t="shared" si="4"/>
+        <v>2.8989233882200201E-2</v>
+      </c>
+      <c r="AM10" s="33">
+        <f t="shared" si="4"/>
+        <v>1.6599167975314799E-2</v>
+      </c>
+      <c r="AN10" s="33">
+        <f t="shared" si="4"/>
+        <v>3.1133580063243703E-2</v>
+      </c>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35">
+        <f t="shared" si="11"/>
+        <v>7.6721981920758714E-2</v>
+      </c>
+      <c r="AQ10" s="35">
+        <f t="shared" si="12"/>
+        <v>0.29849833184498736</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS10" s="33">
+        <f>P26</f>
+        <v>0.37204322636610143</v>
+      </c>
+      <c r="AT10" s="33">
+        <f t="shared" ref="AT10:AT15" si="14">S26</f>
+        <v>0.26092896174863472</v>
+      </c>
+      <c r="AU10" s="33">
+        <f>R26</f>
+        <v>0.43600973236009627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>1625000</v>
+      </c>
+      <c r="E11">
+        <v>653464</v>
+      </c>
+      <c r="F11">
+        <v>40.213169230769203</v>
+      </c>
+      <c r="G11">
+        <v>857847</v>
+      </c>
+      <c r="H11">
+        <v>696039</v>
+      </c>
+      <c r="I11">
+        <v>161808</v>
+      </c>
+      <c r="J11">
+        <v>81.137895219077507</v>
+      </c>
+      <c r="K11">
+        <v>18.8621047809225</v>
+      </c>
+      <c r="L11">
+        <v>71.086241935286395</v>
+      </c>
+      <c r="M11">
+        <v>13.9360393227477</v>
+      </c>
+      <c r="N11">
+        <v>6.0747034266616096</v>
+      </c>
+      <c r="O11">
+        <v>8.9030153153042892</v>
+      </c>
+      <c r="P11">
+        <v>1.5407881778087</v>
+      </c>
+      <c r="Q11">
+        <v>1.50273224043716E-2</v>
+      </c>
+      <c r="R11">
+        <v>2.6610644257703102</v>
+      </c>
+      <c r="S11">
+        <v>0.59790732436472305</v>
+      </c>
+      <c r="U11" s="30">
+        <v>11</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="W11" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X11" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y11" s="31">
+        <f t="shared" si="0"/>
+        <v>653464</v>
+      </c>
+      <c r="Z11" s="32">
+        <f t="shared" si="1"/>
+        <v>0.40213169230769202</v>
+      </c>
+      <c r="AA11" s="31">
+        <f t="shared" si="2"/>
+        <v>857847</v>
+      </c>
+      <c r="AB11" s="31">
+        <f t="shared" si="2"/>
+        <v>696039</v>
+      </c>
+      <c r="AC11" s="31">
+        <f t="shared" si="2"/>
+        <v>161808</v>
+      </c>
+      <c r="AD11" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92957384765923412</v>
+      </c>
+      <c r="AE11" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92957384765923412</v>
+      </c>
+      <c r="AF11" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46300440089963774</v>
+      </c>
+      <c r="AG11" s="44">
+        <f t="shared" si="10"/>
+        <v>1.213954461817516</v>
+      </c>
+      <c r="AH11" s="33">
+        <f t="shared" si="3"/>
+        <v>0.81137895219077505</v>
+      </c>
+      <c r="AI11" s="32">
+        <f t="shared" si="3"/>
+        <v>0.18862104780922501</v>
+      </c>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="33">
+        <f t="shared" si="4"/>
+        <v>0.71086241935286398</v>
+      </c>
+      <c r="AL11" s="33">
+        <f t="shared" si="4"/>
+        <v>0.13936039322747701</v>
+      </c>
+      <c r="AM11" s="33">
+        <f t="shared" si="4"/>
+        <v>6.0747034266616096E-2</v>
+      </c>
+      <c r="AN11" s="33">
+        <f t="shared" si="4"/>
+        <v>8.9030153153042899E-2</v>
+      </c>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="35">
+        <f t="shared" si="11"/>
+        <v>0.28913758064713602</v>
+      </c>
+      <c r="AQ11" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1249329505852279</v>
+      </c>
+      <c r="AR11" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS11" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0327535937043297</v>
+      </c>
+      <c r="AT11" s="33">
+        <f t="shared" si="14"/>
+        <v>1.1420029895366206</v>
+      </c>
+      <c r="AU11" s="33">
+        <f>R27</f>
+        <v>0.99346405228758194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>1625000</v>
+      </c>
+      <c r="E12">
+        <v>652036</v>
+      </c>
+      <c r="F12">
+        <v>40.125292307692298</v>
+      </c>
+      <c r="G12">
+        <v>857306</v>
+      </c>
+      <c r="H12">
+        <v>694998</v>
+      </c>
+      <c r="I12">
+        <v>162308</v>
+      </c>
+      <c r="J12">
+        <v>81.067670120120496</v>
+      </c>
+      <c r="K12">
+        <v>18.9323298798795</v>
+      </c>
+      <c r="L12">
+        <v>72.325454422761894</v>
+      </c>
+      <c r="M12">
+        <v>13.851535804771499</v>
+      </c>
+      <c r="N12">
+        <v>5.73971375813605</v>
+      </c>
+      <c r="O12">
+        <v>8.0832960143305002</v>
+      </c>
+      <c r="P12">
+        <v>1.39619097723482</v>
+      </c>
+      <c r="Q12">
+        <v>1.3568521031207601E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.4637681159420302</v>
+      </c>
+      <c r="S12">
+        <v>0.55788005578800604</v>
+      </c>
+      <c r="U12" s="30">
+        <v>12</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X12" s="39">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y12" s="39">
+        <f t="shared" si="0"/>
+        <v>652036</v>
+      </c>
+      <c r="Z12" s="40">
+        <f t="shared" si="1"/>
+        <v>0.40125292307692301</v>
+      </c>
+      <c r="AA12" s="39">
+        <f t="shared" si="2"/>
+        <v>857306</v>
+      </c>
+      <c r="AB12" s="39">
+        <f t="shared" si="2"/>
+        <v>694998</v>
+      </c>
+      <c r="AC12" s="39">
+        <f t="shared" si="2"/>
+        <v>162308</v>
+      </c>
+      <c r="AD12" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92898761322397516</v>
+      </c>
+      <c r="AE12" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92898761322397516</v>
+      </c>
+      <c r="AF12" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46443512249838326</v>
+      </c>
+      <c r="AG12" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2121388644231859</v>
+      </c>
+      <c r="AH12" s="41">
+        <f t="shared" si="3"/>
+        <v>0.81067670120120494</v>
+      </c>
+      <c r="AI12" s="40">
+        <f t="shared" si="3"/>
+        <v>0.189323298798795</v>
+      </c>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="41">
+        <f t="shared" si="4"/>
+        <v>0.72325454422761892</v>
+      </c>
+      <c r="AL12" s="41">
+        <f t="shared" si="4"/>
+        <v>0.138515358047715</v>
+      </c>
+      <c r="AM12" s="41">
+        <f t="shared" si="4"/>
+        <v>5.7397137581360502E-2</v>
+      </c>
+      <c r="AN12" s="41">
+        <f t="shared" si="4"/>
+        <v>8.0832960143305002E-2</v>
+      </c>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="43">
+        <f>SUM(AL12:AN12)</f>
+        <v>0.27674545577238052</v>
+      </c>
+      <c r="AQ12" s="35">
+        <f t="shared" si="12"/>
+        <v>1.0767195375512713</v>
+      </c>
+      <c r="AR12" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS12" s="41">
+        <f t="shared" si="5"/>
+        <v>0.93583353637065958</v>
+      </c>
+      <c r="AT12" s="41">
+        <f t="shared" si="14"/>
+        <v>1.065550906555091</v>
+      </c>
+      <c r="AU12" s="41">
+        <f>R28</f>
+        <v>0.91980676328502409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>1625000</v>
+      </c>
+      <c r="E13">
+        <v>654288</v>
+      </c>
+      <c r="F13">
+        <v>40.2638769230769</v>
+      </c>
+      <c r="G13">
+        <v>857931</v>
+      </c>
+      <c r="H13">
+        <v>696893</v>
+      </c>
+      <c r="I13">
+        <v>161038</v>
+      </c>
+      <c r="J13">
+        <v>81.229492814690204</v>
+      </c>
+      <c r="K13">
+        <v>18.7705071853098</v>
+      </c>
+      <c r="L13">
+        <v>78.045906389846706</v>
+      </c>
+      <c r="M13">
+        <v>13.79163304233</v>
+      </c>
+      <c r="N13">
+        <v>4.2517973736336296</v>
+      </c>
+      <c r="O13">
+        <v>3.9106631941897101</v>
+      </c>
+      <c r="P13">
+        <v>0.65046080124799499</v>
+      </c>
+      <c r="Q13">
+        <v>5.8910162002945498E-3</v>
+      </c>
+      <c r="R13">
+        <v>1.40449438202247</v>
+      </c>
+      <c r="S13">
+        <v>0.13869625520111001</v>
+      </c>
+      <c r="U13" s="30">
+        <v>13</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="W13" s="38">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X13" s="39">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y13" s="39">
+        <f t="shared" si="0"/>
+        <v>654288</v>
+      </c>
+      <c r="Z13" s="40">
+        <f t="shared" si="1"/>
+        <v>0.40263876923076902</v>
+      </c>
+      <c r="AA13" s="39">
+        <f t="shared" si="2"/>
+        <v>857931</v>
+      </c>
+      <c r="AB13" s="39">
+        <f t="shared" si="2"/>
+        <v>696893</v>
+      </c>
+      <c r="AC13" s="39">
+        <f t="shared" si="2"/>
+        <v>161038</v>
+      </c>
+      <c r="AD13" s="44">
+        <f t="shared" si="8"/>
+        <v>0.92966487112053131</v>
+      </c>
+      <c r="AE13" s="44">
+        <f t="shared" si="9"/>
+        <v>0.92966487112053131</v>
+      </c>
+      <c r="AF13" s="44">
+        <f t="shared" si="13"/>
+        <v>0.46080108963756961</v>
+      </c>
+      <c r="AG13" s="44">
+        <f t="shared" si="10"/>
+        <v>1.2154439144349585</v>
+      </c>
+      <c r="AH13" s="41">
+        <f t="shared" si="3"/>
+        <v>0.81229492814690207</v>
+      </c>
+      <c r="AI13" s="40">
+        <f t="shared" si="3"/>
+        <v>0.18770507185309801</v>
+      </c>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="41">
+        <f t="shared" si="4"/>
+        <v>0.78045906389846709</v>
+      </c>
+      <c r="AL13" s="41">
+        <f t="shared" si="4"/>
+        <v>0.13791633042330001</v>
+      </c>
+      <c r="AM13" s="41">
+        <f t="shared" si="4"/>
+        <v>4.2517973736336298E-2</v>
+      </c>
+      <c r="AN13" s="41">
+        <f t="shared" si="4"/>
+        <v>3.9106631941897098E-2</v>
+      </c>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="43">
+        <f t="shared" si="11"/>
+        <v>0.21954093610153338</v>
+      </c>
+      <c r="AQ13" s="35">
+        <f t="shared" si="12"/>
+        <v>0.85415680822321782</v>
+      </c>
+      <c r="AR13" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS13" s="41">
+        <f t="shared" si="5"/>
+        <v>0.43598837252765393</v>
+      </c>
+      <c r="AT13" s="41">
+        <f t="shared" si="14"/>
+        <v>0.26490984743411999</v>
+      </c>
+      <c r="AU13" s="41">
+        <f>R29</f>
+        <v>0.52434456928838846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>1625000</v>
+      </c>
+      <c r="E14">
+        <v>649467</v>
+      </c>
+      <c r="F14">
+        <v>39.967199999999998</v>
+      </c>
+      <c r="G14">
+        <v>859163</v>
+      </c>
+      <c r="H14">
+        <v>690914</v>
+      </c>
+      <c r="I14">
+        <v>168249</v>
+      </c>
+      <c r="J14">
+        <v>80.417103622944694</v>
+      </c>
+      <c r="K14">
+        <v>19.582896377055299</v>
+      </c>
+      <c r="L14">
+        <v>71.483539579378203</v>
+      </c>
+      <c r="M14">
+        <v>13.979463159791001</v>
+      </c>
+      <c r="N14">
+        <v>5.9471843835021598</v>
+      </c>
+      <c r="O14">
+        <v>8.5898128773286402</v>
+      </c>
+      <c r="P14">
+        <v>1.4870716654145</v>
+      </c>
+      <c r="Q14">
+        <v>1.4513788098693799E-2</v>
+      </c>
+      <c r="R14">
+        <v>2.5956727698530901</v>
+      </c>
+      <c r="S14">
+        <v>0.57720057720057705</v>
+      </c>
+      <c r="U14" s="30">
+        <v>14</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X14" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y14" s="31">
+        <f t="shared" si="0"/>
+        <v>649467</v>
+      </c>
+      <c r="Z14" s="32">
+        <f>F30</f>
+        <v>0.39967199999999997</v>
+      </c>
+      <c r="AA14" s="31">
+        <f t="shared" si="2"/>
+        <v>859163</v>
+      </c>
+      <c r="AB14" s="31">
+        <f t="shared" si="2"/>
+        <v>690914</v>
+      </c>
+      <c r="AC14" s="31">
+        <f t="shared" si="2"/>
+        <v>168249</v>
+      </c>
+      <c r="AD14" s="44">
+        <f t="shared" si="8"/>
+        <v>0.93099988188622285</v>
+      </c>
+      <c r="AE14" s="44">
+        <f t="shared" si="9"/>
+        <v>0.93099988188622285</v>
+      </c>
+      <c r="AF14" s="44">
+        <f t="shared" si="13"/>
+        <v>0.48143495653467783</v>
+      </c>
+      <c r="AG14" s="44">
+        <f t="shared" si="10"/>
+        <v>1.205016002023144</v>
+      </c>
+      <c r="AH14" s="33">
+        <f t="shared" si="3"/>
+        <v>0.80417103622944697</v>
+      </c>
+      <c r="AI14" s="32">
+        <f t="shared" si="3"/>
+        <v>0.19582896377055298</v>
+      </c>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="33">
+        <f t="shared" si="4"/>
+        <v>0.71483539579378208</v>
+      </c>
+      <c r="AL14" s="33">
+        <f t="shared" si="4"/>
+        <v>0.13979463159791</v>
+      </c>
+      <c r="AM14" s="33">
+        <f t="shared" si="4"/>
+        <v>5.9471843835021597E-2</v>
+      </c>
+      <c r="AN14" s="33">
+        <f t="shared" si="4"/>
+        <v>8.5898128773286397E-2</v>
+      </c>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35">
+        <f t="shared" si="11"/>
+        <v>0.28516460420621803</v>
+      </c>
+      <c r="AQ14" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1094754922351775</v>
+      </c>
+      <c r="AR14" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS14" s="33">
+        <f t="shared" si="5"/>
+        <v>0.99674869568176649</v>
+      </c>
+      <c r="AT14" s="33">
+        <f t="shared" si="14"/>
+        <v>1.1024531024531017</v>
+      </c>
+      <c r="AU14" s="33">
+        <f>R30</f>
+        <v>0.96905116741181974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1625000</v>
+      </c>
+      <c r="E15">
+        <v>655169</v>
+      </c>
+      <c r="F15">
+        <v>40.318092307692297</v>
+      </c>
+      <c r="G15">
+        <v>923438</v>
+      </c>
+      <c r="H15">
+        <v>699872</v>
+      </c>
+      <c r="I15">
+        <v>223566</v>
+      </c>
+      <c r="J15">
+        <v>75.789820215325804</v>
+      </c>
+      <c r="K15">
+        <v>24.2101797846742</v>
+      </c>
+      <c r="L15">
+        <v>71.542456984381104</v>
+      </c>
+      <c r="M15">
+        <v>13.6543395673483</v>
+      </c>
+      <c r="N15">
+        <v>5.9534257573236804</v>
+      </c>
+      <c r="O15">
+        <v>8.8497776909469206</v>
+      </c>
+      <c r="P15">
+        <v>1.52825624141421</v>
+      </c>
+      <c r="Q15">
+        <v>1.49253731343284E-2</v>
+      </c>
+      <c r="R15">
+        <v>2.6462395543175501</v>
+      </c>
+      <c r="S15">
+        <v>0.58224163027656495</v>
+      </c>
+      <c r="U15" s="30">
+        <v>15</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="30">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X15" s="31">
+        <f t="shared" si="0"/>
+        <v>1625000</v>
+      </c>
+      <c r="Y15" s="31">
+        <f t="shared" si="0"/>
+        <v>655169</v>
+      </c>
+      <c r="Z15" s="32">
+        <f t="shared" ref="Z15" si="15">F31</f>
+        <v>0.40318092307692299</v>
+      </c>
+      <c r="AA15" s="31">
+        <f t="shared" si="2"/>
+        <v>923438</v>
+      </c>
+      <c r="AB15" s="31">
+        <f t="shared" si="2"/>
+        <v>699872</v>
+      </c>
+      <c r="AC15" s="31">
+        <f t="shared" si="2"/>
+        <v>223566</v>
+      </c>
+      <c r="AD15" s="44">
+        <f t="shared" si="8"/>
+        <v>1.0006490839680595</v>
+      </c>
+      <c r="AE15" s="44">
+        <f>AA15/$AA$2</f>
+        <v>1.0006490839680595</v>
+      </c>
+      <c r="AF15" s="44">
+        <f t="shared" si="13"/>
+        <v>0.63972140989029225</v>
+      </c>
+      <c r="AG15" s="44">
+        <f t="shared" si="10"/>
+        <v>1.220639557698848</v>
+      </c>
+      <c r="AH15" s="33">
+        <f t="shared" si="3"/>
+        <v>0.75789820215325809</v>
+      </c>
+      <c r="AI15" s="32">
+        <f t="shared" si="3"/>
+        <v>0.24210179784674199</v>
+      </c>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="33">
+        <f t="shared" si="4"/>
+        <v>0.71542456984381109</v>
+      </c>
+      <c r="AL15" s="33">
+        <f t="shared" si="4"/>
+        <v>0.136543395673483</v>
+      </c>
+      <c r="AM15" s="33">
+        <f t="shared" si="4"/>
+        <v>5.9534257573236805E-2</v>
+      </c>
+      <c r="AN15" s="33">
+        <f t="shared" si="4"/>
+        <v>8.8497776909469208E-2</v>
+      </c>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35">
+        <f t="shared" si="11"/>
+        <v>0.28457543015618902</v>
+      </c>
+      <c r="AQ15" s="35">
+        <f t="shared" si="12"/>
+        <v>1.1071832225792442</v>
+      </c>
+      <c r="AR15" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS15" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0243537354149896</v>
+      </c>
+      <c r="AT15" s="33">
+        <f t="shared" si="14"/>
+        <v>1.1120815138282385</v>
+      </c>
+      <c r="AU15" s="33">
+        <f t="shared" ref="AU15" si="16">R31</f>
+        <v>0.98792943361188479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="5"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F31" si="17">F2/$A$18</f>
+        <v>0.35283999999999999</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:O31" si="18">J2/$A$18</f>
+        <v>0.62130555817428601</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="18"/>
+        <v>0.37869444182571399</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="18"/>
+        <v>0.74297349855676598</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="18"/>
+        <v>0.12211767373313701</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="18"/>
+        <v>5.4037131670053098E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="18"/>
+        <v>8.0871696040044294E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P31" si="19">P2/$P$2</f>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:R31" si="20">R2/$R$2</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S25" si="21">S2/$S$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="17"/>
+        <v>0.35284246153846199</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="18"/>
+        <v>0.62008496077485598</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="18"/>
+        <v>0.37991503922514397</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="18"/>
+        <v>0.74836100312364295</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="18"/>
+        <v>0.12033960678027601</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="18"/>
+        <v>5.2798459630709005E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="18"/>
+        <v>7.8500930465372196E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="19"/>
+        <v>0.96923678299755489</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="20"/>
+        <v>0.98591549295774761</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="21"/>
+        <v>0.97948717948717945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="17"/>
+        <v>0.35220799999999997</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="18"/>
+        <v>0.61933164668734197</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="18"/>
+        <v>0.38066835331265803</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="18"/>
+        <v>0.80108781873648094</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="18"/>
+        <v>0.112353189898277</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="18"/>
+        <v>3.8847673926945298E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="18"/>
+        <v>4.7711317438296999E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="19"/>
+        <v>0.58913806323745987</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="20"/>
+        <v>0.6619385342789591</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="21"/>
+        <v>0.33275261324041711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="17"/>
+        <v>0.40112246153846198</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="18"/>
+        <v>0.81155068797750307</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="18"/>
+        <v>0.18844931202249701</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="18"/>
+        <v>0.70093307395861504</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="18"/>
+        <v>0.14454055082353501</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="18"/>
+        <v>6.2395677360760002E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="18"/>
+        <v>9.2130697857090299E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="19"/>
+        <v>1.0675037332847472</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="20"/>
+        <v>1.0265315967197306</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="21"/>
+        <v>1.2818791946308712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="17"/>
+        <v>0.40185969230769203</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="18"/>
+        <v>0.81087173677137203</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="18"/>
+        <v>0.189128263228628</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="18"/>
+        <v>0.71098982882659401</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="18"/>
+        <v>0.14071042016961099</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="18"/>
+        <v>6.02353366349066E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="18"/>
+        <v>8.8064414368887997E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="19"/>
+        <v>1.0241388723919702</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="20"/>
+        <v>0.98679053537131889</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="21"/>
+        <v>1.1104651162790686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="17"/>
+        <v>0.402141538461538</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="18"/>
+        <v>0.81130118870347201</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="18"/>
+        <v>0.18869881129652799</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="18"/>
+        <v>0.77744842994429808</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="18"/>
+        <v>0.128542572075656</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="18"/>
+        <v>4.2792434351472099E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="18"/>
+        <v>5.12165636285732E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>0.59379231036602276</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="20"/>
+        <v>0.64275466284074423</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="21"/>
+        <v>0.52835408022129982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="17"/>
+        <v>0.40114461538461499</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="18"/>
+        <v>0.810576455199019</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="18"/>
+        <v>0.189423544800981</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="18"/>
+        <v>0.7906084128493851</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="18"/>
+        <v>0.13352560365722702</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="18"/>
+        <v>3.8614119596232302E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="18"/>
+        <v>3.7251863897155804E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>0.41904906998522468</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="20"/>
+        <v>0.70851581508515693</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="17"/>
+        <v>0.35240923076923103</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="18"/>
+        <v>0.62014450347505701</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="18"/>
+        <v>0.18517431598006598</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="18"/>
+        <v>0.72471514759938205</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="18"/>
+        <v>0.137769900378057</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="18"/>
+        <v>5.59576715881012E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="18"/>
+        <v>8.1557280434459895E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>1.006079244686044</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="20"/>
+        <v>1.0017889087656533</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="21"/>
+        <v>0.99825783972125315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="17"/>
+        <v>0.40205907692307696</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="18"/>
+        <v>0.81081260503908092</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="18"/>
+        <v>0.18918739496091899</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="18"/>
+        <v>0.92327801807924104</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="18"/>
+        <v>2.8989233882200201E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="18"/>
+        <v>1.6599167975314799E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="18"/>
+        <v>3.1133580063243703E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="19"/>
+        <v>0.37204322636610143</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="20"/>
+        <v>0.43600973236009627</v>
+      </c>
+      <c r="S26">
+        <f>S10/$S$2</f>
+        <v>0.26092896174863472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="17"/>
+        <v>0.40213169230769202</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="18"/>
+        <v>0.81137895219077505</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="18"/>
+        <v>0.18862104780922501</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="18"/>
+        <v>0.71086241935286398</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="18"/>
+        <v>0.13936039322747701</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="18"/>
+        <v>6.0747034266616096E-2</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="18"/>
+        <v>8.9030153153042899E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="19"/>
+        <v>1.0327535937043297</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="20"/>
+        <v>0.99346405228758194</v>
+      </c>
+      <c r="S27">
+        <f>S11/$S$2</f>
+        <v>1.1420029895366206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="17"/>
+        <v>0.40125292307692301</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="18"/>
+        <v>0.81067670120120494</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="18"/>
+        <v>0.189323298798795</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="18"/>
+        <v>0.72325454422761892</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="18"/>
+        <v>0.138515358047715</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="18"/>
+        <v>5.7397137581360502E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="18"/>
+        <v>8.0832960143305002E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="19"/>
+        <v>0.93583353637065958</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="20"/>
+        <v>0.91980676328502409</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S29" si="22">S12/$S$2</f>
+        <v>1.065550906555091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="17"/>
+        <v>0.40263876923076902</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="18"/>
+        <v>0.81229492814690207</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="18"/>
+        <v>0.18770507185309801</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="18"/>
+        <v>0.78045906389846709</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="18"/>
+        <v>0.13791633042330001</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="18"/>
+        <v>4.2517973736336298E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="18"/>
+        <v>3.9106631941897098E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="19"/>
+        <v>0.43598837252765393</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="20"/>
+        <v>0.52434456928838846</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="22"/>
+        <v>0.26490984743411999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="17"/>
+        <v>0.39967199999999997</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="18"/>
+        <v>0.80417103622944697</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="18"/>
+        <v>0.19582896377055298</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="18"/>
+        <v>0.71483539579378208</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="18"/>
+        <v>0.13979463159791</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="18"/>
+        <v>5.9471843835021597E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="18"/>
+        <v>8.5898128773286397E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="19"/>
+        <v>0.99674869568176649</v>
+      </c>
+      <c r="R30">
+        <f>R14/$R$2</f>
+        <v>0.96905116741181974</v>
+      </c>
+      <c r="S30">
+        <f>S14/$S$2</f>
+        <v>1.1024531024531017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="17"/>
+        <v>0.40318092307692299</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="18"/>
+        <v>0.75789820215325809</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="18"/>
+        <v>0.24210179784674199</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="18"/>
+        <v>0.71542456984381109</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="18"/>
+        <v>0.136543395673483</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="18"/>
+        <v>5.9534257573236805E-2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="18"/>
+        <v>8.8497776909469208E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="19"/>
+        <v>1.0243537354149896</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="20"/>
+        <v>0.98792943361188479</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31" si="23">S15/$S$2</f>
+        <v>1.1120815138282385</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S15">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AA15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15756,7 +18842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16219,7 +19305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17593,8 +20679,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R8">
+  <autoFilter ref="A1:R1">
+    <sortState ref="A2:R8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -17603,7 +20689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -19177,8 +22263,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S8">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -19187,7 +22273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E59D66E-4170-48F4-8D24-FEDA7A722D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20761,8 +23847,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S8">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S8">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -20774,7 +23860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AEF58A-6676-4911-9A0F-F93CCACAFA8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -22532,8 +25618,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S10">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -22545,7 +25631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815D215-4C00-4D69-A4B6-A85223BC21D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -24303,8 +27389,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S10">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -24313,7 +27399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0070892F-2534-4A57-B23B-26AC79CAE576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -26093,8 +29179,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S10">
+  <autoFilter ref="A1:S1">
+    <sortState ref="A2:S10">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
